--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34F938B-4B3C-094C-ACE1-D11831C587C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5722637-8F3E-DE40-BF65-9CF71519CE66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldatanormalised" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="5" r:id="rId9"/>
-    <pivotCache cacheId="13" r:id="rId10"/>
+    <pivotCache cacheId="25" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1415" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="58">
   <si>
     <t>data</t>
   </si>
@@ -209,6 +209,9 @@
   </si>
   <si>
     <t>2020-03-25T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-03-26T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -1002,9 +1005,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$35</c:f>
+              <c:f>All!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1098,15 +1101,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$35</c:f>
+              <c:f>All!$B$4:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1200,6 +1206,9 @@
                 <c:pt idx="30">
                   <c:v>683</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>662</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1250,9 +1259,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$35</c:f>
+              <c:f>All!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1346,15 +1355,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$35</c:f>
+              <c:f>All!$C$4:$C$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1448,6 +1460,9 @@
                 <c:pt idx="30">
                   <c:v>1036</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>999</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1498,9 +1513,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$35</c:f>
+              <c:f>All!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1594,15 +1609,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$35</c:f>
+              <c:f>All!$D$4:$D$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -1696,6 +1714,9 @@
                 <c:pt idx="30">
                   <c:v>2223</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2728</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1746,9 +1767,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$35</c:f>
+              <c:f>All!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1842,15 +1863,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$35</c:f>
+              <c:f>All!$E$4:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1944,6 +1968,9 @@
                 <c:pt idx="30">
                   <c:v>93</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>123</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1994,9 +2021,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$35</c:f>
+              <c:f>All!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -2090,15 +2117,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$35</c:f>
+              <c:f>All!$F$4:$F$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -2191,6 +2221,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2547,9 +2580,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$33</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2643,15 +2676,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$33</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2744,6 +2780,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>5210</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3135,9 +3174,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$35</c:f>
+              <c:f>Ricoverati!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3231,15 +3270,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$35</c:f>
+              <c:f>Ricoverati!$B$4:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -3332,6 +3374,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1175</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1641</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3722,9 +3767,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$38</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3818,15 +3863,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$38</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3919,6 +3967,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>1036</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4308,9 +4359,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$36</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -4404,15 +4455,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$36</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4505,6 +4559,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4894,9 +4951,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$36</c:f>
+              <c:f>Isolamento!$A$5:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -4990,15 +5047,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$36</c:f>
+              <c:f>Isolamento!$B$5:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5091,6 +5151,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>2223</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5480,9 +5543,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$35</c:f>
+              <c:f>Deceduti!$A$4:$A$36</c:f>
               <c:strCache>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5576,15 +5639,18 @@
                 <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="31">
+                  <c:v>2020-03-26T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$35</c:f>
+              <c:f>Deceduti!$B$4:$B$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="31"/>
+                <c:ptCount val="32"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5677,6 +5743,9 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>683</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9770,15 +9839,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10063,13 +10132,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43915.76045613426" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="652" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43916.769942013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="673" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="32">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="33">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10101,6 +10170,7 @@
         <d v="2020-03-23T17:00:00"/>
         <d v="2020-03-24T17:00:00"/>
         <s v="2020-03-25T17:00:00"/>
+        <s v="2020-03-26T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10182,13 +10252,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43915.762206134263" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="652" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43916.772820601851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="673" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P5470" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="32">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="33">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10220,6 +10290,7 @@
         <d v="2020-03-23T17:00:00"/>
         <d v="2020-03-24T17:00:00"/>
         <s v="2020-03-25T17:00:00"/>
+        <s v="2020-03-26T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10301,7 +10372,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="652">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="673">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -22022,6 +22093,384 @@
   </r>
   <r>
     <x v="31"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="32"/>
+    <n v="5"/>
+    <n v="37"/>
+    <n v="85"/>
+    <n v="122"/>
+    <n v="122"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="133"/>
+    <n v="506"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="21"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="189"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="31"/>
+    <n v="39"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="42"/>
+    <n v="875"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="130"/>
+    <n v="-9"/>
+    <n v="121"/>
+    <n v="-24"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="111"/>
+    <n v="1374"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="174"/>
+    <n v="7"/>
+    <n v="181"/>
+    <n v="413"/>
+    <n v="594"/>
+    <n v="594"/>
+    <n v="71"/>
+    <n v="97"/>
+    <n v="762"/>
+    <n v="4350"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="29"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="39"/>
+    <n v="2"/>
+    <n v="84"/>
+    <n v="1227"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="73"/>
+    <n v="12"/>
+    <n v="85"/>
+    <n v="75"/>
+    <n v="160"/>
+    <n v="160"/>
+    <n v="24"/>
+    <n v="11"/>
+    <n v="195"/>
+    <n v="2102"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="71"/>
+    <n v="7"/>
+    <n v="78"/>
+    <n v="123"/>
+    <n v="201"/>
+    <n v="201"/>
+    <n v="35"/>
+    <n v="26"/>
+    <n v="262"/>
+    <n v="702"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="655"/>
+    <n v="27"/>
+    <n v="682"/>
+    <n v="916"/>
+    <n v="1598"/>
+    <n v="1598"/>
+    <n v="558"/>
+    <n v="387"/>
+    <n v="2543"/>
+    <n v="6047"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="39"/>
+    <n v="18"/>
+    <n v="57"/>
+    <n v="99"/>
+    <n v="156"/>
+    <n v="156"/>
+    <n v="1"/>
+    <n v="23"/>
+    <n v="180"/>
+    <n v="727"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="26"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="33"/>
+    <n v="3"/>
+    <n v="36"/>
+    <n v="7"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="48"/>
+    <n v="1095"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-8"/>
+    <n v="1"/>
+    <n v="-7"/>
+    <n v="43"/>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="27"/>
+    <n v="12"/>
+    <n v="75"/>
+    <n v="486"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="89"/>
+    <n v="27"/>
+    <n v="116"/>
+    <n v="278"/>
+    <n v="394"/>
+    <n v="394"/>
+    <n v="116"/>
+    <n v="0"/>
+    <n v="510"/>
+    <n v="1399"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="131"/>
+    <n v="12"/>
+    <n v="143"/>
+    <n v="-71"/>
+    <n v="72"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="89"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="39"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="52"/>
+    <n v="442"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="87"/>
+    <n v="-12"/>
+    <n v="75"/>
+    <n v="84"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="170"/>
+    <n v="1346"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="38"/>
+    <n v="8"/>
+    <n v="46"/>
+    <n v="151"/>
+    <n v="197"/>
+    <n v="197"/>
+    <n v="41"/>
+    <n v="16"/>
+    <n v="254"/>
+    <n v="3084"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="21"/>
+    <n v="2"/>
+    <n v="23"/>
+    <n v="61"/>
+    <n v="84"/>
+    <n v="84"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="92"/>
+    <n v="721"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="3"/>
+    <n v="-1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="345"/>
+    <n v="395"/>
+    <n v="395"/>
+    <n v="69"/>
+    <n v="29"/>
+    <n v="493"/>
+    <n v="8882"/>
+  </r>
+  <r>
+    <x v="32"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -22042,7 +22491,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="652">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="673">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -33763,6 +34212,384 @@
   </r>
   <r>
     <x v="31"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="32"/>
+    <n v="5"/>
+    <n v="37"/>
+    <n v="85"/>
+    <n v="122"/>
+    <n v="122"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="133"/>
+    <n v="506"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="4"/>
+    <n v="17"/>
+    <n v="21"/>
+    <n v="21"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="21"/>
+    <n v="189"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="8"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="31"/>
+    <n v="39"/>
+    <n v="39"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="42"/>
+    <n v="875"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="130"/>
+    <n v="-9"/>
+    <n v="121"/>
+    <n v="-24"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="5"/>
+    <n v="9"/>
+    <n v="111"/>
+    <n v="1374"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="174"/>
+    <n v="7"/>
+    <n v="181"/>
+    <n v="413"/>
+    <n v="594"/>
+    <n v="594"/>
+    <n v="71"/>
+    <n v="97"/>
+    <n v="762"/>
+    <n v="4350"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="12"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="29"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="39"/>
+    <n v="2"/>
+    <n v="84"/>
+    <n v="1227"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="73"/>
+    <n v="12"/>
+    <n v="85"/>
+    <n v="75"/>
+    <n v="160"/>
+    <n v="160"/>
+    <n v="24"/>
+    <n v="11"/>
+    <n v="195"/>
+    <n v="2102"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="71"/>
+    <n v="7"/>
+    <n v="78"/>
+    <n v="123"/>
+    <n v="201"/>
+    <n v="201"/>
+    <n v="35"/>
+    <n v="26"/>
+    <n v="262"/>
+    <n v="702"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="655"/>
+    <n v="27"/>
+    <n v="682"/>
+    <n v="916"/>
+    <n v="1598"/>
+    <n v="1598"/>
+    <n v="558"/>
+    <n v="387"/>
+    <n v="2543"/>
+    <n v="6047"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="39"/>
+    <n v="18"/>
+    <n v="57"/>
+    <n v="99"/>
+    <n v="156"/>
+    <n v="156"/>
+    <n v="1"/>
+    <n v="23"/>
+    <n v="180"/>
+    <n v="727"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="26"/>
+    <n v="28"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="33"/>
+    <n v="3"/>
+    <n v="36"/>
+    <n v="7"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="48"/>
+    <n v="1095"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-8"/>
+    <n v="1"/>
+    <n v="-7"/>
+    <n v="43"/>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="27"/>
+    <n v="12"/>
+    <n v="75"/>
+    <n v="486"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="89"/>
+    <n v="27"/>
+    <n v="116"/>
+    <n v="278"/>
+    <n v="394"/>
+    <n v="394"/>
+    <n v="116"/>
+    <n v="0"/>
+    <n v="510"/>
+    <n v="1399"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="131"/>
+    <n v="12"/>
+    <n v="143"/>
+    <n v="-71"/>
+    <n v="72"/>
+    <n v="72"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="89"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="39"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="52"/>
+    <n v="442"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="87"/>
+    <n v="-12"/>
+    <n v="75"/>
+    <n v="84"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="170"/>
+    <n v="1346"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="38"/>
+    <n v="8"/>
+    <n v="46"/>
+    <n v="151"/>
+    <n v="197"/>
+    <n v="197"/>
+    <n v="41"/>
+    <n v="16"/>
+    <n v="254"/>
+    <n v="3084"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="21"/>
+    <n v="2"/>
+    <n v="23"/>
+    <n v="61"/>
+    <n v="84"/>
+    <n v="84"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="92"/>
+    <n v="721"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="3"/>
+    <n v="-1"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="40"/>
+    <n v="10"/>
+    <n v="50"/>
+    <n v="345"/>
+    <n v="395"/>
+    <n v="395"/>
+    <n v="69"/>
+    <n v="29"/>
+    <n v="493"/>
+    <n v="8882"/>
+  </r>
+  <r>
+    <x v="32"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -33783,11 +34610,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A78:W111" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -33819,13 +34646,14 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item h="1" x="32"/>
         <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisPage" showAll="0">
       <items count="23">
         <item x="0"/>
         <item x="1"/>
@@ -33848,19 +34676,19 @@
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
-        <item h="1" x="21"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -33868,7 +34696,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -33961,6 +34789,376 @@
     </i>
     <i>
       <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Sum of deceduti" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of dimessi_guariti" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of isolamento_domiciliare" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of terapia_intensiva" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ricoverati_con_sintomi" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A78:W112" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="34">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item h="1" x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="33">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -34570,12 +35768,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:F35" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="33">
+    <pivotField axis="axisRow" numFmtId="22" showAll="0">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -34603,374 +35801,12 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
+        <item h="1" x="32"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item h="1" x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="32">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Sum of deceduti" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of dimessi_guariti" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of isolamento_domiciliare" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of terapia_intensiva" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ricoverati_con_sintomi" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="33">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item h="1" x="31"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35019,7 +35855,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -35113,6 +35949,9 @@
     <i>
       <x v="31"/>
     </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -35159,11 +35998,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="33">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -35191,11 +36030,12 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="31"/>
+        <item h="1" x="32"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35244,7 +36084,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -35338,6 +36178,9 @@
     <i>
       <x v="31"/>
     </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -35393,11 +36236,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="33">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -35425,11 +36268,12 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="31"/>
+        <item h="1" x="32"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35478,7 +36322,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -35572,6 +36416,9 @@
     <i>
       <x v="31"/>
     </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -35636,11 +36483,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="33">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -35668,11 +36515,12 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="31"/>
+        <item h="1" x="32"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35721,7 +36569,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -35815,6 +36663,9 @@
     <i>
       <x v="31"/>
     </i>
+    <i>
+      <x v="32"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -35888,11 +36739,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B35" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="33">
+      <items count="34">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -35920,11 +36771,12 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="31"/>
+        <item h="1" x="32"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35973,7 +36825,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="32">
+  <rowItems count="33">
     <i>
       <x/>
     </i>
@@ -36066,6 +36918,9 @@
     </i>
     <i>
       <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
     </i>
     <i t="grand">
       <x/>
@@ -36445,10 +37300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P652"/>
+  <dimension ref="A1:P673"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
-      <selection activeCell="D632" sqref="D632"/>
+    <sheetView topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="A653" sqref="A653:P673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69057,6 +69912,1056 @@
         <v>4699</v>
       </c>
     </row>
+    <row r="653" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>57</v>
+      </c>
+      <c r="B653" t="s">
+        <v>16</v>
+      </c>
+      <c r="C653">
+        <v>13</v>
+      </c>
+      <c r="D653" t="s">
+        <v>17</v>
+      </c>
+      <c r="E653" s="2">
+        <v>4235122196</v>
+      </c>
+      <c r="F653" s="2">
+        <v>1339843823</v>
+      </c>
+      <c r="G653">
+        <v>32</v>
+      </c>
+      <c r="H653">
+        <v>5</v>
+      </c>
+      <c r="I653">
+        <v>37</v>
+      </c>
+      <c r="J653">
+        <v>85</v>
+      </c>
+      <c r="K653">
+        <v>122</v>
+      </c>
+      <c r="L653">
+        <v>122</v>
+      </c>
+      <c r="M653">
+        <v>0</v>
+      </c>
+      <c r="N653">
+        <v>11</v>
+      </c>
+      <c r="O653">
+        <v>133</v>
+      </c>
+      <c r="P653">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="654" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>57</v>
+      </c>
+      <c r="B654" t="s">
+        <v>16</v>
+      </c>
+      <c r="C654">
+        <v>17</v>
+      </c>
+      <c r="D654" t="s">
+        <v>18</v>
+      </c>
+      <c r="E654" s="2">
+        <v>4063947052</v>
+      </c>
+      <c r="F654" s="2">
+        <v>1580514834</v>
+      </c>
+      <c r="G654">
+        <v>2</v>
+      </c>
+      <c r="H654">
+        <v>2</v>
+      </c>
+      <c r="I654">
+        <v>4</v>
+      </c>
+      <c r="J654">
+        <v>17</v>
+      </c>
+      <c r="K654">
+        <v>21</v>
+      </c>
+      <c r="L654">
+        <v>21</v>
+      </c>
+      <c r="M654">
+        <v>0</v>
+      </c>
+      <c r="N654">
+        <v>0</v>
+      </c>
+      <c r="O654">
+        <v>21</v>
+      </c>
+      <c r="P654">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="655" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>57</v>
+      </c>
+      <c r="B655" t="s">
+        <v>16</v>
+      </c>
+      <c r="C655">
+        <v>18</v>
+      </c>
+      <c r="D655" t="s">
+        <v>19</v>
+      </c>
+      <c r="E655" s="2">
+        <v>3890597598</v>
+      </c>
+      <c r="F655" s="2">
+        <v>1659440194</v>
+      </c>
+      <c r="G655">
+        <v>8</v>
+      </c>
+      <c r="H655">
+        <v>0</v>
+      </c>
+      <c r="I655">
+        <v>8</v>
+      </c>
+      <c r="J655">
+        <v>31</v>
+      </c>
+      <c r="K655">
+        <v>39</v>
+      </c>
+      <c r="L655">
+        <v>39</v>
+      </c>
+      <c r="M655">
+        <v>0</v>
+      </c>
+      <c r="N655">
+        <v>3</v>
+      </c>
+      <c r="O655">
+        <v>42</v>
+      </c>
+      <c r="P655">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="656" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>57</v>
+      </c>
+      <c r="B656" t="s">
+        <v>16</v>
+      </c>
+      <c r="C656">
+        <v>15</v>
+      </c>
+      <c r="D656" t="s">
+        <v>20</v>
+      </c>
+      <c r="E656" s="2">
+        <v>4083956555</v>
+      </c>
+      <c r="F656" s="2">
+        <v>1425084984</v>
+      </c>
+      <c r="G656">
+        <v>130</v>
+      </c>
+      <c r="H656">
+        <v>-9</v>
+      </c>
+      <c r="I656">
+        <v>121</v>
+      </c>
+      <c r="J656">
+        <v>-24</v>
+      </c>
+      <c r="K656">
+        <v>97</v>
+      </c>
+      <c r="L656">
+        <v>97</v>
+      </c>
+      <c r="M656">
+        <v>5</v>
+      </c>
+      <c r="N656">
+        <v>9</v>
+      </c>
+      <c r="O656">
+        <v>111</v>
+      </c>
+      <c r="P656">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="657" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>57</v>
+      </c>
+      <c r="B657" t="s">
+        <v>16</v>
+      </c>
+      <c r="C657">
+        <v>8</v>
+      </c>
+      <c r="D657" t="s">
+        <v>21</v>
+      </c>
+      <c r="E657" s="2">
+        <v>4449436681</v>
+      </c>
+      <c r="F657" s="2">
+        <v>113417208</v>
+      </c>
+      <c r="G657">
+        <v>174</v>
+      </c>
+      <c r="H657">
+        <v>7</v>
+      </c>
+      <c r="I657">
+        <v>181</v>
+      </c>
+      <c r="J657">
+        <v>413</v>
+      </c>
+      <c r="K657">
+        <v>594</v>
+      </c>
+      <c r="L657">
+        <v>594</v>
+      </c>
+      <c r="M657">
+        <v>71</v>
+      </c>
+      <c r="N657">
+        <v>97</v>
+      </c>
+      <c r="O657">
+        <v>762</v>
+      </c>
+      <c r="P657">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="658" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>57</v>
+      </c>
+      <c r="B658" t="s">
+        <v>16</v>
+      </c>
+      <c r="C658">
+        <v>6</v>
+      </c>
+      <c r="D658" t="s">
+        <v>22</v>
+      </c>
+      <c r="E658" s="2">
+        <v>456494354</v>
+      </c>
+      <c r="F658" s="2">
+        <v>1376813649</v>
+      </c>
+      <c r="G658">
+        <v>12</v>
+      </c>
+      <c r="H658">
+        <v>2</v>
+      </c>
+      <c r="I658">
+        <v>14</v>
+      </c>
+      <c r="J658">
+        <v>29</v>
+      </c>
+      <c r="K658">
+        <v>43</v>
+      </c>
+      <c r="L658">
+        <v>43</v>
+      </c>
+      <c r="M658">
+        <v>39</v>
+      </c>
+      <c r="N658">
+        <v>2</v>
+      </c>
+      <c r="O658">
+        <v>84</v>
+      </c>
+      <c r="P658">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="659" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>57</v>
+      </c>
+      <c r="B659" t="s">
+        <v>16</v>
+      </c>
+      <c r="C659">
+        <v>12</v>
+      </c>
+      <c r="D659" t="s">
+        <v>23</v>
+      </c>
+      <c r="E659" s="2">
+        <v>4189277044</v>
+      </c>
+      <c r="F659" s="2">
+        <v>1248366722</v>
+      </c>
+      <c r="G659">
+        <v>73</v>
+      </c>
+      <c r="H659">
+        <v>12</v>
+      </c>
+      <c r="I659">
+        <v>85</v>
+      </c>
+      <c r="J659">
+        <v>75</v>
+      </c>
+      <c r="K659">
+        <v>160</v>
+      </c>
+      <c r="L659">
+        <v>160</v>
+      </c>
+      <c r="M659">
+        <v>24</v>
+      </c>
+      <c r="N659">
+        <v>11</v>
+      </c>
+      <c r="O659">
+        <v>195</v>
+      </c>
+      <c r="P659">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="660" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>57</v>
+      </c>
+      <c r="B660" t="s">
+        <v>16</v>
+      </c>
+      <c r="C660">
+        <v>7</v>
+      </c>
+      <c r="D660" t="s">
+        <v>24</v>
+      </c>
+      <c r="E660" s="2">
+        <v>4441149315</v>
+      </c>
+      <c r="F660" s="2">
+        <v>89326992</v>
+      </c>
+      <c r="G660">
+        <v>71</v>
+      </c>
+      <c r="H660">
+        <v>7</v>
+      </c>
+      <c r="I660">
+        <v>78</v>
+      </c>
+      <c r="J660">
+        <v>123</v>
+      </c>
+      <c r="K660">
+        <v>201</v>
+      </c>
+      <c r="L660">
+        <v>201</v>
+      </c>
+      <c r="M660">
+        <v>35</v>
+      </c>
+      <c r="N660">
+        <v>26</v>
+      </c>
+      <c r="O660">
+        <v>262</v>
+      </c>
+      <c r="P660">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="661" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>57</v>
+      </c>
+      <c r="B661" t="s">
+        <v>16</v>
+      </c>
+      <c r="C661">
+        <v>3</v>
+      </c>
+      <c r="D661" t="s">
+        <v>25</v>
+      </c>
+      <c r="E661" s="2">
+        <v>4546679409</v>
+      </c>
+      <c r="F661" s="2">
+        <v>9190347404</v>
+      </c>
+      <c r="G661">
+        <v>655</v>
+      </c>
+      <c r="H661">
+        <v>27</v>
+      </c>
+      <c r="I661">
+        <v>682</v>
+      </c>
+      <c r="J661">
+        <v>916</v>
+      </c>
+      <c r="K661">
+        <v>1598</v>
+      </c>
+      <c r="L661">
+        <v>1598</v>
+      </c>
+      <c r="M661">
+        <v>558</v>
+      </c>
+      <c r="N661">
+        <v>387</v>
+      </c>
+      <c r="O661">
+        <v>2543</v>
+      </c>
+      <c r="P661">
+        <v>6047</v>
+      </c>
+    </row>
+    <row r="662" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>57</v>
+      </c>
+      <c r="B662" t="s">
+        <v>16</v>
+      </c>
+      <c r="C662">
+        <v>11</v>
+      </c>
+      <c r="D662" t="s">
+        <v>26</v>
+      </c>
+      <c r="E662" s="2">
+        <v>4361675973</v>
+      </c>
+      <c r="F662" s="2">
+        <v>135188753</v>
+      </c>
+      <c r="G662">
+        <v>39</v>
+      </c>
+      <c r="H662">
+        <v>18</v>
+      </c>
+      <c r="I662">
+        <v>57</v>
+      </c>
+      <c r="J662">
+        <v>99</v>
+      </c>
+      <c r="K662">
+        <v>156</v>
+      </c>
+      <c r="L662">
+        <v>156</v>
+      </c>
+      <c r="M662">
+        <v>1</v>
+      </c>
+      <c r="N662">
+        <v>23</v>
+      </c>
+      <c r="O662">
+        <v>180</v>
+      </c>
+      <c r="P662">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="663" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>57</v>
+      </c>
+      <c r="B663" t="s">
+        <v>16</v>
+      </c>
+      <c r="C663">
+        <v>14</v>
+      </c>
+      <c r="D663" t="s">
+        <v>27</v>
+      </c>
+      <c r="E663" s="2">
+        <v>4155774754</v>
+      </c>
+      <c r="F663" s="2">
+        <v>1465916051</v>
+      </c>
+      <c r="G663">
+        <v>1</v>
+      </c>
+      <c r="H663">
+        <v>1</v>
+      </c>
+      <c r="I663">
+        <v>2</v>
+      </c>
+      <c r="J663">
+        <v>26</v>
+      </c>
+      <c r="K663">
+        <v>28</v>
+      </c>
+      <c r="L663">
+        <v>28</v>
+      </c>
+      <c r="M663">
+        <v>2</v>
+      </c>
+      <c r="N663">
+        <v>0</v>
+      </c>
+      <c r="O663">
+        <v>30</v>
+      </c>
+      <c r="P663">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="664" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A664" t="s">
+        <v>57</v>
+      </c>
+      <c r="B664" t="s">
+        <v>16</v>
+      </c>
+      <c r="C664">
+        <v>4</v>
+      </c>
+      <c r="D664" t="s">
+        <v>28</v>
+      </c>
+      <c r="E664" s="2">
+        <v>4649933453</v>
+      </c>
+      <c r="F664" s="2">
+        <v>1135662422</v>
+      </c>
+      <c r="G664">
+        <v>33</v>
+      </c>
+      <c r="H664">
+        <v>3</v>
+      </c>
+      <c r="I664">
+        <v>36</v>
+      </c>
+      <c r="J664">
+        <v>7</v>
+      </c>
+      <c r="K664">
+        <v>43</v>
+      </c>
+      <c r="L664">
+        <v>43</v>
+      </c>
+      <c r="M664">
+        <v>0</v>
+      </c>
+      <c r="N664">
+        <v>5</v>
+      </c>
+      <c r="O664">
+        <v>48</v>
+      </c>
+      <c r="P664">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="665" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A665" t="s">
+        <v>57</v>
+      </c>
+      <c r="B665" t="s">
+        <v>16</v>
+      </c>
+      <c r="C665">
+        <v>4</v>
+      </c>
+      <c r="D665" t="s">
+        <v>29</v>
+      </c>
+      <c r="E665" s="2">
+        <v>4606893511</v>
+      </c>
+      <c r="F665" s="2">
+        <v>1112123097</v>
+      </c>
+      <c r="G665">
+        <v>-8</v>
+      </c>
+      <c r="H665">
+        <v>1</v>
+      </c>
+      <c r="I665">
+        <v>-7</v>
+      </c>
+      <c r="J665">
+        <v>43</v>
+      </c>
+      <c r="K665">
+        <v>36</v>
+      </c>
+      <c r="L665">
+        <v>36</v>
+      </c>
+      <c r="M665">
+        <v>27</v>
+      </c>
+      <c r="N665">
+        <v>12</v>
+      </c>
+      <c r="O665">
+        <v>75</v>
+      </c>
+      <c r="P665">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="666" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A666" t="s">
+        <v>57</v>
+      </c>
+      <c r="B666" t="s">
+        <v>16</v>
+      </c>
+      <c r="C666">
+        <v>1</v>
+      </c>
+      <c r="D666" t="s">
+        <v>30</v>
+      </c>
+      <c r="E666" s="2">
+        <v>450732745</v>
+      </c>
+      <c r="F666" s="2">
+        <v>7680687483</v>
+      </c>
+      <c r="G666">
+        <v>89</v>
+      </c>
+      <c r="H666">
+        <v>27</v>
+      </c>
+      <c r="I666">
+        <v>116</v>
+      </c>
+      <c r="J666">
+        <v>278</v>
+      </c>
+      <c r="K666">
+        <v>394</v>
+      </c>
+      <c r="L666">
+        <v>394</v>
+      </c>
+      <c r="M666">
+        <v>116</v>
+      </c>
+      <c r="N666">
+        <v>0</v>
+      </c>
+      <c r="O666">
+        <v>510</v>
+      </c>
+      <c r="P666">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="667" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A667" t="s">
+        <v>57</v>
+      </c>
+      <c r="B667" t="s">
+        <v>16</v>
+      </c>
+      <c r="C667">
+        <v>16</v>
+      </c>
+      <c r="D667" t="s">
+        <v>31</v>
+      </c>
+      <c r="E667" s="2">
+        <v>4112559576</v>
+      </c>
+      <c r="F667" s="2">
+        <v>1686736689</v>
+      </c>
+      <c r="G667">
+        <v>131</v>
+      </c>
+      <c r="H667">
+        <v>12</v>
+      </c>
+      <c r="I667">
+        <v>143</v>
+      </c>
+      <c r="J667">
+        <v>-71</v>
+      </c>
+      <c r="K667">
+        <v>72</v>
+      </c>
+      <c r="L667">
+        <v>72</v>
+      </c>
+      <c r="M667">
+        <v>0</v>
+      </c>
+      <c r="N667">
+        <v>17</v>
+      </c>
+      <c r="O667">
+        <v>89</v>
+      </c>
+      <c r="P667">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="668" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A668" t="s">
+        <v>57</v>
+      </c>
+      <c r="B668" t="s">
+        <v>16</v>
+      </c>
+      <c r="C668">
+        <v>20</v>
+      </c>
+      <c r="D668" t="s">
+        <v>32</v>
+      </c>
+      <c r="E668" s="2">
+        <v>3921531192</v>
+      </c>
+      <c r="F668" s="2">
+        <v>9110616306</v>
+      </c>
+      <c r="G668">
+        <v>10</v>
+      </c>
+      <c r="H668">
+        <v>1</v>
+      </c>
+      <c r="I668">
+        <v>11</v>
+      </c>
+      <c r="J668">
+        <v>39</v>
+      </c>
+      <c r="K668">
+        <v>50</v>
+      </c>
+      <c r="L668">
+        <v>50</v>
+      </c>
+      <c r="M668">
+        <v>1</v>
+      </c>
+      <c r="N668">
+        <v>1</v>
+      </c>
+      <c r="O668">
+        <v>52</v>
+      </c>
+      <c r="P668">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="669" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A669" t="s">
+        <v>57</v>
+      </c>
+      <c r="B669" t="s">
+        <v>16</v>
+      </c>
+      <c r="C669">
+        <v>19</v>
+      </c>
+      <c r="D669" t="s">
+        <v>33</v>
+      </c>
+      <c r="E669" s="2">
+        <v>3811569725</v>
+      </c>
+      <c r="F669" s="2">
+        <v>133623567</v>
+      </c>
+      <c r="G669">
+        <v>87</v>
+      </c>
+      <c r="H669">
+        <v>-12</v>
+      </c>
+      <c r="I669">
+        <v>75</v>
+      </c>
+      <c r="J669">
+        <v>84</v>
+      </c>
+      <c r="K669">
+        <v>159</v>
+      </c>
+      <c r="L669">
+        <v>159</v>
+      </c>
+      <c r="M669">
+        <v>3</v>
+      </c>
+      <c r="N669">
+        <v>8</v>
+      </c>
+      <c r="O669">
+        <v>170</v>
+      </c>
+      <c r="P669">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="670" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A670" t="s">
+        <v>57</v>
+      </c>
+      <c r="B670" t="s">
+        <v>16</v>
+      </c>
+      <c r="C670">
+        <v>9</v>
+      </c>
+      <c r="D670" t="s">
+        <v>34</v>
+      </c>
+      <c r="E670" s="2">
+        <v>4376923077</v>
+      </c>
+      <c r="F670" s="2">
+        <v>1125588885</v>
+      </c>
+      <c r="G670">
+        <v>38</v>
+      </c>
+      <c r="H670">
+        <v>8</v>
+      </c>
+      <c r="I670">
+        <v>46</v>
+      </c>
+      <c r="J670">
+        <v>151</v>
+      </c>
+      <c r="K670">
+        <v>197</v>
+      </c>
+      <c r="L670">
+        <v>197</v>
+      </c>
+      <c r="M670">
+        <v>41</v>
+      </c>
+      <c r="N670">
+        <v>16</v>
+      </c>
+      <c r="O670">
+        <v>254</v>
+      </c>
+      <c r="P670">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="671" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A671" t="s">
+        <v>57</v>
+      </c>
+      <c r="B671" t="s">
+        <v>16</v>
+      </c>
+      <c r="C671">
+        <v>10</v>
+      </c>
+      <c r="D671" t="s">
+        <v>35</v>
+      </c>
+      <c r="E671" s="2">
+        <v>4310675841</v>
+      </c>
+      <c r="F671" s="2">
+        <v>1238824698</v>
+      </c>
+      <c r="G671">
+        <v>21</v>
+      </c>
+      <c r="H671">
+        <v>2</v>
+      </c>
+      <c r="I671">
+        <v>23</v>
+      </c>
+      <c r="J671">
+        <v>61</v>
+      </c>
+      <c r="K671">
+        <v>84</v>
+      </c>
+      <c r="L671">
+        <v>84</v>
+      </c>
+      <c r="M671">
+        <v>7</v>
+      </c>
+      <c r="N671">
+        <v>1</v>
+      </c>
+      <c r="O671">
+        <v>92</v>
+      </c>
+      <c r="P671">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="672" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A672" t="s">
+        <v>57</v>
+      </c>
+      <c r="B672" t="s">
+        <v>16</v>
+      </c>
+      <c r="C672">
+        <v>2</v>
+      </c>
+      <c r="D672" t="s">
+        <v>36</v>
+      </c>
+      <c r="E672" s="2">
+        <v>4573750286</v>
+      </c>
+      <c r="F672" s="2">
+        <v>7320149366</v>
+      </c>
+      <c r="G672">
+        <v>3</v>
+      </c>
+      <c r="H672">
+        <v>-1</v>
+      </c>
+      <c r="I672">
+        <v>2</v>
+      </c>
+      <c r="J672">
+        <v>1</v>
+      </c>
+      <c r="K672">
+        <v>3</v>
+      </c>
+      <c r="L672">
+        <v>3</v>
+      </c>
+      <c r="M672">
+        <v>0</v>
+      </c>
+      <c r="N672">
+        <v>4</v>
+      </c>
+      <c r="O672">
+        <v>7</v>
+      </c>
+      <c r="P672">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="673" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A673" t="s">
+        <v>57</v>
+      </c>
+      <c r="B673" t="s">
+        <v>16</v>
+      </c>
+      <c r="C673">
+        <v>5</v>
+      </c>
+      <c r="D673" t="s">
+        <v>37</v>
+      </c>
+      <c r="E673" s="2">
+        <v>4543490485</v>
+      </c>
+      <c r="F673" s="2">
+        <v>1233845213</v>
+      </c>
+      <c r="G673">
+        <v>40</v>
+      </c>
+      <c r="H673">
+        <v>10</v>
+      </c>
+      <c r="I673">
+        <v>50</v>
+      </c>
+      <c r="J673">
+        <v>345</v>
+      </c>
+      <c r="K673">
+        <v>395</v>
+      </c>
+      <c r="L673">
+        <v>395</v>
+      </c>
+      <c r="M673">
+        <v>69</v>
+      </c>
+      <c r="N673">
+        <v>29</v>
+      </c>
+      <c r="O673">
+        <v>493</v>
+      </c>
+      <c r="P673">
+        <v>8882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -69064,10 +70969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W111"/>
+  <dimension ref="A1:W112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -69079,7 +70984,11 @@
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
@@ -70531,23 +72440,23 @@
         <v>5249</v>
       </c>
       <c r="H33" s="7">
-        <f t="shared" ref="H33:H34" si="39">C33/G33</f>
+        <f t="shared" ref="H33" si="39">C33/G33</f>
         <v>0.17031815583920748</v>
       </c>
       <c r="I33" s="7">
-        <f t="shared" ref="I33:I34" si="40">B33/G33</f>
+        <f t="shared" ref="I33" si="40">B33/G33</f>
         <v>0.14155077157553819</v>
       </c>
       <c r="J33" s="7">
-        <f t="shared" ref="J33:J34" si="41">F33/G33</f>
+        <f t="shared" ref="J33" si="41">F33/G33</f>
         <v>0.23718803581634598</v>
       </c>
       <c r="K33" s="7">
-        <f t="shared" ref="K33:K34" si="42">E33/G33</f>
+        <f t="shared" ref="K33" si="42">E33/G33</f>
         <v>3.6578395884930462E-2</v>
       </c>
       <c r="L33" s="7">
-        <f t="shared" ref="L33:L34" si="43">D33/G33</f>
+        <f t="shared" ref="L33" si="43">D33/G33</f>
         <v>0.4143646408839779</v>
       </c>
     </row>
@@ -70571,73 +72480,102 @@
         <v>1175</v>
       </c>
       <c r="G34">
-        <f t="shared" ref="G34" si="44">SUM(B34:F34)</f>
+        <f t="shared" ref="G34:G35" si="44">SUM(B34:F34)</f>
         <v>5210</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:H35" si="45">C34/G34</f>
+        <f t="shared" ref="H34:H36" si="45">C34/G34</f>
         <v>0.19884836852207294</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" ref="I34:I35" si="46">B34/G34</f>
+        <f t="shared" ref="I34:I36" si="46">B34/G34</f>
         <v>0.1310940499040307</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" ref="J34:J35" si="47">F34/G34</f>
+        <f t="shared" ref="J34:J36" si="47">F34/G34</f>
         <v>0.22552783109404989</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" ref="K34:K35" si="48">E34/G34</f>
+        <f t="shared" ref="K34:K36" si="48">E34/G34</f>
         <v>1.785028790786948E-2</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" ref="L34:L35" si="49">D34/G34</f>
+        <f t="shared" ref="L34:L36" si="49">D34/G34</f>
         <v>0.42667946257197698</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="B35" s="5">
-        <v>7503</v>
+        <v>662</v>
       </c>
       <c r="C35" s="5">
-        <v>9362</v>
+        <v>999</v>
       </c>
       <c r="D35" s="5">
-        <v>30920</v>
+        <v>2728</v>
       </c>
       <c r="E35" s="5">
-        <v>3489</v>
+        <v>123</v>
       </c>
       <c r="F35" s="5">
-        <v>23112</v>
-      </c>
-      <c r="G35" s="10">
-        <f>SUM(B35:F35)</f>
-        <v>74386</v>
+        <v>1641</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="44"/>
+        <v>6153</v>
       </c>
       <c r="H35" s="7">
         <f t="shared" si="45"/>
-        <v>0.12585701610518107</v>
+        <v>0.16235982447586544</v>
       </c>
       <c r="I35" s="7">
         <f t="shared" si="46"/>
-        <v>0.10086575430860646</v>
+        <v>0.10758979359661953</v>
       </c>
       <c r="J35" s="7">
         <f t="shared" si="47"/>
-        <v>0.31070362702659104</v>
+        <v>0.2666991711360312</v>
       </c>
       <c r="K35" s="7">
         <f t="shared" si="48"/>
-        <v>4.6903987309439947E-2</v>
+        <v>1.9990248659190638E-2</v>
       </c>
       <c r="L35" s="7">
         <f t="shared" si="49"/>
-        <v>0.41566961525018148</v>
-      </c>
+        <v>0.4433609621322932</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A36" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="5">
+        <v>8165</v>
+      </c>
+      <c r="C36" s="5">
+        <v>10361</v>
+      </c>
+      <c r="D36" s="5">
+        <v>33648</v>
+      </c>
+      <c r="E36" s="5">
+        <v>3612</v>
+      </c>
+      <c r="F36" s="5">
+        <v>24753</v>
+      </c>
+      <c r="G36" s="10">
+        <f>SUM(B36:F36)</f>
+        <v>80539</v>
+      </c>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
@@ -72921,73 +74859,144 @@
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A111" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B111" s="5">
+        <v>11</v>
+      </c>
+      <c r="C111" s="5">
+        <v>0</v>
+      </c>
+      <c r="D111" s="5">
+        <v>3</v>
+      </c>
+      <c r="E111" s="5">
+        <v>9</v>
+      </c>
+      <c r="F111" s="5">
+        <v>97</v>
+      </c>
+      <c r="G111" s="5">
+        <v>2</v>
+      </c>
+      <c r="H111" s="5">
+        <v>11</v>
+      </c>
+      <c r="I111" s="5">
+        <v>26</v>
+      </c>
+      <c r="J111" s="5">
+        <v>387</v>
+      </c>
+      <c r="K111" s="5">
+        <v>23</v>
+      </c>
+      <c r="L111" s="5">
+        <v>0</v>
+      </c>
+      <c r="M111" s="5">
+        <v>5</v>
+      </c>
+      <c r="N111" s="5">
+        <v>12</v>
+      </c>
+      <c r="O111" s="5">
+        <v>0</v>
+      </c>
+      <c r="P111" s="5">
+        <v>17</v>
+      </c>
+      <c r="Q111" s="5">
+        <v>1</v>
+      </c>
+      <c r="R111" s="5">
+        <v>8</v>
+      </c>
+      <c r="S111" s="5">
+        <v>16</v>
+      </c>
+      <c r="T111" s="5">
+        <v>1</v>
+      </c>
+      <c r="U111" s="5">
+        <v>4</v>
+      </c>
+      <c r="V111" s="5">
+        <v>29</v>
+      </c>
+      <c r="W111" s="5">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B111" s="5">
-        <v>52</v>
-      </c>
-      <c r="C111" s="5">
+      <c r="B112" s="5">
+        <v>63</v>
+      </c>
+      <c r="C112" s="5">
         <v>1</v>
       </c>
-      <c r="D111" s="5">
-        <v>11</v>
-      </c>
-      <c r="E111" s="5">
-        <v>74</v>
-      </c>
-      <c r="F111" s="5">
-        <v>1077</v>
-      </c>
-      <c r="G111" s="5">
-        <v>70</v>
-      </c>
-      <c r="H111" s="5">
-        <v>95</v>
-      </c>
-      <c r="I111" s="5">
-        <v>254</v>
-      </c>
-      <c r="J111" s="5">
-        <v>4474</v>
-      </c>
-      <c r="K111" s="5">
+      <c r="D112" s="5">
+        <v>14</v>
+      </c>
+      <c r="E112" s="5">
+        <v>83</v>
+      </c>
+      <c r="F112" s="5">
+        <v>1174</v>
+      </c>
+      <c r="G112" s="5">
+        <v>72</v>
+      </c>
+      <c r="H112" s="5">
+        <v>106</v>
+      </c>
+      <c r="I112" s="5">
+        <v>280</v>
+      </c>
+      <c r="J112" s="5">
+        <v>4861</v>
+      </c>
+      <c r="K112" s="5">
+        <v>310</v>
+      </c>
+      <c r="L112" s="5">
+        <v>8</v>
+      </c>
+      <c r="M112" s="5">
+        <v>48</v>
+      </c>
+      <c r="N112" s="5">
+        <v>86</v>
+      </c>
+      <c r="O112" s="5">
+        <v>449</v>
+      </c>
+      <c r="P112" s="5">
+        <v>65</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>19</v>
+      </c>
+      <c r="R112" s="5">
+        <v>33</v>
+      </c>
+      <c r="S112" s="5">
+        <v>158</v>
+      </c>
+      <c r="T112" s="5">
+        <v>20</v>
+      </c>
+      <c r="U112" s="5">
+        <v>28</v>
+      </c>
+      <c r="V112" s="5">
         <v>287</v>
       </c>
-      <c r="L111" s="5">
-        <v>8</v>
-      </c>
-      <c r="M111" s="5">
-        <v>43</v>
-      </c>
-      <c r="N111" s="5">
-        <v>74</v>
-      </c>
-      <c r="O111" s="5">
-        <v>449</v>
-      </c>
-      <c r="P111" s="5">
-        <v>48</v>
-      </c>
-      <c r="Q111" s="5">
-        <v>18</v>
-      </c>
-      <c r="R111" s="5">
-        <v>25</v>
-      </c>
-      <c r="S111" s="5">
-        <v>142</v>
-      </c>
-      <c r="T111" s="5">
-        <v>19</v>
-      </c>
-      <c r="U111" s="5">
-        <v>24</v>
-      </c>
-      <c r="V111" s="5">
-        <v>258</v>
-      </c>
-      <c r="W111" s="5">
-        <v>7503</v>
+      <c r="W112" s="5">
+        <v>8165</v>
       </c>
     </row>
   </sheetData>
@@ -72998,10 +75007,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="A3" sqref="A3:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73320,13 +75329,23 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="str">
+      <c r="A33" s="9" t="str">
         <f>All!A34</f>
         <v>2020-03-25T17:00:00</v>
       </c>
       <c r="B33">
         <f>All!G34</f>
         <v>5210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="str">
+        <f>All!A35</f>
+        <v>2020-03-26T17:00:00</v>
+      </c>
+      <c r="B34">
+        <f>All!G35</f>
+        <v>6153</v>
       </c>
     </row>
   </sheetData>
@@ -73337,10 +75356,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="A11" sqref="A4:A35"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73620,10 +75646,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="5">
-        <v>23112</v>
+      <c r="B36" s="5">
+        <v>24753</v>
       </c>
     </row>
   </sheetData>
@@ -73634,10 +75668,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -73929,10 +75963,18 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" s="5">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="5">
-        <v>9362</v>
+      <c r="B39" s="5">
+        <v>10361</v>
       </c>
     </row>
   </sheetData>
@@ -73943,10 +75985,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B36"/>
+  <dimension ref="A2:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A5:A35"/>
+      <selection activeCell="A9" sqref="A5:A36"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="8" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -74233,10 +76275,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="5">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <v>3489</v>
+      <c r="B37" s="5">
+        <v>3612</v>
       </c>
     </row>
   </sheetData>
@@ -74247,10 +76297,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+      <selection activeCell="A11" sqref="A5:A36"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74534,10 +76591,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="5">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <v>30920</v>
+      <c r="B37" s="5">
+        <v>33648</v>
       </c>
     </row>
   </sheetData>
@@ -74548,10 +76613,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B34"/>
+      <selection activeCell="A8" sqref="A4:A35"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="7" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -74831,10 +76903,18 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="5">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="5">
-        <v>7503</v>
+      <c r="B36" s="5">
+        <v>8165</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5722637-8F3E-DE40-BF65-9CF71519CE66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFC6A34-7639-DE4B-906A-E2F3F416461C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldatanormalised" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="5" r:id="rId9"/>
-    <pivotCache cacheId="25" r:id="rId10"/>
+    <pivotCache cacheId="21" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1485" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="59">
   <si>
     <t>data</t>
   </si>
@@ -213,12 +213,15 @@
   <si>
     <t>2020-03-26T17:00:00</t>
   </si>
+  <si>
+    <t>2020-03-27T17:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,14 +352,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,7 +714,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -734,7 +729,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1005,9 +999,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$36</c:f>
+              <c:f>All!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1104,15 +1098,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$36</c:f>
+              <c:f>All!$B$4:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1209,6 +1206,9 @@
                 <c:pt idx="31">
                   <c:v>662</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>969</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1259,9 +1259,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$36</c:f>
+              <c:f>All!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1358,15 +1358,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$36</c:f>
+              <c:f>All!$C$4:$C$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1463,6 +1466,9 @@
                 <c:pt idx="31">
                   <c:v>999</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1513,9 +1519,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$36</c:f>
+              <c:f>All!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1612,15 +1618,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$36</c:f>
+              <c:f>All!$D$4:$D$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -1717,6 +1726,9 @@
                 <c:pt idx="31">
                   <c:v>2728</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>3005</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1767,9 +1779,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$36</c:f>
+              <c:f>All!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1866,15 +1878,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$36</c:f>
+              <c:f>All!$E$4:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -1971,6 +1986,9 @@
                 <c:pt idx="31">
                   <c:v>123</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>120</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2021,9 +2039,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$36</c:f>
+              <c:f>All!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -2120,15 +2138,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$36</c:f>
+              <c:f>All!$F$4:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -2224,6 +2245,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2580,9 +2604,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$34</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$35</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2679,15 +2703,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$34</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2783,6 +2810,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6153</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5959</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3174,9 +3204,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$36</c:f>
+              <c:f>Ricoverati!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3273,15 +3303,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$36</c:f>
+              <c:f>Ricoverati!$B$4:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -3377,6 +3410,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>1641</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3767,9 +3803,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$39</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3866,15 +3902,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$39</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3970,6 +4009,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>589</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4357,11 +4399,25 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$37</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -4458,15 +4514,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$37</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4562,6 +4621,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4951,9 +5013,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$37</c:f>
+              <c:f>Isolamento!$A$5:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5050,15 +5112,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$37</c:f>
+              <c:f>Isolamento!$B$5:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5154,6 +5219,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>2728</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5541,11 +5609,25 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$36</c:f>
+              <c:f>Deceduti!$A$4:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5642,15 +5724,18 @@
                 <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>2020-03-27T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$36</c:f>
+              <c:f>Deceduti!$B$4:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="32"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5746,6 +5831,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>662</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>969</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9844,8 +9932,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
@@ -10132,13 +10220,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43916.769942013889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="673" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43917.76781597222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="694" xr:uid="{00000000-000A-0000-FFFF-FFFF0C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="33">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="34">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10171,6 +10259,7 @@
         <d v="2020-03-24T17:00:00"/>
         <s v="2020-03-25T17:00:00"/>
         <s v="2020-03-26T17:00:00"/>
+        <s v="2020-03-27T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10252,13 +10341,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43916.772820601851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="673" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43917.769207523146" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="694" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P5470" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="33">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="34">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10291,6 +10380,7 @@
         <d v="2020-03-24T17:00:00"/>
         <s v="2020-03-25T17:00:00"/>
         <s v="2020-03-26T17:00:00"/>
+        <s v="2020-03-27T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10372,7 +10462,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="673">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="694">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -22471,6 +22561,384 @@
   </r>
   <r>
     <x v="32"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="16"/>
+    <n v="49"/>
+    <n v="65"/>
+    <n v="65"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="71"/>
+    <n v="621"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="15"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="208"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="96"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="101"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="7"/>
+    <n v="116"/>
+    <n v="123"/>
+    <n v="123"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="144"/>
+    <n v="1267"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="107"/>
+    <n v="7"/>
+    <n v="114"/>
+    <n v="397"/>
+    <n v="511"/>
+    <n v="511"/>
+    <n v="168"/>
+    <n v="93"/>
+    <n v="772"/>
+    <n v="5403"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="60"/>
+    <n v="73"/>
+    <n v="73"/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="94"/>
+    <n v="1120"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="114"/>
+    <n v="13"/>
+    <n v="127"/>
+    <n v="51"/>
+    <n v="178"/>
+    <n v="178"/>
+    <n v="9"/>
+    <n v="12"/>
+    <n v="199"/>
+    <n v="1335"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="25"/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="5"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="45"/>
+    <n v="51"/>
+    <n v="129"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="456"/>
+    <n v="29"/>
+    <n v="485"/>
+    <n v="1221"/>
+    <n v="1706"/>
+    <n v="1706"/>
+    <n v="162"/>
+    <n v="541"/>
+    <n v="2409"/>
+    <n v="8147"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="2"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="57"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="1"/>
+    <n v="26"/>
+    <n v="82"/>
+    <n v="437"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="26"/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="14"/>
+    <n v="42"/>
+    <n v="42"/>
+    <n v="43"/>
+    <n v="12"/>
+    <n v="97"/>
+    <n v="776"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="41"/>
+    <n v="0"/>
+    <n v="41"/>
+    <n v="29"/>
+    <n v="70"/>
+    <n v="70"/>
+    <n v="8"/>
+    <n v="16"/>
+    <n v="94"/>
+    <n v="323"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="219"/>
+    <n v="23"/>
+    <n v="242"/>
+    <n v="155"/>
+    <n v="397"/>
+    <n v="397"/>
+    <n v="41"/>
+    <n v="120"/>
+    <n v="558"/>
+    <n v="1651"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="50"/>
+    <n v="6"/>
+    <n v="56"/>
+    <n v="85"/>
+    <n v="141"/>
+    <n v="141"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="152"/>
+    <n v="1042"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="1"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="36"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="79"/>
+    <n v="7"/>
+    <n v="86"/>
+    <n v="-23"/>
+    <n v="63"/>
+    <n v="63"/>
+    <n v="17"/>
+    <n v="6"/>
+    <n v="86"/>
+    <n v="1421"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="31"/>
+    <n v="166"/>
+    <n v="197"/>
+    <n v="197"/>
+    <n v="8"/>
+    <n v="19"/>
+    <n v="224"/>
+    <n v="2794"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="49"/>
+    <n v="54"/>
+    <n v="54"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="82"/>
+    <n v="709"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="17"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="89"/>
+    <n v="12"/>
+    <n v="101"/>
+    <n v="407"/>
+    <n v="508"/>
+    <n v="508"/>
+    <n v="28"/>
+    <n v="26"/>
+    <n v="562"/>
+    <n v="3868"/>
+  </r>
+  <r>
+    <x v="33"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -22491,7 +22959,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="673">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="694">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -34590,6 +35058,384 @@
   </r>
   <r>
     <x v="32"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="16"/>
+    <n v="49"/>
+    <n v="65"/>
+    <n v="65"/>
+    <n v="1"/>
+    <n v="5"/>
+    <n v="71"/>
+    <n v="621"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="15"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="17"/>
+    <n v="208"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="96"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="101"/>
+    <n v="968"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="8"/>
+    <n v="-1"/>
+    <n v="7"/>
+    <n v="116"/>
+    <n v="123"/>
+    <n v="123"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="144"/>
+    <n v="1267"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="107"/>
+    <n v="7"/>
+    <n v="114"/>
+    <n v="397"/>
+    <n v="511"/>
+    <n v="511"/>
+    <n v="168"/>
+    <n v="93"/>
+    <n v="772"/>
+    <n v="5403"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="10"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="60"/>
+    <n v="73"/>
+    <n v="73"/>
+    <n v="17"/>
+    <n v="4"/>
+    <n v="94"/>
+    <n v="1120"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="114"/>
+    <n v="13"/>
+    <n v="127"/>
+    <n v="51"/>
+    <n v="178"/>
+    <n v="178"/>
+    <n v="9"/>
+    <n v="12"/>
+    <n v="199"/>
+    <n v="1335"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="25"/>
+    <n v="3"/>
+    <n v="28"/>
+    <n v="5"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="45"/>
+    <n v="51"/>
+    <n v="129"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="456"/>
+    <n v="29"/>
+    <n v="485"/>
+    <n v="1221"/>
+    <n v="1706"/>
+    <n v="1706"/>
+    <n v="162"/>
+    <n v="541"/>
+    <n v="2409"/>
+    <n v="8147"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="2"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="57"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="1"/>
+    <n v="26"/>
+    <n v="82"/>
+    <n v="437"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="26"/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="14"/>
+    <n v="42"/>
+    <n v="42"/>
+    <n v="43"/>
+    <n v="12"/>
+    <n v="97"/>
+    <n v="776"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="41"/>
+    <n v="0"/>
+    <n v="41"/>
+    <n v="29"/>
+    <n v="70"/>
+    <n v="70"/>
+    <n v="8"/>
+    <n v="16"/>
+    <n v="94"/>
+    <n v="323"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="219"/>
+    <n v="23"/>
+    <n v="242"/>
+    <n v="155"/>
+    <n v="397"/>
+    <n v="397"/>
+    <n v="41"/>
+    <n v="120"/>
+    <n v="558"/>
+    <n v="1651"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="50"/>
+    <n v="6"/>
+    <n v="56"/>
+    <n v="85"/>
+    <n v="141"/>
+    <n v="141"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="152"/>
+    <n v="1042"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="1"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="36"/>
+    <n v="340"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="79"/>
+    <n v="7"/>
+    <n v="86"/>
+    <n v="-23"/>
+    <n v="63"/>
+    <n v="63"/>
+    <n v="17"/>
+    <n v="6"/>
+    <n v="86"/>
+    <n v="1421"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="16"/>
+    <n v="15"/>
+    <n v="31"/>
+    <n v="166"/>
+    <n v="197"/>
+    <n v="197"/>
+    <n v="8"/>
+    <n v="19"/>
+    <n v="224"/>
+    <n v="2794"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="49"/>
+    <n v="54"/>
+    <n v="54"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="82"/>
+    <n v="709"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="18"/>
+    <n v="0"/>
+    <n v="18"/>
+    <n v="17"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="44"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="89"/>
+    <n v="12"/>
+    <n v="101"/>
+    <n v="407"/>
+    <n v="508"/>
+    <n v="508"/>
+    <n v="28"/>
+    <n v="26"/>
+    <n v="562"/>
+    <n v="3868"/>
+  </r>
+  <r>
+    <x v="33"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -34610,11 +35456,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:F36" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A78:W113" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
-      <items count="34">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -34646,14 +35492,15 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item h="1" x="32"/>
+        <item x="33"/>
         <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
+    <pivotField axis="axisCol" showAll="0">
       <items count="23">
         <item x="0"/>
         <item x="1"/>
@@ -34676,19 +35523,19 @@
         <item x="18"/>
         <item x="19"/>
         <item x="20"/>
-        <item x="21"/>
+        <item h="1" x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -34696,7 +35543,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -34793,372 +35640,8 @@
     <i>
       <x v="32"/>
     </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
     <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="3" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="Sum of deceduti" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of dimessi_guariti" fld="12" baseField="0" baseItem="0"/>
-    <dataField name="Sum of isolamento_domiciliare" fld="9" baseField="0" baseItem="0"/>
-    <dataField name="Sum of terapia_intensiva" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ricoverati_con_sintomi" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="15">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="7" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="8" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A78:W112" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="34">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="32"/>
-        <item x="31"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="23">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item h="1" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="33">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="32"/>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
@@ -35768,12 +36251,12 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F37" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
-    <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="34">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -35801,12 +36284,384 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="32"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item h="1" x="33"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="23">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="34">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="Sum of deceduti" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of dimessi_guariti" fld="12" baseField="0" baseItem="0"/>
+    <dataField name="Sum of isolamento_domiciliare" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of terapia_intensiva" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ricoverati_con_sintomi" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="15">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" numFmtId="22" showAll="0">
+      <items count="35">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item h="1" x="33"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -35855,7 +36710,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -35952,6 +36807,9 @@
     <i>
       <x v="32"/>
     </i>
+    <i>
+      <x v="33"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -35998,11 +36856,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="34">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -36030,12 +36888,13 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="32"/>
+        <item h="1" x="33"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -36084,7 +36943,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -36181,6 +37040,9 @@
     <i>
       <x v="32"/>
     </i>
+    <i>
+      <x v="33"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -36236,11 +37098,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="34">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -36268,12 +37130,13 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="32"/>
+        <item h="1" x="33"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -36322,7 +37185,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -36419,6 +37282,9 @@
     <i>
       <x v="32"/>
     </i>
+    <i>
+      <x v="33"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -36483,11 +37349,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="34">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -36515,12 +37381,13 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="32"/>
+        <item h="1" x="33"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -36569,7 +37436,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -36666,6 +37533,9 @@
     <i>
       <x v="32"/>
     </i>
+    <i>
+      <x v="33"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -36739,11 +37609,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="25" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B36" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B37" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="34">
+      <items count="35">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -36771,12 +37641,13 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="32"/>
+        <item h="1" x="33"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
         <item x="31"/>
+        <item x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -36825,7 +37696,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="33">
+  <rowItems count="34">
     <i>
       <x/>
     </i>
@@ -36921,6 +37792,9 @@
     </i>
     <i>
       <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
     </i>
     <i t="grand">
       <x/>
@@ -37300,10 +38174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P673"/>
+  <dimension ref="A1:P694"/>
   <sheetViews>
-    <sheetView topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="A653" sqref="A653:P673"/>
+    <sheetView topLeftCell="A681" workbookViewId="0">
+      <selection activeCell="A674" sqref="A674:P694"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70962,6 +71836,1056 @@
         <v>8882</v>
       </c>
     </row>
+    <row r="674" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A674" t="s">
+        <v>58</v>
+      </c>
+      <c r="B674" t="s">
+        <v>16</v>
+      </c>
+      <c r="C674">
+        <v>13</v>
+      </c>
+      <c r="D674" t="s">
+        <v>17</v>
+      </c>
+      <c r="E674" s="2">
+        <v>4235122196</v>
+      </c>
+      <c r="F674" s="2">
+        <v>1339843823</v>
+      </c>
+      <c r="G674">
+        <v>9</v>
+      </c>
+      <c r="H674">
+        <v>7</v>
+      </c>
+      <c r="I674">
+        <v>16</v>
+      </c>
+      <c r="J674">
+        <v>49</v>
+      </c>
+      <c r="K674">
+        <v>65</v>
+      </c>
+      <c r="L674">
+        <v>65</v>
+      </c>
+      <c r="M674">
+        <v>1</v>
+      </c>
+      <c r="N674">
+        <v>5</v>
+      </c>
+      <c r="O674">
+        <v>71</v>
+      </c>
+      <c r="P674">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="675" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A675" t="s">
+        <v>58</v>
+      </c>
+      <c r="B675" t="s">
+        <v>16</v>
+      </c>
+      <c r="C675">
+        <v>17</v>
+      </c>
+      <c r="D675" t="s">
+        <v>18</v>
+      </c>
+      <c r="E675" s="2">
+        <v>4063947052</v>
+      </c>
+      <c r="F675" s="2">
+        <v>1580514834</v>
+      </c>
+      <c r="G675">
+        <v>0</v>
+      </c>
+      <c r="H675">
+        <v>-1</v>
+      </c>
+      <c r="I675">
+        <v>-1</v>
+      </c>
+      <c r="J675">
+        <v>15</v>
+      </c>
+      <c r="K675">
+        <v>14</v>
+      </c>
+      <c r="L675">
+        <v>14</v>
+      </c>
+      <c r="M675">
+        <v>1</v>
+      </c>
+      <c r="N675">
+        <v>2</v>
+      </c>
+      <c r="O675">
+        <v>17</v>
+      </c>
+      <c r="P675">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="676" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A676" t="s">
+        <v>58</v>
+      </c>
+      <c r="B676" t="s">
+        <v>16</v>
+      </c>
+      <c r="C676">
+        <v>18</v>
+      </c>
+      <c r="D676" t="s">
+        <v>19</v>
+      </c>
+      <c r="E676" s="2">
+        <v>3890597598</v>
+      </c>
+      <c r="F676" s="2">
+        <v>1659440194</v>
+      </c>
+      <c r="G676">
+        <v>2</v>
+      </c>
+      <c r="H676">
+        <v>-1</v>
+      </c>
+      <c r="I676">
+        <v>1</v>
+      </c>
+      <c r="J676">
+        <v>96</v>
+      </c>
+      <c r="K676">
+        <v>97</v>
+      </c>
+      <c r="L676">
+        <v>97</v>
+      </c>
+      <c r="M676">
+        <v>0</v>
+      </c>
+      <c r="N676">
+        <v>4</v>
+      </c>
+      <c r="O676">
+        <v>101</v>
+      </c>
+      <c r="P676">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="677" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A677" t="s">
+        <v>58</v>
+      </c>
+      <c r="B677" t="s">
+        <v>16</v>
+      </c>
+      <c r="C677">
+        <v>15</v>
+      </c>
+      <c r="D677" t="s">
+        <v>20</v>
+      </c>
+      <c r="E677" s="2">
+        <v>4083956555</v>
+      </c>
+      <c r="F677" s="2">
+        <v>1425084984</v>
+      </c>
+      <c r="G677">
+        <v>8</v>
+      </c>
+      <c r="H677">
+        <v>-1</v>
+      </c>
+      <c r="I677">
+        <v>7</v>
+      </c>
+      <c r="J677">
+        <v>116</v>
+      </c>
+      <c r="K677">
+        <v>123</v>
+      </c>
+      <c r="L677">
+        <v>123</v>
+      </c>
+      <c r="M677">
+        <v>6</v>
+      </c>
+      <c r="N677">
+        <v>15</v>
+      </c>
+      <c r="O677">
+        <v>144</v>
+      </c>
+      <c r="P677">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="678" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A678" t="s">
+        <v>58</v>
+      </c>
+      <c r="B678" t="s">
+        <v>16</v>
+      </c>
+      <c r="C678">
+        <v>8</v>
+      </c>
+      <c r="D678" t="s">
+        <v>21</v>
+      </c>
+      <c r="E678" s="2">
+        <v>4449436681</v>
+      </c>
+      <c r="F678" s="2">
+        <v>113417208</v>
+      </c>
+      <c r="G678">
+        <v>107</v>
+      </c>
+      <c r="H678">
+        <v>7</v>
+      </c>
+      <c r="I678">
+        <v>114</v>
+      </c>
+      <c r="J678">
+        <v>397</v>
+      </c>
+      <c r="K678">
+        <v>511</v>
+      </c>
+      <c r="L678">
+        <v>511</v>
+      </c>
+      <c r="M678">
+        <v>168</v>
+      </c>
+      <c r="N678">
+        <v>93</v>
+      </c>
+      <c r="O678">
+        <v>772</v>
+      </c>
+      <c r="P678">
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="679" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A679" t="s">
+        <v>58</v>
+      </c>
+      <c r="B679" t="s">
+        <v>16</v>
+      </c>
+      <c r="C679">
+        <v>6</v>
+      </c>
+      <c r="D679" t="s">
+        <v>22</v>
+      </c>
+      <c r="E679" s="2">
+        <v>456494354</v>
+      </c>
+      <c r="F679" s="2">
+        <v>1376813649</v>
+      </c>
+      <c r="G679">
+        <v>10</v>
+      </c>
+      <c r="H679">
+        <v>3</v>
+      </c>
+      <c r="I679">
+        <v>13</v>
+      </c>
+      <c r="J679">
+        <v>60</v>
+      </c>
+      <c r="K679">
+        <v>73</v>
+      </c>
+      <c r="L679">
+        <v>73</v>
+      </c>
+      <c r="M679">
+        <v>17</v>
+      </c>
+      <c r="N679">
+        <v>4</v>
+      </c>
+      <c r="O679">
+        <v>94</v>
+      </c>
+      <c r="P679">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="680" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A680" t="s">
+        <v>58</v>
+      </c>
+      <c r="B680" t="s">
+        <v>16</v>
+      </c>
+      <c r="C680">
+        <v>12</v>
+      </c>
+      <c r="D680" t="s">
+        <v>23</v>
+      </c>
+      <c r="E680" s="2">
+        <v>4189277044</v>
+      </c>
+      <c r="F680" s="2">
+        <v>1248366722</v>
+      </c>
+      <c r="G680">
+        <v>114</v>
+      </c>
+      <c r="H680">
+        <v>13</v>
+      </c>
+      <c r="I680">
+        <v>127</v>
+      </c>
+      <c r="J680">
+        <v>51</v>
+      </c>
+      <c r="K680">
+        <v>178</v>
+      </c>
+      <c r="L680">
+        <v>178</v>
+      </c>
+      <c r="M680">
+        <v>9</v>
+      </c>
+      <c r="N680">
+        <v>12</v>
+      </c>
+      <c r="O680">
+        <v>199</v>
+      </c>
+      <c r="P680">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="681" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A681" t="s">
+        <v>58</v>
+      </c>
+      <c r="B681" t="s">
+        <v>16</v>
+      </c>
+      <c r="C681">
+        <v>7</v>
+      </c>
+      <c r="D681" t="s">
+        <v>24</v>
+      </c>
+      <c r="E681" s="2">
+        <v>4441149315</v>
+      </c>
+      <c r="F681" s="2">
+        <v>89326992</v>
+      </c>
+      <c r="G681">
+        <v>25</v>
+      </c>
+      <c r="H681">
+        <v>3</v>
+      </c>
+      <c r="I681">
+        <v>28</v>
+      </c>
+      <c r="J681">
+        <v>5</v>
+      </c>
+      <c r="K681">
+        <v>33</v>
+      </c>
+      <c r="L681">
+        <v>33</v>
+      </c>
+      <c r="M681">
+        <v>45</v>
+      </c>
+      <c r="N681">
+        <v>51</v>
+      </c>
+      <c r="O681">
+        <v>129</v>
+      </c>
+      <c r="P681">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="682" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A682" t="s">
+        <v>58</v>
+      </c>
+      <c r="B682" t="s">
+        <v>16</v>
+      </c>
+      <c r="C682">
+        <v>3</v>
+      </c>
+      <c r="D682" t="s">
+        <v>25</v>
+      </c>
+      <c r="E682" s="2">
+        <v>4546679409</v>
+      </c>
+      <c r="F682" s="2">
+        <v>9190347404</v>
+      </c>
+      <c r="G682">
+        <v>456</v>
+      </c>
+      <c r="H682">
+        <v>29</v>
+      </c>
+      <c r="I682">
+        <v>485</v>
+      </c>
+      <c r="J682">
+        <v>1221</v>
+      </c>
+      <c r="K682">
+        <v>1706</v>
+      </c>
+      <c r="L682">
+        <v>1706</v>
+      </c>
+      <c r="M682">
+        <v>162</v>
+      </c>
+      <c r="N682">
+        <v>541</v>
+      </c>
+      <c r="O682">
+        <v>2409</v>
+      </c>
+      <c r="P682">
+        <v>8147</v>
+      </c>
+    </row>
+    <row r="683" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A683" t="s">
+        <v>58</v>
+      </c>
+      <c r="B683" t="s">
+        <v>16</v>
+      </c>
+      <c r="C683">
+        <v>11</v>
+      </c>
+      <c r="D683" t="s">
+        <v>26</v>
+      </c>
+      <c r="E683" s="2">
+        <v>4361675973</v>
+      </c>
+      <c r="F683" s="2">
+        <v>135188753</v>
+      </c>
+      <c r="G683">
+        <v>2</v>
+      </c>
+      <c r="H683">
+        <v>-4</v>
+      </c>
+      <c r="I683">
+        <v>-2</v>
+      </c>
+      <c r="J683">
+        <v>57</v>
+      </c>
+      <c r="K683">
+        <v>55</v>
+      </c>
+      <c r="L683">
+        <v>55</v>
+      </c>
+      <c r="M683">
+        <v>1</v>
+      </c>
+      <c r="N683">
+        <v>26</v>
+      </c>
+      <c r="O683">
+        <v>82</v>
+      </c>
+      <c r="P683">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="684" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A684" t="s">
+        <v>58</v>
+      </c>
+      <c r="B684" t="s">
+        <v>16</v>
+      </c>
+      <c r="C684">
+        <v>14</v>
+      </c>
+      <c r="D684" t="s">
+        <v>27</v>
+      </c>
+      <c r="E684" s="2">
+        <v>4155774754</v>
+      </c>
+      <c r="F684" s="2">
+        <v>1465916051</v>
+      </c>
+      <c r="G684">
+        <v>-1</v>
+      </c>
+      <c r="H684">
+        <v>1</v>
+      </c>
+      <c r="I684">
+        <v>0</v>
+      </c>
+      <c r="J684">
+        <v>5</v>
+      </c>
+      <c r="K684">
+        <v>5</v>
+      </c>
+      <c r="L684">
+        <v>5</v>
+      </c>
+      <c r="M684">
+        <v>0</v>
+      </c>
+      <c r="N684">
+        <v>1</v>
+      </c>
+      <c r="O684">
+        <v>6</v>
+      </c>
+      <c r="P684">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="685" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A685" t="s">
+        <v>58</v>
+      </c>
+      <c r="B685" t="s">
+        <v>16</v>
+      </c>
+      <c r="C685">
+        <v>4</v>
+      </c>
+      <c r="D685" t="s">
+        <v>28</v>
+      </c>
+      <c r="E685" s="2">
+        <v>4649933453</v>
+      </c>
+      <c r="F685" s="2">
+        <v>1135662422</v>
+      </c>
+      <c r="G685">
+        <v>26</v>
+      </c>
+      <c r="H685">
+        <v>2</v>
+      </c>
+      <c r="I685">
+        <v>28</v>
+      </c>
+      <c r="J685">
+        <v>14</v>
+      </c>
+      <c r="K685">
+        <v>42</v>
+      </c>
+      <c r="L685">
+        <v>42</v>
+      </c>
+      <c r="M685">
+        <v>43</v>
+      </c>
+      <c r="N685">
+        <v>12</v>
+      </c>
+      <c r="O685">
+        <v>97</v>
+      </c>
+      <c r="P685">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="686" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A686" t="s">
+        <v>58</v>
+      </c>
+      <c r="B686" t="s">
+        <v>16</v>
+      </c>
+      <c r="C686">
+        <v>4</v>
+      </c>
+      <c r="D686" t="s">
+        <v>29</v>
+      </c>
+      <c r="E686" s="2">
+        <v>4606893511</v>
+      </c>
+      <c r="F686" s="2">
+        <v>1112123097</v>
+      </c>
+      <c r="G686">
+        <v>41</v>
+      </c>
+      <c r="H686">
+        <v>0</v>
+      </c>
+      <c r="I686">
+        <v>41</v>
+      </c>
+      <c r="J686">
+        <v>29</v>
+      </c>
+      <c r="K686">
+        <v>70</v>
+      </c>
+      <c r="L686">
+        <v>70</v>
+      </c>
+      <c r="M686">
+        <v>8</v>
+      </c>
+      <c r="N686">
+        <v>16</v>
+      </c>
+      <c r="O686">
+        <v>94</v>
+      </c>
+      <c r="P686">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="687" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A687" t="s">
+        <v>58</v>
+      </c>
+      <c r="B687" t="s">
+        <v>16</v>
+      </c>
+      <c r="C687">
+        <v>1</v>
+      </c>
+      <c r="D687" t="s">
+        <v>30</v>
+      </c>
+      <c r="E687" s="2">
+        <v>450732745</v>
+      </c>
+      <c r="F687" s="2">
+        <v>7680687483</v>
+      </c>
+      <c r="G687">
+        <v>219</v>
+      </c>
+      <c r="H687">
+        <v>23</v>
+      </c>
+      <c r="I687">
+        <v>242</v>
+      </c>
+      <c r="J687">
+        <v>155</v>
+      </c>
+      <c r="K687">
+        <v>397</v>
+      </c>
+      <c r="L687">
+        <v>397</v>
+      </c>
+      <c r="M687">
+        <v>41</v>
+      </c>
+      <c r="N687">
+        <v>120</v>
+      </c>
+      <c r="O687">
+        <v>558</v>
+      </c>
+      <c r="P687">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="688" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A688" t="s">
+        <v>58</v>
+      </c>
+      <c r="B688" t="s">
+        <v>16</v>
+      </c>
+      <c r="C688">
+        <v>16</v>
+      </c>
+      <c r="D688" t="s">
+        <v>31</v>
+      </c>
+      <c r="E688" s="2">
+        <v>4112559576</v>
+      </c>
+      <c r="F688" s="2">
+        <v>1686736689</v>
+      </c>
+      <c r="G688">
+        <v>50</v>
+      </c>
+      <c r="H688">
+        <v>6</v>
+      </c>
+      <c r="I688">
+        <v>56</v>
+      </c>
+      <c r="J688">
+        <v>85</v>
+      </c>
+      <c r="K688">
+        <v>141</v>
+      </c>
+      <c r="L688">
+        <v>141</v>
+      </c>
+      <c r="M688">
+        <v>7</v>
+      </c>
+      <c r="N688">
+        <v>4</v>
+      </c>
+      <c r="O688">
+        <v>152</v>
+      </c>
+      <c r="P688">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="689" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A689" t="s">
+        <v>58</v>
+      </c>
+      <c r="B689" t="s">
+        <v>16</v>
+      </c>
+      <c r="C689">
+        <v>20</v>
+      </c>
+      <c r="D689" t="s">
+        <v>32</v>
+      </c>
+      <c r="E689" s="2">
+        <v>3921531192</v>
+      </c>
+      <c r="F689" s="2">
+        <v>9110616306</v>
+      </c>
+      <c r="G689">
+        <v>1</v>
+      </c>
+      <c r="H689">
+        <v>-1</v>
+      </c>
+      <c r="I689">
+        <v>0</v>
+      </c>
+      <c r="J689">
+        <v>34</v>
+      </c>
+      <c r="K689">
+        <v>34</v>
+      </c>
+      <c r="L689">
+        <v>34</v>
+      </c>
+      <c r="M689">
+        <v>0</v>
+      </c>
+      <c r="N689">
+        <v>2</v>
+      </c>
+      <c r="O689">
+        <v>36</v>
+      </c>
+      <c r="P689">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="690" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A690" t="s">
+        <v>58</v>
+      </c>
+      <c r="B690" t="s">
+        <v>16</v>
+      </c>
+      <c r="C690">
+        <v>19</v>
+      </c>
+      <c r="D690" t="s">
+        <v>33</v>
+      </c>
+      <c r="E690" s="2">
+        <v>3811569725</v>
+      </c>
+      <c r="F690" s="2">
+        <v>133623567</v>
+      </c>
+      <c r="G690">
+        <v>79</v>
+      </c>
+      <c r="H690">
+        <v>7</v>
+      </c>
+      <c r="I690">
+        <v>86</v>
+      </c>
+      <c r="J690">
+        <v>-23</v>
+      </c>
+      <c r="K690">
+        <v>63</v>
+      </c>
+      <c r="L690">
+        <v>63</v>
+      </c>
+      <c r="M690">
+        <v>17</v>
+      </c>
+      <c r="N690">
+        <v>6</v>
+      </c>
+      <c r="O690">
+        <v>86</v>
+      </c>
+      <c r="P690">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="691" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A691" t="s">
+        <v>58</v>
+      </c>
+      <c r="B691" t="s">
+        <v>16</v>
+      </c>
+      <c r="C691">
+        <v>9</v>
+      </c>
+      <c r="D691" t="s">
+        <v>34</v>
+      </c>
+      <c r="E691" s="2">
+        <v>4376923077</v>
+      </c>
+      <c r="F691" s="2">
+        <v>1125588885</v>
+      </c>
+      <c r="G691">
+        <v>16</v>
+      </c>
+      <c r="H691">
+        <v>15</v>
+      </c>
+      <c r="I691">
+        <v>31</v>
+      </c>
+      <c r="J691">
+        <v>166</v>
+      </c>
+      <c r="K691">
+        <v>197</v>
+      </c>
+      <c r="L691">
+        <v>197</v>
+      </c>
+      <c r="M691">
+        <v>8</v>
+      </c>
+      <c r="N691">
+        <v>19</v>
+      </c>
+      <c r="O691">
+        <v>224</v>
+      </c>
+      <c r="P691">
+        <v>2794</v>
+      </c>
+    </row>
+    <row r="692" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A692" t="s">
+        <v>58</v>
+      </c>
+      <c r="B692" t="s">
+        <v>16</v>
+      </c>
+      <c r="C692">
+        <v>10</v>
+      </c>
+      <c r="D692" t="s">
+        <v>35</v>
+      </c>
+      <c r="E692" s="2">
+        <v>4310675841</v>
+      </c>
+      <c r="F692" s="2">
+        <v>1238824698</v>
+      </c>
+      <c r="G692">
+        <v>5</v>
+      </c>
+      <c r="H692">
+        <v>0</v>
+      </c>
+      <c r="I692">
+        <v>5</v>
+      </c>
+      <c r="J692">
+        <v>49</v>
+      </c>
+      <c r="K692">
+        <v>54</v>
+      </c>
+      <c r="L692">
+        <v>54</v>
+      </c>
+      <c r="M692">
+        <v>27</v>
+      </c>
+      <c r="N692">
+        <v>1</v>
+      </c>
+      <c r="O692">
+        <v>82</v>
+      </c>
+      <c r="P692">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="693" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A693" t="s">
+        <v>58</v>
+      </c>
+      <c r="B693" t="s">
+        <v>16</v>
+      </c>
+      <c r="C693">
+        <v>2</v>
+      </c>
+      <c r="D693" t="s">
+        <v>36</v>
+      </c>
+      <c r="E693" s="2">
+        <v>4573750286</v>
+      </c>
+      <c r="F693" s="2">
+        <v>7320149366</v>
+      </c>
+      <c r="G693">
+        <v>18</v>
+      </c>
+      <c r="H693">
+        <v>0</v>
+      </c>
+      <c r="I693">
+        <v>18</v>
+      </c>
+      <c r="J693">
+        <v>17</v>
+      </c>
+      <c r="K693">
+        <v>35</v>
+      </c>
+      <c r="L693">
+        <v>35</v>
+      </c>
+      <c r="M693">
+        <v>0</v>
+      </c>
+      <c r="N693">
+        <v>9</v>
+      </c>
+      <c r="O693">
+        <v>44</v>
+      </c>
+      <c r="P693">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="694" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A694" t="s">
+        <v>58</v>
+      </c>
+      <c r="B694" t="s">
+        <v>16</v>
+      </c>
+      <c r="C694">
+        <v>5</v>
+      </c>
+      <c r="D694" t="s">
+        <v>37</v>
+      </c>
+      <c r="E694" s="2">
+        <v>4543490485</v>
+      </c>
+      <c r="F694" s="2">
+        <v>1233845213</v>
+      </c>
+      <c r="G694">
+        <v>89</v>
+      </c>
+      <c r="H694">
+        <v>12</v>
+      </c>
+      <c r="I694">
+        <v>101</v>
+      </c>
+      <c r="J694">
+        <v>407</v>
+      </c>
+      <c r="K694">
+        <v>508</v>
+      </c>
+      <c r="L694">
+        <v>508</v>
+      </c>
+      <c r="M694">
+        <v>28</v>
+      </c>
+      <c r="N694">
+        <v>26</v>
+      </c>
+      <c r="O694">
+        <v>562</v>
+      </c>
+      <c r="P694">
+        <v>3868</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -70969,10 +72893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W112"/>
+  <dimension ref="A1:W113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="H9" sqref="H1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -70984,11 +72908,7 @@
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="10.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
@@ -72484,23 +74404,23 @@
         <v>5210</v>
       </c>
       <c r="H34" s="7">
-        <f t="shared" ref="H34:H36" si="45">C34/G34</f>
+        <f t="shared" ref="H34:H35" si="45">C34/G34</f>
         <v>0.19884836852207294</v>
       </c>
       <c r="I34" s="7">
-        <f t="shared" ref="I34:I36" si="46">B34/G34</f>
+        <f t="shared" ref="I34:I35" si="46">B34/G34</f>
         <v>0.1310940499040307</v>
       </c>
       <c r="J34" s="7">
-        <f t="shared" ref="J34:J36" si="47">F34/G34</f>
+        <f t="shared" ref="J34:J35" si="47">F34/G34</f>
         <v>0.22552783109404989</v>
       </c>
       <c r="K34" s="7">
-        <f t="shared" ref="K34:K36" si="48">E34/G34</f>
+        <f t="shared" ref="K34:K35" si="48">E34/G34</f>
         <v>1.785028790786948E-2</v>
       </c>
       <c r="L34" s="7">
-        <f t="shared" ref="L34:L36" si="49">D34/G34</f>
+        <f t="shared" ref="L34:L35" si="49">D34/G34</f>
         <v>0.42667946257197698</v>
       </c>
     </row>
@@ -72548,34 +74468,93 @@
         <v>0.4433609621322932</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="5">
+        <v>969</v>
+      </c>
+      <c r="C36" s="5">
+        <v>589</v>
+      </c>
+      <c r="D36" s="5">
+        <v>3005</v>
+      </c>
+      <c r="E36" s="5">
+        <v>120</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1276</v>
+      </c>
+      <c r="G36">
+        <f t="shared" ref="G36" si="50">SUM(B36:F36)</f>
+        <v>5959</v>
+      </c>
+      <c r="H36" s="7">
+        <f t="shared" ref="H36:H37" si="51">C36/G36</f>
+        <v>9.8842087598590367E-2</v>
+      </c>
+      <c r="I36" s="7">
+        <f t="shared" ref="I36:I37" si="52">B36/G36</f>
+        <v>0.16261117637187447</v>
+      </c>
+      <c r="J36" s="7">
+        <f t="shared" ref="J36:J37" si="53">F36/G36</f>
+        <v>0.21412988756502768</v>
+      </c>
+      <c r="K36" s="7">
+        <f t="shared" ref="K36:K37" si="54">E36/G36</f>
+        <v>2.0137606981037087E-2</v>
+      </c>
+      <c r="L36" s="7">
+        <f t="shared" ref="L36:L37" si="55">D36/G36</f>
+        <v>0.50427924148347036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <v>8165</v>
-      </c>
-      <c r="C36" s="5">
-        <v>10361</v>
-      </c>
-      <c r="D36" s="5">
-        <v>33648</v>
-      </c>
-      <c r="E36" s="5">
-        <v>3612</v>
-      </c>
-      <c r="F36" s="5">
-        <v>24753</v>
-      </c>
-      <c r="G36" s="10">
-        <f>SUM(B36:F36)</f>
-        <v>80539</v>
-      </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
-      <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="B37" s="5">
+        <v>9134</v>
+      </c>
+      <c r="C37" s="5">
+        <v>10950</v>
+      </c>
+      <c r="D37" s="5">
+        <v>36653</v>
+      </c>
+      <c r="E37" s="5">
+        <v>3732</v>
+      </c>
+      <c r="F37" s="5">
+        <v>26029</v>
+      </c>
+      <c r="G37">
+        <f>SUM(B37:F37)</f>
+        <v>86498</v>
+      </c>
+      <c r="H37" s="7">
+        <f t="shared" si="51"/>
+        <v>0.12659252237045943</v>
+      </c>
+      <c r="I37" s="7">
+        <f t="shared" si="52"/>
+        <v>0.10559781729057319</v>
+      </c>
+      <c r="J37" s="7">
+        <f t="shared" si="53"/>
+        <v>0.3009202524913871</v>
+      </c>
+      <c r="K37" s="7">
+        <f t="shared" si="54"/>
+        <v>4.3145506254479875E-2</v>
+      </c>
+      <c r="L37" s="7">
+        <f t="shared" si="55"/>
+        <v>0.42374390159310044</v>
+      </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
@@ -74930,73 +76909,144 @@
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A112" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B112" s="5">
+        <v>5</v>
+      </c>
+      <c r="C112" s="5">
+        <v>2</v>
+      </c>
+      <c r="D112" s="5">
+        <v>4</v>
+      </c>
+      <c r="E112" s="5">
+        <v>15</v>
+      </c>
+      <c r="F112" s="5">
+        <v>93</v>
+      </c>
+      <c r="G112" s="5">
+        <v>4</v>
+      </c>
+      <c r="H112" s="5">
+        <v>12</v>
+      </c>
+      <c r="I112" s="5">
+        <v>51</v>
+      </c>
+      <c r="J112" s="5">
+        <v>541</v>
+      </c>
+      <c r="K112" s="5">
+        <v>26</v>
+      </c>
+      <c r="L112" s="5">
+        <v>1</v>
+      </c>
+      <c r="M112" s="5">
+        <v>12</v>
+      </c>
+      <c r="N112" s="5">
+        <v>16</v>
+      </c>
+      <c r="O112" s="5">
+        <v>120</v>
+      </c>
+      <c r="P112" s="5">
+        <v>4</v>
+      </c>
+      <c r="Q112" s="5">
+        <v>2</v>
+      </c>
+      <c r="R112" s="5">
+        <v>6</v>
+      </c>
+      <c r="S112" s="5">
+        <v>19</v>
+      </c>
+      <c r="T112" s="5">
+        <v>1</v>
+      </c>
+      <c r="U112" s="5">
+        <v>9</v>
+      </c>
+      <c r="V112" s="5">
+        <v>26</v>
+      </c>
+      <c r="W112" s="5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B112" s="5">
-        <v>63</v>
-      </c>
-      <c r="C112" s="5">
-        <v>1</v>
-      </c>
-      <c r="D112" s="5">
-        <v>14</v>
-      </c>
-      <c r="E112" s="5">
-        <v>83</v>
-      </c>
-      <c r="F112" s="5">
-        <v>1174</v>
-      </c>
-      <c r="G112" s="5">
-        <v>72</v>
-      </c>
-      <c r="H112" s="5">
-        <v>106</v>
-      </c>
-      <c r="I112" s="5">
-        <v>280</v>
-      </c>
-      <c r="J112" s="5">
-        <v>4861</v>
-      </c>
-      <c r="K112" s="5">
-        <v>310</v>
-      </c>
-      <c r="L112" s="5">
-        <v>8</v>
-      </c>
-      <c r="M112" s="5">
-        <v>48</v>
-      </c>
-      <c r="N112" s="5">
-        <v>86</v>
-      </c>
-      <c r="O112" s="5">
-        <v>449</v>
-      </c>
-      <c r="P112" s="5">
-        <v>65</v>
-      </c>
-      <c r="Q112" s="5">
-        <v>19</v>
-      </c>
-      <c r="R112" s="5">
-        <v>33</v>
-      </c>
-      <c r="S112" s="5">
-        <v>158</v>
-      </c>
-      <c r="T112" s="5">
-        <v>20</v>
-      </c>
-      <c r="U112" s="5">
-        <v>28</v>
-      </c>
-      <c r="V112" s="5">
-        <v>287</v>
-      </c>
-      <c r="W112" s="5">
-        <v>8165</v>
+      <c r="B113" s="5">
+        <v>68</v>
+      </c>
+      <c r="C113" s="5">
+        <v>3</v>
+      </c>
+      <c r="D113" s="5">
+        <v>18</v>
+      </c>
+      <c r="E113" s="5">
+        <v>98</v>
+      </c>
+      <c r="F113" s="5">
+        <v>1267</v>
+      </c>
+      <c r="G113" s="5">
+        <v>76</v>
+      </c>
+      <c r="H113" s="5">
+        <v>118</v>
+      </c>
+      <c r="I113" s="5">
+        <v>331</v>
+      </c>
+      <c r="J113" s="5">
+        <v>5402</v>
+      </c>
+      <c r="K113" s="5">
+        <v>336</v>
+      </c>
+      <c r="L113" s="5">
+        <v>9</v>
+      </c>
+      <c r="M113" s="5">
+        <v>60</v>
+      </c>
+      <c r="N113" s="5">
+        <v>102</v>
+      </c>
+      <c r="O113" s="5">
+        <v>569</v>
+      </c>
+      <c r="P113" s="5">
+        <v>69</v>
+      </c>
+      <c r="Q113" s="5">
+        <v>21</v>
+      </c>
+      <c r="R113" s="5">
+        <v>39</v>
+      </c>
+      <c r="S113" s="5">
+        <v>177</v>
+      </c>
+      <c r="T113" s="5">
+        <v>21</v>
+      </c>
+      <c r="U113" s="5">
+        <v>37</v>
+      </c>
+      <c r="V113" s="5">
+        <v>313</v>
+      </c>
+      <c r="W113" s="5">
+        <v>9134</v>
       </c>
     </row>
   </sheetData>
@@ -75007,10 +77057,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B34"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75346,6 +77396,16 @@
       <c r="B34">
         <f>All!G35</f>
         <v>6153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="str">
+        <f>All!A36</f>
+        <v>2020-03-27T17:00:00</v>
+      </c>
+      <c r="B35">
+        <f>All!G36</f>
+        <v>5959</v>
       </c>
     </row>
   </sheetData>
@@ -75356,17 +77416,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A4:A35"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75654,10 +77707,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <v>24753</v>
+      <c r="B37" s="5">
+        <v>26029</v>
       </c>
     </row>
   </sheetData>
@@ -75668,10 +77729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -75971,10 +78032,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="5">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>10361</v>
+      <c r="B40" s="5">
+        <v>10950</v>
       </c>
     </row>
   </sheetData>
@@ -75985,17 +78054,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B37"/>
+  <dimension ref="A2:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A5:A36"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="8" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76283,10 +78345,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5">
-        <v>3612</v>
+      <c r="B38" s="5">
+        <v>3732</v>
       </c>
     </row>
   </sheetData>
@@ -76297,10 +78367,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A5:A36"/>
+      <selection activeCell="A11" sqref="A5:A37"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -76599,10 +78669,18 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B37" s="5">
+        <v>3005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B37" s="5">
-        <v>33648</v>
+      <c r="B38" s="5">
+        <v>36653</v>
       </c>
     </row>
   </sheetData>
@@ -76613,17 +78691,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A4:A35"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="7" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -76911,10 +78982,18 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="5">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="5">
-        <v>8165</v>
+      <c r="B37" s="5">
+        <v>9134</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A8D5DC-7513-8642-8E7B-BF1104260D18}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759AFCC-4CFD-1D4B-9EC7-B57D32B9685C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldatanormalised" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId9"/>
-    <pivotCache cacheId="10" r:id="rId10"/>
-    <pivotCache cacheId="14" r:id="rId11"/>
+    <pivotCache cacheId="0" r:id="rId9"/>
+    <pivotCache cacheId="6" r:id="rId10"/>
+    <pivotCache cacheId="10" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1625" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="61">
   <si>
     <t>data</t>
   </si>
@@ -220,12 +220,15 @@
   <si>
     <t>2020-03-28T17:00:00</t>
   </si>
+  <si>
+    <t>2020-03-29T17:00:00</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -356,6 +359,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -718,7 +729,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -733,6 +744,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1003,9 +1015,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$38</c:f>
+              <c:f>All!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1108,15 +1120,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$38</c:f>
+              <c:f>All!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1219,6 +1234,9 @@
                 <c:pt idx="33">
                   <c:v>889</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>756</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1269,9 +1287,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$38</c:f>
+              <c:f>All!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1374,15 +1392,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$38</c:f>
+              <c:f>All!$C$4:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1485,6 +1506,9 @@
                 <c:pt idx="33">
                   <c:v>1434</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>646</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1535,9 +1559,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$38</c:f>
+              <c:f>All!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1640,15 +1664,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$38</c:f>
+              <c:f>All!$D$4:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -1751,6 +1778,9 @@
                 <c:pt idx="33">
                   <c:v>2880</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>3055</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1801,9 +1831,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$38</c:f>
+              <c:f>All!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1906,15 +1936,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$38</c:f>
+              <c:f>All!$E$4:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2017,6 +2050,9 @@
                 <c:pt idx="33">
                   <c:v>124</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2067,9 +2103,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$38</c:f>
+              <c:f>All!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -2172,15 +2208,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$38</c:f>
+              <c:f>All!$F$4:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -2282,6 +2321,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,9 +2680,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$36</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2743,15 +2785,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$36</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2853,6 +2898,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>5974</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5217</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3244,9 +3292,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$38</c:f>
+              <c:f>Ricoverati!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3349,15 +3397,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$38</c:f>
+              <c:f>Ricoverati!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -3459,6 +3510,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>710</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3849,9 +3903,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$41</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3954,15 +4008,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$41</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4064,6 +4121,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>1434</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>646</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4467,9 +4527,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$39</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -4572,15 +4632,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$39</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4682,6 +4745,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5071,9 +5137,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$39</c:f>
+              <c:f>Isolamento!$A$5:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5176,15 +5242,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$39</c:f>
+              <c:f>Isolamento!$B$5:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5286,6 +5355,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>2880</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3055</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5689,9 +5761,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$38</c:f>
+              <c:f>Deceduti!$A$4:$A$39</c:f>
               <c:strCache>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5794,15 +5866,18 @@
                 <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>2020-03-29T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$38</c:f>
+              <c:f>Deceduti!$B$4:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="34"/>
+                <c:ptCount val="35"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5904,6 +5979,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>756</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10412,13 +10490,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43918.762644675924" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="715" xr:uid="{D021012B-A023-5D4D-B205-6F4EFCE66181}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43919.759659143521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="736" xr:uid="{D021012B-A023-5D4D-B205-6F4EFCE66181}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1001" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="35">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="36">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10453,6 +10531,7 @@
         <s v="2020-03-26T17:00:00"/>
         <s v="2020-03-27T17:00:00"/>
         <s v="2020-03-28T17:00:00"/>
+        <s v="2020-03-29T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10534,13 +10613,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43918.763846643516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="715" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43919.760822800927" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="736" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P5470" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="35">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="36">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10575,6 +10654,7 @@
         <s v="2020-03-26T17:00:00"/>
         <s v="2020-03-27T17:00:00"/>
         <s v="2020-03-28T17:00:00"/>
+        <s v="2020-03-29T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -23531,7 +23611,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="715">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="736">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -36386,6 +36466,384 @@
   </r>
   <r>
     <x v="34"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="18"/>
+    <n v="-2"/>
+    <n v="16"/>
+    <n v="126"/>
+    <n v="142"/>
+    <n v="142"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="160"/>
+    <n v="727"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="20"/>
+    <n v="164"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="17"/>
+    <n v="-3"/>
+    <n v="14"/>
+    <n v="40"/>
+    <n v="54"/>
+    <n v="54"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="59"/>
+    <n v="725"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="13"/>
+    <n v="3"/>
+    <n v="16"/>
+    <n v="133"/>
+    <n v="149"/>
+    <n v="149"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="167"/>
+    <n v="1189"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="74"/>
+    <n v="17"/>
+    <n v="91"/>
+    <n v="480"/>
+    <n v="571"/>
+    <n v="571"/>
+    <n v="66"/>
+    <n v="99"/>
+    <n v="736"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="21"/>
+    <n v="21"/>
+    <n v="12"/>
+    <n v="11"/>
+    <n v="44"/>
+    <n v="674"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="77"/>
+    <n v="0"/>
+    <n v="77"/>
+    <n v="104"/>
+    <n v="181"/>
+    <n v="181"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="201"/>
+    <n v="565"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="46"/>
+    <n v="-1"/>
+    <n v="45"/>
+    <n v="148"/>
+    <n v="193"/>
+    <n v="193"/>
+    <n v="42"/>
+    <n v="19"/>
+    <n v="254"/>
+    <n v="923"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="461"/>
+    <n v="9"/>
+    <n v="470"/>
+    <n v="413"/>
+    <n v="883"/>
+    <n v="883"/>
+    <n v="293"/>
+    <n v="416"/>
+    <n v="1592"/>
+    <n v="4895"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="146"/>
+    <n v="161"/>
+    <n v="161"/>
+    <n v="2"/>
+    <n v="22"/>
+    <n v="185"/>
+    <n v="547"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="91"/>
+    <n v="105"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="105"/>
+    <n v="969"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="51"/>
+    <n v="59"/>
+    <n v="59"/>
+    <n v="21"/>
+    <n v="9"/>
+    <n v="89"/>
+    <n v="389"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-109"/>
+    <n v="4"/>
+    <n v="-105"/>
+    <n v="522"/>
+    <n v="417"/>
+    <n v="417"/>
+    <n v="51"/>
+    <n v="67"/>
+    <n v="535"/>
+    <n v="2547"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-4"/>
+    <n v="1"/>
+    <n v="-3"/>
+    <n v="77"/>
+    <n v="74"/>
+    <n v="74"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="91"/>
+    <n v="861"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="373"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="78"/>
+    <n v="88"/>
+    <n v="88"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="101"/>
+    <n v="718"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="18"/>
+    <n v="-2"/>
+    <n v="16"/>
+    <n v="259"/>
+    <n v="275"/>
+    <n v="275"/>
+    <n v="13"/>
+    <n v="17"/>
+    <n v="305"/>
+    <n v="1966"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="-10"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="52"/>
+    <n v="3"/>
+    <n v="54"/>
+    <n v="657"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="71"/>
+    <n v="71"/>
+    <n v="71"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="73"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="27"/>
+    <n v="11"/>
+    <n v="38"/>
+    <n v="300"/>
+    <n v="338"/>
+    <n v="338"/>
+    <n v="60"/>
+    <n v="30"/>
+    <n v="428"/>
+    <n v="5404"/>
+  </r>
+  <r>
+    <x v="35"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -36406,7 +36864,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="715">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="736">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -49261,6 +49719,384 @@
   </r>
   <r>
     <x v="34"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="18"/>
+    <n v="-2"/>
+    <n v="16"/>
+    <n v="126"/>
+    <n v="142"/>
+    <n v="142"/>
+    <n v="6"/>
+    <n v="12"/>
+    <n v="160"/>
+    <n v="727"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="20"/>
+    <n v="164"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="17"/>
+    <n v="-3"/>
+    <n v="14"/>
+    <n v="40"/>
+    <n v="54"/>
+    <n v="54"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="59"/>
+    <n v="725"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="13"/>
+    <n v="3"/>
+    <n v="16"/>
+    <n v="133"/>
+    <n v="149"/>
+    <n v="149"/>
+    <n v="10"/>
+    <n v="8"/>
+    <n v="167"/>
+    <n v="1189"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="74"/>
+    <n v="17"/>
+    <n v="91"/>
+    <n v="480"/>
+    <n v="571"/>
+    <n v="571"/>
+    <n v="66"/>
+    <n v="99"/>
+    <n v="736"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="13"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="21"/>
+    <n v="21"/>
+    <n v="12"/>
+    <n v="11"/>
+    <n v="44"/>
+    <n v="674"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="77"/>
+    <n v="0"/>
+    <n v="77"/>
+    <n v="104"/>
+    <n v="181"/>
+    <n v="181"/>
+    <n v="8"/>
+    <n v="12"/>
+    <n v="201"/>
+    <n v="565"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="46"/>
+    <n v="-1"/>
+    <n v="45"/>
+    <n v="148"/>
+    <n v="193"/>
+    <n v="193"/>
+    <n v="42"/>
+    <n v="19"/>
+    <n v="254"/>
+    <n v="923"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="461"/>
+    <n v="9"/>
+    <n v="470"/>
+    <n v="413"/>
+    <n v="883"/>
+    <n v="883"/>
+    <n v="293"/>
+    <n v="416"/>
+    <n v="1592"/>
+    <n v="4895"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="13"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="146"/>
+    <n v="161"/>
+    <n v="161"/>
+    <n v="2"/>
+    <n v="22"/>
+    <n v="185"/>
+    <n v="547"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="14"/>
+    <n v="91"/>
+    <n v="105"/>
+    <n v="105"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="105"/>
+    <n v="969"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="51"/>
+    <n v="59"/>
+    <n v="59"/>
+    <n v="21"/>
+    <n v="9"/>
+    <n v="89"/>
+    <n v="389"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-109"/>
+    <n v="4"/>
+    <n v="-105"/>
+    <n v="522"/>
+    <n v="417"/>
+    <n v="417"/>
+    <n v="51"/>
+    <n v="67"/>
+    <n v="535"/>
+    <n v="2547"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-4"/>
+    <n v="1"/>
+    <n v="-3"/>
+    <n v="77"/>
+    <n v="74"/>
+    <n v="74"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="91"/>
+    <n v="861"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="2"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="373"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="10"/>
+    <n v="0"/>
+    <n v="10"/>
+    <n v="78"/>
+    <n v="88"/>
+    <n v="88"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="101"/>
+    <n v="718"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="18"/>
+    <n v="-2"/>
+    <n v="16"/>
+    <n v="259"/>
+    <n v="275"/>
+    <n v="275"/>
+    <n v="13"/>
+    <n v="17"/>
+    <n v="305"/>
+    <n v="1966"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="7"/>
+    <n v="2"/>
+    <n v="9"/>
+    <n v="-10"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="52"/>
+    <n v="3"/>
+    <n v="54"/>
+    <n v="657"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="71"/>
+    <n v="71"/>
+    <n v="71"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="73"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="27"/>
+    <n v="11"/>
+    <n v="38"/>
+    <n v="300"/>
+    <n v="338"/>
+    <n v="338"/>
+    <n v="60"/>
+    <n v="30"/>
+    <n v="428"/>
+    <n v="5404"/>
+  </r>
+  <r>
+    <x v="35"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -49281,11 +50117,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{290C4733-C027-1542-B8FD-9E80DB69E142}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:F38" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{290C4733-C027-1542-B8FD-9E80DB69E142}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -49317,10 +50153,11 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item h="1" x="34"/>
+        <item h="1" x="35"/>
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49369,7 +50206,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -49471,6 +50308,9 @@
     </i>
     <i>
       <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
     </i>
     <i t="grand">
       <x/>
@@ -49656,7 +50496,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A78:W114" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -50456,11 +51296,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -50488,7 +51328,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="34"/>
+        <item h="1" x="35"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -50496,6 +51336,7 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -50544,7 +51385,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -50647,6 +51488,9 @@
     <i>
       <x v="34"/>
     </i>
+    <i>
+      <x v="35"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -50693,11 +51537,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -50725,7 +51569,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="34"/>
+        <item h="1" x="35"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -50733,6 +51577,7 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -50781,7 +51626,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -50884,6 +51729,9 @@
     <i>
       <x v="34"/>
     </i>
+    <i>
+      <x v="35"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -50939,11 +51787,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -50971,7 +51819,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="34"/>
+        <item h="1" x="35"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -50979,6 +51827,7 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51027,7 +51876,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -51130,6 +51979,9 @@
     <i>
       <x v="34"/>
     </i>
+    <i>
+      <x v="35"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -51194,11 +52046,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -51226,7 +52078,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="34"/>
+        <item h="1" x="35"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -51234,6 +52086,7 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51282,7 +52135,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -51385,6 +52238,9 @@
     <i>
       <x v="34"/>
     </i>
+    <i>
+      <x v="35"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -51458,11 +52314,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B38" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="36">
+      <items count="37">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -51490,7 +52346,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="34"/>
+        <item h="1" x="35"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -51498,6 +52354,7 @@
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
+        <item x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51546,7 +52403,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="35">
+  <rowItems count="36">
     <i>
       <x/>
     </i>
@@ -51648,6 +52505,9 @@
     </i>
     <i>
       <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
     </i>
     <i t="grand">
       <x/>
@@ -52027,10 +52887,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P715"/>
+  <dimension ref="A1:P736"/>
   <sheetViews>
-    <sheetView topLeftCell="A969" workbookViewId="0">
-      <selection activeCell="A695" sqref="A695:P715"/>
+    <sheetView topLeftCell="A693" workbookViewId="0">
+      <selection activeCell="A716" sqref="A716:P736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87789,6 +88649,1056 @@
         <v>5753</v>
       </c>
     </row>
+    <row r="716" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A716" t="s">
+        <v>60</v>
+      </c>
+      <c r="B716" t="s">
+        <v>16</v>
+      </c>
+      <c r="C716">
+        <v>13</v>
+      </c>
+      <c r="D716" t="s">
+        <v>17</v>
+      </c>
+      <c r="E716" s="2">
+        <v>4235122196</v>
+      </c>
+      <c r="F716" s="2">
+        <v>1339843823</v>
+      </c>
+      <c r="G716">
+        <v>18</v>
+      </c>
+      <c r="H716">
+        <v>-2</v>
+      </c>
+      <c r="I716">
+        <v>16</v>
+      </c>
+      <c r="J716">
+        <v>126</v>
+      </c>
+      <c r="K716">
+        <v>142</v>
+      </c>
+      <c r="L716">
+        <v>142</v>
+      </c>
+      <c r="M716">
+        <v>6</v>
+      </c>
+      <c r="N716">
+        <v>12</v>
+      </c>
+      <c r="O716">
+        <v>160</v>
+      </c>
+      <c r="P716">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="717" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A717" t="s">
+        <v>60</v>
+      </c>
+      <c r="B717" t="s">
+        <v>16</v>
+      </c>
+      <c r="C717">
+        <v>17</v>
+      </c>
+      <c r="D717" t="s">
+        <v>18</v>
+      </c>
+      <c r="E717" s="2">
+        <v>4063947052</v>
+      </c>
+      <c r="F717" s="2">
+        <v>1580514834</v>
+      </c>
+      <c r="G717">
+        <v>6</v>
+      </c>
+      <c r="H717">
+        <v>-1</v>
+      </c>
+      <c r="I717">
+        <v>5</v>
+      </c>
+      <c r="J717">
+        <v>14</v>
+      </c>
+      <c r="K717">
+        <v>19</v>
+      </c>
+      <c r="L717">
+        <v>19</v>
+      </c>
+      <c r="M717">
+        <v>0</v>
+      </c>
+      <c r="N717">
+        <v>1</v>
+      </c>
+      <c r="O717">
+        <v>20</v>
+      </c>
+      <c r="P717">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="718" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A718" t="s">
+        <v>60</v>
+      </c>
+      <c r="B718" t="s">
+        <v>16</v>
+      </c>
+      <c r="C718">
+        <v>18</v>
+      </c>
+      <c r="D718" t="s">
+        <v>19</v>
+      </c>
+      <c r="E718" s="2">
+        <v>3890597598</v>
+      </c>
+      <c r="F718" s="2">
+        <v>1659440194</v>
+      </c>
+      <c r="G718">
+        <v>17</v>
+      </c>
+      <c r="H718">
+        <v>-3</v>
+      </c>
+      <c r="I718">
+        <v>14</v>
+      </c>
+      <c r="J718">
+        <v>40</v>
+      </c>
+      <c r="K718">
+        <v>54</v>
+      </c>
+      <c r="L718">
+        <v>54</v>
+      </c>
+      <c r="M718">
+        <v>1</v>
+      </c>
+      <c r="N718">
+        <v>4</v>
+      </c>
+      <c r="O718">
+        <v>59</v>
+      </c>
+      <c r="P718">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="719" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A719" t="s">
+        <v>60</v>
+      </c>
+      <c r="B719" t="s">
+        <v>16</v>
+      </c>
+      <c r="C719">
+        <v>15</v>
+      </c>
+      <c r="D719" t="s">
+        <v>20</v>
+      </c>
+      <c r="E719" s="2">
+        <v>4083956555</v>
+      </c>
+      <c r="F719" s="2">
+        <v>1425084984</v>
+      </c>
+      <c r="G719">
+        <v>13</v>
+      </c>
+      <c r="H719">
+        <v>3</v>
+      </c>
+      <c r="I719">
+        <v>16</v>
+      </c>
+      <c r="J719">
+        <v>133</v>
+      </c>
+      <c r="K719">
+        <v>149</v>
+      </c>
+      <c r="L719">
+        <v>149</v>
+      </c>
+      <c r="M719">
+        <v>10</v>
+      </c>
+      <c r="N719">
+        <v>8</v>
+      </c>
+      <c r="O719">
+        <v>167</v>
+      </c>
+      <c r="P719">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="720" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A720" t="s">
+        <v>60</v>
+      </c>
+      <c r="B720" t="s">
+        <v>16</v>
+      </c>
+      <c r="C720">
+        <v>8</v>
+      </c>
+      <c r="D720" t="s">
+        <v>21</v>
+      </c>
+      <c r="E720" s="2">
+        <v>4449436681</v>
+      </c>
+      <c r="F720" s="2">
+        <v>113417208</v>
+      </c>
+      <c r="G720">
+        <v>74</v>
+      </c>
+      <c r="H720">
+        <v>17</v>
+      </c>
+      <c r="I720">
+        <v>91</v>
+      </c>
+      <c r="J720">
+        <v>480</v>
+      </c>
+      <c r="K720">
+        <v>571</v>
+      </c>
+      <c r="L720">
+        <v>571</v>
+      </c>
+      <c r="M720">
+        <v>66</v>
+      </c>
+      <c r="N720">
+        <v>99</v>
+      </c>
+      <c r="O720">
+        <v>736</v>
+      </c>
+      <c r="P720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A721" t="s">
+        <v>60</v>
+      </c>
+      <c r="B721" t="s">
+        <v>16</v>
+      </c>
+      <c r="C721">
+        <v>6</v>
+      </c>
+      <c r="D721" t="s">
+        <v>22</v>
+      </c>
+      <c r="E721" s="2">
+        <v>456494354</v>
+      </c>
+      <c r="F721" s="2">
+        <v>1376813649</v>
+      </c>
+      <c r="G721">
+        <v>13</v>
+      </c>
+      <c r="H721">
+        <v>1</v>
+      </c>
+      <c r="I721">
+        <v>14</v>
+      </c>
+      <c r="J721">
+        <v>7</v>
+      </c>
+      <c r="K721">
+        <v>21</v>
+      </c>
+      <c r="L721">
+        <v>21</v>
+      </c>
+      <c r="M721">
+        <v>12</v>
+      </c>
+      <c r="N721">
+        <v>11</v>
+      </c>
+      <c r="O721">
+        <v>44</v>
+      </c>
+      <c r="P721">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="722" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A722" t="s">
+        <v>60</v>
+      </c>
+      <c r="B722" t="s">
+        <v>16</v>
+      </c>
+      <c r="C722">
+        <v>12</v>
+      </c>
+      <c r="D722" t="s">
+        <v>23</v>
+      </c>
+      <c r="E722" s="2">
+        <v>4189277044</v>
+      </c>
+      <c r="F722" s="2">
+        <v>1248366722</v>
+      </c>
+      <c r="G722">
+        <v>77</v>
+      </c>
+      <c r="H722">
+        <v>0</v>
+      </c>
+      <c r="I722">
+        <v>77</v>
+      </c>
+      <c r="J722">
+        <v>104</v>
+      </c>
+      <c r="K722">
+        <v>181</v>
+      </c>
+      <c r="L722">
+        <v>181</v>
+      </c>
+      <c r="M722">
+        <v>8</v>
+      </c>
+      <c r="N722">
+        <v>12</v>
+      </c>
+      <c r="O722">
+        <v>201</v>
+      </c>
+      <c r="P722">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="723" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A723" t="s">
+        <v>60</v>
+      </c>
+      <c r="B723" t="s">
+        <v>16</v>
+      </c>
+      <c r="C723">
+        <v>7</v>
+      </c>
+      <c r="D723" t="s">
+        <v>24</v>
+      </c>
+      <c r="E723" s="2">
+        <v>4441149315</v>
+      </c>
+      <c r="F723" s="2">
+        <v>89326992</v>
+      </c>
+      <c r="G723">
+        <v>46</v>
+      </c>
+      <c r="H723">
+        <v>-1</v>
+      </c>
+      <c r="I723">
+        <v>45</v>
+      </c>
+      <c r="J723">
+        <v>148</v>
+      </c>
+      <c r="K723">
+        <v>193</v>
+      </c>
+      <c r="L723">
+        <v>193</v>
+      </c>
+      <c r="M723">
+        <v>42</v>
+      </c>
+      <c r="N723">
+        <v>19</v>
+      </c>
+      <c r="O723">
+        <v>254</v>
+      </c>
+      <c r="P723">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="724" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A724" t="s">
+        <v>60</v>
+      </c>
+      <c r="B724" t="s">
+        <v>16</v>
+      </c>
+      <c r="C724">
+        <v>3</v>
+      </c>
+      <c r="D724" t="s">
+        <v>25</v>
+      </c>
+      <c r="E724" s="2">
+        <v>4546679409</v>
+      </c>
+      <c r="F724" s="2">
+        <v>9190347404</v>
+      </c>
+      <c r="G724">
+        <v>461</v>
+      </c>
+      <c r="H724">
+        <v>9</v>
+      </c>
+      <c r="I724">
+        <v>470</v>
+      </c>
+      <c r="J724">
+        <v>413</v>
+      </c>
+      <c r="K724">
+        <v>883</v>
+      </c>
+      <c r="L724">
+        <v>883</v>
+      </c>
+      <c r="M724">
+        <v>293</v>
+      </c>
+      <c r="N724">
+        <v>416</v>
+      </c>
+      <c r="O724">
+        <v>1592</v>
+      </c>
+      <c r="P724">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="725" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A725" t="s">
+        <v>60</v>
+      </c>
+      <c r="B725" t="s">
+        <v>16</v>
+      </c>
+      <c r="C725">
+        <v>11</v>
+      </c>
+      <c r="D725" t="s">
+        <v>26</v>
+      </c>
+      <c r="E725" s="2">
+        <v>4361675973</v>
+      </c>
+      <c r="F725" s="2">
+        <v>135188753</v>
+      </c>
+      <c r="G725">
+        <v>13</v>
+      </c>
+      <c r="H725">
+        <v>2</v>
+      </c>
+      <c r="I725">
+        <v>15</v>
+      </c>
+      <c r="J725">
+        <v>146</v>
+      </c>
+      <c r="K725">
+        <v>161</v>
+      </c>
+      <c r="L725">
+        <v>161</v>
+      </c>
+      <c r="M725">
+        <v>2</v>
+      </c>
+      <c r="N725">
+        <v>22</v>
+      </c>
+      <c r="O725">
+        <v>185</v>
+      </c>
+      <c r="P725">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="726" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A726" t="s">
+        <v>60</v>
+      </c>
+      <c r="B726" t="s">
+        <v>16</v>
+      </c>
+      <c r="C726">
+        <v>14</v>
+      </c>
+      <c r="D726" t="s">
+        <v>27</v>
+      </c>
+      <c r="E726" s="2">
+        <v>4155774754</v>
+      </c>
+      <c r="F726" s="2">
+        <v>1465916051</v>
+      </c>
+      <c r="G726">
+        <v>-1</v>
+      </c>
+      <c r="H726">
+        <v>0</v>
+      </c>
+      <c r="I726">
+        <v>-1</v>
+      </c>
+      <c r="J726">
+        <v>3</v>
+      </c>
+      <c r="K726">
+        <v>2</v>
+      </c>
+      <c r="L726">
+        <v>2</v>
+      </c>
+      <c r="M726">
+        <v>2</v>
+      </c>
+      <c r="N726">
+        <v>0</v>
+      </c>
+      <c r="O726">
+        <v>4</v>
+      </c>
+      <c r="P726">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="727" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A727" t="s">
+        <v>60</v>
+      </c>
+      <c r="B727" t="s">
+        <v>16</v>
+      </c>
+      <c r="C727">
+        <v>4</v>
+      </c>
+      <c r="D727" t="s">
+        <v>28</v>
+      </c>
+      <c r="E727" s="2">
+        <v>4649933453</v>
+      </c>
+      <c r="F727" s="2">
+        <v>1135662422</v>
+      </c>
+      <c r="G727">
+        <v>9</v>
+      </c>
+      <c r="H727">
+        <v>5</v>
+      </c>
+      <c r="I727">
+        <v>14</v>
+      </c>
+      <c r="J727">
+        <v>91</v>
+      </c>
+      <c r="K727">
+        <v>105</v>
+      </c>
+      <c r="L727">
+        <v>105</v>
+      </c>
+      <c r="M727">
+        <v>0</v>
+      </c>
+      <c r="N727">
+        <v>0</v>
+      </c>
+      <c r="O727">
+        <v>105</v>
+      </c>
+      <c r="P727">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="728" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A728" t="s">
+        <v>60</v>
+      </c>
+      <c r="B728" t="s">
+        <v>16</v>
+      </c>
+      <c r="C728">
+        <v>4</v>
+      </c>
+      <c r="D728" t="s">
+        <v>29</v>
+      </c>
+      <c r="E728" s="2">
+        <v>4606893511</v>
+      </c>
+      <c r="F728" s="2">
+        <v>1112123097</v>
+      </c>
+      <c r="G728">
+        <v>5</v>
+      </c>
+      <c r="H728">
+        <v>3</v>
+      </c>
+      <c r="I728">
+        <v>8</v>
+      </c>
+      <c r="J728">
+        <v>51</v>
+      </c>
+      <c r="K728">
+        <v>59</v>
+      </c>
+      <c r="L728">
+        <v>59</v>
+      </c>
+      <c r="M728">
+        <v>21</v>
+      </c>
+      <c r="N728">
+        <v>9</v>
+      </c>
+      <c r="O728">
+        <v>89</v>
+      </c>
+      <c r="P728">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="729" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A729" t="s">
+        <v>60</v>
+      </c>
+      <c r="B729" t="s">
+        <v>16</v>
+      </c>
+      <c r="C729">
+        <v>1</v>
+      </c>
+      <c r="D729" t="s">
+        <v>30</v>
+      </c>
+      <c r="E729" s="2">
+        <v>450732745</v>
+      </c>
+      <c r="F729" s="2">
+        <v>7680687483</v>
+      </c>
+      <c r="G729">
+        <v>-109</v>
+      </c>
+      <c r="H729">
+        <v>4</v>
+      </c>
+      <c r="I729">
+        <v>-105</v>
+      </c>
+      <c r="J729">
+        <v>522</v>
+      </c>
+      <c r="K729">
+        <v>417</v>
+      </c>
+      <c r="L729">
+        <v>417</v>
+      </c>
+      <c r="M729">
+        <v>51</v>
+      </c>
+      <c r="N729">
+        <v>67</v>
+      </c>
+      <c r="O729">
+        <v>535</v>
+      </c>
+      <c r="P729">
+        <v>2547</v>
+      </c>
+    </row>
+    <row r="730" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A730" t="s">
+        <v>60</v>
+      </c>
+      <c r="B730" t="s">
+        <v>16</v>
+      </c>
+      <c r="C730">
+        <v>16</v>
+      </c>
+      <c r="D730" t="s">
+        <v>31</v>
+      </c>
+      <c r="E730" s="2">
+        <v>4112559576</v>
+      </c>
+      <c r="F730" s="2">
+        <v>1686736689</v>
+      </c>
+      <c r="G730">
+        <v>-4</v>
+      </c>
+      <c r="H730">
+        <v>1</v>
+      </c>
+      <c r="I730">
+        <v>-3</v>
+      </c>
+      <c r="J730">
+        <v>77</v>
+      </c>
+      <c r="K730">
+        <v>74</v>
+      </c>
+      <c r="L730">
+        <v>74</v>
+      </c>
+      <c r="M730">
+        <v>2</v>
+      </c>
+      <c r="N730">
+        <v>15</v>
+      </c>
+      <c r="O730">
+        <v>91</v>
+      </c>
+      <c r="P730">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="731" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A731" t="s">
+        <v>60</v>
+      </c>
+      <c r="B731" t="s">
+        <v>16</v>
+      </c>
+      <c r="C731">
+        <v>20</v>
+      </c>
+      <c r="D731" t="s">
+        <v>32</v>
+      </c>
+      <c r="E731" s="2">
+        <v>3921531192</v>
+      </c>
+      <c r="F731" s="2">
+        <v>9110616306</v>
+      </c>
+      <c r="G731">
+        <v>10</v>
+      </c>
+      <c r="H731">
+        <v>1</v>
+      </c>
+      <c r="I731">
+        <v>11</v>
+      </c>
+      <c r="J731">
+        <v>2</v>
+      </c>
+      <c r="K731">
+        <v>13</v>
+      </c>
+      <c r="L731">
+        <v>13</v>
+      </c>
+      <c r="M731">
+        <v>0</v>
+      </c>
+      <c r="N731">
+        <v>1</v>
+      </c>
+      <c r="O731">
+        <v>14</v>
+      </c>
+      <c r="P731">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="732" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A732" t="s">
+        <v>60</v>
+      </c>
+      <c r="B732" t="s">
+        <v>16</v>
+      </c>
+      <c r="C732">
+        <v>19</v>
+      </c>
+      <c r="D732" t="s">
+        <v>33</v>
+      </c>
+      <c r="E732" s="2">
+        <v>3811569725</v>
+      </c>
+      <c r="F732" s="2">
+        <v>133623567</v>
+      </c>
+      <c r="G732">
+        <v>10</v>
+      </c>
+      <c r="H732">
+        <v>0</v>
+      </c>
+      <c r="I732">
+        <v>10</v>
+      </c>
+      <c r="J732">
+        <v>78</v>
+      </c>
+      <c r="K732">
+        <v>88</v>
+      </c>
+      <c r="L732">
+        <v>88</v>
+      </c>
+      <c r="M732">
+        <v>5</v>
+      </c>
+      <c r="N732">
+        <v>8</v>
+      </c>
+      <c r="O732">
+        <v>101</v>
+      </c>
+      <c r="P732">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="733" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A733" t="s">
+        <v>60</v>
+      </c>
+      <c r="B733" t="s">
+        <v>16</v>
+      </c>
+      <c r="C733">
+        <v>9</v>
+      </c>
+      <c r="D733" t="s">
+        <v>34</v>
+      </c>
+      <c r="E733" s="2">
+        <v>4376923077</v>
+      </c>
+      <c r="F733" s="2">
+        <v>1125588885</v>
+      </c>
+      <c r="G733">
+        <v>18</v>
+      </c>
+      <c r="H733">
+        <v>-2</v>
+      </c>
+      <c r="I733">
+        <v>16</v>
+      </c>
+      <c r="J733">
+        <v>259</v>
+      </c>
+      <c r="K733">
+        <v>275</v>
+      </c>
+      <c r="L733">
+        <v>275</v>
+      </c>
+      <c r="M733">
+        <v>13</v>
+      </c>
+      <c r="N733">
+        <v>17</v>
+      </c>
+      <c r="O733">
+        <v>305</v>
+      </c>
+      <c r="P733">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="734" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A734" t="s">
+        <v>60</v>
+      </c>
+      <c r="B734" t="s">
+        <v>16</v>
+      </c>
+      <c r="C734">
+        <v>10</v>
+      </c>
+      <c r="D734" t="s">
+        <v>35</v>
+      </c>
+      <c r="E734" s="2">
+        <v>4310675841</v>
+      </c>
+      <c r="F734" s="2">
+        <v>1238824698</v>
+      </c>
+      <c r="G734">
+        <v>7</v>
+      </c>
+      <c r="H734">
+        <v>2</v>
+      </c>
+      <c r="I734">
+        <v>9</v>
+      </c>
+      <c r="J734">
+        <v>-10</v>
+      </c>
+      <c r="K734">
+        <v>-1</v>
+      </c>
+      <c r="L734">
+        <v>-1</v>
+      </c>
+      <c r="M734">
+        <v>52</v>
+      </c>
+      <c r="N734">
+        <v>3</v>
+      </c>
+      <c r="O734">
+        <v>54</v>
+      </c>
+      <c r="P734">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="735" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A735" t="s">
+        <v>60</v>
+      </c>
+      <c r="B735" t="s">
+        <v>16</v>
+      </c>
+      <c r="C735">
+        <v>2</v>
+      </c>
+      <c r="D735" t="s">
+        <v>36</v>
+      </c>
+      <c r="E735" s="2">
+        <v>4573750286</v>
+      </c>
+      <c r="F735" s="2">
+        <v>7320149366</v>
+      </c>
+      <c r="G735">
+        <v>0</v>
+      </c>
+      <c r="H735">
+        <v>0</v>
+      </c>
+      <c r="I735">
+        <v>0</v>
+      </c>
+      <c r="J735">
+        <v>71</v>
+      </c>
+      <c r="K735">
+        <v>71</v>
+      </c>
+      <c r="L735">
+        <v>71</v>
+      </c>
+      <c r="M735">
+        <v>0</v>
+      </c>
+      <c r="N735">
+        <v>2</v>
+      </c>
+      <c r="O735">
+        <v>73</v>
+      </c>
+      <c r="P735">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="736" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A736" t="s">
+        <v>60</v>
+      </c>
+      <c r="B736" t="s">
+        <v>16</v>
+      </c>
+      <c r="C736">
+        <v>5</v>
+      </c>
+      <c r="D736" t="s">
+        <v>37</v>
+      </c>
+      <c r="E736" s="2">
+        <v>4543490485</v>
+      </c>
+      <c r="F736" s="2">
+        <v>1233845213</v>
+      </c>
+      <c r="G736">
+        <v>27</v>
+      </c>
+      <c r="H736">
+        <v>11</v>
+      </c>
+      <c r="I736">
+        <v>38</v>
+      </c>
+      <c r="J736">
+        <v>300</v>
+      </c>
+      <c r="K736">
+        <v>338</v>
+      </c>
+      <c r="L736">
+        <v>338</v>
+      </c>
+      <c r="M736">
+        <v>60</v>
+      </c>
+      <c r="N736">
+        <v>30</v>
+      </c>
+      <c r="O736">
+        <v>428</v>
+      </c>
+      <c r="P736">
+        <v>5404</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -87798,8 +89708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView topLeftCell="A42" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -89395,23 +91305,23 @@
         <v>5959</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H38" si="51">C36/G36</f>
+        <f t="shared" ref="H36:H39" si="51">C36/G36</f>
         <v>9.8842087598590367E-2</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" ref="I36:I38" si="52">B36/G36</f>
+        <f t="shared" ref="I36:I39" si="52">B36/G36</f>
         <v>0.16261117637187447</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" ref="J36:J38" si="53">F36/G36</f>
+        <f t="shared" ref="J36:J39" si="53">F36/G36</f>
         <v>0.21412988756502768</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" ref="K36:K38" si="54">E36/G36</f>
+        <f t="shared" ref="K36:K39" si="54">E36/G36</f>
         <v>2.0137606981037087E-2</v>
       </c>
       <c r="L36" s="7">
-        <f t="shared" ref="L36:L38" si="55">D36/G36</f>
+        <f t="shared" ref="L36:L39" si="55">D36/G36</f>
         <v>0.50427924148347036</v>
       </c>
     </row>
@@ -89461,46 +91371,78 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="B38" s="5">
-        <v>10023</v>
+        <v>756</v>
       </c>
       <c r="C38" s="5">
-        <v>12384</v>
+        <v>646</v>
       </c>
       <c r="D38" s="5">
-        <v>39533</v>
+        <v>3055</v>
       </c>
       <c r="E38" s="5">
-        <v>3856</v>
+        <v>50</v>
       </c>
       <c r="F38" s="5">
-        <v>26676</v>
+        <v>710</v>
       </c>
       <c r="G38">
         <f>SUM(B38:F38)</f>
-        <v>92472</v>
+        <v>5217</v>
       </c>
       <c r="H38" s="7">
         <f t="shared" si="51"/>
-        <v>0.13392161951725928</v>
+        <v>0.12382595361318766</v>
       </c>
       <c r="I38" s="7">
         <f t="shared" si="52"/>
-        <v>0.10838956657150273</v>
+        <v>0.14491086831512365</v>
       </c>
       <c r="J38" s="7">
         <f t="shared" si="53"/>
-        <v>0.28847651180898004</v>
+        <v>0.13609354034885951</v>
       </c>
       <c r="K38" s="7">
         <f t="shared" si="54"/>
-        <v>4.1699108919456704E-2</v>
+        <v>9.5840521372436271E-3</v>
       </c>
       <c r="L38" s="7">
         <f t="shared" si="55"/>
-        <v>0.42751319318280129</v>
+        <v>0.5855855855855856</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5">
+        <v>10779</v>
+      </c>
+      <c r="C39" s="5">
+        <v>13030</v>
+      </c>
+      <c r="D39" s="5">
+        <v>42588</v>
+      </c>
+      <c r="E39" s="5">
+        <v>3906</v>
+      </c>
+      <c r="F39" s="5">
+        <v>27386</v>
+      </c>
+      <c r="G39" s="10">
+        <f>SUM(B39:F39)</f>
+        <v>97689</v>
+      </c>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7">
+        <f t="shared" si="55"/>
+        <v>0.43595491815864634</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
@@ -92075,10 +94017,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -92434,6 +94376,16 @@
       <c r="B36">
         <f>All!G37</f>
         <v>5974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="str">
+        <f>All!A38</f>
+        <v>2020-03-29T17:00:00</v>
+      </c>
+      <c r="B37">
+        <f>All!G38</f>
+        <v>5217</v>
       </c>
     </row>
   </sheetData>
@@ -92444,10 +94396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -92751,10 +94703,18 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="5">
-        <v>26676</v>
+      <c r="B39" s="5">
+        <v>27386</v>
       </c>
     </row>
   </sheetData>
@@ -92765,7 +94725,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -93084,10 +95044,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="5">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B41" s="5">
-        <v>12384</v>
+      <c r="B42" s="5">
+        <v>13030</v>
       </c>
     </row>
   </sheetData>
@@ -93098,7 +95066,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B39"/>
+  <dimension ref="A2:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A5:A36"/>
@@ -93405,10 +95373,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>3856</v>
+      <c r="B40" s="5">
+        <v>3906</v>
       </c>
     </row>
   </sheetData>
@@ -93419,10 +95395,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A5:A38"/>
+      <selection activeCell="A11" sqref="A5:A39"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -93737,10 +95713,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" s="5">
+        <v>3055</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>39533</v>
+      <c r="B40" s="5">
+        <v>42588</v>
       </c>
     </row>
   </sheetData>
@@ -93751,9 +95735,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AO1" sqref="AO1"/>
     </sheetView>
   </sheetViews>
@@ -94058,10 +96042,18 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="5">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="5">
-        <v>10023</v>
+      <c r="B39" s="5">
+        <v>10779</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759AFCC-4CFD-1D4B-9EC7-B57D32B9685C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{744B9C43-7706-C547-BF4C-6D221F3AE0EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="300" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,9 +24,9 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId9"/>
-    <pivotCache cacheId="6" r:id="rId10"/>
-    <pivotCache cacheId="10" r:id="rId11"/>
+    <pivotCache cacheId="23" r:id="rId9"/>
+    <pivotCache cacheId="29" r:id="rId10"/>
+    <pivotCache cacheId="33" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1694" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="62">
   <si>
     <t>data</t>
   </si>
@@ -223,6 +223,9 @@
   <si>
     <t>2020-03-29T17:00:00</t>
   </si>
+  <si>
+    <t>2020-03-30T17:00:00</t>
+  </si>
 </sst>
 </file>
 
@@ -365,7 +368,7 @@
     </font>
     <font>
       <b/>
-      <sz val="24"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1015,9 +1018,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$39</c:f>
+              <c:f>All!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1123,15 +1126,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$39</c:f>
+              <c:f>All!$B$4:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1237,6 +1243,9 @@
                 <c:pt idx="34">
                   <c:v>756</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>812</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1287,9 +1296,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$39</c:f>
+              <c:f>All!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1395,15 +1404,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$39</c:f>
+              <c:f>All!$C$4:$C$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1509,6 +1521,9 @@
                 <c:pt idx="34">
                   <c:v>646</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>1590</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1559,9 +1574,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$39</c:f>
+              <c:f>All!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1667,15 +1682,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$39</c:f>
+              <c:f>All!$D$4:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -1781,6 +1799,9 @@
                 <c:pt idx="34">
                   <c:v>3055</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>1164</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1831,9 +1852,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$39</c:f>
+              <c:f>All!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -1939,15 +1960,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$39</c:f>
+              <c:f>All!$E$4:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2053,6 +2077,9 @@
                 <c:pt idx="34">
                   <c:v>50</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2103,9 +2130,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$39</c:f>
+              <c:f>All!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -2211,15 +2238,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$39</c:f>
+              <c:f>All!$F$4:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -2324,6 +2354,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2680,9 +2713,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$37</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$38</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2788,15 +2821,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$37</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2901,6 +2937,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>5217</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3292,9 +3331,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$39</c:f>
+              <c:f>Ricoverati!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -3400,15 +3439,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$39</c:f>
+              <c:f>Ricoverati!$B$4:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -3513,6 +3555,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>710</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>409</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3903,9 +3948,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$42</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -4011,15 +4056,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$42</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4124,6 +4172,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>646</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1590</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4527,9 +4578,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$40</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$41</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -4635,15 +4686,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$40</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4748,6 +4802,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5137,9 +5194,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$40</c:f>
+              <c:f>Isolamento!$A$5:$A$41</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5245,15 +5302,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$40</c:f>
+              <c:f>Isolamento!$B$5:$B$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5358,6 +5418,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3055</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1164</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5761,9 +5824,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$39</c:f>
+              <c:f>Deceduti!$A$4:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 18:00</c:v>
                 </c:pt>
@@ -5869,15 +5932,18 @@
                 <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>2020-03-30T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$39</c:f>
+              <c:f>Deceduti!$B$4:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -5982,6 +6048,9 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10490,13 +10559,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43919.759659143521" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="736" xr:uid="{D021012B-A023-5D4D-B205-6F4EFCE66181}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43920.765171064813" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="757" xr:uid="{D021012B-A023-5D4D-B205-6F4EFCE66181}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P1001" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="36">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="37">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10532,6 +10601,7 @@
         <s v="2020-03-27T17:00:00"/>
         <s v="2020-03-28T17:00:00"/>
         <s v="2020-03-29T17:00:00"/>
+        <s v="2020-03-30T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10586,13 +10656,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-715" maxValue="1488"/>
     </cacheField>
     <cacheField name="totale_attualmente_positivi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-63" maxValue="1950"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-386" maxValue="1950"/>
     </cacheField>
     <cacheField name="nuovi_attualmente_positivi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-63" maxValue="1950"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-386" maxValue="1950"/>
     </cacheField>
     <cacheField name="dimessi_guariti" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-25" maxValue="1003"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-25" maxValue="1082"/>
     </cacheField>
     <cacheField name="deceduti" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-1" maxValue="546"/>
@@ -10601,7 +10671,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-17" maxValue="3251"/>
     </cacheField>
     <cacheField name="tamponi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-906" maxValue="9556"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-2001" maxValue="9556"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -10613,13 +10683,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43919.760822800927" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="736" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43920.76608425926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="757" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P5470" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="36">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="37">
         <d v="2020-02-24T18:00:00"/>
         <d v="2020-02-25T18:00:00"/>
         <d v="2020-02-26T18:00:00"/>
@@ -10655,6 +10725,7 @@
         <s v="2020-03-27T17:00:00"/>
         <s v="2020-03-28T17:00:00"/>
         <s v="2020-03-29T17:00:00"/>
+        <s v="2020-03-30T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10709,13 +10780,13 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-715" maxValue="1488"/>
     </cacheField>
     <cacheField name="totale_attualmente_positivi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-63" maxValue="1950"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-386" maxValue="1950"/>
     </cacheField>
     <cacheField name="nuovi_attualmente_positivi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-63" maxValue="1950"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-386" maxValue="1950"/>
     </cacheField>
     <cacheField name="dimessi_guariti" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-25" maxValue="1003"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-25" maxValue="1082"/>
     </cacheField>
     <cacheField name="deceduti" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-1" maxValue="546"/>
@@ -10724,7 +10795,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-17" maxValue="3251"/>
     </cacheField>
     <cacheField name="tamponi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-906" maxValue="9556"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-2001" maxValue="9556"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -23611,7 +23682,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="736">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="757">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -36844,6 +36915,384 @@
   </r>
   <r>
     <x v="35"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="1"/>
+    <n v="-6"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="38"/>
+    <n v="14"/>
+    <n v="52"/>
+    <n v="218"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="248"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="33"/>
+    <n v="528"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="-8"/>
+    <n v="-9"/>
+    <n v="-17"/>
+    <n v="200"/>
+    <n v="183"/>
+    <n v="183"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="193"/>
+    <n v="1164"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="10"/>
+    <n v="18"/>
+    <n v="28"/>
+    <n v="203"/>
+    <n v="231"/>
+    <n v="231"/>
+    <n v="86"/>
+    <n v="95"/>
+    <n v="412"/>
+    <n v="-2001"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-7"/>
+    <n v="0"/>
+    <n v="-7"/>
+    <n v="-25"/>
+    <n v="-32"/>
+    <n v="-32"/>
+    <n v="44"/>
+    <n v="9"/>
+    <n v="21"/>
+    <n v="606"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="17"/>
+    <n v="21"/>
+    <n v="38"/>
+    <n v="97"/>
+    <n v="135"/>
+    <n v="135"/>
+    <n v="59"/>
+    <n v="14"/>
+    <n v="208"/>
+    <n v="5102"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="65"/>
+    <n v="9"/>
+    <n v="74"/>
+    <n v="30"/>
+    <n v="104"/>
+    <n v="104"/>
+    <n v="17"/>
+    <n v="20"/>
+    <n v="141"/>
+    <n v="577"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="202"/>
+    <n v="2"/>
+    <n v="204"/>
+    <n v="-590"/>
+    <n v="-386"/>
+    <n v="-386"/>
+    <n v="1082"/>
+    <n v="458"/>
+    <n v="1154"/>
+    <n v="3659"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-2"/>
+    <n v="-1"/>
+    <n v="-3"/>
+    <n v="94"/>
+    <n v="91"/>
+    <n v="91"/>
+    <n v="4"/>
+    <n v="31"/>
+    <n v="126"/>
+    <n v="548"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="-3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="61"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="37"/>
+    <n v="10"/>
+    <n v="111"/>
+    <n v="503"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="18"/>
+    <n v="88"/>
+    <n v="427"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="378"/>
+    <n v="387"/>
+    <n v="387"/>
+    <n v="54"/>
+    <n v="65"/>
+    <n v="506"/>
+    <n v="1420"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="31"/>
+    <n v="7"/>
+    <n v="38"/>
+    <n v="115"/>
+    <n v="153"/>
+    <n v="153"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="163"/>
+    <n v="756"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="31"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="44"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="33"/>
+    <n v="4"/>
+    <n v="37"/>
+    <n v="41"/>
+    <n v="78"/>
+    <n v="78"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="95"/>
+    <n v="944"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="255"/>
+    <n v="264"/>
+    <n v="264"/>
+    <n v="10"/>
+    <n v="16"/>
+    <n v="290"/>
+    <n v="2520"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="-71"/>
+    <n v="-63"/>
+    <n v="-63"/>
+    <n v="89"/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="465"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="-23"/>
+    <n v="-21"/>
+    <n v="-21"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="47"/>
+    <n v="1"/>
+    <n v="48"/>
+    <n v="265"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="32"/>
+    <n v="21"/>
+    <n v="366"/>
+    <n v="5157"/>
+  </r>
+  <r>
+    <x v="36"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -36864,7 +37313,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="736">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="757">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -50097,6 +50546,384 @@
   </r>
   <r>
     <x v="35"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="1"/>
+    <n v="-6"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="38"/>
+    <n v="14"/>
+    <n v="52"/>
+    <n v="218"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="12"/>
+    <n v="248"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="20"/>
+    <n v="25"/>
+    <n v="25"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="33"/>
+    <n v="528"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="-8"/>
+    <n v="-9"/>
+    <n v="-17"/>
+    <n v="200"/>
+    <n v="183"/>
+    <n v="183"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="193"/>
+    <n v="1164"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="10"/>
+    <n v="18"/>
+    <n v="28"/>
+    <n v="203"/>
+    <n v="231"/>
+    <n v="231"/>
+    <n v="86"/>
+    <n v="95"/>
+    <n v="412"/>
+    <n v="-2001"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-7"/>
+    <n v="0"/>
+    <n v="-7"/>
+    <n v="-25"/>
+    <n v="-32"/>
+    <n v="-32"/>
+    <n v="44"/>
+    <n v="9"/>
+    <n v="21"/>
+    <n v="606"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="17"/>
+    <n v="21"/>
+    <n v="38"/>
+    <n v="97"/>
+    <n v="135"/>
+    <n v="135"/>
+    <n v="59"/>
+    <n v="14"/>
+    <n v="208"/>
+    <n v="5102"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="65"/>
+    <n v="9"/>
+    <n v="74"/>
+    <n v="30"/>
+    <n v="104"/>
+    <n v="104"/>
+    <n v="17"/>
+    <n v="20"/>
+    <n v="141"/>
+    <n v="577"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="202"/>
+    <n v="2"/>
+    <n v="204"/>
+    <n v="-590"/>
+    <n v="-386"/>
+    <n v="-386"/>
+    <n v="1082"/>
+    <n v="458"/>
+    <n v="1154"/>
+    <n v="3659"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-2"/>
+    <n v="-1"/>
+    <n v="-3"/>
+    <n v="94"/>
+    <n v="91"/>
+    <n v="91"/>
+    <n v="4"/>
+    <n v="31"/>
+    <n v="126"/>
+    <n v="548"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="6"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="7"/>
+    <n v="37"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="-3"/>
+    <n v="6"/>
+    <n v="3"/>
+    <n v="61"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="37"/>
+    <n v="10"/>
+    <n v="111"/>
+    <n v="503"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="18"/>
+    <n v="88"/>
+    <n v="427"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="378"/>
+    <n v="387"/>
+    <n v="387"/>
+    <n v="54"/>
+    <n v="65"/>
+    <n v="506"/>
+    <n v="1420"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="31"/>
+    <n v="7"/>
+    <n v="38"/>
+    <n v="115"/>
+    <n v="153"/>
+    <n v="153"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="163"/>
+    <n v="756"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="31"/>
+    <n v="40"/>
+    <n v="40"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="44"/>
+    <n v="395"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="33"/>
+    <n v="4"/>
+    <n v="37"/>
+    <n v="41"/>
+    <n v="78"/>
+    <n v="78"/>
+    <n v="6"/>
+    <n v="11"/>
+    <n v="95"/>
+    <n v="944"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="5"/>
+    <n v="4"/>
+    <n v="9"/>
+    <n v="255"/>
+    <n v="264"/>
+    <n v="264"/>
+    <n v="10"/>
+    <n v="16"/>
+    <n v="290"/>
+    <n v="2520"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="7"/>
+    <n v="1"/>
+    <n v="8"/>
+    <n v="-71"/>
+    <n v="-63"/>
+    <n v="-63"/>
+    <n v="89"/>
+    <n v="2"/>
+    <n v="28"/>
+    <n v="465"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="-23"/>
+    <n v="-21"/>
+    <n v="-21"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="56"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="47"/>
+    <n v="1"/>
+    <n v="48"/>
+    <n v="265"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="32"/>
+    <n v="21"/>
+    <n v="366"/>
+    <n v="5157"/>
+  </r>
+  <r>
+    <x v="36"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -50117,11 +50944,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{290C4733-C027-1542-B8FD-9E80DB69E142}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A3:F39" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{290C4733-C027-1542-B8FD-9E80DB69E142}" name="PivotTable2" cacheId="29" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A3:F40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
-      <items count="37">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -50153,11 +50980,12 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
-        <item h="1" x="35"/>
+        <item h="1" x="36"/>
         <item x="31"/>
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -50206,7 +51034,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -50311,6 +51139,9 @@
     </i>
     <i>
       <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
     </i>
     <i t="grand">
       <x/>
@@ -50496,7 +51327,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BCBBE7F-23F3-FB45-ABDB-CBBC54EA0A28}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
   <location ref="A78:W114" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0">
@@ -51296,11 +52127,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="37">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -51328,7 +52159,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="35"/>
+        <item h="1" x="36"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -51337,6 +52168,7 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51385,7 +52217,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -51491,6 +52323,9 @@
     <i>
       <x v="35"/>
     </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -51537,11 +52372,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="37">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -51569,7 +52404,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="35"/>
+        <item h="1" x="36"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -51578,6 +52413,7 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51626,7 +52462,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -51732,6 +52568,9 @@
     <i>
       <x v="35"/>
     </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -51787,11 +52626,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="37">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -51819,7 +52658,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="35"/>
+        <item h="1" x="36"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -51828,6 +52667,7 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -51876,7 +52716,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -51982,6 +52822,9 @@
     <i>
       <x v="35"/>
     </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -52046,11 +52889,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="37">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -52078,7 +52921,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="35"/>
+        <item h="1" x="36"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -52087,6 +52930,7 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52135,7 +52979,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -52241,6 +53085,9 @@
     <i>
       <x v="35"/>
     </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -52314,11 +53161,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B39" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B40" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0">
-      <items count="37">
+      <items count="38">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -52346,7 +53193,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="35"/>
+        <item h="1" x="36"/>
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
@@ -52355,6 +53202,7 @@
         <item x="32"/>
         <item x="33"/>
         <item x="34"/>
+        <item x="35"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -52403,7 +53251,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="36">
+  <rowItems count="37">
     <i>
       <x/>
     </i>
@@ -52508,6 +53356,9 @@
     </i>
     <i>
       <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
     </i>
     <i t="grand">
       <x/>
@@ -52887,10 +53738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P736"/>
+  <dimension ref="A1:P757"/>
   <sheetViews>
-    <sheetView topLeftCell="A693" workbookViewId="0">
-      <selection activeCell="A716" sqref="A716:P736"/>
+    <sheetView topLeftCell="A707" workbookViewId="0">
+      <selection activeCell="A737" sqref="A737:P757"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -89699,6 +90550,1056 @@
         <v>5404</v>
       </c>
     </row>
+    <row r="737" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A737" t="s">
+        <v>61</v>
+      </c>
+      <c r="B737" t="s">
+        <v>16</v>
+      </c>
+      <c r="C737">
+        <v>13</v>
+      </c>
+      <c r="D737" t="s">
+        <v>17</v>
+      </c>
+      <c r="E737" s="2">
+        <v>4235122196</v>
+      </c>
+      <c r="F737" s="2">
+        <v>1339843823</v>
+      </c>
+      <c r="G737">
+        <v>-7</v>
+      </c>
+      <c r="H737">
+        <v>1</v>
+      </c>
+      <c r="I737">
+        <v>-6</v>
+      </c>
+      <c r="J737">
+        <v>6</v>
+      </c>
+      <c r="K737">
+        <v>0</v>
+      </c>
+      <c r="L737">
+        <v>0</v>
+      </c>
+      <c r="M737">
+        <v>38</v>
+      </c>
+      <c r="N737">
+        <v>14</v>
+      </c>
+      <c r="O737">
+        <v>52</v>
+      </c>
+      <c r="P737">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="738" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A738" t="s">
+        <v>61</v>
+      </c>
+      <c r="B738" t="s">
+        <v>16</v>
+      </c>
+      <c r="C738">
+        <v>17</v>
+      </c>
+      <c r="D738" t="s">
+        <v>18</v>
+      </c>
+      <c r="E738" s="2">
+        <v>4063947052</v>
+      </c>
+      <c r="F738" s="2">
+        <v>1580514834</v>
+      </c>
+      <c r="G738">
+        <v>4</v>
+      </c>
+      <c r="H738">
+        <v>0</v>
+      </c>
+      <c r="I738">
+        <v>4</v>
+      </c>
+      <c r="J738">
+        <v>7</v>
+      </c>
+      <c r="K738">
+        <v>11</v>
+      </c>
+      <c r="L738">
+        <v>11</v>
+      </c>
+      <c r="M738">
+        <v>0</v>
+      </c>
+      <c r="N738">
+        <v>1</v>
+      </c>
+      <c r="O738">
+        <v>12</v>
+      </c>
+      <c r="P738">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="739" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A739" t="s">
+        <v>61</v>
+      </c>
+      <c r="B739" t="s">
+        <v>16</v>
+      </c>
+      <c r="C739">
+        <v>18</v>
+      </c>
+      <c r="D739" t="s">
+        <v>19</v>
+      </c>
+      <c r="E739" s="2">
+        <v>3890597598</v>
+      </c>
+      <c r="F739" s="2">
+        <v>1659440194</v>
+      </c>
+      <c r="G739">
+        <v>6</v>
+      </c>
+      <c r="H739">
+        <v>-1</v>
+      </c>
+      <c r="I739">
+        <v>5</v>
+      </c>
+      <c r="J739">
+        <v>20</v>
+      </c>
+      <c r="K739">
+        <v>25</v>
+      </c>
+      <c r="L739">
+        <v>25</v>
+      </c>
+      <c r="M739">
+        <v>2</v>
+      </c>
+      <c r="N739">
+        <v>6</v>
+      </c>
+      <c r="O739">
+        <v>33</v>
+      </c>
+      <c r="P739">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="740" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A740" t="s">
+        <v>61</v>
+      </c>
+      <c r="B740" t="s">
+        <v>16</v>
+      </c>
+      <c r="C740">
+        <v>15</v>
+      </c>
+      <c r="D740" t="s">
+        <v>20</v>
+      </c>
+      <c r="E740" s="2">
+        <v>4083956555</v>
+      </c>
+      <c r="F740" s="2">
+        <v>1425084984</v>
+      </c>
+      <c r="G740">
+        <v>-8</v>
+      </c>
+      <c r="H740">
+        <v>-9</v>
+      </c>
+      <c r="I740">
+        <v>-17</v>
+      </c>
+      <c r="J740">
+        <v>200</v>
+      </c>
+      <c r="K740">
+        <v>183</v>
+      </c>
+      <c r="L740">
+        <v>183</v>
+      </c>
+      <c r="M740">
+        <v>2</v>
+      </c>
+      <c r="N740">
+        <v>8</v>
+      </c>
+      <c r="O740">
+        <v>193</v>
+      </c>
+      <c r="P740">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="741" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A741" t="s">
+        <v>61</v>
+      </c>
+      <c r="B741" t="s">
+        <v>16</v>
+      </c>
+      <c r="C741">
+        <v>8</v>
+      </c>
+      <c r="D741" t="s">
+        <v>21</v>
+      </c>
+      <c r="E741" s="2">
+        <v>4449436681</v>
+      </c>
+      <c r="F741" s="2">
+        <v>113417208</v>
+      </c>
+      <c r="G741">
+        <v>10</v>
+      </c>
+      <c r="H741">
+        <v>18</v>
+      </c>
+      <c r="I741">
+        <v>28</v>
+      </c>
+      <c r="J741">
+        <v>203</v>
+      </c>
+      <c r="K741">
+        <v>231</v>
+      </c>
+      <c r="L741">
+        <v>231</v>
+      </c>
+      <c r="M741">
+        <v>86</v>
+      </c>
+      <c r="N741">
+        <v>95</v>
+      </c>
+      <c r="O741">
+        <v>412</v>
+      </c>
+      <c r="P741">
+        <v>-2001</v>
+      </c>
+    </row>
+    <row r="742" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A742" t="s">
+        <v>61</v>
+      </c>
+      <c r="B742" t="s">
+        <v>16</v>
+      </c>
+      <c r="C742">
+        <v>6</v>
+      </c>
+      <c r="D742" t="s">
+        <v>22</v>
+      </c>
+      <c r="E742" s="2">
+        <v>456494354</v>
+      </c>
+      <c r="F742" s="2">
+        <v>1376813649</v>
+      </c>
+      <c r="G742">
+        <v>-7</v>
+      </c>
+      <c r="H742">
+        <v>0</v>
+      </c>
+      <c r="I742">
+        <v>-7</v>
+      </c>
+      <c r="J742">
+        <v>-25</v>
+      </c>
+      <c r="K742">
+        <v>-32</v>
+      </c>
+      <c r="L742">
+        <v>-32</v>
+      </c>
+      <c r="M742">
+        <v>44</v>
+      </c>
+      <c r="N742">
+        <v>9</v>
+      </c>
+      <c r="O742">
+        <v>21</v>
+      </c>
+      <c r="P742">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="743" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A743" t="s">
+        <v>61</v>
+      </c>
+      <c r="B743" t="s">
+        <v>16</v>
+      </c>
+      <c r="C743">
+        <v>12</v>
+      </c>
+      <c r="D743" t="s">
+        <v>23</v>
+      </c>
+      <c r="E743" s="2">
+        <v>4189277044</v>
+      </c>
+      <c r="F743" s="2">
+        <v>1248366722</v>
+      </c>
+      <c r="G743">
+        <v>17</v>
+      </c>
+      <c r="H743">
+        <v>21</v>
+      </c>
+      <c r="I743">
+        <v>38</v>
+      </c>
+      <c r="J743">
+        <v>97</v>
+      </c>
+      <c r="K743">
+        <v>135</v>
+      </c>
+      <c r="L743">
+        <v>135</v>
+      </c>
+      <c r="M743">
+        <v>59</v>
+      </c>
+      <c r="N743">
+        <v>14</v>
+      </c>
+      <c r="O743">
+        <v>208</v>
+      </c>
+      <c r="P743">
+        <v>5102</v>
+      </c>
+    </row>
+    <row r="744" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A744" t="s">
+        <v>61</v>
+      </c>
+      <c r="B744" t="s">
+        <v>16</v>
+      </c>
+      <c r="C744">
+        <v>7</v>
+      </c>
+      <c r="D744" t="s">
+        <v>24</v>
+      </c>
+      <c r="E744" s="2">
+        <v>4441149315</v>
+      </c>
+      <c r="F744" s="2">
+        <v>89326992</v>
+      </c>
+      <c r="G744">
+        <v>65</v>
+      </c>
+      <c r="H744">
+        <v>9</v>
+      </c>
+      <c r="I744">
+        <v>74</v>
+      </c>
+      <c r="J744">
+        <v>30</v>
+      </c>
+      <c r="K744">
+        <v>104</v>
+      </c>
+      <c r="L744">
+        <v>104</v>
+      </c>
+      <c r="M744">
+        <v>17</v>
+      </c>
+      <c r="N744">
+        <v>20</v>
+      </c>
+      <c r="O744">
+        <v>141</v>
+      </c>
+      <c r="P744">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="745" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A745" t="s">
+        <v>61</v>
+      </c>
+      <c r="B745" t="s">
+        <v>16</v>
+      </c>
+      <c r="C745">
+        <v>3</v>
+      </c>
+      <c r="D745" t="s">
+        <v>25</v>
+      </c>
+      <c r="E745" s="2">
+        <v>4546679409</v>
+      </c>
+      <c r="F745" s="2">
+        <v>9190347404</v>
+      </c>
+      <c r="G745">
+        <v>202</v>
+      </c>
+      <c r="H745">
+        <v>2</v>
+      </c>
+      <c r="I745">
+        <v>204</v>
+      </c>
+      <c r="J745">
+        <v>-590</v>
+      </c>
+      <c r="K745">
+        <v>-386</v>
+      </c>
+      <c r="L745">
+        <v>-386</v>
+      </c>
+      <c r="M745">
+        <v>1082</v>
+      </c>
+      <c r="N745">
+        <v>458</v>
+      </c>
+      <c r="O745">
+        <v>1154</v>
+      </c>
+      <c r="P745">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="746" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A746" t="s">
+        <v>61</v>
+      </c>
+      <c r="B746" t="s">
+        <v>16</v>
+      </c>
+      <c r="C746">
+        <v>11</v>
+      </c>
+      <c r="D746" t="s">
+        <v>26</v>
+      </c>
+      <c r="E746" s="2">
+        <v>4361675973</v>
+      </c>
+      <c r="F746" s="2">
+        <v>135188753</v>
+      </c>
+      <c r="G746">
+        <v>-2</v>
+      </c>
+      <c r="H746">
+        <v>-1</v>
+      </c>
+      <c r="I746">
+        <v>-3</v>
+      </c>
+      <c r="J746">
+        <v>94</v>
+      </c>
+      <c r="K746">
+        <v>91</v>
+      </c>
+      <c r="L746">
+        <v>91</v>
+      </c>
+      <c r="M746">
+        <v>4</v>
+      </c>
+      <c r="N746">
+        <v>31</v>
+      </c>
+      <c r="O746">
+        <v>126</v>
+      </c>
+      <c r="P746">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="747" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A747" t="s">
+        <v>61</v>
+      </c>
+      <c r="B747" t="s">
+        <v>16</v>
+      </c>
+      <c r="C747">
+        <v>14</v>
+      </c>
+      <c r="D747" t="s">
+        <v>27</v>
+      </c>
+      <c r="E747" s="2">
+        <v>4155774754</v>
+      </c>
+      <c r="F747" s="2">
+        <v>1465916051</v>
+      </c>
+      <c r="G747">
+        <v>2</v>
+      </c>
+      <c r="H747">
+        <v>-1</v>
+      </c>
+      <c r="I747">
+        <v>1</v>
+      </c>
+      <c r="J747">
+        <v>6</v>
+      </c>
+      <c r="K747">
+        <v>7</v>
+      </c>
+      <c r="L747">
+        <v>7</v>
+      </c>
+      <c r="M747">
+        <v>0</v>
+      </c>
+      <c r="N747">
+        <v>0</v>
+      </c>
+      <c r="O747">
+        <v>7</v>
+      </c>
+      <c r="P747">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="748" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A748" t="s">
+        <v>61</v>
+      </c>
+      <c r="B748" t="s">
+        <v>16</v>
+      </c>
+      <c r="C748">
+        <v>4</v>
+      </c>
+      <c r="D748" t="s">
+        <v>28</v>
+      </c>
+      <c r="E748" s="2">
+        <v>4649933453</v>
+      </c>
+      <c r="F748" s="2">
+        <v>1135662422</v>
+      </c>
+      <c r="G748">
+        <v>-3</v>
+      </c>
+      <c r="H748">
+        <v>6</v>
+      </c>
+      <c r="I748">
+        <v>3</v>
+      </c>
+      <c r="J748">
+        <v>61</v>
+      </c>
+      <c r="K748">
+        <v>64</v>
+      </c>
+      <c r="L748">
+        <v>64</v>
+      </c>
+      <c r="M748">
+        <v>37</v>
+      </c>
+      <c r="N748">
+        <v>10</v>
+      </c>
+      <c r="O748">
+        <v>111</v>
+      </c>
+      <c r="P748">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="749" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A749" t="s">
+        <v>61</v>
+      </c>
+      <c r="B749" t="s">
+        <v>16</v>
+      </c>
+      <c r="C749">
+        <v>4</v>
+      </c>
+      <c r="D749" t="s">
+        <v>29</v>
+      </c>
+      <c r="E749" s="2">
+        <v>4606893511</v>
+      </c>
+      <c r="F749" s="2">
+        <v>1112123097</v>
+      </c>
+      <c r="G749">
+        <v>-3</v>
+      </c>
+      <c r="H749">
+        <v>3</v>
+      </c>
+      <c r="I749">
+        <v>0</v>
+      </c>
+      <c r="J749">
+        <v>64</v>
+      </c>
+      <c r="K749">
+        <v>64</v>
+      </c>
+      <c r="L749">
+        <v>64</v>
+      </c>
+      <c r="M749">
+        <v>6</v>
+      </c>
+      <c r="N749">
+        <v>18</v>
+      </c>
+      <c r="O749">
+        <v>88</v>
+      </c>
+      <c r="P749">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="750" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A750" t="s">
+        <v>61</v>
+      </c>
+      <c r="B750" t="s">
+        <v>16</v>
+      </c>
+      <c r="C750">
+        <v>1</v>
+      </c>
+      <c r="D750" t="s">
+        <v>30</v>
+      </c>
+      <c r="E750" s="2">
+        <v>450732745</v>
+      </c>
+      <c r="F750" s="2">
+        <v>7680687483</v>
+      </c>
+      <c r="G750">
+        <v>0</v>
+      </c>
+      <c r="H750">
+        <v>9</v>
+      </c>
+      <c r="I750">
+        <v>9</v>
+      </c>
+      <c r="J750">
+        <v>378</v>
+      </c>
+      <c r="K750">
+        <v>387</v>
+      </c>
+      <c r="L750">
+        <v>387</v>
+      </c>
+      <c r="M750">
+        <v>54</v>
+      </c>
+      <c r="N750">
+        <v>65</v>
+      </c>
+      <c r="O750">
+        <v>506</v>
+      </c>
+      <c r="P750">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="751" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A751" t="s">
+        <v>61</v>
+      </c>
+      <c r="B751" t="s">
+        <v>16</v>
+      </c>
+      <c r="C751">
+        <v>16</v>
+      </c>
+      <c r="D751" t="s">
+        <v>31</v>
+      </c>
+      <c r="E751" s="2">
+        <v>4112559576</v>
+      </c>
+      <c r="F751" s="2">
+        <v>1686736689</v>
+      </c>
+      <c r="G751">
+        <v>31</v>
+      </c>
+      <c r="H751">
+        <v>7</v>
+      </c>
+      <c r="I751">
+        <v>38</v>
+      </c>
+      <c r="J751">
+        <v>115</v>
+      </c>
+      <c r="K751">
+        <v>153</v>
+      </c>
+      <c r="L751">
+        <v>153</v>
+      </c>
+      <c r="M751">
+        <v>5</v>
+      </c>
+      <c r="N751">
+        <v>5</v>
+      </c>
+      <c r="O751">
+        <v>163</v>
+      </c>
+      <c r="P751">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="752" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A752" t="s">
+        <v>61</v>
+      </c>
+      <c r="B752" t="s">
+        <v>16</v>
+      </c>
+      <c r="C752">
+        <v>20</v>
+      </c>
+      <c r="D752" t="s">
+        <v>32</v>
+      </c>
+      <c r="E752" s="2">
+        <v>3921531192</v>
+      </c>
+      <c r="F752" s="2">
+        <v>9110616306</v>
+      </c>
+      <c r="G752">
+        <v>8</v>
+      </c>
+      <c r="H752">
+        <v>1</v>
+      </c>
+      <c r="I752">
+        <v>9</v>
+      </c>
+      <c r="J752">
+        <v>31</v>
+      </c>
+      <c r="K752">
+        <v>40</v>
+      </c>
+      <c r="L752">
+        <v>40</v>
+      </c>
+      <c r="M752">
+        <v>3</v>
+      </c>
+      <c r="N752">
+        <v>1</v>
+      </c>
+      <c r="O752">
+        <v>44</v>
+      </c>
+      <c r="P752">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="753" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A753" t="s">
+        <v>61</v>
+      </c>
+      <c r="B753" t="s">
+        <v>16</v>
+      </c>
+      <c r="C753">
+        <v>19</v>
+      </c>
+      <c r="D753" t="s">
+        <v>33</v>
+      </c>
+      <c r="E753" s="2">
+        <v>3811569725</v>
+      </c>
+      <c r="F753" s="2">
+        <v>133623567</v>
+      </c>
+      <c r="G753">
+        <v>33</v>
+      </c>
+      <c r="H753">
+        <v>4</v>
+      </c>
+      <c r="I753">
+        <v>37</v>
+      </c>
+      <c r="J753">
+        <v>41</v>
+      </c>
+      <c r="K753">
+        <v>78</v>
+      </c>
+      <c r="L753">
+        <v>78</v>
+      </c>
+      <c r="M753">
+        <v>6</v>
+      </c>
+      <c r="N753">
+        <v>11</v>
+      </c>
+      <c r="O753">
+        <v>95</v>
+      </c>
+      <c r="P753">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="754" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A754" t="s">
+        <v>61</v>
+      </c>
+      <c r="B754" t="s">
+        <v>16</v>
+      </c>
+      <c r="C754">
+        <v>9</v>
+      </c>
+      <c r="D754" t="s">
+        <v>34</v>
+      </c>
+      <c r="E754" s="2">
+        <v>4376923077</v>
+      </c>
+      <c r="F754" s="2">
+        <v>1125588885</v>
+      </c>
+      <c r="G754">
+        <v>5</v>
+      </c>
+      <c r="H754">
+        <v>4</v>
+      </c>
+      <c r="I754">
+        <v>9</v>
+      </c>
+      <c r="J754">
+        <v>255</v>
+      </c>
+      <c r="K754">
+        <v>264</v>
+      </c>
+      <c r="L754">
+        <v>264</v>
+      </c>
+      <c r="M754">
+        <v>10</v>
+      </c>
+      <c r="N754">
+        <v>16</v>
+      </c>
+      <c r="O754">
+        <v>290</v>
+      </c>
+      <c r="P754">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="755" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A755" t="s">
+        <v>61</v>
+      </c>
+      <c r="B755" t="s">
+        <v>16</v>
+      </c>
+      <c r="C755">
+        <v>10</v>
+      </c>
+      <c r="D755" t="s">
+        <v>35</v>
+      </c>
+      <c r="E755" s="2">
+        <v>4310675841</v>
+      </c>
+      <c r="F755" s="2">
+        <v>1238824698</v>
+      </c>
+      <c r="G755">
+        <v>7</v>
+      </c>
+      <c r="H755">
+        <v>1</v>
+      </c>
+      <c r="I755">
+        <v>8</v>
+      </c>
+      <c r="J755">
+        <v>-71</v>
+      </c>
+      <c r="K755">
+        <v>-63</v>
+      </c>
+      <c r="L755">
+        <v>-63</v>
+      </c>
+      <c r="M755">
+        <v>89</v>
+      </c>
+      <c r="N755">
+        <v>2</v>
+      </c>
+      <c r="O755">
+        <v>28</v>
+      </c>
+      <c r="P755">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="756" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A756" t="s">
+        <v>61</v>
+      </c>
+      <c r="B756" t="s">
+        <v>16</v>
+      </c>
+      <c r="C756">
+        <v>2</v>
+      </c>
+      <c r="D756" t="s">
+        <v>36</v>
+      </c>
+      <c r="E756" s="2">
+        <v>4573750286</v>
+      </c>
+      <c r="F756" s="2">
+        <v>7320149366</v>
+      </c>
+      <c r="G756">
+        <v>2</v>
+      </c>
+      <c r="H756">
+        <v>0</v>
+      </c>
+      <c r="I756">
+        <v>2</v>
+      </c>
+      <c r="J756">
+        <v>-23</v>
+      </c>
+      <c r="K756">
+        <v>-21</v>
+      </c>
+      <c r="L756">
+        <v>-21</v>
+      </c>
+      <c r="M756">
+        <v>14</v>
+      </c>
+      <c r="N756">
+        <v>7</v>
+      </c>
+      <c r="O756">
+        <v>0</v>
+      </c>
+      <c r="P756">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="757" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A757" t="s">
+        <v>61</v>
+      </c>
+      <c r="B757" t="s">
+        <v>16</v>
+      </c>
+      <c r="C757">
+        <v>5</v>
+      </c>
+      <c r="D757" t="s">
+        <v>37</v>
+      </c>
+      <c r="E757" s="2">
+        <v>4543490485</v>
+      </c>
+      <c r="F757" s="2">
+        <v>1233845213</v>
+      </c>
+      <c r="G757">
+        <v>47</v>
+      </c>
+      <c r="H757">
+        <v>1</v>
+      </c>
+      <c r="I757">
+        <v>48</v>
+      </c>
+      <c r="J757">
+        <v>265</v>
+      </c>
+      <c r="K757">
+        <v>313</v>
+      </c>
+      <c r="L757">
+        <v>313</v>
+      </c>
+      <c r="M757">
+        <v>32</v>
+      </c>
+      <c r="N757">
+        <v>21</v>
+      </c>
+      <c r="O757">
+        <v>366</v>
+      </c>
+      <c r="P757">
+        <v>5157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -89708,18 +91609,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W114"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView topLeftCell="A43" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -91305,19 +93206,19 @@
         <v>5959</v>
       </c>
       <c r="H36" s="7">
-        <f t="shared" ref="H36:H39" si="51">C36/G36</f>
+        <f t="shared" ref="H36:H38" si="51">C36/G36</f>
         <v>9.8842087598590367E-2</v>
       </c>
       <c r="I36" s="7">
-        <f t="shared" ref="I36:I39" si="52">B36/G36</f>
+        <f t="shared" ref="I36:I38" si="52">B36/G36</f>
         <v>0.16261117637187447</v>
       </c>
       <c r="J36" s="7">
-        <f t="shared" ref="J36:J39" si="53">F36/G36</f>
+        <f t="shared" ref="J36:J38" si="53">F36/G36</f>
         <v>0.21412988756502768</v>
       </c>
       <c r="K36" s="7">
-        <f t="shared" ref="K36:K39" si="54">E36/G36</f>
+        <f t="shared" ref="K36:K38" si="54">E36/G36</f>
         <v>2.0137606981037087E-2</v>
       </c>
       <c r="L36" s="7">
@@ -91413,37 +93314,78 @@
         <v>0.5855855855855856</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="31" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="5">
+        <v>812</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1590</v>
+      </c>
+      <c r="D39" s="5">
+        <v>1164</v>
+      </c>
+      <c r="E39" s="5">
+        <v>75</v>
+      </c>
+      <c r="F39" s="5">
+        <v>409</v>
+      </c>
+      <c r="G39">
+        <f>SUM(B39:F39)</f>
+        <v>4050</v>
+      </c>
+      <c r="H39" s="7">
+        <f t="shared" ref="H39:H40" si="56">C39/G39</f>
+        <v>0.3925925925925926</v>
+      </c>
+      <c r="I39" s="7">
+        <f t="shared" ref="I39:I40" si="57">B39/G39</f>
+        <v>0.20049382716049383</v>
+      </c>
+      <c r="J39" s="7">
+        <f t="shared" ref="J39:J40" si="58">F39/G39</f>
+        <v>0.10098765432098765</v>
+      </c>
+      <c r="K39" s="7">
+        <f t="shared" ref="K39:K40" si="59">E39/G39</f>
+        <v>1.8518518518518517E-2</v>
+      </c>
+      <c r="L39" s="7">
+        <f t="shared" ref="L39:L40" si="60">D39/G39</f>
+        <v>0.28740740740740739</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>10779</v>
-      </c>
-      <c r="C39" s="5">
-        <v>13030</v>
-      </c>
-      <c r="D39" s="5">
-        <v>42588</v>
-      </c>
-      <c r="E39" s="5">
-        <v>3906</v>
-      </c>
-      <c r="F39" s="5">
-        <v>27386</v>
-      </c>
-      <c r="G39" s="10">
-        <f>SUM(B39:F39)</f>
-        <v>97689</v>
-      </c>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
-      <c r="J39" s="7"/>
-      <c r="K39" s="7"/>
-      <c r="L39" s="7">
-        <f t="shared" si="55"/>
-        <v>0.43595491815864634</v>
-      </c>
+      <c r="B40" s="5">
+        <v>11591</v>
+      </c>
+      <c r="C40" s="5">
+        <v>14620</v>
+      </c>
+      <c r="D40" s="5">
+        <v>43752</v>
+      </c>
+      <c r="E40" s="5">
+        <v>3981</v>
+      </c>
+      <c r="F40" s="5">
+        <v>27795</v>
+      </c>
+      <c r="G40" s="10">
+        <f>SUM(B40:F40)</f>
+        <v>101739</v>
+      </c>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
@@ -94017,10 +95959,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="A37" sqref="A37:B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94386,6 +96328,16 @@
       <c r="B37">
         <f>All!G38</f>
         <v>5217</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="str">
+        <f>All!A39</f>
+        <v>2020-03-30T17:00:00</v>
+      </c>
+      <c r="B38">
+        <f>All!G39</f>
+        <v>4050</v>
       </c>
     </row>
   </sheetData>
@@ -94396,10 +96348,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94711,10 +96663,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>27386</v>
+      <c r="B40" s="5">
+        <v>27795</v>
       </c>
     </row>
   </sheetData>
@@ -94725,7 +96685,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -95052,10 +97012,18 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="5">
-        <v>13030</v>
+      <c r="B43" s="5">
+        <v>14620</v>
       </c>
     </row>
   </sheetData>
@@ -95066,7 +97034,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B40"/>
+  <dimension ref="A2:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A5:A36"/>
@@ -95381,10 +97349,18 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>3906</v>
+      <c r="B41" s="5">
+        <v>3981</v>
       </c>
     </row>
   </sheetData>
@@ -95395,10 +97371,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A5:A39"/>
+      <selection activeCell="A11" sqref="A5:A40"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -95721,10 +97697,18 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="5">
-        <v>42588</v>
+      <c r="B41" s="5">
+        <v>43752</v>
       </c>
     </row>
   </sheetData>
@@ -95735,7 +97719,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AO1" sqref="AO1"/>
@@ -96050,10 +98034,18 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="5">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B39" s="5">
-        <v>10779</v>
+      <c r="B40" s="5">
+        <v>11591</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68F88E4-81A5-A64E-AB71-7B6EFE22BB52}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC43196-4F3F-5145-91A5-A8DC2F9C4F64}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,8 +27,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="64" r:id="rId9"/>
-    <pivotCache cacheId="68" r:id="rId10"/>
+    <pivotCache cacheId="6" r:id="rId9"/>
+    <pivotCache cacheId="22" r:id="rId10"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2607" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2676" uniqueCount="91">
   <si>
     <t>data</t>
   </si>
@@ -311,6 +311,9 @@
   </si>
   <si>
     <t>2020-03-24T17:00:00</t>
+  </si>
+  <si>
+    <t>2020-04-01T17:00:00</t>
   </si>
 </sst>
 </file>
@@ -993,9 +996,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$41</c:f>
+              <c:f>All!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1107,15 +1110,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$41</c:f>
+              <c:f>All!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1227,6 +1233,9 @@
                 <c:pt idx="36">
                   <c:v>837</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>727</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1265,9 +1274,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$41</c:f>
+              <c:f>All!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1379,15 +1388,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$41</c:f>
+              <c:f>All!$C$4:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1499,6 +1511,9 @@
                 <c:pt idx="36">
                   <c:v>1109</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>1118</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1537,9 +1552,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$41</c:f>
+              <c:f>All!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1651,15 +1666,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$41</c:f>
+              <c:f>All!$D$4:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1771,6 +1789,9 @@
                 <c:pt idx="36">
                   <c:v>397</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>211</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1809,9 +1830,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$41</c:f>
+              <c:f>All!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -1923,15 +1944,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$41</c:f>
+              <c:f>All!$E$4:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2043,6 +2067,9 @@
                 <c:pt idx="36">
                   <c:v>42</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>12</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2081,9 +2108,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$41</c:f>
+              <c:f>All!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2195,15 +2222,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$41</c:f>
+              <c:f>All!$F$4:$F$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2314,6 +2344,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2659,9 +2692,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$39</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$40</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -2773,15 +2806,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$39</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>229</c:v>
                 </c:pt>
@@ -2892,6 +2928,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>4053</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>4782</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3281,11 +3320,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$41</c:f>
+              <c:f>Ricoverati!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -3397,15 +3451,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$41</c:f>
+              <c:f>Ricoverati!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -3516,6 +3573,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>211</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3904,11 +3964,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$44</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4020,15 +4095,18 @@
                 <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$44</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4139,6 +4217,9 @@
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>1109</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4536,15 +4617,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$42</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -4654,6 +4736,9 @@
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>2020-04-01T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>(blank)</c:v>
                 </c:pt>
               </c:strCache>
@@ -4661,10 +4746,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$42</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4772,6 +4857,9 @@
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5159,11 +5247,26 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$42</c:f>
+              <c:f>Isolamento!$A$5:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5246,44 +5349,47 @@
                   <c:v>2020-03-21T17:00:00</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>2020-03-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2020-03-23T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2020-03-24T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2020-03-27T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2020-03-30T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>(blank)</c:v>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$42</c:f>
+              <c:f>Isolamento!$B$5:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5366,31 +5472,37 @@
                   <c:v>2931</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>1667</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2739</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2175</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2223</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2728</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>3005</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2880</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>3055</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>1164</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>1668</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2714</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5795,9 +5907,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$41</c:f>
+              <c:f>Deceduti!$A$4:$A$42</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>2020-02-24T18:00:00</c:v>
                 </c:pt>
@@ -5880,44 +5992,47 @@
                   <c:v>2020-03-21T17:00:00</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>2020-03-22T17:00:00</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>2020-03-23T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>2020-03-24T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>2020-03-25T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>2020-03-26T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>2020-03-27T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>2020-03-28T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>2020-03-29T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>2020-03-30T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>2020-03-31T17:00:00</c:v>
                 </c:pt>
-                <c:pt idx="36">
-                  <c:v>(blank)</c:v>
+                <c:pt idx="37">
+                  <c:v>2020-04-01T17:00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$41</c:f>
+              <c:f>Deceduti!$B$4:$B$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6000,31 +6115,37 @@
                   <c:v>793</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>651</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>601</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>743</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>683</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>662</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>969</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>889</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>756</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>812</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>727</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10411,13 +10532,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43921.850848958333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="779" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43922.769367476852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="799" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsBlank="1" count="38">
+      <sharedItems containsBlank="1" count="39">
         <s v="2020-02-24T18:00:00"/>
         <s v="2020-02-25T18:00:00"/>
         <s v="2020-02-26T18:00:00"/>
@@ -10455,6 +10576,7 @@
         <s v="2020-03-29T17:00:00"/>
         <s v="2020-03-30T17:00:00"/>
         <s v="2020-03-31T17:00:00"/>
+        <s v="2020-04-01T17:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -10522,13 +10644,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43921.853018055554" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="779" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43922.772508564813" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="799" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="68">
+      <sharedItems containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T18:00:00" maxDate="2020-03-24T17:00:00" count="69">
         <s v="2020-02-24T18:00:00"/>
         <s v="2020-02-25T18:00:00"/>
         <s v="2020-02-26T18:00:00"/>
@@ -10566,6 +10688,7 @@
         <s v="2020-03-29T17:00:00"/>
         <s v="2020-03-30T17:00:00"/>
         <s v="2020-03-31T17:00:00"/>
+        <s v="2020-04-01T17:00:00"/>
         <m/>
         <d v="2020-03-18T17:00:00" u="1"/>
         <d v="2020-03-11T17:00:00" u="1"/>
@@ -10678,7 +10801,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="779">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="799">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -26998,27 +27121,447 @@
   </r>
   <r>
     <x v="37"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="7"/>
+    <n v="-2"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="35"/>
+    <n v="852"/>
     <m/>
     <m/>
   </r>
   <r>
     <x v="37"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="2"/>
+    <n v="-2"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="219"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="12"/>
+    <n v="-1"/>
+    <n v="11"/>
+    <n v="-7"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="10"/>
+    <n v="656"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="-23"/>
+    <n v="-4"/>
+    <n v="-27"/>
+    <n v="132"/>
+    <n v="105"/>
+    <n v="105"/>
+    <n v="105"/>
+    <n v="19"/>
+    <n v="15"/>
+    <n v="139"/>
+    <n v="1325"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="133"/>
+    <n v="6"/>
+    <n v="139"/>
+    <n v="397"/>
+    <n v="536"/>
+    <n v="536"/>
+    <n v="536"/>
+    <n v="89"/>
+    <n v="88"/>
+    <n v="713"/>
+    <n v="3925"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-9"/>
+    <n v="0"/>
+    <n v="-9"/>
+    <n v="55"/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="37"/>
+    <n v="9"/>
+    <n v="92"/>
+    <n v="1088"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="108"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="46"/>
+    <n v="7"/>
+    <n v="169"/>
+    <n v="1133"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="-39"/>
+    <n v="0"/>
+    <n v="-39"/>
+    <n v="176"/>
+    <n v="137"/>
+    <n v="137"/>
+    <n v="137"/>
+    <n v="75"/>
+    <n v="32"/>
+    <n v="244"/>
+    <n v="958"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="44"/>
+    <n v="18"/>
+    <n v="62"/>
+    <n v="579"/>
+    <n v="641"/>
+    <n v="641"/>
+    <n v="641"/>
+    <n v="530"/>
+    <n v="394"/>
+    <n v="1565"/>
+    <n v="6809"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="38"/>
+    <n v="-1"/>
+    <n v="37"/>
+    <n v="67"/>
+    <n v="104"/>
+    <n v="104"/>
+    <n v="104"/>
+    <n v="8"/>
+    <n v="25"/>
+    <n v="137"/>
+    <n v="572"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="16"/>
+    <n v="108"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="20"/>
+    <n v="-5"/>
+    <n v="15"/>
+    <n v="-45"/>
+    <n v="-30"/>
+    <n v="-30"/>
+    <n v="-30"/>
+    <n v="37"/>
+    <n v="40"/>
+    <n v="47"/>
+    <n v="676"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-9"/>
+    <n v="-4"/>
+    <n v="-13"/>
+    <n v="107"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="21"/>
+    <n v="9"/>
+    <n v="124"/>
+    <n v="702"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-28"/>
+    <n v="1"/>
+    <n v="-27"/>
+    <n v="415"/>
+    <n v="388"/>
+    <n v="388"/>
+    <n v="388"/>
+    <n v="74"/>
+    <n v="32"/>
+    <n v="494"/>
+    <n v="2402"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="72"/>
+    <n v="102"/>
+    <n v="102"/>
+    <n v="102"/>
+    <n v="22"/>
+    <n v="19"/>
+    <n v="143"/>
+    <n v="1136"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="13"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="23"/>
+    <n v="244"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="-7"/>
+    <n v="0"/>
+    <n v="-7"/>
+    <n v="59"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="71"/>
+    <n v="1202"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="202"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="44"/>
+    <n v="9"/>
+    <n v="259"/>
+    <n v="3410"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-3"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="395"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="-6"/>
+    <n v="1"/>
+    <n v="-5"/>
+    <n v="-7"/>
+    <n v="-12"/>
+    <n v="-12"/>
+    <n v="-12"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="135"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="38"/>
+    <n v="-6"/>
+    <n v="32"/>
+    <n v="342"/>
+    <n v="374"/>
+    <n v="374"/>
+    <n v="374"/>
+    <n v="74"/>
+    <n v="22"/>
+    <n v="470"/>
+    <n v="6508"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="38"/>
     <m/>
     <m/>
     <m/>
@@ -27042,7 +27585,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="779">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="799">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -41031,24 +41574,384 @@
   </r>
   <r>
     <x v="37"/>
-    <m/>
-    <m/>
-    <x v="21"/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="7"/>
+    <n v="-2"/>
+    <n v="5"/>
+    <n v="15"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="20"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="35"/>
   </r>
   <r>
     <x v="37"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="2"/>
+    <n v="-2"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="12"/>
+    <n v="-1"/>
+    <n v="11"/>
+    <n v="-7"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="-23"/>
+    <n v="-4"/>
+    <n v="-27"/>
+    <n v="132"/>
+    <n v="105"/>
+    <n v="105"/>
+    <n v="105"/>
+    <n v="19"/>
+    <n v="15"/>
+    <n v="139"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="133"/>
+    <n v="6"/>
+    <n v="139"/>
+    <n v="397"/>
+    <n v="536"/>
+    <n v="536"/>
+    <n v="536"/>
+    <n v="89"/>
+    <n v="88"/>
+    <n v="713"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-9"/>
+    <n v="0"/>
+    <n v="-9"/>
+    <n v="55"/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="46"/>
+    <n v="37"/>
+    <n v="9"/>
+    <n v="92"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="108"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="46"/>
+    <n v="7"/>
+    <n v="169"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="-39"/>
+    <n v="0"/>
+    <n v="-39"/>
+    <n v="176"/>
+    <n v="137"/>
+    <n v="137"/>
+    <n v="137"/>
+    <n v="75"/>
+    <n v="32"/>
+    <n v="244"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="44"/>
+    <n v="18"/>
+    <n v="62"/>
+    <n v="579"/>
+    <n v="641"/>
+    <n v="641"/>
+    <n v="641"/>
+    <n v="530"/>
+    <n v="394"/>
+    <n v="1565"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="38"/>
+    <n v="-1"/>
+    <n v="37"/>
+    <n v="67"/>
+    <n v="104"/>
+    <n v="104"/>
+    <n v="104"/>
+    <n v="8"/>
+    <n v="25"/>
+    <n v="137"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="20"/>
+    <n v="-5"/>
+    <n v="15"/>
+    <n v="-45"/>
+    <n v="-30"/>
+    <n v="-30"/>
+    <n v="-30"/>
+    <n v="37"/>
+    <n v="40"/>
+    <n v="47"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-9"/>
+    <n v="-4"/>
+    <n v="-13"/>
+    <n v="107"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="21"/>
+    <n v="9"/>
+    <n v="124"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-28"/>
+    <n v="1"/>
+    <n v="-27"/>
+    <n v="415"/>
+    <n v="388"/>
+    <n v="388"/>
+    <n v="388"/>
+    <n v="74"/>
+    <n v="32"/>
+    <n v="494"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="28"/>
+    <n v="2"/>
+    <n v="30"/>
+    <n v="72"/>
+    <n v="102"/>
+    <n v="102"/>
+    <n v="102"/>
+    <n v="22"/>
+    <n v="19"/>
+    <n v="143"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="13"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="18"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="-7"/>
+    <n v="0"/>
+    <n v="-7"/>
+    <n v="59"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="12"/>
+    <n v="7"/>
+    <n v="71"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="202"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="44"/>
+    <n v="9"/>
+    <n v="259"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-3"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="14"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="17"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="-6"/>
+    <n v="1"/>
+    <n v="-5"/>
+    <n v="-7"/>
+    <n v="-12"/>
+    <n v="-12"/>
+    <n v="-12"/>
+    <n v="12"/>
+    <n v="3"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="38"/>
+    <n v="-6"/>
+    <n v="32"/>
+    <n v="342"/>
+    <n v="374"/>
+    <n v="374"/>
+    <n v="374"/>
+    <n v="74"/>
+    <n v="22"/>
+    <n v="470"/>
+  </r>
+  <r>
+    <x v="38"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -41069,11 +41972,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="64" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F41" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F42" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="39">
+      <items count="40">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -41111,7 +42014,8 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
-        <item h="1" x="37"/>
+        <item h="1" x="38"/>
+        <item x="37"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -41137,7 +42041,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -41249,6 +42153,9 @@
     <i>
       <x v="36"/>
     </i>
+    <i>
+      <x v="38"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -41340,11 +42247,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="69">
+      <items count="70">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -41382,20 +42289,28 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="53"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="64"/>
+        <item m="1" x="46"/>
+        <item m="1" x="59"/>
+        <item m="1" x="42"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="50"/>
+        <item m="1" x="63"/>
+        <item m="1" x="45"/>
         <item m="1" x="57"/>
         <item m="1" x="40"/>
         <item m="1" x="52"/>
         <item m="1" x="66"/>
         <item m="1" x="48"/>
         <item m="1" x="61"/>
-        <item m="1" x="63"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="53"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
         <item m="1" x="44"/>
         <item m="1" x="56"/>
         <item m="1" x="39"/>
@@ -41405,14 +42320,7 @@
         <item m="1" x="60"/>
         <item m="1" x="43"/>
         <item m="1" x="55"/>
-        <item m="1" x="38"/>
-        <item m="1" x="50"/>
-        <item m="1" x="64"/>
-        <item m="1" x="46"/>
-        <item m="1" x="59"/>
-        <item m="1" x="42"/>
-        <item m="1" x="54"/>
-        <item h="1" x="37"/>
+        <item h="1" x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -41462,7 +42370,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -41574,6 +42482,9 @@
     <i>
       <x v="36"/>
     </i>
+    <i>
+      <x v="37"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -41620,11 +42531,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="69">
+      <items count="70">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -41662,20 +42573,28 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="53"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="64"/>
+        <item m="1" x="46"/>
+        <item m="1" x="59"/>
+        <item m="1" x="42"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="50"/>
+        <item m="1" x="63"/>
+        <item m="1" x="45"/>
         <item m="1" x="57"/>
         <item m="1" x="40"/>
         <item m="1" x="52"/>
         <item m="1" x="66"/>
         <item m="1" x="48"/>
         <item m="1" x="61"/>
-        <item m="1" x="63"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="53"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
         <item m="1" x="44"/>
         <item m="1" x="56"/>
         <item m="1" x="39"/>
@@ -41685,14 +42604,7 @@
         <item m="1" x="60"/>
         <item m="1" x="43"/>
         <item m="1" x="55"/>
-        <item m="1" x="38"/>
-        <item m="1" x="50"/>
-        <item m="1" x="64"/>
-        <item m="1" x="46"/>
-        <item m="1" x="59"/>
-        <item m="1" x="42"/>
-        <item m="1" x="54"/>
-        <item h="1" x="37"/>
+        <item h="1" x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -41742,7 +42654,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -41854,6 +42766,9 @@
     <i>
       <x v="36"/>
     </i>
+    <i>
+      <x v="37"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -41909,11 +42824,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="69">
+      <items count="70">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -41951,20 +42866,28 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="53"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="64"/>
+        <item m="1" x="46"/>
+        <item m="1" x="59"/>
+        <item m="1" x="42"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="50"/>
+        <item m="1" x="63"/>
+        <item m="1" x="45"/>
         <item m="1" x="57"/>
         <item m="1" x="40"/>
         <item m="1" x="52"/>
         <item m="1" x="66"/>
         <item m="1" x="48"/>
         <item m="1" x="61"/>
-        <item m="1" x="63"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="53"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
         <item m="1" x="44"/>
         <item m="1" x="56"/>
         <item m="1" x="39"/>
@@ -41974,14 +42897,7 @@
         <item m="1" x="60"/>
         <item m="1" x="43"/>
         <item m="1" x="55"/>
-        <item m="1" x="38"/>
-        <item m="1" x="50"/>
-        <item m="1" x="64"/>
-        <item m="1" x="46"/>
-        <item m="1" x="59"/>
-        <item m="1" x="42"/>
-        <item m="1" x="54"/>
-        <item x="37"/>
+        <item x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -42031,7 +42947,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -42141,7 +43057,10 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="68"/>
     </i>
     <i t="grand">
       <x/>
@@ -42207,11 +43126,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="69">
+      <items count="70">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -42239,7 +43158,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="27"/>
+        <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
@@ -42249,20 +43168,28 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="53"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="64"/>
+        <item m="1" x="46"/>
+        <item m="1" x="59"/>
+        <item m="1" x="42"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="50"/>
+        <item m="1" x="63"/>
+        <item m="1" x="45"/>
         <item m="1" x="57"/>
         <item m="1" x="40"/>
         <item m="1" x="52"/>
         <item m="1" x="66"/>
         <item m="1" x="48"/>
         <item m="1" x="61"/>
-        <item m="1" x="63"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="53"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
         <item m="1" x="44"/>
         <item m="1" x="56"/>
         <item m="1" x="39"/>
@@ -42272,14 +43199,7 @@
         <item m="1" x="60"/>
         <item m="1" x="43"/>
         <item m="1" x="55"/>
-        <item m="1" x="38"/>
-        <item m="1" x="50"/>
-        <item m="1" x="64"/>
-        <item m="1" x="46"/>
-        <item m="1" x="59"/>
-        <item m="1" x="42"/>
-        <item m="1" x="54"/>
-        <item x="37"/>
+        <item h="1" x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -42329,7 +43249,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -42412,6 +43332,9 @@
       <x v="26"/>
     </i>
     <i>
+      <x v="27"/>
+    </i>
+    <i>
       <x v="28"/>
     </i>
     <i>
@@ -42439,7 +43362,7 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="37"/>
     </i>
     <i t="grand">
       <x/>
@@ -42514,11 +43437,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="68" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="69">
+      <items count="70">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -42546,7 +43469,7 @@
         <item x="24"/>
         <item x="25"/>
         <item x="26"/>
-        <item h="1" x="27"/>
+        <item x="27"/>
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
@@ -42556,20 +43479,28 @@
         <item x="34"/>
         <item x="35"/>
         <item x="36"/>
+        <item x="37"/>
+        <item m="1" x="58"/>
+        <item m="1" x="41"/>
+        <item m="1" x="53"/>
+        <item m="1" x="67"/>
+        <item m="1" x="49"/>
+        <item m="1" x="62"/>
+        <item m="1" x="64"/>
+        <item m="1" x="46"/>
+        <item m="1" x="59"/>
+        <item m="1" x="42"/>
+        <item m="1" x="54"/>
+        <item m="1" x="68"/>
+        <item m="1" x="50"/>
+        <item m="1" x="63"/>
+        <item m="1" x="45"/>
         <item m="1" x="57"/>
         <item m="1" x="40"/>
         <item m="1" x="52"/>
         <item m="1" x="66"/>
         <item m="1" x="48"/>
         <item m="1" x="61"/>
-        <item m="1" x="63"/>
-        <item m="1" x="45"/>
-        <item m="1" x="58"/>
-        <item m="1" x="41"/>
-        <item m="1" x="53"/>
-        <item m="1" x="67"/>
-        <item m="1" x="49"/>
-        <item m="1" x="62"/>
         <item m="1" x="44"/>
         <item m="1" x="56"/>
         <item m="1" x="39"/>
@@ -42579,14 +43510,7 @@
         <item m="1" x="60"/>
         <item m="1" x="43"/>
         <item m="1" x="55"/>
-        <item m="1" x="38"/>
-        <item m="1" x="50"/>
-        <item m="1" x="64"/>
-        <item m="1" x="46"/>
-        <item m="1" x="59"/>
-        <item m="1" x="42"/>
-        <item m="1" x="54"/>
-        <item x="37"/>
+        <item h="1" x="38"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -42636,7 +43560,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="38">
+  <rowItems count="39">
     <i>
       <x/>
     </i>
@@ -42719,6 +43643,9 @@
       <x v="26"/>
     </i>
     <i>
+      <x v="27"/>
+    </i>
+    <i>
       <x v="28"/>
     </i>
     <i>
@@ -42746,7 +43673,7 @@
       <x v="36"/>
     </i>
     <i>
-      <x v="67"/>
+      <x v="37"/>
     </i>
     <i t="grand">
       <x/>
@@ -43126,10 +44053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S778"/>
+  <dimension ref="A1:S799"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:S1048576"/>
+    <sheetView topLeftCell="A751" workbookViewId="0">
+      <selection activeCell="A779" sqref="A779:Q799"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84375,6 +85302,1119 @@
       </c>
       <c r="Q778">
         <v>6297</v>
+      </c>
+    </row>
+    <row r="779" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A779" t="s">
+        <v>90</v>
+      </c>
+      <c r="B779" t="s">
+        <v>14</v>
+      </c>
+      <c r="C779">
+        <v>13</v>
+      </c>
+      <c r="D779" t="s">
+        <v>15</v>
+      </c>
+      <c r="E779" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F779" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G779">
+        <v>7</v>
+      </c>
+      <c r="H779">
+        <v>-2</v>
+      </c>
+      <c r="I779">
+        <v>5</v>
+      </c>
+      <c r="J779">
+        <v>15</v>
+      </c>
+      <c r="K779">
+        <v>20</v>
+      </c>
+      <c r="L779">
+        <v>20</v>
+      </c>
+      <c r="M779">
+        <v>20</v>
+      </c>
+      <c r="N779">
+        <v>7</v>
+      </c>
+      <c r="O779">
+        <v>8</v>
+      </c>
+      <c r="P779">
+        <v>35</v>
+      </c>
+      <c r="Q779">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="780" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A780" t="s">
+        <v>90</v>
+      </c>
+      <c r="B780" t="s">
+        <v>14</v>
+      </c>
+      <c r="C780">
+        <v>17</v>
+      </c>
+      <c r="D780" t="s">
+        <v>16</v>
+      </c>
+      <c r="E780" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F780" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G780">
+        <v>2</v>
+      </c>
+      <c r="H780">
+        <v>-2</v>
+      </c>
+      <c r="I780">
+        <v>0</v>
+      </c>
+      <c r="J780">
+        <v>9</v>
+      </c>
+      <c r="K780">
+        <v>9</v>
+      </c>
+      <c r="L780">
+        <v>9</v>
+      </c>
+      <c r="M780">
+        <v>9</v>
+      </c>
+      <c r="N780">
+        <v>0</v>
+      </c>
+      <c r="O780">
+        <v>2</v>
+      </c>
+      <c r="P780">
+        <v>11</v>
+      </c>
+      <c r="Q780">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="781" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A781" t="s">
+        <v>90</v>
+      </c>
+      <c r="B781" t="s">
+        <v>14</v>
+      </c>
+      <c r="C781">
+        <v>18</v>
+      </c>
+      <c r="D781" t="s">
+        <v>17</v>
+      </c>
+      <c r="E781" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F781" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G781">
+        <v>12</v>
+      </c>
+      <c r="H781">
+        <v>-1</v>
+      </c>
+      <c r="I781">
+        <v>11</v>
+      </c>
+      <c r="J781">
+        <v>-7</v>
+      </c>
+      <c r="K781">
+        <v>4</v>
+      </c>
+      <c r="L781">
+        <v>4</v>
+      </c>
+      <c r="M781">
+        <v>4</v>
+      </c>
+      <c r="N781">
+        <v>4</v>
+      </c>
+      <c r="O781">
+        <v>2</v>
+      </c>
+      <c r="P781">
+        <v>10</v>
+      </c>
+      <c r="Q781">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="782" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A782" t="s">
+        <v>90</v>
+      </c>
+      <c r="B782" t="s">
+        <v>14</v>
+      </c>
+      <c r="C782">
+        <v>15</v>
+      </c>
+      <c r="D782" t="s">
+        <v>18</v>
+      </c>
+      <c r="E782" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F782" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G782">
+        <v>-23</v>
+      </c>
+      <c r="H782">
+        <v>-4</v>
+      </c>
+      <c r="I782">
+        <v>-27</v>
+      </c>
+      <c r="J782">
+        <v>132</v>
+      </c>
+      <c r="K782">
+        <v>105</v>
+      </c>
+      <c r="L782">
+        <v>105</v>
+      </c>
+      <c r="M782">
+        <v>105</v>
+      </c>
+      <c r="N782">
+        <v>19</v>
+      </c>
+      <c r="O782">
+        <v>15</v>
+      </c>
+      <c r="P782">
+        <v>139</v>
+      </c>
+      <c r="Q782">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="783" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A783" t="s">
+        <v>90</v>
+      </c>
+      <c r="B783" t="s">
+        <v>14</v>
+      </c>
+      <c r="C783">
+        <v>8</v>
+      </c>
+      <c r="D783" t="s">
+        <v>53</v>
+      </c>
+      <c r="E783" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F783" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G783">
+        <v>133</v>
+      </c>
+      <c r="H783">
+        <v>6</v>
+      </c>
+      <c r="I783">
+        <v>139</v>
+      </c>
+      <c r="J783">
+        <v>397</v>
+      </c>
+      <c r="K783">
+        <v>536</v>
+      </c>
+      <c r="L783">
+        <v>536</v>
+      </c>
+      <c r="M783">
+        <v>536</v>
+      </c>
+      <c r="N783">
+        <v>89</v>
+      </c>
+      <c r="O783">
+        <v>88</v>
+      </c>
+      <c r="P783">
+        <v>713</v>
+      </c>
+      <c r="Q783">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="784" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A784" t="s">
+        <v>90</v>
+      </c>
+      <c r="B784" t="s">
+        <v>14</v>
+      </c>
+      <c r="C784">
+        <v>6</v>
+      </c>
+      <c r="D784" t="s">
+        <v>19</v>
+      </c>
+      <c r="E784" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F784" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G784">
+        <v>-9</v>
+      </c>
+      <c r="H784">
+        <v>0</v>
+      </c>
+      <c r="I784">
+        <v>-9</v>
+      </c>
+      <c r="J784">
+        <v>55</v>
+      </c>
+      <c r="K784">
+        <v>46</v>
+      </c>
+      <c r="L784">
+        <v>46</v>
+      </c>
+      <c r="M784">
+        <v>46</v>
+      </c>
+      <c r="N784">
+        <v>37</v>
+      </c>
+      <c r="O784">
+        <v>9</v>
+      </c>
+      <c r="P784">
+        <v>92</v>
+      </c>
+      <c r="Q784">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="785" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A785" t="s">
+        <v>90</v>
+      </c>
+      <c r="B785" t="s">
+        <v>14</v>
+      </c>
+      <c r="C785">
+        <v>12</v>
+      </c>
+      <c r="D785" t="s">
+        <v>20</v>
+      </c>
+      <c r="E785" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F785" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G785">
+        <v>4</v>
+      </c>
+      <c r="H785">
+        <v>4</v>
+      </c>
+      <c r="I785">
+        <v>8</v>
+      </c>
+      <c r="J785">
+        <v>108</v>
+      </c>
+      <c r="K785">
+        <v>116</v>
+      </c>
+      <c r="L785">
+        <v>116</v>
+      </c>
+      <c r="M785">
+        <v>116</v>
+      </c>
+      <c r="N785">
+        <v>46</v>
+      </c>
+      <c r="O785">
+        <v>7</v>
+      </c>
+      <c r="P785">
+        <v>169</v>
+      </c>
+      <c r="Q785">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="786" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A786" t="s">
+        <v>90</v>
+      </c>
+      <c r="B786" t="s">
+        <v>14</v>
+      </c>
+      <c r="C786">
+        <v>7</v>
+      </c>
+      <c r="D786" t="s">
+        <v>21</v>
+      </c>
+      <c r="E786" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F786" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G786">
+        <v>-39</v>
+      </c>
+      <c r="H786">
+        <v>0</v>
+      </c>
+      <c r="I786">
+        <v>-39</v>
+      </c>
+      <c r="J786">
+        <v>176</v>
+      </c>
+      <c r="K786">
+        <v>137</v>
+      </c>
+      <c r="L786">
+        <v>137</v>
+      </c>
+      <c r="M786">
+        <v>137</v>
+      </c>
+      <c r="N786">
+        <v>75</v>
+      </c>
+      <c r="O786">
+        <v>32</v>
+      </c>
+      <c r="P786">
+        <v>244</v>
+      </c>
+      <c r="Q786">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="787" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A787" t="s">
+        <v>90</v>
+      </c>
+      <c r="B787" t="s">
+        <v>14</v>
+      </c>
+      <c r="C787">
+        <v>3</v>
+      </c>
+      <c r="D787" t="s">
+        <v>22</v>
+      </c>
+      <c r="E787" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F787" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G787">
+        <v>44</v>
+      </c>
+      <c r="H787">
+        <v>18</v>
+      </c>
+      <c r="I787">
+        <v>62</v>
+      </c>
+      <c r="J787">
+        <v>579</v>
+      </c>
+      <c r="K787">
+        <v>641</v>
+      </c>
+      <c r="L787">
+        <v>641</v>
+      </c>
+      <c r="M787">
+        <v>641</v>
+      </c>
+      <c r="N787">
+        <v>530</v>
+      </c>
+      <c r="O787">
+        <v>394</v>
+      </c>
+      <c r="P787">
+        <v>1565</v>
+      </c>
+      <c r="Q787">
+        <v>6809</v>
+      </c>
+    </row>
+    <row r="788" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A788" t="s">
+        <v>90</v>
+      </c>
+      <c r="B788" t="s">
+        <v>14</v>
+      </c>
+      <c r="C788">
+        <v>11</v>
+      </c>
+      <c r="D788" t="s">
+        <v>23</v>
+      </c>
+      <c r="E788" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F788" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G788">
+        <v>38</v>
+      </c>
+      <c r="H788">
+        <v>-1</v>
+      </c>
+      <c r="I788">
+        <v>37</v>
+      </c>
+      <c r="J788">
+        <v>67</v>
+      </c>
+      <c r="K788">
+        <v>104</v>
+      </c>
+      <c r="L788">
+        <v>104</v>
+      </c>
+      <c r="M788">
+        <v>104</v>
+      </c>
+      <c r="N788">
+        <v>8</v>
+      </c>
+      <c r="O788">
+        <v>25</v>
+      </c>
+      <c r="P788">
+        <v>137</v>
+      </c>
+      <c r="Q788">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="789" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A789" t="s">
+        <v>90</v>
+      </c>
+      <c r="B789" t="s">
+        <v>14</v>
+      </c>
+      <c r="C789">
+        <v>14</v>
+      </c>
+      <c r="D789" t="s">
+        <v>24</v>
+      </c>
+      <c r="E789" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F789" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G789">
+        <v>3</v>
+      </c>
+      <c r="H789">
+        <v>0</v>
+      </c>
+      <c r="I789">
+        <v>3</v>
+      </c>
+      <c r="J789">
+        <v>11</v>
+      </c>
+      <c r="K789">
+        <v>14</v>
+      </c>
+      <c r="L789">
+        <v>14</v>
+      </c>
+      <c r="M789">
+        <v>14</v>
+      </c>
+      <c r="N789">
+        <v>1</v>
+      </c>
+      <c r="O789">
+        <v>1</v>
+      </c>
+      <c r="P789">
+        <v>16</v>
+      </c>
+      <c r="Q789">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="790" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A790" t="s">
+        <v>90</v>
+      </c>
+      <c r="B790" t="s">
+        <v>14</v>
+      </c>
+      <c r="C790">
+        <v>4</v>
+      </c>
+      <c r="D790" t="s">
+        <v>25</v>
+      </c>
+      <c r="E790" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F790" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G790">
+        <v>20</v>
+      </c>
+      <c r="H790">
+        <v>-5</v>
+      </c>
+      <c r="I790">
+        <v>15</v>
+      </c>
+      <c r="J790">
+        <v>-45</v>
+      </c>
+      <c r="K790">
+        <v>-30</v>
+      </c>
+      <c r="L790">
+        <v>-30</v>
+      </c>
+      <c r="M790">
+        <v>-30</v>
+      </c>
+      <c r="N790">
+        <v>37</v>
+      </c>
+      <c r="O790">
+        <v>40</v>
+      </c>
+      <c r="P790">
+        <v>47</v>
+      </c>
+      <c r="Q790">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="791" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A791" t="s">
+        <v>90</v>
+      </c>
+      <c r="B791" t="s">
+        <v>14</v>
+      </c>
+      <c r="C791">
+        <v>4</v>
+      </c>
+      <c r="D791" t="s">
+        <v>26</v>
+      </c>
+      <c r="E791" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F791" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G791">
+        <v>-9</v>
+      </c>
+      <c r="H791">
+        <v>-4</v>
+      </c>
+      <c r="I791">
+        <v>-13</v>
+      </c>
+      <c r="J791">
+        <v>107</v>
+      </c>
+      <c r="K791">
+        <v>94</v>
+      </c>
+      <c r="L791">
+        <v>94</v>
+      </c>
+      <c r="M791">
+        <v>94</v>
+      </c>
+      <c r="N791">
+        <v>21</v>
+      </c>
+      <c r="O791">
+        <v>9</v>
+      </c>
+      <c r="P791">
+        <v>124</v>
+      </c>
+      <c r="Q791">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="792" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A792" t="s">
+        <v>90</v>
+      </c>
+      <c r="B792" t="s">
+        <v>14</v>
+      </c>
+      <c r="C792">
+        <v>1</v>
+      </c>
+      <c r="D792" t="s">
+        <v>27</v>
+      </c>
+      <c r="E792" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F792" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G792">
+        <v>-28</v>
+      </c>
+      <c r="H792">
+        <v>1</v>
+      </c>
+      <c r="I792">
+        <v>-27</v>
+      </c>
+      <c r="J792">
+        <v>415</v>
+      </c>
+      <c r="K792">
+        <v>388</v>
+      </c>
+      <c r="L792">
+        <v>388</v>
+      </c>
+      <c r="M792">
+        <v>388</v>
+      </c>
+      <c r="N792">
+        <v>74</v>
+      </c>
+      <c r="O792">
+        <v>32</v>
+      </c>
+      <c r="P792">
+        <v>494</v>
+      </c>
+      <c r="Q792">
+        <v>2402</v>
+      </c>
+    </row>
+    <row r="793" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A793" t="s">
+        <v>90</v>
+      </c>
+      <c r="B793" t="s">
+        <v>14</v>
+      </c>
+      <c r="C793">
+        <v>16</v>
+      </c>
+      <c r="D793" t="s">
+        <v>28</v>
+      </c>
+      <c r="E793" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F793" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G793">
+        <v>28</v>
+      </c>
+      <c r="H793">
+        <v>2</v>
+      </c>
+      <c r="I793">
+        <v>30</v>
+      </c>
+      <c r="J793">
+        <v>72</v>
+      </c>
+      <c r="K793">
+        <v>102</v>
+      </c>
+      <c r="L793">
+        <v>102</v>
+      </c>
+      <c r="M793">
+        <v>102</v>
+      </c>
+      <c r="N793">
+        <v>22</v>
+      </c>
+      <c r="O793">
+        <v>19</v>
+      </c>
+      <c r="P793">
+        <v>143</v>
+      </c>
+      <c r="Q793">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="794" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A794" t="s">
+        <v>90</v>
+      </c>
+      <c r="B794" t="s">
+        <v>14</v>
+      </c>
+      <c r="C794">
+        <v>20</v>
+      </c>
+      <c r="D794" t="s">
+        <v>29</v>
+      </c>
+      <c r="E794" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F794" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G794">
+        <v>6</v>
+      </c>
+      <c r="H794">
+        <v>-1</v>
+      </c>
+      <c r="I794">
+        <v>5</v>
+      </c>
+      <c r="J794">
+        <v>13</v>
+      </c>
+      <c r="K794">
+        <v>18</v>
+      </c>
+      <c r="L794">
+        <v>18</v>
+      </c>
+      <c r="M794">
+        <v>18</v>
+      </c>
+      <c r="N794">
+        <v>2</v>
+      </c>
+      <c r="O794">
+        <v>3</v>
+      </c>
+      <c r="P794">
+        <v>23</v>
+      </c>
+      <c r="Q794">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="795" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A795" t="s">
+        <v>90</v>
+      </c>
+      <c r="B795" t="s">
+        <v>14</v>
+      </c>
+      <c r="C795">
+        <v>19</v>
+      </c>
+      <c r="D795" t="s">
+        <v>30</v>
+      </c>
+      <c r="E795" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F795" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G795">
+        <v>-7</v>
+      </c>
+      <c r="H795">
+        <v>0</v>
+      </c>
+      <c r="I795">
+        <v>-7</v>
+      </c>
+      <c r="J795">
+        <v>59</v>
+      </c>
+      <c r="K795">
+        <v>52</v>
+      </c>
+      <c r="L795">
+        <v>52</v>
+      </c>
+      <c r="M795">
+        <v>52</v>
+      </c>
+      <c r="N795">
+        <v>12</v>
+      </c>
+      <c r="O795">
+        <v>7</v>
+      </c>
+      <c r="P795">
+        <v>71</v>
+      </c>
+      <c r="Q795">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="796" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A796" t="s">
+        <v>90</v>
+      </c>
+      <c r="B796" t="s">
+        <v>14</v>
+      </c>
+      <c r="C796">
+        <v>9</v>
+      </c>
+      <c r="D796" t="s">
+        <v>31</v>
+      </c>
+      <c r="E796" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F796" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G796">
+        <v>0</v>
+      </c>
+      <c r="H796">
+        <v>4</v>
+      </c>
+      <c r="I796">
+        <v>4</v>
+      </c>
+      <c r="J796">
+        <v>202</v>
+      </c>
+      <c r="K796">
+        <v>206</v>
+      </c>
+      <c r="L796">
+        <v>206</v>
+      </c>
+      <c r="M796">
+        <v>206</v>
+      </c>
+      <c r="N796">
+        <v>44</v>
+      </c>
+      <c r="O796">
+        <v>9</v>
+      </c>
+      <c r="P796">
+        <v>259</v>
+      </c>
+      <c r="Q796">
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="797" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A797" t="s">
+        <v>90</v>
+      </c>
+      <c r="B797" t="s">
+        <v>14</v>
+      </c>
+      <c r="C797">
+        <v>10</v>
+      </c>
+      <c r="D797" t="s">
+        <v>32</v>
+      </c>
+      <c r="E797" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F797" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G797">
+        <v>-3</v>
+      </c>
+      <c r="H797">
+        <v>2</v>
+      </c>
+      <c r="I797">
+        <v>-1</v>
+      </c>
+      <c r="J797">
+        <v>14</v>
+      </c>
+      <c r="K797">
+        <v>13</v>
+      </c>
+      <c r="L797">
+        <v>13</v>
+      </c>
+      <c r="M797">
+        <v>13</v>
+      </c>
+      <c r="N797">
+        <v>4</v>
+      </c>
+      <c r="O797">
+        <v>0</v>
+      </c>
+      <c r="P797">
+        <v>17</v>
+      </c>
+      <c r="Q797">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="798" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A798" t="s">
+        <v>90</v>
+      </c>
+      <c r="B798" t="s">
+        <v>14</v>
+      </c>
+      <c r="C798">
+        <v>2</v>
+      </c>
+      <c r="D798" t="s">
+        <v>33</v>
+      </c>
+      <c r="E798" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F798" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G798">
+        <v>-6</v>
+      </c>
+      <c r="H798">
+        <v>1</v>
+      </c>
+      <c r="I798">
+        <v>-5</v>
+      </c>
+      <c r="J798">
+        <v>-7</v>
+      </c>
+      <c r="K798">
+        <v>-12</v>
+      </c>
+      <c r="L798">
+        <v>-12</v>
+      </c>
+      <c r="M798">
+        <v>-12</v>
+      </c>
+      <c r="N798">
+        <v>12</v>
+      </c>
+      <c r="O798">
+        <v>3</v>
+      </c>
+      <c r="P798">
+        <v>3</v>
+      </c>
+      <c r="Q798">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="799" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A799" t="s">
+        <v>90</v>
+      </c>
+      <c r="B799" t="s">
+        <v>14</v>
+      </c>
+      <c r="C799">
+        <v>5</v>
+      </c>
+      <c r="D799" t="s">
+        <v>34</v>
+      </c>
+      <c r="E799" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F799" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G799">
+        <v>38</v>
+      </c>
+      <c r="H799">
+        <v>-6</v>
+      </c>
+      <c r="I799">
+        <v>32</v>
+      </c>
+      <c r="J799">
+        <v>342</v>
+      </c>
+      <c r="K799">
+        <v>374</v>
+      </c>
+      <c r="L799">
+        <v>374</v>
+      </c>
+      <c r="M799">
+        <v>374</v>
+      </c>
+      <c r="N799">
+        <v>74</v>
+      </c>
+      <c r="O799">
+        <v>22</v>
+      </c>
+      <c r="P799">
+        <v>470</v>
+      </c>
+      <c r="Q799">
+        <v>6508</v>
       </c>
     </row>
   </sheetData>
@@ -84387,8 +86427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G42"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
+    <sheetView topLeftCell="A49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -84570,7 +86610,7 @@
         <v>68</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G40" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G41" si="0">SUM(B5:F5)</f>
         <v>93</v>
       </c>
     </row>
@@ -85416,28 +87456,50 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4">
+        <v>727</v>
+      </c>
+      <c r="C41" s="4">
+        <v>1118</v>
+      </c>
+      <c r="D41" s="4">
+        <v>211</v>
+      </c>
+      <c r="E41" s="4">
+        <v>12</v>
+      </c>
+      <c r="F41" s="4">
+        <v>2714</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>4782</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="4">
-        <v>12428</v>
-      </c>
-      <c r="C41" s="4">
-        <v>15729</v>
-      </c>
-      <c r="D41" s="4">
-        <v>28192</v>
-      </c>
-      <c r="E41" s="4">
-        <v>4023</v>
-      </c>
-      <c r="F41" s="4">
-        <v>45420</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="4">
+        <v>13155</v>
+      </c>
+      <c r="C42" s="4">
+        <v>16847</v>
+      </c>
+      <c r="D42" s="4">
+        <v>28403</v>
+      </c>
+      <c r="E42" s="4">
+        <v>4035</v>
+      </c>
+      <c r="F42" s="4">
+        <v>48134</v>
+      </c>
       <c r="G42">
         <f>SUM(B42:F42)</f>
-        <v>0</v>
+        <v>110574</v>
       </c>
     </row>
   </sheetData>
@@ -85448,10 +87510,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L38" sqref="L38"/>
+      <selection activeCell="R33" sqref="R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -85837,6 +87899,16 @@
       <c r="B39">
         <f>All!G40</f>
         <v>4053</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="6" t="str">
+        <f>All!A41</f>
+        <v>2020-04-01T17:00:00</v>
+      </c>
+      <c r="B40">
+        <f>All!G41</f>
+        <v>4782</v>
       </c>
     </row>
   </sheetData>
@@ -85847,10 +87919,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86178,10 +88250,18 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="4">
-        <v>28192</v>
+      <c r="B42" s="4">
+        <v>28403</v>
       </c>
     </row>
   </sheetData>
@@ -86192,7 +88272,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="AI3" sqref="AI3"/>
@@ -86535,10 +88615,18 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B44" s="4">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4">
-        <v>15729</v>
+      <c r="B45" s="4">
+        <v>16847</v>
       </c>
     </row>
   </sheetData>
@@ -86549,10 +88637,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B42"/>
+  <dimension ref="A2:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -86872,16 +88960,24 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>90</v>
+      </c>
+      <c r="B41" s="4">
+        <v>12</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="4">
-        <v>3871</v>
+      <c r="B43" s="4">
+        <v>3883</v>
       </c>
     </row>
   </sheetData>
@@ -86892,10 +88988,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AH2" sqref="AH2"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87147,88 +89243,98 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="4">
-        <v>2739</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B33" s="4">
-        <v>2175</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B34" s="4">
-        <v>2223</v>
+        <v>2175</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="4">
-        <v>2728</v>
+        <v>2223</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="4">
-        <v>3005</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="4">
-        <v>2880</v>
+        <v>3005</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="4">
-        <v>3055</v>
+        <v>2880</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="4">
-        <v>1164</v>
+        <v>3055</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="4">
-        <v>1668</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1668</v>
+      </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" s="4">
+        <v>2714</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B42" s="4">
-        <v>43753</v>
+      <c r="B43" s="4">
+        <v>48134</v>
       </c>
     </row>
   </sheetData>
@@ -87239,10 +89345,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -87490,88 +89596,98 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="4">
-        <v>601</v>
+        <v>651</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="4">
-        <v>743</v>
+        <v>601</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="B33" s="4">
-        <v>683</v>
+        <v>743</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B34" s="4">
-        <v>662</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B35" s="4">
-        <v>969</v>
+        <v>662</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36" s="4">
-        <v>889</v>
+        <v>969</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B37" s="4">
-        <v>756</v>
+        <v>889</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B38" s="4">
-        <v>812</v>
+        <v>756</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B39" s="4">
-        <v>837</v>
+        <v>812</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="B40" s="4">
+        <v>837</v>
+      </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B41" s="4">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="4">
-        <v>11777</v>
+      <c r="B42" s="4">
+        <v>13155</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90253E7-D894-264C-A135-D99BEA91EE57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2F7A3-C92A-1944-B716-98C0BB9E1AF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldatanormalised" sheetId="1" r:id="rId1"/>
     <sheet name="All" sheetId="2" r:id="rId2"/>
-    <sheet name="Totale dei Casi" sheetId="4" r:id="rId3"/>
-    <sheet name="Ricoverati" sheetId="7" r:id="rId4"/>
-    <sheet name="Dimessi Guariti" sheetId="8" r:id="rId5"/>
-    <sheet name="Terapia Intensiva" sheetId="9" r:id="rId6"/>
-    <sheet name="Isolamento" sheetId="10" r:id="rId7"/>
-    <sheet name="Deceduti" sheetId="11" r:id="rId8"/>
+    <sheet name="Tamponi" sheetId="13" r:id="rId3"/>
+    <sheet name="Totale dei Casi" sheetId="4" r:id="rId4"/>
+    <sheet name="Ricoverati" sheetId="7" r:id="rId5"/>
+    <sheet name="Dimessi Guariti" sheetId="8" r:id="rId6"/>
+    <sheet name="Terapia Intensiva" sheetId="9" r:id="rId7"/>
+    <sheet name="Isolamento" sheetId="10" r:id="rId8"/>
+    <sheet name="Deceduti" sheetId="11" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">alldatanormalised!$A$1:$S$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="11" r:id="rId9"/>
-    <pivotCache cacheId="15" r:id="rId10"/>
+    <pivotCache cacheId="23" r:id="rId10"/>
+    <pivotCache cacheId="43" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1693" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -201,6 +202,9 @@
   <si>
     <t>note_en</t>
   </si>
+  <si>
+    <t>Sum of tamponi</t>
+  </si>
 </sst>
 </file>
 
@@ -342,7 +346,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -893,9 +897,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$44</c:f>
+              <c:f>All!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1015,16 +1019,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$44</c:f>
+              <c:f>All!$B$4:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1141,6 +1148,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1180,9 +1190,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$44</c:f>
+              <c:f>All!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1302,16 +1312,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$44</c:f>
+              <c:f>All!$C$4:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1428,6 +1441,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1467,9 +1483,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$44</c:f>
+              <c:f>All!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1589,16 +1605,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$44</c:f>
+              <c:f>All!$D$4:$D$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1715,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1754,9 +1776,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$44</c:f>
+              <c:f>All!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1876,16 +1898,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$44</c:f>
+              <c:f>All!$E$4:$E$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2002,6 +2027,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2041,9 +2069,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$44</c:f>
+              <c:f>All!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2163,16 +2191,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$44</c:f>
+              <c:f>All!$F$4:$F$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="1">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2289,6 +2320,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2531,6 +2565,635 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[alldatanormalised-total.xlsx]Tamponi!PivotTable1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tamponi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6552512737378413E-2"/>
+          <c:y val="6.4614079728583559E-2"/>
+          <c:w val="0.90379660722556743"/>
+          <c:h val="0.85109334615615795"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Tamponi!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Tamponi!$B$4:$B$44</c:f>
+              <c:strCache>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>24/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29/02/2020</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>01/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>02/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>03/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>04/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>05/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>06/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>07/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>08/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>09/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>14/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>16/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>17/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>18/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>24/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>25/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>26/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>28/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>29/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>30/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>31/03/2020</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>01/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>03/04/2020</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Tamponi!$C$4:$C$44</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="40"/>
+                <c:pt idx="0">
+                  <c:v>4324</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4299</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2427</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3681</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2966</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2466</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2511</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3981</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2525</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7875</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6935</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>12393</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>12857</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11477</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11682</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15729</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13063</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10695</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>16884</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>17236</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>24109</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26336</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>25180</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>17066</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21496</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>27481</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36615</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35447</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>24504</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>23329</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>29609</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34455</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39809</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F63A-2549-B091-F4967BA0D226}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="931844079"/>
+        <c:axId val="931845759"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="931844079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931845759"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="931845759"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="931844079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:overlay val="0"/>
@@ -2634,9 +3297,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$42</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$43</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2756,16 +3419,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>02/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>03/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$42</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2885,6 +3551,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>4668</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>4585</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3068,7 +3737,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3291,9 +3960,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$43</c:f>
+              <c:f>Ricoverati!$A$4:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -3410,16 +4079,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>02/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>03/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$43</c:f>
+              <c:f>Ricoverati!$B$4:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -3536,6 +4208,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>201</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3766,7 +4441,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3941,9 +4616,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$46</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4060,16 +4735,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>02/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>03/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$46</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4186,6 +4864,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>1431</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1480</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4415,7 +5096,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4573,26 +5254,11 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$44</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4709,16 +5375,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>02/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>03/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$44</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -4835,6 +5504,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5064,7 +5736,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5239,9 +5911,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$44</c:f>
+              <c:f>Isolamento!$A$5:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -5358,16 +6030,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>02/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>03/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$44</c:f>
+              <c:f>Isolamento!$B$5:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -5484,6 +6159,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>2322</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5713,7 +6391,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5888,9 +6566,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$43</c:f>
+              <c:f>Deceduti!$A$4:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6007,16 +6685,19 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>02/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>03/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$43</c:f>
+              <c:f>Deceduti!$B$4:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6133,6 +6814,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>760</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>766</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6603,6 +7287,46 @@
 </file>
 
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7159,7 +7883,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7267,6 +7991,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -7277,6 +8006,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -7308,6 +8042,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -7363,23 +8100,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -7484,8 +8220,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -7617,20 +8353,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -8169,6 +8904,511 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8684,7 +9924,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9157,522 +10397,6 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -10221,20 +10945,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>163564</xdr:rowOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>149608</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>771769</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>167472</xdr:rowOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>153516</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10263,6 +11503,47 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ED6A7BC-8466-2445-9CDA-5015B0558915}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10303,7 +11584,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10346,7 +11627,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10389,20 +11670,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10432,20 +11713,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10475,7 +11756,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10519,13 +11800,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43923.768783101848" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="820" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43924.75648611111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="841" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-03T00:00:00" count="78">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-04T00:00:00" count="41">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -10565,45 +11846,8 @@
         <d v="2020-03-31T00:00:00"/>
         <d v="2020-04-01T00:00:00"/>
         <d v="2020-04-02T00:00:00"/>
+        <d v="2020-04-03T00:00:00"/>
         <m/>
-        <s v="2020-02-29T17:00:00" u="1"/>
-        <s v="2020-03-01T17:00:00" u="1"/>
-        <s v="2020-03-04T17:00:00" u="1"/>
-        <s v="2020-03-05T17:00:00" u="1"/>
-        <s v="2020-03-06T17:00:00" u="1"/>
-        <s v="2020-03-11T17:00:00" u="1"/>
-        <s v="2020-03-12T17:00:00" u="1"/>
-        <s v="2020-03-13T17:00:00" u="1"/>
-        <s v="2020-03-14T17:00:00" u="1"/>
-        <s v="2020-03-15T17:00:00" u="1"/>
-        <s v="2020-03-16T17:00:00" u="1"/>
-        <s v="2020-03-17T17:00:00" u="1"/>
-        <s v="2020-03-18T17:00:00" u="1"/>
-        <s v="2020-03-19T17:00:00" u="1"/>
-        <s v="2020-03-20T17:00:00" u="1"/>
-        <s v="2020-03-21T17:00:00" u="1"/>
-        <s v="2020-03-22T17:00:00" u="1"/>
-        <s v="2020-03-23T17:00:00" u="1"/>
-        <s v="2020-03-24T17:00:00" u="1"/>
-        <s v="2020-03-25T17:00:00" u="1"/>
-        <s v="2020-03-26T17:00:00" u="1"/>
-        <s v="2020-03-27T17:00:00" u="1"/>
-        <s v="2020-03-28T17:00:00" u="1"/>
-        <s v="2020-03-29T17:00:00" u="1"/>
-        <s v="2020-03-30T17:00:00" u="1"/>
-        <s v="2020-03-31T17:00:00" u="1"/>
-        <s v="2020-04-01T17:00:00" u="1"/>
-        <s v="2020-02-24T18:00:00" u="1"/>
-        <s v="2020-02-25T18:00:00" u="1"/>
-        <s v="2020-02-26T18:00:00" u="1"/>
-        <s v="2020-02-27T18:00:00" u="1"/>
-        <s v="2020-02-28T18:00:00" u="1"/>
-        <s v="2020-03-02T18:00:00" u="1"/>
-        <s v="2020-03-03T18:00:00" u="1"/>
-        <s v="2020-03-07T18:00:00" u="1"/>
-        <s v="2020-03-08T18:00:00" u="1"/>
-        <s v="2020-03-09T18:00:00" u="1"/>
-        <s v="2020-03-10T18:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="stato" numFmtId="0">
@@ -10670,13 +11914,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43923.769705671293" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="820" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43924.757715856482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="841" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsBlank="1" containsMixedTypes="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-03T00:00:00" count="108">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-04T00:00:00" count="71">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -10716,75 +11960,38 @@
         <d v="2020-03-31T00:00:00"/>
         <d v="2020-04-01T00:00:00"/>
         <d v="2020-04-02T00:00:00"/>
+        <d v="2020-04-03T00:00:00"/>
         <m/>
+        <d v="2020-03-18T17:00:00" u="1"/>
+        <d v="2020-03-11T17:00:00" u="1"/>
+        <d v="2020-02-25T18:00:00" u="1"/>
+        <d v="2020-03-04T17:00:00" u="1"/>
         <d v="2020-03-23T17:00:00" u="1"/>
-        <s v="2020-02-24T18:00:00" u="1"/>
-        <s v="2020-02-25T18:00:00" u="1"/>
-        <s v="2020-02-26T18:00:00" u="1"/>
-        <s v="2020-02-27T18:00:00" u="1"/>
-        <s v="2020-02-28T18:00:00" u="1"/>
-        <s v="2020-03-02T18:00:00" u="1"/>
-        <s v="2020-03-03T18:00:00" u="1"/>
-        <s v="2020-03-07T18:00:00" u="1"/>
-        <s v="2020-03-08T18:00:00" u="1"/>
-        <s v="2020-03-09T18:00:00" u="1"/>
-        <s v="2020-03-10T18:00:00" u="1"/>
+        <d v="2020-03-16T17:00:00" u="1"/>
+        <d v="2020-03-09T18:00:00" u="1"/>
+        <d v="2020-03-02T18:00:00" u="1"/>
+        <d v="2020-03-21T17:00:00" u="1"/>
+        <d v="2020-03-14T17:00:00" u="1"/>
+        <d v="2020-02-28T18:00:00" u="1"/>
+        <d v="2020-03-07T18:00:00" u="1"/>
         <d v="2020-03-19T17:00:00" u="1"/>
-        <d v="2020-03-15T17:00:00" u="1"/>
-        <s v="2020-02-29T17:00:00" u="1"/>
-        <s v="2020-03-01T17:00:00" u="1"/>
-        <s v="2020-03-04T17:00:00" u="1"/>
-        <s v="2020-03-05T17:00:00" u="1"/>
-        <s v="2020-03-06T17:00:00" u="1"/>
-        <s v="2020-03-11T17:00:00" u="1"/>
-        <s v="2020-03-12T17:00:00" u="1"/>
-        <s v="2020-03-13T17:00:00" u="1"/>
-        <s v="2020-03-14T17:00:00" u="1"/>
-        <s v="2020-03-15T17:00:00" u="1"/>
-        <s v="2020-03-16T17:00:00" u="1"/>
-        <s v="2020-03-17T17:00:00" u="1"/>
-        <s v="2020-03-18T17:00:00" u="1"/>
-        <s v="2020-03-19T17:00:00" u="1"/>
-        <s v="2020-03-20T17:00:00" u="1"/>
-        <s v="2020-03-21T17:00:00" u="1"/>
-        <s v="2020-03-22T17:00:00" u="1"/>
-        <s v="2020-03-23T17:00:00" u="1"/>
-        <s v="2020-03-24T17:00:00" u="1"/>
-        <s v="2020-03-25T17:00:00" u="1"/>
-        <s v="2020-03-26T17:00:00" u="1"/>
-        <s v="2020-03-27T17:00:00" u="1"/>
-        <s v="2020-03-28T17:00:00" u="1"/>
-        <s v="2020-03-29T17:00:00" u="1"/>
-        <s v="2020-03-30T17:00:00" u="1"/>
-        <s v="2020-03-31T17:00:00" u="1"/>
-        <s v="2020-04-01T17:00:00" u="1"/>
-        <d v="2020-03-11T17:00:00" u="1"/>
+        <d v="2020-03-12T17:00:00" u="1"/>
         <d v="2020-02-26T18:00:00" u="1"/>
-        <d v="2020-03-07T18:00:00" u="1"/>
+        <d v="2020-03-05T17:00:00" u="1"/>
+        <d v="2020-03-24T17:00:00" u="1"/>
+        <d v="2020-03-17T17:00:00" u="1"/>
+        <d v="2020-03-10T18:00:00" u="1"/>
+        <d v="2020-02-24T18:00:00" u="1"/>
         <d v="2020-03-03T18:00:00" u="1"/>
         <d v="2020-03-22T17:00:00" u="1"/>
-        <d v="2020-03-18T17:00:00" u="1"/>
-        <d v="2020-03-14T17:00:00" u="1"/>
+        <d v="2020-03-15T17:00:00" u="1"/>
         <d v="2020-02-29T17:00:00" u="1"/>
-        <d v="2020-03-10T18:00:00" u="1"/>
-        <d v="2020-02-25T18:00:00" u="1"/>
+        <d v="2020-03-08T18:00:00" u="1"/>
+        <d v="2020-03-01T17:00:00" u="1"/>
+        <d v="2020-03-20T17:00:00" u="1"/>
+        <d v="2020-03-13T17:00:00" u="1"/>
+        <d v="2020-02-27T18:00:00" u="1"/>
         <d v="2020-03-06T17:00:00" u="1"/>
-        <d v="2020-03-02T18:00:00" u="1"/>
-        <d v="2020-03-21T17:00:00" u="1"/>
-        <d v="2020-03-17T17:00:00" u="1"/>
-        <d v="2020-03-13T17:00:00" u="1"/>
-        <d v="2020-02-28T18:00:00" u="1"/>
-        <d v="2020-03-09T18:00:00" u="1"/>
-        <d v="2020-02-24T18:00:00" u="1"/>
-        <d v="2020-03-05T17:00:00" u="1"/>
-        <d v="2020-03-01T17:00:00" u="1"/>
-        <d v="2020-03-24T17:00:00" u="1"/>
-        <d v="2020-03-20T17:00:00" u="1"/>
-        <d v="2020-03-16T17:00:00" u="1"/>
-        <d v="2020-03-12T17:00:00" u="1"/>
-        <d v="2020-02-27T18:00:00" u="1"/>
-        <d v="2020-03-08T18:00:00" u="1"/>
-        <d v="2020-03-04T17:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="stato" numFmtId="0">
@@ -10866,7 +12073,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="820">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="841">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -28068,6 +29275,447 @@
   </r>
   <r>
     <x v="39"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="29"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="66"/>
+    <n v="1243"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="15"/>
+    <n v="195"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="20"/>
+    <n v="-2"/>
+    <n v="18"/>
+    <n v="17"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="42"/>
+    <n v="929"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="29"/>
+    <n v="-5"/>
+    <n v="24"/>
+    <n v="188"/>
+    <n v="212"/>
+    <n v="212"/>
+    <n v="212"/>
+    <n v="-5"/>
+    <n v="14"/>
+    <n v="221"/>
+    <n v="1833"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-29"/>
+    <n v="-2"/>
+    <n v="-31"/>
+    <n v="350"/>
+    <n v="319"/>
+    <n v="319"/>
+    <n v="319"/>
+    <n v="189"/>
+    <n v="91"/>
+    <n v="599"/>
+    <n v="3175"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="27"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="43"/>
+    <n v="7"/>
+    <n v="80"/>
+    <n v="2864"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="25"/>
+    <n v="7"/>
+    <n v="32"/>
+    <n v="98"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="23"/>
+    <n v="14"/>
+    <n v="167"/>
+    <n v="2201"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="28"/>
+    <n v="58"/>
+    <n v="86"/>
+    <n v="86"/>
+    <n v="86"/>
+    <n v="66"/>
+    <n v="31"/>
+    <n v="183"/>
+    <n v="865"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="40"/>
+    <n v="30"/>
+    <n v="70"/>
+    <n v="243"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="791"/>
+    <n v="351"/>
+    <n v="1455"/>
+    <n v="6765"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-4"/>
+    <n v="-6"/>
+    <n v="-10"/>
+    <n v="86"/>
+    <n v="76"/>
+    <n v="76"/>
+    <n v="76"/>
+    <n v="2"/>
+    <n v="54"/>
+    <n v="132"/>
+    <n v="735"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+    <n v="149"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="37"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="21"/>
+    <n v="10"/>
+    <n v="80"/>
+    <n v="1299"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="66"/>
+    <n v="72"/>
+    <n v="72"/>
+    <n v="72"/>
+    <n v="17"/>
+    <n v="17"/>
+    <n v="106"/>
+    <n v="497"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-41"/>
+    <n v="-1"/>
+    <n v="-42"/>
+    <n v="373"/>
+    <n v="331"/>
+    <n v="331"/>
+    <n v="331"/>
+    <n v="152"/>
+    <n v="60"/>
+    <n v="543"/>
+    <n v="2181"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="77"/>
+    <n v="85"/>
+    <n v="85"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="105"/>
+    <n v="1370"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="21"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="31"/>
+    <n v="508"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="26"/>
+    <n v="58"/>
+    <n v="58"/>
+    <n v="58"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="68"/>
+    <n v="853"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="14"/>
+    <n v="-7"/>
+    <n v="7"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="84"/>
+    <n v="22"/>
+    <n v="226"/>
+    <n v="3736"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-6"/>
+    <n v="1"/>
+    <n v="-5"/>
+    <n v="40"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="51"/>
+    <n v="877"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="40"/>
+    <n v="7"/>
+    <n v="51"/>
+    <n v="172"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="44"/>
+    <n v="-10"/>
+    <n v="34"/>
+    <n v="249"/>
+    <n v="283"/>
+    <n v="283"/>
+    <n v="283"/>
+    <n v="30"/>
+    <n v="40"/>
+    <n v="353"/>
+    <n v="6170"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
     <m/>
     <m/>
     <m/>
@@ -28091,7 +29739,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="820">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="841">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -42836,6 +44484,384 @@
   </r>
   <r>
     <x v="39"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="20"/>
+    <n v="1"/>
+    <n v="21"/>
+    <n v="29"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="3"/>
+    <n v="13"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="11"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="14"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="20"/>
+    <n v="-2"/>
+    <n v="18"/>
+    <n v="17"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="3"/>
+    <n v="4"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="29"/>
+    <n v="-5"/>
+    <n v="24"/>
+    <n v="188"/>
+    <n v="212"/>
+    <n v="212"/>
+    <n v="212"/>
+    <n v="-5"/>
+    <n v="14"/>
+    <n v="221"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-29"/>
+    <n v="-2"/>
+    <n v="-31"/>
+    <n v="350"/>
+    <n v="319"/>
+    <n v="319"/>
+    <n v="319"/>
+    <n v="189"/>
+    <n v="91"/>
+    <n v="599"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="2"/>
+    <n v="1"/>
+    <n v="3"/>
+    <n v="27"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="30"/>
+    <n v="43"/>
+    <n v="7"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="25"/>
+    <n v="7"/>
+    <n v="32"/>
+    <n v="98"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="23"/>
+    <n v="14"/>
+    <n v="167"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="27"/>
+    <n v="1"/>
+    <n v="28"/>
+    <n v="58"/>
+    <n v="86"/>
+    <n v="86"/>
+    <n v="86"/>
+    <n v="66"/>
+    <n v="31"/>
+    <n v="183"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="40"/>
+    <n v="30"/>
+    <n v="70"/>
+    <n v="243"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="791"/>
+    <n v="351"/>
+    <n v="1455"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-4"/>
+    <n v="-6"/>
+    <n v="-10"/>
+    <n v="86"/>
+    <n v="76"/>
+    <n v="76"/>
+    <n v="76"/>
+    <n v="2"/>
+    <n v="54"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="12"/>
+    <n v="0"/>
+    <n v="12"/>
+    <n v="37"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="21"/>
+    <n v="10"/>
+    <n v="80"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="66"/>
+    <n v="72"/>
+    <n v="72"/>
+    <n v="72"/>
+    <n v="17"/>
+    <n v="17"/>
+    <n v="106"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-41"/>
+    <n v="-1"/>
+    <n v="-42"/>
+    <n v="373"/>
+    <n v="331"/>
+    <n v="331"/>
+    <n v="331"/>
+    <n v="152"/>
+    <n v="60"/>
+    <n v="543"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="77"/>
+    <n v="85"/>
+    <n v="85"/>
+    <n v="85"/>
+    <n v="0"/>
+    <n v="20"/>
+    <n v="105"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="21"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="4"/>
+    <n v="1"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="32"/>
+    <n v="0"/>
+    <n v="32"/>
+    <n v="26"/>
+    <n v="58"/>
+    <n v="58"/>
+    <n v="58"/>
+    <n v="2"/>
+    <n v="8"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="14"/>
+    <n v="-7"/>
+    <n v="7"/>
+    <n v="113"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="120"/>
+    <n v="84"/>
+    <n v="22"/>
+    <n v="226"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-6"/>
+    <n v="1"/>
+    <n v="-5"/>
+    <n v="40"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="35"/>
+    <n v="15"/>
+    <n v="1"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="40"/>
+    <n v="7"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="44"/>
+    <n v="-10"/>
+    <n v="34"/>
+    <n v="249"/>
+    <n v="283"/>
+    <n v="283"/>
+    <n v="283"/>
+    <n v="30"/>
+    <n v="40"/>
+    <n v="353"/>
+  </r>
+  <r>
+    <x v="40"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -42856,50 +44882,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F44" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="79">
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="40"/>
-        <item m="1" x="41"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="45"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="52"/>
-        <item m="1" x="53"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item x="39"/>
-        <item m="1" x="66"/>
+      <items count="42">
+        <item x="40"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -42939,6 +44927,7 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
+        <item x="39"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -42964,126 +44953,129 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i>
       <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
     </i>
     <i>
       <x v="39"/>
     </i>
     <i>
       <x v="40"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="77"/>
     </i>
     <i t="grand">
       <x/>
@@ -43176,109 +45168,41 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="109">
-        <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
-        <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="56"/>
-        <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="42">
         <item x="0"/>
-        <item m="1" x="98"/>
         <item x="1"/>
-        <item m="1" x="90"/>
         <item x="2"/>
-        <item m="1" x="82"/>
         <item x="3"/>
-        <item m="1" x="105"/>
         <item x="4"/>
-        <item m="1" x="96"/>
         <item x="5"/>
-        <item m="1" x="88"/>
         <item x="6"/>
-        <item m="1" x="100"/>
         <item x="7"/>
-        <item m="1" x="92"/>
         <item x="8"/>
-        <item m="1" x="84"/>
         <item x="9"/>
-        <item m="1" x="107"/>
         <item x="10"/>
-        <item m="1" x="99"/>
         <item x="11"/>
-        <item m="1" x="91"/>
         <item x="12"/>
-        <item m="1" x="83"/>
         <item x="13"/>
-        <item m="1" x="106"/>
         <item x="14"/>
-        <item m="1" x="97"/>
         <item x="15"/>
-        <item m="1" x="89"/>
         <item x="16"/>
-        <item m="1" x="81"/>
         <item x="17"/>
-        <item m="1" x="104"/>
         <item x="18"/>
-        <item m="1" x="95"/>
         <item x="19"/>
-        <item m="1" x="87"/>
         <item x="20"/>
-        <item m="1" x="53"/>
         <item x="21"/>
-        <item m="1" x="103"/>
         <item x="22"/>
-        <item m="1" x="94"/>
         <item x="23"/>
-        <item m="1" x="86"/>
         <item x="24"/>
-        <item m="1" x="52"/>
         <item x="25"/>
-        <item m="1" x="102"/>
         <item x="26"/>
-        <item m="1" x="93"/>
         <item x="27"/>
-        <item m="1" x="85"/>
         <item x="28"/>
-        <item m="1" x="40"/>
         <item x="29"/>
-        <item m="1" x="101"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -43288,7 +45212,264 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="39"/>
+        <item h="1" x="40"/>
+        <item x="39"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of tamponi" fld="16" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
+      <items count="72">
+        <item x="0"/>
+        <item m="1" x="60"/>
+        <item x="1"/>
+        <item m="1" x="43"/>
+        <item x="2"/>
+        <item m="1" x="55"/>
+        <item x="3"/>
+        <item m="1" x="69"/>
+        <item x="4"/>
+        <item m="1" x="51"/>
+        <item x="5"/>
+        <item m="1" x="64"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item x="7"/>
+        <item m="1" x="48"/>
+        <item x="8"/>
+        <item m="1" x="61"/>
+        <item x="9"/>
+        <item m="1" x="44"/>
+        <item x="10"/>
+        <item m="1" x="56"/>
+        <item x="11"/>
+        <item m="1" x="70"/>
+        <item x="12"/>
+        <item m="1" x="52"/>
+        <item x="13"/>
+        <item m="1" x="65"/>
+        <item x="14"/>
+        <item m="1" x="47"/>
+        <item x="15"/>
+        <item m="1" x="59"/>
+        <item x="16"/>
+        <item m="1" x="42"/>
+        <item x="17"/>
+        <item m="1" x="54"/>
+        <item x="18"/>
+        <item m="1" x="68"/>
+        <item x="19"/>
+        <item m="1" x="50"/>
+        <item x="20"/>
+        <item m="1" x="63"/>
+        <item x="21"/>
+        <item m="1" x="46"/>
+        <item x="22"/>
+        <item m="1" x="58"/>
+        <item x="23"/>
+        <item m="1" x="41"/>
+        <item x="24"/>
+        <item m="1" x="53"/>
+        <item x="25"/>
+        <item m="1" x="67"/>
+        <item x="26"/>
+        <item m="1" x="49"/>
+        <item x="27"/>
+        <item m="1" x="62"/>
+        <item x="28"/>
+        <item m="1" x="45"/>
+        <item x="29"/>
+        <item m="1" x="57"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item h="1" x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -43338,7 +45519,64 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i>
       <x v="38"/>
     </i>
@@ -43376,85 +45614,31 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="61"/>
+    </i>
+    <i>
       <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
+      <x v="65"/>
+    </i>
+    <i>
       <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
     </i>
     <i>
       <x v="68"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
+      <x v="69"/>
     </i>
     <i t="grand">
       <x/>
@@ -43501,110 +45685,72 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="109">
+      <items count="72">
+        <item x="0"/>
+        <item m="1" x="60"/>
+        <item x="1"/>
+        <item m="1" x="43"/>
+        <item x="2"/>
+        <item m="1" x="55"/>
+        <item x="3"/>
+        <item m="1" x="69"/>
+        <item x="4"/>
+        <item m="1" x="51"/>
+        <item x="5"/>
+        <item m="1" x="64"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item x="7"/>
+        <item m="1" x="48"/>
+        <item x="8"/>
+        <item m="1" x="61"/>
+        <item x="9"/>
+        <item m="1" x="44"/>
+        <item x="10"/>
+        <item m="1" x="56"/>
+        <item x="11"/>
+        <item m="1" x="70"/>
+        <item x="12"/>
+        <item m="1" x="52"/>
+        <item x="13"/>
+        <item m="1" x="65"/>
+        <item x="14"/>
+        <item m="1" x="47"/>
+        <item x="15"/>
+        <item m="1" x="59"/>
+        <item x="16"/>
+        <item m="1" x="42"/>
+        <item x="17"/>
+        <item m="1" x="54"/>
+        <item x="18"/>
+        <item m="1" x="68"/>
+        <item x="19"/>
+        <item m="1" x="50"/>
+        <item x="20"/>
+        <item m="1" x="63"/>
+        <item x="21"/>
+        <item m="1" x="46"/>
+        <item x="22"/>
+        <item m="1" x="58"/>
+        <item x="23"/>
         <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="53"/>
+        <item x="25"/>
+        <item m="1" x="67"/>
+        <item x="26"/>
+        <item m="1" x="49"/>
+        <item x="27"/>
+        <item m="1" x="62"/>
+        <item x="28"/>
         <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="56"/>
+        <item x="29"/>
         <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item x="0"/>
-        <item m="1" x="98"/>
-        <item x="1"/>
-        <item m="1" x="90"/>
-        <item x="2"/>
-        <item m="1" x="82"/>
-        <item x="3"/>
-        <item m="1" x="105"/>
-        <item x="4"/>
-        <item m="1" x="96"/>
-        <item x="5"/>
-        <item m="1" x="88"/>
-        <item x="6"/>
-        <item m="1" x="100"/>
-        <item x="7"/>
-        <item m="1" x="92"/>
-        <item x="8"/>
-        <item m="1" x="84"/>
-        <item x="9"/>
-        <item m="1" x="107"/>
-        <item x="10"/>
-        <item m="1" x="99"/>
-        <item x="11"/>
-        <item m="1" x="91"/>
-        <item x="12"/>
-        <item m="1" x="83"/>
-        <item x="13"/>
-        <item m="1" x="106"/>
-        <item x="14"/>
-        <item m="1" x="97"/>
-        <item x="15"/>
-        <item m="1" x="89"/>
-        <item x="16"/>
-        <item m="1" x="81"/>
-        <item x="17"/>
-        <item m="1" x="104"/>
-        <item x="18"/>
-        <item m="1" x="95"/>
-        <item x="19"/>
-        <item m="1" x="87"/>
-        <item x="20"/>
-        <item m="1" x="53"/>
-        <item x="21"/>
-        <item m="1" x="103"/>
-        <item x="22"/>
-        <item m="1" x="94"/>
-        <item x="23"/>
-        <item m="1" x="86"/>
-        <item x="24"/>
-        <item m="1" x="52"/>
-        <item x="25"/>
-        <item m="1" x="102"/>
-        <item x="26"/>
-        <item m="1" x="93"/>
-        <item x="27"/>
-        <item m="1" x="85"/>
-        <item x="28"/>
-        <item m="1" x="40"/>
-        <item x="29"/>
-        <item m="1" x="101"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -43614,7 +45760,8 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="39"/>
+        <item x="39"/>
+        <item h="1" x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -43664,7 +45811,64 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i>
       <x v="38"/>
     </i>
@@ -43702,85 +45906,31 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="61"/>
+    </i>
+    <i>
       <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
+      <x v="65"/>
+    </i>
+    <i>
       <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
     </i>
     <i>
       <x v="68"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
+      <x v="69"/>
     </i>
     <i t="grand">
       <x/>
@@ -43836,110 +45986,72 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="109">
+      <items count="72">
+        <item x="0"/>
+        <item m="1" x="60"/>
+        <item x="1"/>
+        <item m="1" x="43"/>
+        <item x="2"/>
+        <item m="1" x="55"/>
+        <item x="3"/>
+        <item m="1" x="69"/>
+        <item x="4"/>
+        <item m="1" x="51"/>
+        <item x="5"/>
+        <item m="1" x="64"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item x="7"/>
+        <item m="1" x="48"/>
+        <item x="8"/>
+        <item m="1" x="61"/>
+        <item x="9"/>
+        <item m="1" x="44"/>
+        <item x="10"/>
+        <item m="1" x="56"/>
+        <item x="11"/>
+        <item m="1" x="70"/>
+        <item x="12"/>
+        <item m="1" x="52"/>
+        <item x="13"/>
+        <item m="1" x="65"/>
+        <item x="14"/>
+        <item m="1" x="47"/>
+        <item x="15"/>
+        <item m="1" x="59"/>
+        <item x="16"/>
+        <item m="1" x="42"/>
+        <item x="17"/>
+        <item m="1" x="54"/>
+        <item x="18"/>
+        <item m="1" x="68"/>
+        <item x="19"/>
+        <item m="1" x="50"/>
+        <item x="20"/>
+        <item m="1" x="63"/>
+        <item x="21"/>
+        <item m="1" x="46"/>
+        <item x="22"/>
+        <item m="1" x="58"/>
+        <item x="23"/>
         <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="53"/>
+        <item x="25"/>
+        <item m="1" x="67"/>
+        <item x="26"/>
+        <item m="1" x="49"/>
+        <item x="27"/>
+        <item m="1" x="62"/>
+        <item x="28"/>
         <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="56"/>
+        <item x="29"/>
         <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item x="0"/>
-        <item m="1" x="98"/>
-        <item x="1"/>
-        <item m="1" x="90"/>
-        <item x="2"/>
-        <item m="1" x="82"/>
-        <item x="3"/>
-        <item m="1" x="105"/>
-        <item x="4"/>
-        <item m="1" x="96"/>
-        <item x="5"/>
-        <item m="1" x="88"/>
-        <item x="6"/>
-        <item m="1" x="100"/>
-        <item x="7"/>
-        <item m="1" x="92"/>
-        <item x="8"/>
-        <item m="1" x="84"/>
-        <item x="9"/>
-        <item m="1" x="107"/>
-        <item x="10"/>
-        <item m="1" x="99"/>
-        <item x="11"/>
-        <item m="1" x="91"/>
-        <item x="12"/>
-        <item m="1" x="83"/>
-        <item x="13"/>
-        <item m="1" x="106"/>
-        <item x="14"/>
-        <item m="1" x="97"/>
-        <item x="15"/>
-        <item m="1" x="89"/>
-        <item x="16"/>
-        <item m="1" x="81"/>
-        <item x="17"/>
-        <item m="1" x="104"/>
-        <item x="18"/>
-        <item m="1" x="95"/>
-        <item x="19"/>
-        <item m="1" x="87"/>
-        <item x="20"/>
-        <item m="1" x="53"/>
-        <item x="21"/>
-        <item m="1" x="103"/>
-        <item x="22"/>
-        <item m="1" x="94"/>
-        <item x="23"/>
-        <item m="1" x="86"/>
-        <item x="24"/>
-        <item m="1" x="52"/>
-        <item x="25"/>
-        <item m="1" x="102"/>
-        <item x="26"/>
-        <item m="1" x="93"/>
-        <item x="27"/>
-        <item m="1" x="85"/>
-        <item x="28"/>
-        <item m="1" x="40"/>
-        <item x="29"/>
-        <item m="1" x="101"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -43949,7 +46061,8 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="39"/>
+        <item x="39"/>
+        <item h="1" x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -43999,7 +46112,64 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i>
       <x v="38"/>
     </i>
@@ -44037,85 +46207,31 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="61"/>
+    </i>
+    <i>
       <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
+      <x v="65"/>
+    </i>
+    <i>
       <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
     </i>
     <i>
       <x v="68"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
+      <x v="69"/>
     </i>
     <i t="grand">
       <x/>
@@ -44180,110 +46296,72 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="109">
+      <items count="72">
+        <item x="0"/>
+        <item m="1" x="60"/>
+        <item x="1"/>
+        <item m="1" x="43"/>
+        <item x="2"/>
+        <item m="1" x="55"/>
+        <item x="3"/>
+        <item m="1" x="69"/>
+        <item x="4"/>
+        <item m="1" x="51"/>
+        <item x="5"/>
+        <item m="1" x="64"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item x="7"/>
+        <item m="1" x="48"/>
+        <item x="8"/>
+        <item m="1" x="61"/>
+        <item x="9"/>
+        <item m="1" x="44"/>
+        <item x="10"/>
+        <item m="1" x="56"/>
+        <item x="11"/>
+        <item m="1" x="70"/>
+        <item x="12"/>
+        <item m="1" x="52"/>
+        <item x="13"/>
+        <item m="1" x="65"/>
+        <item x="14"/>
+        <item m="1" x="47"/>
+        <item x="15"/>
+        <item m="1" x="59"/>
+        <item x="16"/>
+        <item m="1" x="42"/>
+        <item x="17"/>
+        <item m="1" x="54"/>
+        <item x="18"/>
+        <item m="1" x="68"/>
+        <item x="19"/>
+        <item m="1" x="50"/>
+        <item x="20"/>
+        <item m="1" x="63"/>
+        <item x="21"/>
+        <item m="1" x="46"/>
+        <item x="22"/>
+        <item m="1" x="58"/>
+        <item x="23"/>
         <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="53"/>
+        <item x="25"/>
+        <item m="1" x="67"/>
+        <item x="26"/>
+        <item m="1" x="49"/>
+        <item x="27"/>
+        <item m="1" x="62"/>
+        <item x="28"/>
         <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="56"/>
+        <item x="29"/>
         <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item x="0"/>
-        <item m="1" x="98"/>
-        <item x="1"/>
-        <item m="1" x="90"/>
-        <item x="2"/>
-        <item m="1" x="82"/>
-        <item x="3"/>
-        <item m="1" x="105"/>
-        <item x="4"/>
-        <item m="1" x="96"/>
-        <item x="5"/>
-        <item m="1" x="88"/>
-        <item x="6"/>
-        <item m="1" x="100"/>
-        <item x="7"/>
-        <item m="1" x="92"/>
-        <item x="8"/>
-        <item m="1" x="84"/>
-        <item x="9"/>
-        <item m="1" x="107"/>
-        <item x="10"/>
-        <item m="1" x="99"/>
-        <item x="11"/>
-        <item m="1" x="91"/>
-        <item x="12"/>
-        <item m="1" x="83"/>
-        <item x="13"/>
-        <item m="1" x="106"/>
-        <item x="14"/>
-        <item m="1" x="97"/>
-        <item x="15"/>
-        <item m="1" x="89"/>
-        <item x="16"/>
-        <item m="1" x="81"/>
-        <item x="17"/>
-        <item m="1" x="104"/>
-        <item x="18"/>
-        <item m="1" x="95"/>
-        <item x="19"/>
-        <item m="1" x="87"/>
-        <item x="20"/>
-        <item m="1" x="53"/>
-        <item x="21"/>
-        <item m="1" x="103"/>
-        <item x="22"/>
-        <item m="1" x="94"/>
-        <item x="23"/>
-        <item m="1" x="86"/>
-        <item x="24"/>
-        <item m="1" x="52"/>
-        <item x="25"/>
-        <item m="1" x="102"/>
-        <item x="26"/>
-        <item m="1" x="93"/>
-        <item x="27"/>
-        <item m="1" x="85"/>
-        <item x="28"/>
-        <item m="1" x="40"/>
-        <item x="29"/>
-        <item m="1" x="101"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -44293,7 +46371,8 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="39"/>
+        <item x="39"/>
+        <item h="1" x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -44343,7 +46422,64 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i>
       <x v="38"/>
     </i>
@@ -44381,85 +46517,31 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="61"/>
+    </i>
+    <i>
       <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
+      <x v="65"/>
+    </i>
+    <i>
       <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
     </i>
     <i>
       <x v="68"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
+      <x v="69"/>
     </i>
     <i t="grand">
       <x/>
@@ -44533,110 +46615,72 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B43" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="109">
+      <items count="72">
+        <item x="0"/>
+        <item m="1" x="60"/>
+        <item x="1"/>
+        <item m="1" x="43"/>
+        <item x="2"/>
+        <item m="1" x="55"/>
+        <item x="3"/>
+        <item m="1" x="69"/>
+        <item x="4"/>
+        <item m="1" x="51"/>
+        <item x="5"/>
+        <item m="1" x="64"/>
+        <item x="6"/>
+        <item m="1" x="66"/>
+        <item x="7"/>
+        <item m="1" x="48"/>
+        <item x="8"/>
+        <item m="1" x="61"/>
+        <item x="9"/>
+        <item m="1" x="44"/>
+        <item x="10"/>
+        <item m="1" x="56"/>
+        <item x="11"/>
+        <item m="1" x="70"/>
+        <item x="12"/>
+        <item m="1" x="52"/>
+        <item x="13"/>
+        <item m="1" x="65"/>
+        <item x="14"/>
+        <item m="1" x="47"/>
+        <item x="15"/>
+        <item m="1" x="59"/>
+        <item x="16"/>
+        <item m="1" x="42"/>
+        <item x="17"/>
+        <item m="1" x="54"/>
+        <item x="18"/>
+        <item m="1" x="68"/>
+        <item x="19"/>
+        <item m="1" x="50"/>
+        <item x="20"/>
+        <item m="1" x="63"/>
+        <item x="21"/>
+        <item m="1" x="46"/>
+        <item x="22"/>
+        <item m="1" x="58"/>
+        <item x="23"/>
         <item m="1" x="41"/>
-        <item m="1" x="42"/>
-        <item m="1" x="43"/>
-        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="53"/>
+        <item x="25"/>
+        <item m="1" x="67"/>
+        <item x="26"/>
+        <item m="1" x="49"/>
+        <item x="27"/>
+        <item m="1" x="62"/>
+        <item x="28"/>
         <item m="1" x="45"/>
-        <item m="1" x="54"/>
-        <item m="1" x="55"/>
-        <item m="1" x="46"/>
-        <item m="1" x="47"/>
-        <item m="1" x="56"/>
+        <item x="29"/>
         <item m="1" x="57"/>
-        <item m="1" x="58"/>
-        <item m="1" x="48"/>
-        <item m="1" x="49"/>
-        <item m="1" x="50"/>
-        <item m="1" x="51"/>
-        <item m="1" x="59"/>
-        <item m="1" x="60"/>
-        <item m="1" x="61"/>
-        <item m="1" x="62"/>
-        <item m="1" x="63"/>
-        <item m="1" x="64"/>
-        <item m="1" x="65"/>
-        <item m="1" x="66"/>
-        <item m="1" x="67"/>
-        <item m="1" x="68"/>
-        <item m="1" x="69"/>
-        <item m="1" x="70"/>
-        <item m="1" x="71"/>
-        <item m="1" x="72"/>
-        <item m="1" x="73"/>
-        <item m="1" x="74"/>
-        <item m="1" x="75"/>
-        <item m="1" x="76"/>
-        <item m="1" x="77"/>
-        <item m="1" x="78"/>
-        <item m="1" x="79"/>
-        <item m="1" x="80"/>
-        <item x="0"/>
-        <item m="1" x="98"/>
-        <item x="1"/>
-        <item m="1" x="90"/>
-        <item x="2"/>
-        <item m="1" x="82"/>
-        <item x="3"/>
-        <item m="1" x="105"/>
-        <item x="4"/>
-        <item m="1" x="96"/>
-        <item x="5"/>
-        <item m="1" x="88"/>
-        <item x="6"/>
-        <item m="1" x="100"/>
-        <item x="7"/>
-        <item m="1" x="92"/>
-        <item x="8"/>
-        <item m="1" x="84"/>
-        <item x="9"/>
-        <item m="1" x="107"/>
-        <item x="10"/>
-        <item m="1" x="99"/>
-        <item x="11"/>
-        <item m="1" x="91"/>
-        <item x="12"/>
-        <item m="1" x="83"/>
-        <item x="13"/>
-        <item m="1" x="106"/>
-        <item x="14"/>
-        <item m="1" x="97"/>
-        <item x="15"/>
-        <item m="1" x="89"/>
-        <item x="16"/>
-        <item m="1" x="81"/>
-        <item x="17"/>
-        <item m="1" x="104"/>
-        <item x="18"/>
-        <item m="1" x="95"/>
-        <item x="19"/>
-        <item m="1" x="87"/>
-        <item x="20"/>
-        <item m="1" x="53"/>
-        <item x="21"/>
-        <item m="1" x="103"/>
-        <item x="22"/>
-        <item m="1" x="94"/>
-        <item x="23"/>
-        <item m="1" x="86"/>
-        <item x="24"/>
-        <item m="1" x="52"/>
-        <item x="25"/>
-        <item m="1" x="102"/>
-        <item x="26"/>
-        <item m="1" x="93"/>
-        <item x="27"/>
-        <item m="1" x="85"/>
-        <item x="28"/>
-        <item m="1" x="40"/>
-        <item x="29"/>
-        <item m="1" x="101"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -44646,7 +46690,8 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="39"/>
+        <item x="39"/>
+        <item h="1" x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -44696,7 +46741,64 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="40">
+  <rowItems count="41">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
     <i>
       <x v="38"/>
     </i>
@@ -44734,85 +46836,31 @@
       <x v="60"/>
     </i>
     <i>
+      <x v="61"/>
+    </i>
+    <i>
       <x v="62"/>
+    </i>
+    <i>
+      <x v="63"/>
     </i>
     <i>
       <x v="64"/>
     </i>
     <i>
+      <x v="65"/>
+    </i>
+    <i>
       <x v="66"/>
+    </i>
+    <i>
+      <x v="67"/>
     </i>
     <i>
       <x v="68"/>
     </i>
     <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="76"/>
-    </i>
-    <i>
-      <x v="78"/>
-    </i>
-    <i>
-      <x v="80"/>
-    </i>
-    <i>
-      <x v="82"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i>
-      <x v="86"/>
-    </i>
-    <i>
-      <x v="88"/>
-    </i>
-    <i>
-      <x v="90"/>
-    </i>
-    <i>
-      <x v="92"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i>
-      <x v="98"/>
-    </i>
-    <i>
-      <x v="99"/>
-    </i>
-    <i>
-      <x v="100"/>
-    </i>
-    <i>
-      <x v="101"/>
-    </i>
-    <i>
-      <x v="102"/>
-    </i>
-    <i>
-      <x v="103"/>
-    </i>
-    <i>
-      <x v="104"/>
-    </i>
-    <i>
-      <x v="105"/>
-    </i>
-    <i>
-      <x v="106"/>
+      <x v="69"/>
     </i>
     <i t="grand">
       <x/>
@@ -45192,10 +47240,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S820"/>
+  <dimension ref="A1:S841"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:S820"/>
+    <sheetView topLeftCell="A805" workbookViewId="0">
+      <selection activeCell="A821" sqref="A821:Q841"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -88669,6 +90717,1119 @@
         <v>7574</v>
       </c>
     </row>
+    <row r="821" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A821" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B821" t="s">
+        <v>14</v>
+      </c>
+      <c r="C821">
+        <v>13</v>
+      </c>
+      <c r="D821" t="s">
+        <v>15</v>
+      </c>
+      <c r="E821" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F821" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G821">
+        <v>20</v>
+      </c>
+      <c r="H821">
+        <v>1</v>
+      </c>
+      <c r="I821">
+        <v>21</v>
+      </c>
+      <c r="J821">
+        <v>29</v>
+      </c>
+      <c r="K821">
+        <v>50</v>
+      </c>
+      <c r="L821">
+        <v>50</v>
+      </c>
+      <c r="M821">
+        <v>50</v>
+      </c>
+      <c r="N821">
+        <v>3</v>
+      </c>
+      <c r="O821">
+        <v>13</v>
+      </c>
+      <c r="P821">
+        <v>66</v>
+      </c>
+      <c r="Q821">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="822" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A822" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B822" t="s">
+        <v>14</v>
+      </c>
+      <c r="C822">
+        <v>17</v>
+      </c>
+      <c r="D822" t="s">
+        <v>16</v>
+      </c>
+      <c r="E822" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F822" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G822">
+        <v>3</v>
+      </c>
+      <c r="H822">
+        <v>0</v>
+      </c>
+      <c r="I822">
+        <v>3</v>
+      </c>
+      <c r="J822">
+        <v>11</v>
+      </c>
+      <c r="K822">
+        <v>14</v>
+      </c>
+      <c r="L822">
+        <v>14</v>
+      </c>
+      <c r="M822">
+        <v>14</v>
+      </c>
+      <c r="N822">
+        <v>0</v>
+      </c>
+      <c r="O822">
+        <v>1</v>
+      </c>
+      <c r="P822">
+        <v>15</v>
+      </c>
+      <c r="Q822">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="823" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A823" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B823" t="s">
+        <v>14</v>
+      </c>
+      <c r="C823">
+        <v>18</v>
+      </c>
+      <c r="D823" t="s">
+        <v>17</v>
+      </c>
+      <c r="E823" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F823" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G823">
+        <v>20</v>
+      </c>
+      <c r="H823">
+        <v>-2</v>
+      </c>
+      <c r="I823">
+        <v>18</v>
+      </c>
+      <c r="J823">
+        <v>17</v>
+      </c>
+      <c r="K823">
+        <v>35</v>
+      </c>
+      <c r="L823">
+        <v>35</v>
+      </c>
+      <c r="M823">
+        <v>35</v>
+      </c>
+      <c r="N823">
+        <v>3</v>
+      </c>
+      <c r="O823">
+        <v>4</v>
+      </c>
+      <c r="P823">
+        <v>42</v>
+      </c>
+      <c r="Q823">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="824" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A824" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B824" t="s">
+        <v>14</v>
+      </c>
+      <c r="C824">
+        <v>15</v>
+      </c>
+      <c r="D824" t="s">
+        <v>18</v>
+      </c>
+      <c r="E824" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F824" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G824">
+        <v>29</v>
+      </c>
+      <c r="H824">
+        <v>-5</v>
+      </c>
+      <c r="I824">
+        <v>24</v>
+      </c>
+      <c r="J824">
+        <v>188</v>
+      </c>
+      <c r="K824">
+        <v>212</v>
+      </c>
+      <c r="L824">
+        <v>212</v>
+      </c>
+      <c r="M824">
+        <v>212</v>
+      </c>
+      <c r="N824">
+        <v>-5</v>
+      </c>
+      <c r="O824">
+        <v>14</v>
+      </c>
+      <c r="P824">
+        <v>221</v>
+      </c>
+      <c r="Q824">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="825" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A825" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B825" t="s">
+        <v>14</v>
+      </c>
+      <c r="C825">
+        <v>8</v>
+      </c>
+      <c r="D825" t="s">
+        <v>46</v>
+      </c>
+      <c r="E825" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F825" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G825">
+        <v>-29</v>
+      </c>
+      <c r="H825">
+        <v>-2</v>
+      </c>
+      <c r="I825">
+        <v>-31</v>
+      </c>
+      <c r="J825">
+        <v>350</v>
+      </c>
+      <c r="K825">
+        <v>319</v>
+      </c>
+      <c r="L825">
+        <v>319</v>
+      </c>
+      <c r="M825">
+        <v>319</v>
+      </c>
+      <c r="N825">
+        <v>189</v>
+      </c>
+      <c r="O825">
+        <v>91</v>
+      </c>
+      <c r="P825">
+        <v>599</v>
+      </c>
+      <c r="Q825">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="826" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A826" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B826" t="s">
+        <v>14</v>
+      </c>
+      <c r="C826">
+        <v>6</v>
+      </c>
+      <c r="D826" t="s">
+        <v>19</v>
+      </c>
+      <c r="E826" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F826" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G826">
+        <v>2</v>
+      </c>
+      <c r="H826">
+        <v>1</v>
+      </c>
+      <c r="I826">
+        <v>3</v>
+      </c>
+      <c r="J826">
+        <v>27</v>
+      </c>
+      <c r="K826">
+        <v>30</v>
+      </c>
+      <c r="L826">
+        <v>30</v>
+      </c>
+      <c r="M826">
+        <v>30</v>
+      </c>
+      <c r="N826">
+        <v>43</v>
+      </c>
+      <c r="O826">
+        <v>7</v>
+      </c>
+      <c r="P826">
+        <v>80</v>
+      </c>
+      <c r="Q826">
+        <v>2864</v>
+      </c>
+    </row>
+    <row r="827" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A827" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B827" t="s">
+        <v>14</v>
+      </c>
+      <c r="C827">
+        <v>12</v>
+      </c>
+      <c r="D827" t="s">
+        <v>20</v>
+      </c>
+      <c r="E827" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F827" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G827">
+        <v>25</v>
+      </c>
+      <c r="H827">
+        <v>7</v>
+      </c>
+      <c r="I827">
+        <v>32</v>
+      </c>
+      <c r="J827">
+        <v>98</v>
+      </c>
+      <c r="K827">
+        <v>130</v>
+      </c>
+      <c r="L827">
+        <v>130</v>
+      </c>
+      <c r="M827">
+        <v>130</v>
+      </c>
+      <c r="N827">
+        <v>23</v>
+      </c>
+      <c r="O827">
+        <v>14</v>
+      </c>
+      <c r="P827">
+        <v>167</v>
+      </c>
+      <c r="Q827">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="828" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A828" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B828" t="s">
+        <v>14</v>
+      </c>
+      <c r="C828">
+        <v>7</v>
+      </c>
+      <c r="D828" t="s">
+        <v>21</v>
+      </c>
+      <c r="E828" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F828" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G828">
+        <v>27</v>
+      </c>
+      <c r="H828">
+        <v>1</v>
+      </c>
+      <c r="I828">
+        <v>28</v>
+      </c>
+      <c r="J828">
+        <v>58</v>
+      </c>
+      <c r="K828">
+        <v>86</v>
+      </c>
+      <c r="L828">
+        <v>86</v>
+      </c>
+      <c r="M828">
+        <v>86</v>
+      </c>
+      <c r="N828">
+        <v>66</v>
+      </c>
+      <c r="O828">
+        <v>31</v>
+      </c>
+      <c r="P828">
+        <v>183</v>
+      </c>
+      <c r="Q828">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="829" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A829" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B829" t="s">
+        <v>14</v>
+      </c>
+      <c r="C829">
+        <v>3</v>
+      </c>
+      <c r="D829" t="s">
+        <v>22</v>
+      </c>
+      <c r="E829" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F829" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G829">
+        <v>40</v>
+      </c>
+      <c r="H829">
+        <v>30</v>
+      </c>
+      <c r="I829">
+        <v>70</v>
+      </c>
+      <c r="J829">
+        <v>243</v>
+      </c>
+      <c r="K829">
+        <v>313</v>
+      </c>
+      <c r="L829">
+        <v>313</v>
+      </c>
+      <c r="M829">
+        <v>313</v>
+      </c>
+      <c r="N829">
+        <v>791</v>
+      </c>
+      <c r="O829">
+        <v>351</v>
+      </c>
+      <c r="P829">
+        <v>1455</v>
+      </c>
+      <c r="Q829">
+        <v>6765</v>
+      </c>
+    </row>
+    <row r="830" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A830" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B830" t="s">
+        <v>14</v>
+      </c>
+      <c r="C830">
+        <v>11</v>
+      </c>
+      <c r="D830" t="s">
+        <v>23</v>
+      </c>
+      <c r="E830" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F830" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G830">
+        <v>-4</v>
+      </c>
+      <c r="H830">
+        <v>-6</v>
+      </c>
+      <c r="I830">
+        <v>-10</v>
+      </c>
+      <c r="J830">
+        <v>86</v>
+      </c>
+      <c r="K830">
+        <v>76</v>
+      </c>
+      <c r="L830">
+        <v>76</v>
+      </c>
+      <c r="M830">
+        <v>76</v>
+      </c>
+      <c r="N830">
+        <v>2</v>
+      </c>
+      <c r="O830">
+        <v>54</v>
+      </c>
+      <c r="P830">
+        <v>132</v>
+      </c>
+      <c r="Q830">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="831" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A831" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B831" t="s">
+        <v>14</v>
+      </c>
+      <c r="C831">
+        <v>14</v>
+      </c>
+      <c r="D831" t="s">
+        <v>24</v>
+      </c>
+      <c r="E831" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F831" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G831">
+        <v>1</v>
+      </c>
+      <c r="H831">
+        <v>0</v>
+      </c>
+      <c r="I831">
+        <v>1</v>
+      </c>
+      <c r="J831">
+        <v>10</v>
+      </c>
+      <c r="K831">
+        <v>11</v>
+      </c>
+      <c r="L831">
+        <v>11</v>
+      </c>
+      <c r="M831">
+        <v>11</v>
+      </c>
+      <c r="N831">
+        <v>0</v>
+      </c>
+      <c r="O831">
+        <v>0</v>
+      </c>
+      <c r="P831">
+        <v>11</v>
+      </c>
+      <c r="Q831">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="832" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A832" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B832" t="s">
+        <v>14</v>
+      </c>
+      <c r="C832">
+        <v>4</v>
+      </c>
+      <c r="D832" t="s">
+        <v>25</v>
+      </c>
+      <c r="E832" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F832" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G832">
+        <v>12</v>
+      </c>
+      <c r="H832">
+        <v>0</v>
+      </c>
+      <c r="I832">
+        <v>12</v>
+      </c>
+      <c r="J832">
+        <v>37</v>
+      </c>
+      <c r="K832">
+        <v>49</v>
+      </c>
+      <c r="L832">
+        <v>49</v>
+      </c>
+      <c r="M832">
+        <v>49</v>
+      </c>
+      <c r="N832">
+        <v>21</v>
+      </c>
+      <c r="O832">
+        <v>10</v>
+      </c>
+      <c r="P832">
+        <v>80</v>
+      </c>
+      <c r="Q832">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="833" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A833" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B833" t="s">
+        <v>14</v>
+      </c>
+      <c r="C833">
+        <v>4</v>
+      </c>
+      <c r="D833" t="s">
+        <v>26</v>
+      </c>
+      <c r="E833" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F833" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G833">
+        <v>4</v>
+      </c>
+      <c r="H833">
+        <v>2</v>
+      </c>
+      <c r="I833">
+        <v>6</v>
+      </c>
+      <c r="J833">
+        <v>66</v>
+      </c>
+      <c r="K833">
+        <v>72</v>
+      </c>
+      <c r="L833">
+        <v>72</v>
+      </c>
+      <c r="M833">
+        <v>72</v>
+      </c>
+      <c r="N833">
+        <v>17</v>
+      </c>
+      <c r="O833">
+        <v>17</v>
+      </c>
+      <c r="P833">
+        <v>106</v>
+      </c>
+      <c r="Q833">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="834" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A834" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B834" t="s">
+        <v>14</v>
+      </c>
+      <c r="C834">
+        <v>1</v>
+      </c>
+      <c r="D834" t="s">
+        <v>27</v>
+      </c>
+      <c r="E834" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F834" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G834">
+        <v>-41</v>
+      </c>
+      <c r="H834">
+        <v>-1</v>
+      </c>
+      <c r="I834">
+        <v>-42</v>
+      </c>
+      <c r="J834">
+        <v>373</v>
+      </c>
+      <c r="K834">
+        <v>331</v>
+      </c>
+      <c r="L834">
+        <v>331</v>
+      </c>
+      <c r="M834">
+        <v>331</v>
+      </c>
+      <c r="N834">
+        <v>152</v>
+      </c>
+      <c r="O834">
+        <v>60</v>
+      </c>
+      <c r="P834">
+        <v>543</v>
+      </c>
+      <c r="Q834">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="835" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A835" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B835" t="s">
+        <v>14</v>
+      </c>
+      <c r="C835">
+        <v>16</v>
+      </c>
+      <c r="D835" t="s">
+        <v>28</v>
+      </c>
+      <c r="E835" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F835" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G835">
+        <v>3</v>
+      </c>
+      <c r="H835">
+        <v>5</v>
+      </c>
+      <c r="I835">
+        <v>8</v>
+      </c>
+      <c r="J835">
+        <v>77</v>
+      </c>
+      <c r="K835">
+        <v>85</v>
+      </c>
+      <c r="L835">
+        <v>85</v>
+      </c>
+      <c r="M835">
+        <v>85</v>
+      </c>
+      <c r="N835">
+        <v>0</v>
+      </c>
+      <c r="O835">
+        <v>20</v>
+      </c>
+      <c r="P835">
+        <v>105</v>
+      </c>
+      <c r="Q835">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="836" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A836" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B836" t="s">
+        <v>14</v>
+      </c>
+      <c r="C836">
+        <v>20</v>
+      </c>
+      <c r="D836" t="s">
+        <v>29</v>
+      </c>
+      <c r="E836" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F836" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G836">
+        <v>5</v>
+      </c>
+      <c r="H836">
+        <v>0</v>
+      </c>
+      <c r="I836">
+        <v>5</v>
+      </c>
+      <c r="J836">
+        <v>21</v>
+      </c>
+      <c r="K836">
+        <v>26</v>
+      </c>
+      <c r="L836">
+        <v>26</v>
+      </c>
+      <c r="M836">
+        <v>26</v>
+      </c>
+      <c r="N836">
+        <v>4</v>
+      </c>
+      <c r="O836">
+        <v>1</v>
+      </c>
+      <c r="P836">
+        <v>31</v>
+      </c>
+      <c r="Q836">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="837" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A837" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B837" t="s">
+        <v>14</v>
+      </c>
+      <c r="C837">
+        <v>19</v>
+      </c>
+      <c r="D837" t="s">
+        <v>30</v>
+      </c>
+      <c r="E837" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F837" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G837">
+        <v>32</v>
+      </c>
+      <c r="H837">
+        <v>0</v>
+      </c>
+      <c r="I837">
+        <v>32</v>
+      </c>
+      <c r="J837">
+        <v>26</v>
+      </c>
+      <c r="K837">
+        <v>58</v>
+      </c>
+      <c r="L837">
+        <v>58</v>
+      </c>
+      <c r="M837">
+        <v>58</v>
+      </c>
+      <c r="N837">
+        <v>2</v>
+      </c>
+      <c r="O837">
+        <v>8</v>
+      </c>
+      <c r="P837">
+        <v>68</v>
+      </c>
+      <c r="Q837">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="838" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A838" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B838" t="s">
+        <v>14</v>
+      </c>
+      <c r="C838">
+        <v>9</v>
+      </c>
+      <c r="D838" t="s">
+        <v>31</v>
+      </c>
+      <c r="E838" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F838" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G838">
+        <v>14</v>
+      </c>
+      <c r="H838">
+        <v>-7</v>
+      </c>
+      <c r="I838">
+        <v>7</v>
+      </c>
+      <c r="J838">
+        <v>113</v>
+      </c>
+      <c r="K838">
+        <v>120</v>
+      </c>
+      <c r="L838">
+        <v>120</v>
+      </c>
+      <c r="M838">
+        <v>120</v>
+      </c>
+      <c r="N838">
+        <v>84</v>
+      </c>
+      <c r="O838">
+        <v>22</v>
+      </c>
+      <c r="P838">
+        <v>226</v>
+      </c>
+      <c r="Q838">
+        <v>3736</v>
+      </c>
+    </row>
+    <row r="839" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A839" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B839" t="s">
+        <v>14</v>
+      </c>
+      <c r="C839">
+        <v>10</v>
+      </c>
+      <c r="D839" t="s">
+        <v>32</v>
+      </c>
+      <c r="E839" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F839" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G839">
+        <v>-6</v>
+      </c>
+      <c r="H839">
+        <v>1</v>
+      </c>
+      <c r="I839">
+        <v>-5</v>
+      </c>
+      <c r="J839">
+        <v>40</v>
+      </c>
+      <c r="K839">
+        <v>35</v>
+      </c>
+      <c r="L839">
+        <v>35</v>
+      </c>
+      <c r="M839">
+        <v>35</v>
+      </c>
+      <c r="N839">
+        <v>15</v>
+      </c>
+      <c r="O839">
+        <v>1</v>
+      </c>
+      <c r="P839">
+        <v>51</v>
+      </c>
+      <c r="Q839">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="840" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A840" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B840" t="s">
+        <v>14</v>
+      </c>
+      <c r="C840">
+        <v>2</v>
+      </c>
+      <c r="D840" t="s">
+        <v>33</v>
+      </c>
+      <c r="E840" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F840" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G840">
+        <v>0</v>
+      </c>
+      <c r="H840">
+        <v>0</v>
+      </c>
+      <c r="I840">
+        <v>0</v>
+      </c>
+      <c r="J840">
+        <v>4</v>
+      </c>
+      <c r="K840">
+        <v>4</v>
+      </c>
+      <c r="L840">
+        <v>4</v>
+      </c>
+      <c r="M840">
+        <v>4</v>
+      </c>
+      <c r="N840">
+        <v>40</v>
+      </c>
+      <c r="O840">
+        <v>7</v>
+      </c>
+      <c r="P840">
+        <v>51</v>
+      </c>
+      <c r="Q840">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="841" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A841" s="6">
+        <v>43924</v>
+      </c>
+      <c r="B841" t="s">
+        <v>14</v>
+      </c>
+      <c r="C841">
+        <v>5</v>
+      </c>
+      <c r="D841" t="s">
+        <v>34</v>
+      </c>
+      <c r="E841" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F841" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G841">
+        <v>44</v>
+      </c>
+      <c r="H841">
+        <v>-10</v>
+      </c>
+      <c r="I841">
+        <v>34</v>
+      </c>
+      <c r="J841">
+        <v>249</v>
+      </c>
+      <c r="K841">
+        <v>283</v>
+      </c>
+      <c r="L841">
+        <v>283</v>
+      </c>
+      <c r="M841">
+        <v>283</v>
+      </c>
+      <c r="N841">
+        <v>30</v>
+      </c>
+      <c r="O841">
+        <v>40</v>
+      </c>
+      <c r="P841">
+        <v>353</v>
+      </c>
+      <c r="Q841">
+        <v>6170</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{FBAB6D88-DCD4-E841-8499-D0DE040246DB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -88677,10 +91838,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G44"/>
+  <dimension ref="A3:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A48" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -88691,7 +91852,7 @@
     <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="18.5" customWidth="1"/>
     <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
@@ -88852,7 +92013,7 @@
         <v>94</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G43" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G44" si="0">SUM(B5:F5)</f>
         <v>229</v>
       </c>
     </row>
@@ -89768,28 +92929,52 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A44" s="3" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="7">
+        <v>43924</v>
+      </c>
+      <c r="B44" s="4">
+        <v>766</v>
+      </c>
+      <c r="C44" s="4">
+        <v>1480</v>
+      </c>
+      <c r="D44" s="4">
+        <v>201</v>
+      </c>
+      <c r="E44" s="4">
+        <v>15</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2123</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.4">
+      <c r="A45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4">
-        <v>13915</v>
-      </c>
-      <c r="C44" s="4">
-        <v>18278</v>
-      </c>
-      <c r="D44" s="4">
-        <v>28540</v>
-      </c>
-      <c r="E44" s="4">
-        <v>4053</v>
-      </c>
-      <c r="F44" s="4">
-        <v>50456</v>
-      </c>
-      <c r="G44" s="8">
-        <f>SUM(B44:F44)</f>
-        <v>115242</v>
+      <c r="B45" s="4">
+        <v>14681</v>
+      </c>
+      <c r="C45" s="4">
+        <v>19758</v>
+      </c>
+      <c r="D45" s="4">
+        <v>28741</v>
+      </c>
+      <c r="E45" s="4">
+        <v>4068</v>
+      </c>
+      <c r="F45" s="4">
+        <v>52579</v>
+      </c>
+      <c r="G45" s="8">
+        <f>SUM(B45:F45)</f>
+        <v>119827</v>
       </c>
     </row>
   </sheetData>
@@ -89799,11 +92984,367 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1084B9-5FA0-CB4F-AF55-AA19481B2D01}">
+  <dimension ref="B3:C44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="7">
+        <v>43885</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="7">
+        <v>43886</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <v>43887</v>
+      </c>
+      <c r="C6" s="4">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="7">
+        <v>43888</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2427</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="7">
+        <v>43889</v>
+      </c>
+      <c r="C8" s="4">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9" s="7">
+        <v>43890</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2966</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="7">
+        <v>43891</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2466</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <v>43892</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="7">
+        <v>43893</v>
+      </c>
+      <c r="C12" s="4">
+        <v>2511</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="7">
+        <v>43894</v>
+      </c>
+      <c r="C13" s="4">
+        <v>3981</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="7">
+        <v>43895</v>
+      </c>
+      <c r="C14" s="4">
+        <v>2525</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="7">
+        <v>43896</v>
+      </c>
+      <c r="C15" s="4">
+        <v>3997</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="7">
+        <v>43897</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5703</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="7">
+        <v>43898</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="7">
+        <v>43899</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3889</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="7">
+        <v>43900</v>
+      </c>
+      <c r="C19" s="4">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="7">
+        <v>43901</v>
+      </c>
+      <c r="C20" s="4">
+        <v>12393</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <v>43902</v>
+      </c>
+      <c r="C21" s="4">
+        <v>12857</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="7">
+        <v>43903</v>
+      </c>
+      <c r="C22" s="4">
+        <v>11477</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="7">
+        <v>43904</v>
+      </c>
+      <c r="C23" s="4">
+        <v>11682</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="7">
+        <v>43905</v>
+      </c>
+      <c r="C24" s="4">
+        <v>15729</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="7">
+        <v>43906</v>
+      </c>
+      <c r="C25" s="4">
+        <v>13063</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <v>43907</v>
+      </c>
+      <c r="C26" s="4">
+        <v>10695</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="7">
+        <v>43908</v>
+      </c>
+      <c r="C27" s="4">
+        <v>16884</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="7">
+        <v>43909</v>
+      </c>
+      <c r="C28" s="4">
+        <v>17236</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="7">
+        <v>43910</v>
+      </c>
+      <c r="C29" s="4">
+        <v>24109</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="7">
+        <v>43911</v>
+      </c>
+      <c r="C30" s="4">
+        <v>26336</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <v>43912</v>
+      </c>
+      <c r="C31" s="4">
+        <v>25180</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="7">
+        <v>43913</v>
+      </c>
+      <c r="C32" s="4">
+        <v>17066</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="7">
+        <v>43914</v>
+      </c>
+      <c r="C33" s="4">
+        <v>21496</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34" s="7">
+        <v>43915</v>
+      </c>
+      <c r="C34" s="4">
+        <v>27481</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35" s="7">
+        <v>43916</v>
+      </c>
+      <c r="C35" s="4">
+        <v>36615</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <v>43917</v>
+      </c>
+      <c r="C36" s="4">
+        <v>33019</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>43918</v>
+      </c>
+      <c r="C37" s="4">
+        <v>35447</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>43919</v>
+      </c>
+      <c r="C38" s="4">
+        <v>24504</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>43920</v>
+      </c>
+      <c r="C39" s="4">
+        <v>23329</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>43921</v>
+      </c>
+      <c r="C40" s="4">
+        <v>29609</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41" s="7">
+        <v>43922</v>
+      </c>
+      <c r="C41" s="4">
+        <v>34455</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="7">
+        <v>43923</v>
+      </c>
+      <c r="C42" s="4">
+        <v>39809</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <v>43924</v>
+      </c>
+      <c r="C43" s="4">
+        <v>38617</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" s="4">
+        <v>619849</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:B42"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -90221,15 +93762,25 @@
         <v>4668</v>
       </c>
     </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="6">
+        <f>All!A44</f>
+        <v>43924</v>
+      </c>
+      <c r="B43">
+        <f>All!G44</f>
+        <v>4585</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -90575,11 +94126,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B43" s="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="4">
-        <v>28540</v>
+      <c r="B44" s="4">
+        <v>28741</v>
       </c>
     </row>
   </sheetData>
@@ -90588,12 +94147,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AI3" sqref="AI3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A7:A46"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="8" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -90948,11 +94514,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B46" s="4">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="4">
-        <v>18278</v>
+      <c r="B47" s="4">
+        <v>19758</v>
       </c>
     </row>
   </sheetData>
@@ -90961,12 +94535,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B44"/>
+  <dimension ref="A2:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -91309,11 +94883,19 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B44" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4">
-        <v>4053</v>
+      <c r="B45" s="4">
+        <v>4068</v>
       </c>
     </row>
   </sheetData>
@@ -91322,9 +94904,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -91674,11 +95256,19 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4">
-        <v>50456</v>
+      <c r="B45" s="4">
+        <v>52579</v>
       </c>
     </row>
   </sheetData>
@@ -91687,12 +95277,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -92035,11 +95625,19 @@
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="5">
+        <v>43924</v>
+      </c>
+      <c r="B43" s="4">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="4">
-        <v>13915</v>
+      <c r="B44" s="4">
+        <v>14681</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC2F7A3-C92A-1944-B716-98C0BB9E1AF2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C5949-AC19-9C4F-8E1D-5F37B956A357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldatanormalised" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="23" r:id="rId10"/>
-    <pivotCache cacheId="43" r:id="rId11"/>
+    <pivotCache cacheId="8" r:id="rId10"/>
+    <pivotCache cacheId="20" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -346,7 +346,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="26"/>
+      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -897,9 +897,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$45</c:f>
+              <c:f>All!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1022,16 +1022,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$45</c:f>
+              <c:f>All!$B$4:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1151,6 +1154,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1190,9 +1196,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$45</c:f>
+              <c:f>All!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1315,16 +1321,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$45</c:f>
+              <c:f>All!$C$4:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1444,6 +1453,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,9 +1495,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$45</c:f>
+              <c:f>All!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1608,16 +1620,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$45</c:f>
+              <c:f>All!$D$4:$D$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1737,6 +1752,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1776,9 +1794,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$45</c:f>
+              <c:f>All!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1901,16 +1919,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$45</c:f>
+              <c:f>All!$E$4:$E$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2030,6 +2051,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,9 +2093,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$45</c:f>
+              <c:f>All!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2194,16 +2218,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$45</c:f>
+              <c:f>All!$F$4:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="1">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2323,6 +2350,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2463,6 +2493,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.69812981103540839"/>
+          <c:y val="5.7137580018202579E-2"/>
+          <c:w val="0.1284766864810665"/>
+          <c:h val="0.17890193091316239"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2701,9 +2741,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Tamponi!$B$4:$B$44</c:f>
+              <c:f>Tamponi!$B$4:$B$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2823,16 +2863,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tamponi!$C$4:$C$44</c:f>
+              <c:f>Tamponi!$C$4:$C$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2952,6 +2995,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>38617</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3297,9 +3343,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$43</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$44</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -3422,16 +3468,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>03/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>04/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$43</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$44</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3554,6 +3603,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4805</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3960,9 +4012,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$44</c:f>
+              <c:f>Ricoverati!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4082,16 +4134,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>03/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>04/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$44</c:f>
+              <c:f>Ricoverati!$B$4:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -4211,6 +4266,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>269</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4616,9 +4674,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$47</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4738,16 +4796,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>03/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>04/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$47</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4867,6 +4928,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5256,9 +5320,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$45</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -5378,16 +5442,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>03/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>04/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$45</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -5507,6 +5574,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5911,9 +5981,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$45</c:f>
+              <c:f>Isolamento!$A$5:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6033,16 +6103,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>03/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>04/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$45</c:f>
+              <c:f>Isolamento!$B$5:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -6162,6 +6235,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>2123</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2691</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6566,9 +6642,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$44</c:f>
+              <c:f>Deceduti!$A$4:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6688,16 +6764,19 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>03/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>04/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$44</c:f>
+              <c:f>Deceduti!$B$4:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="41"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6817,6 +6896,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>766</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>681</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11472,7 +11554,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>771769</xdr:colOff>
+      <xdr:colOff>516373</xdr:colOff>
       <xdr:row>82</xdr:row>
       <xdr:rowOff>153516</xdr:rowOff>
     </xdr:to>
@@ -11507,15 +11589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11800,13 +11882,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43924.75648611111" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="841" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43925.760812384258" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="862" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-04T00:00:00" count="41">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-05T00:00:00" count="42">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -11847,6 +11929,7 @@
         <d v="2020-04-01T00:00:00"/>
         <d v="2020-04-02T00:00:00"/>
         <d v="2020-04-03T00:00:00"/>
+        <d v="2020-04-04T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -11914,13 +11997,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43924.757715856482" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="841" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43925.761787962962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="862" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-04T00:00:00" count="71">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-05T00:00:00" count="72">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -11961,6 +12044,7 @@
         <d v="2020-04-01T00:00:00"/>
         <d v="2020-04-02T00:00:00"/>
         <d v="2020-04-03T00:00:00"/>
+        <d v="2020-04-04T00:00:00"/>
         <m/>
         <d v="2020-03-18T17:00:00" u="1"/>
         <d v="2020-03-11T17:00:00" u="1"/>
@@ -12073,7 +12157,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="841">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="862">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -29716,6 +29800,447 @@
   </r>
   <r>
     <x v="40"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="-5"/>
+    <n v="-12"/>
+    <n v="67"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="65"/>
+    <n v="947"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="-6"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="143"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-5"/>
+    <n v="-2"/>
+    <n v="-7"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="8"/>
+    <n v="706"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="35"/>
+    <n v="-1"/>
+    <n v="34"/>
+    <n v="110"/>
+    <n v="144"/>
+    <n v="144"/>
+    <n v="144"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="151"/>
+    <n v="2297"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-56"/>
+    <n v="-6"/>
+    <n v="-62"/>
+    <n v="407"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="188"/>
+    <n v="75"/>
+    <n v="608"/>
+    <n v="3393"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-18"/>
+    <n v="-11"/>
+    <n v="-29"/>
+    <n v="41"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="86"/>
+    <n v="9"/>
+    <n v="107"/>
+    <n v="1141"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="42"/>
+    <n v="5"/>
+    <n v="47"/>
+    <n v="50"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="47"/>
+    <n v="13"/>
+    <n v="157"/>
+    <n v="848"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="-26"/>
+    <n v="-4"/>
+    <n v="-30"/>
+    <n v="178"/>
+    <n v="148"/>
+    <n v="148"/>
+    <n v="148"/>
+    <n v="67"/>
+    <n v="23"/>
+    <n v="238"/>
+    <n v="1153"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="200"/>
+    <n v="-55"/>
+    <n v="145"/>
+    <n v="886"/>
+    <n v="1031"/>
+    <n v="1031"/>
+    <n v="1031"/>
+    <n v="222"/>
+    <n v="345"/>
+    <n v="1598"/>
+    <n v="6826"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="15"/>
+    <n v="-5"/>
+    <n v="10"/>
+    <n v="-144"/>
+    <n v="-134"/>
+    <n v="-134"/>
+    <n v="-134"/>
+    <n v="228"/>
+    <n v="17"/>
+    <n v="111"/>
+    <n v="794"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="0"/>
+    <n v="-2"/>
+    <n v="-2"/>
+    <n v="29"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="30"/>
+    <n v="126"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="-9"/>
+    <n v="-8"/>
+    <n v="-8"/>
+    <n v="-8"/>
+    <n v="34"/>
+    <n v="7"/>
+    <n v="33"/>
+    <n v="1069"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="83"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="11"/>
+    <n v="6"/>
+    <n v="111"/>
+    <n v="870"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="141"/>
+    <n v="-2"/>
+    <n v="139"/>
+    <n v="424"/>
+    <n v="563"/>
+    <n v="563"/>
+    <n v="563"/>
+    <n v="165"/>
+    <n v="85"/>
+    <n v="813"/>
+    <n v="2900"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-21"/>
+    <n v="30"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="58"/>
+    <n v="1053"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="44"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="49"/>
+    <n v="311"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="19"/>
+    <n v="43"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="73"/>
+    <n v="1210"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-20"/>
+    <n v="-2"/>
+    <n v="-22"/>
+    <n v="167"/>
+    <n v="145"/>
+    <n v="145"/>
+    <n v="145"/>
+    <n v="10"/>
+    <n v="17"/>
+    <n v="172"/>
+    <n v="3426"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="2"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="31"/>
+    <n v="1195"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="-22"/>
+    <n v="-2"/>
+    <n v="-24"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="12"/>
+    <n v="29"/>
+    <n v="168"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-23"/>
+    <n v="-11"/>
+    <n v="-34"/>
+    <n v="266"/>
+    <n v="232"/>
+    <n v="232"/>
+    <n v="232"/>
+    <n v="93"/>
+    <n v="35"/>
+    <n v="360"/>
+    <n v="6799"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
     <m/>
     <m/>
     <m/>
@@ -29739,7 +30264,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="841">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="862">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -44862,6 +45387,384 @@
   </r>
   <r>
     <x v="40"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="-5"/>
+    <n v="-12"/>
+    <n v="67"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="55"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="-6"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-5"/>
+    <n v="-2"/>
+    <n v="-7"/>
+    <n v="7"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="35"/>
+    <n v="-1"/>
+    <n v="34"/>
+    <n v="110"/>
+    <n v="144"/>
+    <n v="144"/>
+    <n v="144"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="151"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-56"/>
+    <n v="-6"/>
+    <n v="-62"/>
+    <n v="407"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="188"/>
+    <n v="75"/>
+    <n v="608"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-18"/>
+    <n v="-11"/>
+    <n v="-29"/>
+    <n v="41"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="86"/>
+    <n v="9"/>
+    <n v="107"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="42"/>
+    <n v="5"/>
+    <n v="47"/>
+    <n v="50"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="97"/>
+    <n v="47"/>
+    <n v="13"/>
+    <n v="157"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="-26"/>
+    <n v="-4"/>
+    <n v="-30"/>
+    <n v="178"/>
+    <n v="148"/>
+    <n v="148"/>
+    <n v="148"/>
+    <n v="67"/>
+    <n v="23"/>
+    <n v="238"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="200"/>
+    <n v="-55"/>
+    <n v="145"/>
+    <n v="886"/>
+    <n v="1031"/>
+    <n v="1031"/>
+    <n v="1031"/>
+    <n v="222"/>
+    <n v="345"/>
+    <n v="1598"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="15"/>
+    <n v="-5"/>
+    <n v="10"/>
+    <n v="-144"/>
+    <n v="-134"/>
+    <n v="-134"/>
+    <n v="-134"/>
+    <n v="228"/>
+    <n v="17"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="0"/>
+    <n v="-2"/>
+    <n v="-2"/>
+    <n v="29"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="-9"/>
+    <n v="-8"/>
+    <n v="-8"/>
+    <n v="-8"/>
+    <n v="34"/>
+    <n v="7"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="10"/>
+    <n v="1"/>
+    <n v="11"/>
+    <n v="83"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="11"/>
+    <n v="6"/>
+    <n v="111"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="141"/>
+    <n v="-2"/>
+    <n v="139"/>
+    <n v="424"/>
+    <n v="563"/>
+    <n v="563"/>
+    <n v="563"/>
+    <n v="165"/>
+    <n v="85"/>
+    <n v="813"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-21"/>
+    <n v="30"/>
+    <n v="9"/>
+    <n v="15"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="25"/>
+    <n v="9"/>
+    <n v="58"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="44"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="45"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="18"/>
+    <n v="1"/>
+    <n v="19"/>
+    <n v="43"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="10"/>
+    <n v="73"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-20"/>
+    <n v="-2"/>
+    <n v="-22"/>
+    <n v="167"/>
+    <n v="145"/>
+    <n v="145"/>
+    <n v="145"/>
+    <n v="10"/>
+    <n v="17"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="2"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="9"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="7"/>
+    <n v="22"/>
+    <n v="2"/>
+    <n v="31"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="-22"/>
+    <n v="-2"/>
+    <n v="-24"/>
+    <n v="24"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="17"/>
+    <n v="12"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-23"/>
+    <n v="-11"/>
+    <n v="-34"/>
+    <n v="266"/>
+    <n v="232"/>
+    <n v="232"/>
+    <n v="232"/>
+    <n v="93"/>
+    <n v="35"/>
+    <n v="360"/>
+  </r>
+  <r>
+    <x v="41"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -44882,12 +45785,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F45" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="42">
-        <item x="40"/>
+      <items count="43">
+        <item x="41"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -44928,6 +45831,7 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
+        <item x="40"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -44947,6 +45851,296 @@
     <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="43">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Sum of deceduti" fld="14" baseField="0" baseItem="0"/>
+    <dataField name="Sum of dimessi_guariti" fld="13" baseField="0" baseItem="0"/>
+    <dataField name="Sum of ricoverati_con_sintomi" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of terapia_intensiva" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="Sum of isolamento_domiciliare" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:C45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="19">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="43">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item h="1" x="41"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
@@ -45072,293 +46266,10 @@
       <x v="38"/>
     </i>
     <i>
-      <x v="39"/>
+      <x v="40"/>
     </i>
     <i>
-      <x v="40"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Sum of deceduti" fld="14" baseField="0" baseItem="0"/>
-    <dataField name="Sum of dimessi_guariti" fld="13" baseField="0" baseItem="0"/>
-    <dataField name="Sum of ricoverati_con_sintomi" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="Sum of terapia_intensiva" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="Sum of isolamento_domiciliare" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:C44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="19">
-    <pivotField axis="axisRow" showAll="0">
-      <items count="42">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item h="1" x="40"/>
-        <item x="39"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="41">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="40"/>
+      <x v="41"/>
     </i>
     <i t="grand">
       <x/>
@@ -45394,71 +46305,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="72">
+      <items count="73">
         <item x="0"/>
+        <item m="1" x="61"/>
+        <item x="1"/>
+        <item m="1" x="44"/>
+        <item x="2"/>
+        <item m="1" x="56"/>
+        <item x="3"/>
+        <item m="1" x="70"/>
+        <item x="4"/>
+        <item m="1" x="52"/>
+        <item x="5"/>
+        <item m="1" x="65"/>
+        <item x="6"/>
+        <item m="1" x="67"/>
+        <item x="7"/>
+        <item m="1" x="49"/>
+        <item x="8"/>
+        <item m="1" x="62"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="10"/>
+        <item m="1" x="57"/>
+        <item x="11"/>
+        <item m="1" x="71"/>
+        <item x="12"/>
+        <item m="1" x="53"/>
+        <item x="13"/>
+        <item m="1" x="66"/>
+        <item x="14"/>
+        <item m="1" x="48"/>
+        <item x="15"/>
         <item m="1" x="60"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="43"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="55"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="69"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="51"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="64"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item x="7"/>
-        <item m="1" x="48"/>
-        <item x="8"/>
-        <item m="1" x="61"/>
-        <item x="9"/>
-        <item m="1" x="44"/>
-        <item x="10"/>
-        <item m="1" x="56"/>
-        <item x="11"/>
-        <item m="1" x="70"/>
-        <item x="12"/>
-        <item m="1" x="52"/>
-        <item x="13"/>
-        <item m="1" x="65"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="47"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="59"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="42"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="54"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="68"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="50"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="63"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="46"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="58"/>
-        <item x="23"/>
-        <item m="1" x="41"/>
-        <item x="24"/>
-        <item m="1" x="53"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="49"/>
-        <item x="27"/>
-        <item m="1" x="62"/>
-        <item x="28"/>
-        <item m="1" x="45"/>
-        <item x="29"/>
-        <item m="1" x="57"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -45469,7 +46380,8 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item h="1" x="40"/>
+        <item x="40"/>
+        <item h="1" x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -45519,7 +46431,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
     <i>
       <x/>
     </i>
@@ -45640,6 +46552,9 @@
     <i>
       <x v="69"/>
     </i>
+    <i>
+      <x v="70"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -45686,71 +46601,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="72">
+      <items count="73">
         <item x="0"/>
+        <item m="1" x="61"/>
+        <item x="1"/>
+        <item m="1" x="44"/>
+        <item x="2"/>
+        <item m="1" x="56"/>
+        <item x="3"/>
+        <item m="1" x="70"/>
+        <item x="4"/>
+        <item m="1" x="52"/>
+        <item x="5"/>
+        <item m="1" x="65"/>
+        <item x="6"/>
+        <item m="1" x="67"/>
+        <item x="7"/>
+        <item m="1" x="49"/>
+        <item x="8"/>
+        <item m="1" x="62"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="10"/>
+        <item m="1" x="57"/>
+        <item x="11"/>
+        <item m="1" x="71"/>
+        <item x="12"/>
+        <item m="1" x="53"/>
+        <item x="13"/>
+        <item m="1" x="66"/>
+        <item x="14"/>
+        <item m="1" x="48"/>
+        <item x="15"/>
         <item m="1" x="60"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="43"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="55"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="69"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="51"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="64"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item x="7"/>
-        <item m="1" x="48"/>
-        <item x="8"/>
-        <item m="1" x="61"/>
-        <item x="9"/>
-        <item m="1" x="44"/>
-        <item x="10"/>
-        <item m="1" x="56"/>
-        <item x="11"/>
-        <item m="1" x="70"/>
-        <item x="12"/>
-        <item m="1" x="52"/>
-        <item x="13"/>
-        <item m="1" x="65"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="47"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="59"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="42"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="54"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="68"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="50"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="63"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="46"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="58"/>
-        <item x="23"/>
-        <item m="1" x="41"/>
-        <item x="24"/>
-        <item m="1" x="53"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="49"/>
-        <item x="27"/>
-        <item m="1" x="62"/>
-        <item x="28"/>
-        <item m="1" x="45"/>
-        <item x="29"/>
-        <item m="1" x="57"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -45761,7 +46676,8 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item h="1" x="40"/>
+        <item x="40"/>
+        <item h="1" x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -45811,7 +46727,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
     <i>
       <x/>
     </i>
@@ -45932,6 +46848,9 @@
     <i>
       <x v="69"/>
     </i>
+    <i>
+      <x v="70"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -45987,71 +46906,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="72">
+      <items count="73">
         <item x="0"/>
+        <item m="1" x="61"/>
+        <item x="1"/>
+        <item m="1" x="44"/>
+        <item x="2"/>
+        <item m="1" x="56"/>
+        <item x="3"/>
+        <item m="1" x="70"/>
+        <item x="4"/>
+        <item m="1" x="52"/>
+        <item x="5"/>
+        <item m="1" x="65"/>
+        <item x="6"/>
+        <item m="1" x="67"/>
+        <item x="7"/>
+        <item m="1" x="49"/>
+        <item x="8"/>
+        <item m="1" x="62"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="10"/>
+        <item m="1" x="57"/>
+        <item x="11"/>
+        <item m="1" x="71"/>
+        <item x="12"/>
+        <item m="1" x="53"/>
+        <item x="13"/>
+        <item m="1" x="66"/>
+        <item x="14"/>
+        <item m="1" x="48"/>
+        <item x="15"/>
         <item m="1" x="60"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="43"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="55"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="69"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="51"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="64"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item x="7"/>
-        <item m="1" x="48"/>
-        <item x="8"/>
-        <item m="1" x="61"/>
-        <item x="9"/>
-        <item m="1" x="44"/>
-        <item x="10"/>
-        <item m="1" x="56"/>
-        <item x="11"/>
-        <item m="1" x="70"/>
-        <item x="12"/>
-        <item m="1" x="52"/>
-        <item x="13"/>
-        <item m="1" x="65"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="47"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="59"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="42"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="54"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="68"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="50"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="63"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="46"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="58"/>
-        <item x="23"/>
-        <item m="1" x="41"/>
-        <item x="24"/>
-        <item m="1" x="53"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="49"/>
-        <item x="27"/>
-        <item m="1" x="62"/>
-        <item x="28"/>
-        <item m="1" x="45"/>
-        <item x="29"/>
-        <item m="1" x="57"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -46062,7 +46981,8 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item h="1" x="40"/>
+        <item x="40"/>
+        <item h="1" x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46112,7 +47032,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
     <i>
       <x/>
     </i>
@@ -46233,6 +47153,9 @@
     <i>
       <x v="69"/>
     </i>
+    <i>
+      <x v="70"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46297,71 +47220,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="72">
+      <items count="73">
         <item x="0"/>
+        <item m="1" x="61"/>
+        <item x="1"/>
+        <item m="1" x="44"/>
+        <item x="2"/>
+        <item m="1" x="56"/>
+        <item x="3"/>
+        <item m="1" x="70"/>
+        <item x="4"/>
+        <item m="1" x="52"/>
+        <item x="5"/>
+        <item m="1" x="65"/>
+        <item x="6"/>
+        <item m="1" x="67"/>
+        <item x="7"/>
+        <item m="1" x="49"/>
+        <item x="8"/>
+        <item m="1" x="62"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="10"/>
+        <item m="1" x="57"/>
+        <item x="11"/>
+        <item m="1" x="71"/>
+        <item x="12"/>
+        <item m="1" x="53"/>
+        <item x="13"/>
+        <item m="1" x="66"/>
+        <item x="14"/>
+        <item m="1" x="48"/>
+        <item x="15"/>
         <item m="1" x="60"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="43"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="55"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="69"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="51"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="64"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item x="7"/>
-        <item m="1" x="48"/>
-        <item x="8"/>
-        <item m="1" x="61"/>
-        <item x="9"/>
-        <item m="1" x="44"/>
-        <item x="10"/>
-        <item m="1" x="56"/>
-        <item x="11"/>
-        <item m="1" x="70"/>
-        <item x="12"/>
-        <item m="1" x="52"/>
-        <item x="13"/>
-        <item m="1" x="65"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="47"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="59"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="42"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="54"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="68"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="50"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="63"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="46"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="58"/>
-        <item x="23"/>
-        <item m="1" x="41"/>
-        <item x="24"/>
-        <item m="1" x="53"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="49"/>
-        <item x="27"/>
-        <item m="1" x="62"/>
-        <item x="28"/>
-        <item m="1" x="45"/>
-        <item x="29"/>
-        <item m="1" x="57"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -46372,7 +47295,8 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item h="1" x="40"/>
+        <item x="40"/>
+        <item h="1" x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46422,7 +47346,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
     <i>
       <x/>
     </i>
@@ -46543,6 +47467,9 @@
     <i>
       <x v="69"/>
     </i>
+    <i>
+      <x v="70"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46616,71 +47543,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B44" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="72">
+      <items count="73">
         <item x="0"/>
+        <item m="1" x="61"/>
+        <item x="1"/>
+        <item m="1" x="44"/>
+        <item x="2"/>
+        <item m="1" x="56"/>
+        <item x="3"/>
+        <item m="1" x="70"/>
+        <item x="4"/>
+        <item m="1" x="52"/>
+        <item x="5"/>
+        <item m="1" x="65"/>
+        <item x="6"/>
+        <item m="1" x="67"/>
+        <item x="7"/>
+        <item m="1" x="49"/>
+        <item x="8"/>
+        <item m="1" x="62"/>
+        <item x="9"/>
+        <item m="1" x="45"/>
+        <item x="10"/>
+        <item m="1" x="57"/>
+        <item x="11"/>
+        <item m="1" x="71"/>
+        <item x="12"/>
+        <item m="1" x="53"/>
+        <item x="13"/>
+        <item m="1" x="66"/>
+        <item x="14"/>
+        <item m="1" x="48"/>
+        <item x="15"/>
         <item m="1" x="60"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="43"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="55"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="69"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="51"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="64"/>
-        <item x="6"/>
-        <item m="1" x="66"/>
-        <item x="7"/>
-        <item m="1" x="48"/>
-        <item x="8"/>
-        <item m="1" x="61"/>
-        <item x="9"/>
-        <item m="1" x="44"/>
-        <item x="10"/>
-        <item m="1" x="56"/>
-        <item x="11"/>
-        <item m="1" x="70"/>
-        <item x="12"/>
-        <item m="1" x="52"/>
-        <item x="13"/>
-        <item m="1" x="65"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="47"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="59"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="42"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="54"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="68"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="50"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="63"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="46"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="58"/>
-        <item x="23"/>
-        <item m="1" x="41"/>
-        <item x="24"/>
-        <item m="1" x="53"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="49"/>
-        <item x="27"/>
-        <item m="1" x="62"/>
-        <item x="28"/>
-        <item m="1" x="45"/>
-        <item x="29"/>
-        <item m="1" x="57"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -46691,7 +47618,8 @@
         <item x="37"/>
         <item x="38"/>
         <item x="39"/>
-        <item h="1" x="40"/>
+        <item x="40"/>
+        <item h="1" x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46741,7 +47669,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="41">
+  <rowItems count="42">
     <i>
       <x/>
     </i>
@@ -46861,6 +47789,9 @@
     </i>
     <i>
       <x v="69"/>
+    </i>
+    <i>
+      <x v="70"/>
     </i>
     <i t="grand">
       <x/>
@@ -47240,10 +48171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S841"/>
+  <dimension ref="A1:S862"/>
   <sheetViews>
-    <sheetView topLeftCell="A805" workbookViewId="0">
-      <selection activeCell="A821" sqref="A821:Q841"/>
+    <sheetView topLeftCell="A819" workbookViewId="0">
+      <selection activeCell="A842" sqref="A842:Q862"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -91830,6 +92761,1119 @@
         <v>6170</v>
       </c>
     </row>
+    <row r="842" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A842" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B842" t="s">
+        <v>14</v>
+      </c>
+      <c r="C842">
+        <v>13</v>
+      </c>
+      <c r="D842" t="s">
+        <v>15</v>
+      </c>
+      <c r="E842" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F842" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G842">
+        <v>-7</v>
+      </c>
+      <c r="H842">
+        <v>-5</v>
+      </c>
+      <c r="I842">
+        <v>-12</v>
+      </c>
+      <c r="J842">
+        <v>67</v>
+      </c>
+      <c r="K842">
+        <v>55</v>
+      </c>
+      <c r="L842">
+        <v>55</v>
+      </c>
+      <c r="M842">
+        <v>55</v>
+      </c>
+      <c r="N842">
+        <v>3</v>
+      </c>
+      <c r="O842">
+        <v>7</v>
+      </c>
+      <c r="P842">
+        <v>65</v>
+      </c>
+      <c r="Q842">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="843" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A843" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B843" t="s">
+        <v>14</v>
+      </c>
+      <c r="C843">
+        <v>17</v>
+      </c>
+      <c r="D843" t="s">
+        <v>16</v>
+      </c>
+      <c r="E843" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F843" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G843">
+        <v>3</v>
+      </c>
+      <c r="H843">
+        <v>0</v>
+      </c>
+      <c r="I843">
+        <v>3</v>
+      </c>
+      <c r="J843">
+        <v>-6</v>
+      </c>
+      <c r="K843">
+        <v>-3</v>
+      </c>
+      <c r="L843">
+        <v>-3</v>
+      </c>
+      <c r="M843">
+        <v>-3</v>
+      </c>
+      <c r="N843">
+        <v>6</v>
+      </c>
+      <c r="O843">
+        <v>0</v>
+      </c>
+      <c r="P843">
+        <v>3</v>
+      </c>
+      <c r="Q843">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="844" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A844" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B844" t="s">
+        <v>14</v>
+      </c>
+      <c r="C844">
+        <v>18</v>
+      </c>
+      <c r="D844" t="s">
+        <v>17</v>
+      </c>
+      <c r="E844" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F844" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G844">
+        <v>-5</v>
+      </c>
+      <c r="H844">
+        <v>-2</v>
+      </c>
+      <c r="I844">
+        <v>-7</v>
+      </c>
+      <c r="J844">
+        <v>7</v>
+      </c>
+      <c r="K844">
+        <v>0</v>
+      </c>
+      <c r="L844">
+        <v>0</v>
+      </c>
+      <c r="M844">
+        <v>0</v>
+      </c>
+      <c r="N844">
+        <v>4</v>
+      </c>
+      <c r="O844">
+        <v>4</v>
+      </c>
+      <c r="P844">
+        <v>8</v>
+      </c>
+      <c r="Q844">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="845" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A845" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B845" t="s">
+        <v>14</v>
+      </c>
+      <c r="C845">
+        <v>15</v>
+      </c>
+      <c r="D845" t="s">
+        <v>18</v>
+      </c>
+      <c r="E845" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F845" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G845">
+        <v>35</v>
+      </c>
+      <c r="H845">
+        <v>-1</v>
+      </c>
+      <c r="I845">
+        <v>34</v>
+      </c>
+      <c r="J845">
+        <v>110</v>
+      </c>
+      <c r="K845">
+        <v>144</v>
+      </c>
+      <c r="L845">
+        <v>144</v>
+      </c>
+      <c r="M845">
+        <v>144</v>
+      </c>
+      <c r="N845">
+        <v>2</v>
+      </c>
+      <c r="O845">
+        <v>5</v>
+      </c>
+      <c r="P845">
+        <v>151</v>
+      </c>
+      <c r="Q845">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="846" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A846" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B846" t="s">
+        <v>14</v>
+      </c>
+      <c r="C846">
+        <v>8</v>
+      </c>
+      <c r="D846" t="s">
+        <v>46</v>
+      </c>
+      <c r="E846" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F846" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G846">
+        <v>-56</v>
+      </c>
+      <c r="H846">
+        <v>-6</v>
+      </c>
+      <c r="I846">
+        <v>-62</v>
+      </c>
+      <c r="J846">
+        <v>407</v>
+      </c>
+      <c r="K846">
+        <v>345</v>
+      </c>
+      <c r="L846">
+        <v>345</v>
+      </c>
+      <c r="M846">
+        <v>345</v>
+      </c>
+      <c r="N846">
+        <v>188</v>
+      </c>
+      <c r="O846">
+        <v>75</v>
+      </c>
+      <c r="P846">
+        <v>608</v>
+      </c>
+      <c r="Q846">
+        <v>3393</v>
+      </c>
+    </row>
+    <row r="847" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A847" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B847" t="s">
+        <v>14</v>
+      </c>
+      <c r="C847">
+        <v>6</v>
+      </c>
+      <c r="D847" t="s">
+        <v>19</v>
+      </c>
+      <c r="E847" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F847" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G847">
+        <v>-18</v>
+      </c>
+      <c r="H847">
+        <v>-11</v>
+      </c>
+      <c r="I847">
+        <v>-29</v>
+      </c>
+      <c r="J847">
+        <v>41</v>
+      </c>
+      <c r="K847">
+        <v>12</v>
+      </c>
+      <c r="L847">
+        <v>12</v>
+      </c>
+      <c r="M847">
+        <v>12</v>
+      </c>
+      <c r="N847">
+        <v>86</v>
+      </c>
+      <c r="O847">
+        <v>9</v>
+      </c>
+      <c r="P847">
+        <v>107</v>
+      </c>
+      <c r="Q847">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="848" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A848" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B848" t="s">
+        <v>14</v>
+      </c>
+      <c r="C848">
+        <v>12</v>
+      </c>
+      <c r="D848" t="s">
+        <v>20</v>
+      </c>
+      <c r="E848" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F848" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G848">
+        <v>42</v>
+      </c>
+      <c r="H848">
+        <v>5</v>
+      </c>
+      <c r="I848">
+        <v>47</v>
+      </c>
+      <c r="J848">
+        <v>50</v>
+      </c>
+      <c r="K848">
+        <v>97</v>
+      </c>
+      <c r="L848">
+        <v>97</v>
+      </c>
+      <c r="M848">
+        <v>97</v>
+      </c>
+      <c r="N848">
+        <v>47</v>
+      </c>
+      <c r="O848">
+        <v>13</v>
+      </c>
+      <c r="P848">
+        <v>157</v>
+      </c>
+      <c r="Q848">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="849" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A849" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B849" t="s">
+        <v>14</v>
+      </c>
+      <c r="C849">
+        <v>7</v>
+      </c>
+      <c r="D849" t="s">
+        <v>21</v>
+      </c>
+      <c r="E849" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F849" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G849">
+        <v>-26</v>
+      </c>
+      <c r="H849">
+        <v>-4</v>
+      </c>
+      <c r="I849">
+        <v>-30</v>
+      </c>
+      <c r="J849">
+        <v>178</v>
+      </c>
+      <c r="K849">
+        <v>148</v>
+      </c>
+      <c r="L849">
+        <v>148</v>
+      </c>
+      <c r="M849">
+        <v>148</v>
+      </c>
+      <c r="N849">
+        <v>67</v>
+      </c>
+      <c r="O849">
+        <v>23</v>
+      </c>
+      <c r="P849">
+        <v>238</v>
+      </c>
+      <c r="Q849">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="850" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A850" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B850" t="s">
+        <v>14</v>
+      </c>
+      <c r="C850">
+        <v>3</v>
+      </c>
+      <c r="D850" t="s">
+        <v>22</v>
+      </c>
+      <c r="E850" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F850" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G850">
+        <v>200</v>
+      </c>
+      <c r="H850">
+        <v>-55</v>
+      </c>
+      <c r="I850">
+        <v>145</v>
+      </c>
+      <c r="J850">
+        <v>886</v>
+      </c>
+      <c r="K850">
+        <v>1031</v>
+      </c>
+      <c r="L850">
+        <v>1031</v>
+      </c>
+      <c r="M850">
+        <v>1031</v>
+      </c>
+      <c r="N850">
+        <v>222</v>
+      </c>
+      <c r="O850">
+        <v>345</v>
+      </c>
+      <c r="P850">
+        <v>1598</v>
+      </c>
+      <c r="Q850">
+        <v>6826</v>
+      </c>
+    </row>
+    <row r="851" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A851" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B851" t="s">
+        <v>14</v>
+      </c>
+      <c r="C851">
+        <v>11</v>
+      </c>
+      <c r="D851" t="s">
+        <v>23</v>
+      </c>
+      <c r="E851" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F851" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G851">
+        <v>15</v>
+      </c>
+      <c r="H851">
+        <v>-5</v>
+      </c>
+      <c r="I851">
+        <v>10</v>
+      </c>
+      <c r="J851">
+        <v>-144</v>
+      </c>
+      <c r="K851">
+        <v>-134</v>
+      </c>
+      <c r="L851">
+        <v>-134</v>
+      </c>
+      <c r="M851">
+        <v>-134</v>
+      </c>
+      <c r="N851">
+        <v>228</v>
+      </c>
+      <c r="O851">
+        <v>17</v>
+      </c>
+      <c r="P851">
+        <v>111</v>
+      </c>
+      <c r="Q851">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="852" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A852" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B852" t="s">
+        <v>14</v>
+      </c>
+      <c r="C852">
+        <v>14</v>
+      </c>
+      <c r="D852" t="s">
+        <v>24</v>
+      </c>
+      <c r="E852" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F852" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G852">
+        <v>0</v>
+      </c>
+      <c r="H852">
+        <v>-2</v>
+      </c>
+      <c r="I852">
+        <v>-2</v>
+      </c>
+      <c r="J852">
+        <v>29</v>
+      </c>
+      <c r="K852">
+        <v>27</v>
+      </c>
+      <c r="L852">
+        <v>27</v>
+      </c>
+      <c r="M852">
+        <v>27</v>
+      </c>
+      <c r="N852">
+        <v>3</v>
+      </c>
+      <c r="O852">
+        <v>0</v>
+      </c>
+      <c r="P852">
+        <v>30</v>
+      </c>
+      <c r="Q852">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="853" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A853" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B853" t="s">
+        <v>14</v>
+      </c>
+      <c r="C853">
+        <v>4</v>
+      </c>
+      <c r="D853" t="s">
+        <v>25</v>
+      </c>
+      <c r="E853" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F853" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G853">
+        <v>0</v>
+      </c>
+      <c r="H853">
+        <v>1</v>
+      </c>
+      <c r="I853">
+        <v>1</v>
+      </c>
+      <c r="J853">
+        <v>-9</v>
+      </c>
+      <c r="K853">
+        <v>-8</v>
+      </c>
+      <c r="L853">
+        <v>-8</v>
+      </c>
+      <c r="M853">
+        <v>-8</v>
+      </c>
+      <c r="N853">
+        <v>34</v>
+      </c>
+      <c r="O853">
+        <v>7</v>
+      </c>
+      <c r="P853">
+        <v>33</v>
+      </c>
+      <c r="Q853">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="854" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A854" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B854" t="s">
+        <v>14</v>
+      </c>
+      <c r="C854">
+        <v>4</v>
+      </c>
+      <c r="D854" t="s">
+        <v>26</v>
+      </c>
+      <c r="E854" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F854" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G854">
+        <v>10</v>
+      </c>
+      <c r="H854">
+        <v>1</v>
+      </c>
+      <c r="I854">
+        <v>11</v>
+      </c>
+      <c r="J854">
+        <v>83</v>
+      </c>
+      <c r="K854">
+        <v>94</v>
+      </c>
+      <c r="L854">
+        <v>94</v>
+      </c>
+      <c r="M854">
+        <v>94</v>
+      </c>
+      <c r="N854">
+        <v>11</v>
+      </c>
+      <c r="O854">
+        <v>6</v>
+      </c>
+      <c r="P854">
+        <v>111</v>
+      </c>
+      <c r="Q854">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="855" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A855" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B855" t="s">
+        <v>14</v>
+      </c>
+      <c r="C855">
+        <v>1</v>
+      </c>
+      <c r="D855" t="s">
+        <v>27</v>
+      </c>
+      <c r="E855" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F855" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G855">
+        <v>141</v>
+      </c>
+      <c r="H855">
+        <v>-2</v>
+      </c>
+      <c r="I855">
+        <v>139</v>
+      </c>
+      <c r="J855">
+        <v>424</v>
+      </c>
+      <c r="K855">
+        <v>563</v>
+      </c>
+      <c r="L855">
+        <v>563</v>
+      </c>
+      <c r="M855">
+        <v>563</v>
+      </c>
+      <c r="N855">
+        <v>165</v>
+      </c>
+      <c r="O855">
+        <v>85</v>
+      </c>
+      <c r="P855">
+        <v>813</v>
+      </c>
+      <c r="Q855">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="856" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A856" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B856" t="s">
+        <v>14</v>
+      </c>
+      <c r="C856">
+        <v>16</v>
+      </c>
+      <c r="D856" t="s">
+        <v>28</v>
+      </c>
+      <c r="E856" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F856" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G856">
+        <v>-21</v>
+      </c>
+      <c r="H856">
+        <v>30</v>
+      </c>
+      <c r="I856">
+        <v>9</v>
+      </c>
+      <c r="J856">
+        <v>15</v>
+      </c>
+      <c r="K856">
+        <v>24</v>
+      </c>
+      <c r="L856">
+        <v>24</v>
+      </c>
+      <c r="M856">
+        <v>24</v>
+      </c>
+      <c r="N856">
+        <v>25</v>
+      </c>
+      <c r="O856">
+        <v>9</v>
+      </c>
+      <c r="P856">
+        <v>58</v>
+      </c>
+      <c r="Q856">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="857" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A857" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B857" t="s">
+        <v>14</v>
+      </c>
+      <c r="C857">
+        <v>20</v>
+      </c>
+      <c r="D857" t="s">
+        <v>29</v>
+      </c>
+      <c r="E857" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F857" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G857">
+        <v>1</v>
+      </c>
+      <c r="H857">
+        <v>0</v>
+      </c>
+      <c r="I857">
+        <v>1</v>
+      </c>
+      <c r="J857">
+        <v>44</v>
+      </c>
+      <c r="K857">
+        <v>45</v>
+      </c>
+      <c r="L857">
+        <v>45</v>
+      </c>
+      <c r="M857">
+        <v>45</v>
+      </c>
+      <c r="N857">
+        <v>4</v>
+      </c>
+      <c r="O857">
+        <v>0</v>
+      </c>
+      <c r="P857">
+        <v>49</v>
+      </c>
+      <c r="Q857">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="858" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A858" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B858" t="s">
+        <v>14</v>
+      </c>
+      <c r="C858">
+        <v>19</v>
+      </c>
+      <c r="D858" t="s">
+        <v>30</v>
+      </c>
+      <c r="E858" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F858" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G858">
+        <v>18</v>
+      </c>
+      <c r="H858">
+        <v>1</v>
+      </c>
+      <c r="I858">
+        <v>19</v>
+      </c>
+      <c r="J858">
+        <v>43</v>
+      </c>
+      <c r="K858">
+        <v>62</v>
+      </c>
+      <c r="L858">
+        <v>62</v>
+      </c>
+      <c r="M858">
+        <v>62</v>
+      </c>
+      <c r="N858">
+        <v>1</v>
+      </c>
+      <c r="O858">
+        <v>10</v>
+      </c>
+      <c r="P858">
+        <v>73</v>
+      </c>
+      <c r="Q858">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="859" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A859" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B859" t="s">
+        <v>14</v>
+      </c>
+      <c r="C859">
+        <v>9</v>
+      </c>
+      <c r="D859" t="s">
+        <v>31</v>
+      </c>
+      <c r="E859" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F859" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G859">
+        <v>-20</v>
+      </c>
+      <c r="H859">
+        <v>-2</v>
+      </c>
+      <c r="I859">
+        <v>-22</v>
+      </c>
+      <c r="J859">
+        <v>167</v>
+      </c>
+      <c r="K859">
+        <v>145</v>
+      </c>
+      <c r="L859">
+        <v>145</v>
+      </c>
+      <c r="M859">
+        <v>145</v>
+      </c>
+      <c r="N859">
+        <v>10</v>
+      </c>
+      <c r="O859">
+        <v>17</v>
+      </c>
+      <c r="P859">
+        <v>172</v>
+      </c>
+      <c r="Q859">
+        <v>3426</v>
+      </c>
+    </row>
+    <row r="860" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A860" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B860" t="s">
+        <v>14</v>
+      </c>
+      <c r="C860">
+        <v>10</v>
+      </c>
+      <c r="D860" t="s">
+        <v>32</v>
+      </c>
+      <c r="E860" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F860" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G860">
+        <v>2</v>
+      </c>
+      <c r="H860">
+        <v>-4</v>
+      </c>
+      <c r="I860">
+        <v>-2</v>
+      </c>
+      <c r="J860">
+        <v>9</v>
+      </c>
+      <c r="K860">
+        <v>7</v>
+      </c>
+      <c r="L860">
+        <v>7</v>
+      </c>
+      <c r="M860">
+        <v>7</v>
+      </c>
+      <c r="N860">
+        <v>22</v>
+      </c>
+      <c r="O860">
+        <v>2</v>
+      </c>
+      <c r="P860">
+        <v>31</v>
+      </c>
+      <c r="Q860">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="861" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A861" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B861" t="s">
+        <v>14</v>
+      </c>
+      <c r="C861">
+        <v>2</v>
+      </c>
+      <c r="D861" t="s">
+        <v>33</v>
+      </c>
+      <c r="E861" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F861" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G861">
+        <v>-22</v>
+      </c>
+      <c r="H861">
+        <v>-2</v>
+      </c>
+      <c r="I861">
+        <v>-24</v>
+      </c>
+      <c r="J861">
+        <v>24</v>
+      </c>
+      <c r="K861">
+        <v>0</v>
+      </c>
+      <c r="L861">
+        <v>0</v>
+      </c>
+      <c r="M861">
+        <v>0</v>
+      </c>
+      <c r="N861">
+        <v>17</v>
+      </c>
+      <c r="O861">
+        <v>12</v>
+      </c>
+      <c r="P861">
+        <v>29</v>
+      </c>
+      <c r="Q861">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="862" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A862" s="6">
+        <v>43925</v>
+      </c>
+      <c r="B862" t="s">
+        <v>14</v>
+      </c>
+      <c r="C862">
+        <v>5</v>
+      </c>
+      <c r="D862" t="s">
+        <v>34</v>
+      </c>
+      <c r="E862" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F862" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G862">
+        <v>-23</v>
+      </c>
+      <c r="H862">
+        <v>-11</v>
+      </c>
+      <c r="I862">
+        <v>-34</v>
+      </c>
+      <c r="J862">
+        <v>266</v>
+      </c>
+      <c r="K862">
+        <v>232</v>
+      </c>
+      <c r="L862">
+        <v>232</v>
+      </c>
+      <c r="M862">
+        <v>232</v>
+      </c>
+      <c r="N862">
+        <v>93</v>
+      </c>
+      <c r="O862">
+        <v>35</v>
+      </c>
+      <c r="P862">
+        <v>360</v>
+      </c>
+      <c r="Q862">
+        <v>6799</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{FBAB6D88-DCD4-E841-8499-D0DE040246DB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -91838,10 +93882,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G45"/>
+  <dimension ref="A3:G46"/>
   <sheetViews>
-    <sheetView topLeftCell="A48" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -92013,7 +94057,7 @@
         <v>94</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G44" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G45" si="0">SUM(B5:F5)</f>
         <v>229</v>
       </c>
     </row>
@@ -92953,28 +94997,52 @@
         <v>4585</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="34" x14ac:dyDescent="0.4">
-      <c r="A45" s="3" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="7">
+        <v>43925</v>
+      </c>
+      <c r="B45" s="4">
+        <v>681</v>
+      </c>
+      <c r="C45" s="4">
+        <v>1238</v>
+      </c>
+      <c r="D45" s="4">
+        <v>269</v>
+      </c>
+      <c r="E45" s="4">
+        <v>-74</v>
+      </c>
+      <c r="F45" s="4">
+        <v>2691</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="4">
-        <v>14681</v>
-      </c>
-      <c r="C45" s="4">
-        <v>19758</v>
-      </c>
-      <c r="D45" s="4">
-        <v>28741</v>
-      </c>
-      <c r="E45" s="4">
-        <v>4068</v>
-      </c>
-      <c r="F45" s="4">
-        <v>52579</v>
-      </c>
-      <c r="G45" s="8">
-        <f>SUM(B45:F45)</f>
-        <v>119827</v>
+      <c r="B46" s="4">
+        <v>15362</v>
+      </c>
+      <c r="C46" s="4">
+        <v>20996</v>
+      </c>
+      <c r="D46" s="4">
+        <v>29010</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3994</v>
+      </c>
+      <c r="F46" s="4">
+        <v>55270</v>
+      </c>
+      <c r="G46" s="8">
+        <f>SUM(B46:F46)</f>
+        <v>124632</v>
       </c>
     </row>
   </sheetData>
@@ -92985,10 +95053,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1084B9-5FA0-CB4F-AF55-AA19481B2D01}">
-  <dimension ref="B3:C44"/>
+  <dimension ref="B3:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -93326,11 +95394,19 @@
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="7">
+        <v>43925</v>
+      </c>
+      <c r="C44" s="4">
+        <v>37375</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C44" s="4">
-        <v>619849</v>
+      <c r="C45" s="4">
+        <v>657224</v>
       </c>
     </row>
   </sheetData>
@@ -93341,10 +95417,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:B43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -93770,6 +95846,16 @@
       <c r="B43">
         <f>All!G44</f>
         <v>4585</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="6">
+        <f>All!A45</f>
+        <v>43925</v>
+      </c>
+      <c r="B44">
+        <f>All!G45</f>
+        <v>4805</v>
       </c>
     </row>
   </sheetData>
@@ -93780,10 +95866,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="AE35" sqref="AE35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94134,11 +96220,19 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="5">
+        <v>43925</v>
+      </c>
+      <c r="B44" s="4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4">
-        <v>28741</v>
+      <c r="B45" s="4">
+        <v>29010</v>
       </c>
     </row>
   </sheetData>
@@ -94149,11 +96243,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A7:A46"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="8" click="1" r:id="rId1">
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A11" sqref="A7:A47"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
             <reference field="0" count="0"/>
@@ -94522,11 +96616,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="5">
+        <v>43925</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4">
-        <v>19758</v>
+      <c r="B48" s="4">
+        <v>20996</v>
       </c>
     </row>
   </sheetData>
@@ -94537,10 +96639,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B45"/>
+  <dimension ref="A2:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A5:A45"/>
+      <pivotSelection pane="bottomRight" showHeader="1" activeRow="9" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94891,11 +97000,19 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="5">
+        <v>43925</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="4">
-        <v>4068</v>
+      <c r="B46" s="4">
+        <v>3994</v>
       </c>
     </row>
   </sheetData>
@@ -94906,10 +97023,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -95264,11 +97381,19 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="5">
+        <v>43925</v>
+      </c>
+      <c r="B45" s="4">
+        <v>2691</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="4">
-        <v>52579</v>
+      <c r="B46" s="4">
+        <v>55270</v>
       </c>
     </row>
   </sheetData>
@@ -95279,10 +97404,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -95633,11 +97758,19 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="5">
+        <v>43925</v>
+      </c>
+      <c r="B44" s="4">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="4">
-        <v>14681</v>
+      <c r="B45" s="4">
+        <v>15362</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129C5949-AC19-9C4F-8E1D-5F37B956A357}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EDA0A-FF1C-7E4F-9FC2-12FA725604C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="alldatanormalised" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId10"/>
-    <pivotCache cacheId="20" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="11" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1780" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -897,9 +897,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$46</c:f>
+              <c:f>All!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1025,16 +1025,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$46</c:f>
+              <c:f>All!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1157,6 +1160,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1196,9 +1202,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$46</c:f>
+              <c:f>All!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1324,16 +1330,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$46</c:f>
+              <c:f>All!$C$4:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1456,6 +1465,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,9 +1507,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$46</c:f>
+              <c:f>All!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1623,16 +1635,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$46</c:f>
+              <c:f>All!$D$4:$D$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1755,6 +1770,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1794,9 +1812,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$46</c:f>
+              <c:f>All!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1922,16 +1940,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$46</c:f>
+              <c:f>All!$E$4:$E$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2054,6 +2075,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2093,9 +2117,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$46</c:f>
+              <c:f>All!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2221,16 +2245,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$46</c:f>
+              <c:f>All!$F$4:$F$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="1">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2353,6 +2380,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2741,9 +2771,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Tamponi!$B$4:$B$45</c:f>
+              <c:f>Tamponi!$B$4:$B$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2866,16 +2896,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tamponi!$C$4:$C$45</c:f>
+              <c:f>Tamponi!$C$4:$C$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -2998,6 +3031,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>37375</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34237</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3343,9 +3379,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$44</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$45</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -3471,16 +3507,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>04/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>05/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$44</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$45</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3606,6 +3645,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>4805</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>4316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4012,9 +4054,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$45</c:f>
+              <c:f>Ricoverati!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4137,16 +4179,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>04/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>05/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$45</c:f>
+              <c:f>Ricoverati!$B$4:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -4269,6 +4314,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4674,9 +4722,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$48</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4799,16 +4847,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>04/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>05/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$48</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4931,6 +4982,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>1238</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5320,9 +5374,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$46</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -5445,16 +5499,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>04/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>05/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$46</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -5577,6 +5634,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>-74</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5981,9 +6041,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$46</c:f>
+              <c:f>Isolamento!$A$5:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6106,16 +6166,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>04/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>05/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$46</c:f>
+              <c:f>Isolamento!$B$5:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -6238,6 +6301,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>2691</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3050</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6642,9 +6708,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$45</c:f>
+              <c:f>Deceduti!$A$4:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6767,16 +6833,19 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>04/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>05/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$45</c:f>
+              <c:f>Deceduti!$B$4:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="41"/>
+                <c:ptCount val="42"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6899,6 +6968,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>681</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>525</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11882,13 +11954,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43925.760812384258" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="862" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43926.77293240741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="883" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-05T00:00:00" count="42">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-06T00:00:00" count="43">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -11930,6 +12002,7 @@
         <d v="2020-04-02T00:00:00"/>
         <d v="2020-04-03T00:00:00"/>
         <d v="2020-04-04T00:00:00"/>
+        <d v="2020-04-05T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -11997,13 +12070,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43925.761787962962" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="862" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43926.773515972222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="883" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-05T00:00:00" count="72">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-06T00:00:00" count="73">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12045,37 +12118,38 @@
         <d v="2020-04-02T00:00:00"/>
         <d v="2020-04-03T00:00:00"/>
         <d v="2020-04-04T00:00:00"/>
+        <d v="2020-04-05T00:00:00"/>
         <m/>
+        <d v="2020-03-23T17:00:00" u="1"/>
+        <d v="2020-03-19T17:00:00" u="1"/>
+        <d v="2020-03-15T17:00:00" u="1"/>
+        <d v="2020-03-11T17:00:00" u="1"/>
+        <d v="2020-02-26T18:00:00" u="1"/>
+        <d v="2020-03-07T18:00:00" u="1"/>
+        <d v="2020-03-03T18:00:00" u="1"/>
+        <d v="2020-03-22T17:00:00" u="1"/>
         <d v="2020-03-18T17:00:00" u="1"/>
-        <d v="2020-03-11T17:00:00" u="1"/>
+        <d v="2020-03-14T17:00:00" u="1"/>
+        <d v="2020-02-29T17:00:00" u="1"/>
+        <d v="2020-03-10T18:00:00" u="1"/>
         <d v="2020-02-25T18:00:00" u="1"/>
-        <d v="2020-03-04T17:00:00" u="1"/>
-        <d v="2020-03-23T17:00:00" u="1"/>
-        <d v="2020-03-16T17:00:00" u="1"/>
-        <d v="2020-03-09T18:00:00" u="1"/>
+        <d v="2020-03-06T17:00:00" u="1"/>
         <d v="2020-03-02T18:00:00" u="1"/>
         <d v="2020-03-21T17:00:00" u="1"/>
-        <d v="2020-03-14T17:00:00" u="1"/>
+        <d v="2020-03-17T17:00:00" u="1"/>
+        <d v="2020-03-13T17:00:00" u="1"/>
         <d v="2020-02-28T18:00:00" u="1"/>
-        <d v="2020-03-07T18:00:00" u="1"/>
-        <d v="2020-03-19T17:00:00" u="1"/>
+        <d v="2020-03-09T18:00:00" u="1"/>
+        <d v="2020-02-24T18:00:00" u="1"/>
+        <d v="2020-03-05T17:00:00" u="1"/>
+        <d v="2020-03-01T17:00:00" u="1"/>
+        <d v="2020-03-24T17:00:00" u="1"/>
+        <d v="2020-03-20T17:00:00" u="1"/>
+        <d v="2020-03-16T17:00:00" u="1"/>
         <d v="2020-03-12T17:00:00" u="1"/>
-        <d v="2020-02-26T18:00:00" u="1"/>
-        <d v="2020-03-05T17:00:00" u="1"/>
-        <d v="2020-03-24T17:00:00" u="1"/>
-        <d v="2020-03-17T17:00:00" u="1"/>
-        <d v="2020-03-10T18:00:00" u="1"/>
-        <d v="2020-02-24T18:00:00" u="1"/>
-        <d v="2020-03-03T18:00:00" u="1"/>
-        <d v="2020-03-22T17:00:00" u="1"/>
-        <d v="2020-03-15T17:00:00" u="1"/>
-        <d v="2020-02-29T17:00:00" u="1"/>
+        <d v="2020-02-27T18:00:00" u="1"/>
         <d v="2020-03-08T18:00:00" u="1"/>
-        <d v="2020-03-01T17:00:00" u="1"/>
-        <d v="2020-03-20T17:00:00" u="1"/>
-        <d v="2020-03-13T17:00:00" u="1"/>
-        <d v="2020-02-27T18:00:00" u="1"/>
-        <d v="2020-03-06T17:00:00" u="1"/>
+        <d v="2020-03-04T17:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="stato" numFmtId="0">
@@ -12157,7 +12231,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="862">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="883">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -30241,6 +30315,447 @@
   </r>
   <r>
     <x v="41"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="-4"/>
+    <n v="-11"/>
+    <n v="75"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="75"/>
+    <n v="761"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="166"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="-6"/>
+    <n v="50"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="54"/>
+    <n v="763"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="42"/>
+    <n v="-6"/>
+    <n v="36"/>
+    <n v="89"/>
+    <n v="125"/>
+    <n v="125"/>
+    <n v="125"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="132"/>
+    <n v="1605"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-20"/>
+    <n v="17"/>
+    <n v="-3"/>
+    <n v="317"/>
+    <n v="314"/>
+    <n v="314"/>
+    <n v="314"/>
+    <n v="161"/>
+    <n v="74"/>
+    <n v="549"/>
+    <n v="2911"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="26"/>
+    <n v="9"/>
+    <n v="62"/>
+    <n v="526"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="-1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="77"/>
+    <n v="80"/>
+    <n v="80"/>
+    <n v="80"/>
+    <n v="36"/>
+    <n v="7"/>
+    <n v="123"/>
+    <n v="34"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="5"/>
+    <n v="-4"/>
+    <n v="1"/>
+    <n v="198"/>
+    <n v="199"/>
+    <n v="199"/>
+    <n v="199"/>
+    <n v="33"/>
+    <n v="14"/>
+    <n v="246"/>
+    <n v="960"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="7"/>
+    <n v="-9"/>
+    <n v="-2"/>
+    <n v="906"/>
+    <n v="904"/>
+    <n v="904"/>
+    <n v="904"/>
+    <n v="184"/>
+    <n v="249"/>
+    <n v="1337"/>
+    <n v="8107"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-10"/>
+    <n v="-2"/>
+    <n v="-12"/>
+    <n v="93"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="17"/>
+    <n v="25"/>
+    <n v="123"/>
+    <n v="780"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="18"/>
+    <n v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="-52"/>
+    <n v="-8"/>
+    <n v="-60"/>
+    <n v="85"/>
+    <n v="25"/>
+    <n v="25"/>
+    <n v="25"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="52"/>
+    <n v="678"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="-2"/>
+    <n v="44"/>
+    <n v="42"/>
+    <n v="42"/>
+    <n v="42"/>
+    <n v="16"/>
+    <n v="7"/>
+    <n v="65"/>
+    <n v="613"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="31"/>
+    <n v="-6"/>
+    <n v="25"/>
+    <n v="459"/>
+    <n v="484"/>
+    <n v="484"/>
+    <n v="484"/>
+    <n v="129"/>
+    <n v="40"/>
+    <n v="653"/>
+    <n v="1358"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-53"/>
+    <n v="6"/>
+    <n v="-47"/>
+    <n v="96"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="19"/>
+    <n v="9"/>
+    <n v="77"/>
+    <n v="1103"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="33"/>
+    <n v="368"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="43"/>
+    <n v="48"/>
+    <n v="48"/>
+    <n v="48"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="62"/>
+    <n v="2008"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-18"/>
+    <n v="-10"/>
+    <n v="-28"/>
+    <n v="159"/>
+    <n v="131"/>
+    <n v="131"/>
+    <n v="131"/>
+    <n v="27"/>
+    <n v="18"/>
+    <n v="176"/>
+    <n v="3120"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-8"/>
+    <n v="1"/>
+    <n v="-7"/>
+    <n v="-22"/>
+    <n v="-29"/>
+    <n v="-29"/>
+    <n v="-29"/>
+    <n v="56"/>
+    <n v="2"/>
+    <n v="29"/>
+    <n v="639"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="-17"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="34"/>
+    <n v="116"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-17"/>
+    <n v="5"/>
+    <n v="-12"/>
+    <n v="328"/>
+    <n v="316"/>
+    <n v="316"/>
+    <n v="316"/>
+    <n v="62"/>
+    <n v="24"/>
+    <n v="402"/>
+    <n v="7621"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
     <m/>
     <m/>
     <m/>
@@ -30264,7 +30779,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="862">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="883">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -45765,6 +46280,384 @@
   </r>
   <r>
     <x v="41"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="-4"/>
+    <n v="-11"/>
+    <n v="75"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="64"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="10"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="-6"/>
+    <n v="50"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="3"/>
+    <n v="7"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="42"/>
+    <n v="-6"/>
+    <n v="36"/>
+    <n v="89"/>
+    <n v="125"/>
+    <n v="125"/>
+    <n v="125"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="132"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-20"/>
+    <n v="17"/>
+    <n v="-3"/>
+    <n v="317"/>
+    <n v="314"/>
+    <n v="314"/>
+    <n v="314"/>
+    <n v="161"/>
+    <n v="74"/>
+    <n v="549"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="25"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="27"/>
+    <n v="26"/>
+    <n v="9"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="-1"/>
+    <n v="4"/>
+    <n v="3"/>
+    <n v="77"/>
+    <n v="80"/>
+    <n v="80"/>
+    <n v="80"/>
+    <n v="36"/>
+    <n v="7"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="5"/>
+    <n v="-4"/>
+    <n v="1"/>
+    <n v="198"/>
+    <n v="199"/>
+    <n v="199"/>
+    <n v="199"/>
+    <n v="33"/>
+    <n v="14"/>
+    <n v="246"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="7"/>
+    <n v="-9"/>
+    <n v="-2"/>
+    <n v="906"/>
+    <n v="904"/>
+    <n v="904"/>
+    <n v="904"/>
+    <n v="184"/>
+    <n v="249"/>
+    <n v="1337"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-10"/>
+    <n v="-2"/>
+    <n v="-12"/>
+    <n v="93"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="81"/>
+    <n v="17"/>
+    <n v="25"/>
+    <n v="123"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="14"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="-52"/>
+    <n v="-8"/>
+    <n v="-60"/>
+    <n v="85"/>
+    <n v="25"/>
+    <n v="25"/>
+    <n v="25"/>
+    <n v="15"/>
+    <n v="12"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="-2"/>
+    <n v="44"/>
+    <n v="42"/>
+    <n v="42"/>
+    <n v="42"/>
+    <n v="16"/>
+    <n v="7"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="31"/>
+    <n v="-6"/>
+    <n v="25"/>
+    <n v="459"/>
+    <n v="484"/>
+    <n v="484"/>
+    <n v="484"/>
+    <n v="129"/>
+    <n v="40"/>
+    <n v="653"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-53"/>
+    <n v="6"/>
+    <n v="-47"/>
+    <n v="96"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="49"/>
+    <n v="19"/>
+    <n v="9"/>
+    <n v="77"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="3"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="22"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="33"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="5"/>
+    <n v="43"/>
+    <n v="48"/>
+    <n v="48"/>
+    <n v="48"/>
+    <n v="9"/>
+    <n v="5"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-18"/>
+    <n v="-10"/>
+    <n v="-28"/>
+    <n v="159"/>
+    <n v="131"/>
+    <n v="131"/>
+    <n v="131"/>
+    <n v="27"/>
+    <n v="18"/>
+    <n v="176"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-8"/>
+    <n v="1"/>
+    <n v="-7"/>
+    <n v="-22"/>
+    <n v="-29"/>
+    <n v="-29"/>
+    <n v="-29"/>
+    <n v="56"/>
+    <n v="2"/>
+    <n v="29"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="33"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="-17"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="9"/>
+    <n v="9"/>
+    <n v="34"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-17"/>
+    <n v="5"/>
+    <n v="-12"/>
+    <n v="328"/>
+    <n v="316"/>
+    <n v="316"/>
+    <n v="316"/>
+    <n v="62"/>
+    <n v="24"/>
+    <n v="402"/>
+  </r>
+  <r>
+    <x v="42"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -45785,12 +46678,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F46" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="43">
-        <item x="41"/>
+      <items count="44">
+        <item x="42"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -45832,6 +46725,7 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -45857,7 +46751,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -45984,6 +46878,9 @@
     <i>
       <x v="41"/>
     </i>
+    <i>
+      <x v="42"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46075,11 +46972,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:C45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="43">
+      <items count="44">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -46119,9 +47016,10 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="41"/>
+        <item h="1" x="42"/>
         <item x="39"/>
         <item x="40"/>
+        <item x="41"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46147,7 +47045,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -46271,6 +47169,9 @@
     <i>
       <x v="41"/>
     </i>
+    <i>
+      <x v="42"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46305,71 +47206,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="73">
+      <items count="74">
         <item x="0"/>
-        <item m="1" x="61"/>
+        <item m="1" x="63"/>
         <item x="1"/>
-        <item m="1" x="44"/>
+        <item m="1" x="55"/>
         <item x="2"/>
-        <item m="1" x="56"/>
+        <item m="1" x="47"/>
         <item x="3"/>
         <item m="1" x="70"/>
         <item x="4"/>
+        <item m="1" x="61"/>
+        <item x="5"/>
+        <item m="1" x="53"/>
+        <item x="6"/>
+        <item m="1" x="65"/>
+        <item x="7"/>
+        <item m="1" x="57"/>
+        <item x="8"/>
+        <item m="1" x="49"/>
+        <item x="9"/>
+        <item m="1" x="72"/>
+        <item x="10"/>
+        <item m="1" x="64"/>
+        <item x="11"/>
+        <item m="1" x="56"/>
+        <item x="12"/>
+        <item m="1" x="48"/>
+        <item x="13"/>
+        <item m="1" x="71"/>
+        <item x="14"/>
+        <item m="1" x="62"/>
+        <item x="15"/>
+        <item m="1" x="54"/>
+        <item x="16"/>
+        <item m="1" x="46"/>
+        <item x="17"/>
+        <item m="1" x="69"/>
+        <item x="18"/>
+        <item m="1" x="60"/>
+        <item x="19"/>
         <item m="1" x="52"/>
-        <item x="5"/>
-        <item m="1" x="65"/>
-        <item x="6"/>
-        <item m="1" x="67"/>
-        <item x="7"/>
-        <item m="1" x="49"/>
-        <item x="8"/>
-        <item m="1" x="62"/>
-        <item x="9"/>
+        <item x="20"/>
         <item m="1" x="45"/>
-        <item x="10"/>
-        <item m="1" x="57"/>
-        <item x="11"/>
-        <item m="1" x="71"/>
-        <item x="12"/>
-        <item m="1" x="53"/>
-        <item x="13"/>
-        <item m="1" x="66"/>
-        <item x="14"/>
-        <item m="1" x="48"/>
-        <item x="15"/>
-        <item m="1" x="60"/>
-        <item x="16"/>
-        <item m="1" x="43"/>
-        <item x="17"/>
-        <item m="1" x="55"/>
-        <item x="18"/>
-        <item m="1" x="69"/>
-        <item x="19"/>
-        <item m="1" x="51"/>
-        <item x="20"/>
-        <item m="1" x="64"/>
         <item x="21"/>
-        <item m="1" x="47"/>
+        <item m="1" x="68"/>
         <item x="22"/>
         <item m="1" x="59"/>
         <item x="23"/>
-        <item m="1" x="42"/>
+        <item m="1" x="51"/>
         <item x="24"/>
-        <item m="1" x="54"/>
+        <item m="1" x="44"/>
         <item x="25"/>
-        <item m="1" x="68"/>
+        <item m="1" x="67"/>
         <item x="26"/>
+        <item m="1" x="58"/>
+        <item x="27"/>
         <item m="1" x="50"/>
-        <item x="27"/>
-        <item m="1" x="63"/>
         <item x="28"/>
-        <item m="1" x="46"/>
+        <item m="1" x="43"/>
         <item x="29"/>
-        <item m="1" x="58"/>
+        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -46381,7 +47282,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item h="1" x="41"/>
+        <item x="41"/>
+        <item h="1" x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46431,7 +47333,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -46555,6 +47457,9 @@
     <i>
       <x v="70"/>
     </i>
+    <i>
+      <x v="71"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46601,71 +47506,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="73">
+      <items count="74">
         <item x="0"/>
-        <item m="1" x="61"/>
+        <item m="1" x="63"/>
         <item x="1"/>
-        <item m="1" x="44"/>
+        <item m="1" x="55"/>
         <item x="2"/>
-        <item m="1" x="56"/>
+        <item m="1" x="47"/>
         <item x="3"/>
         <item m="1" x="70"/>
         <item x="4"/>
+        <item m="1" x="61"/>
+        <item x="5"/>
+        <item m="1" x="53"/>
+        <item x="6"/>
+        <item m="1" x="65"/>
+        <item x="7"/>
+        <item m="1" x="57"/>
+        <item x="8"/>
+        <item m="1" x="49"/>
+        <item x="9"/>
+        <item m="1" x="72"/>
+        <item x="10"/>
+        <item m="1" x="64"/>
+        <item x="11"/>
+        <item m="1" x="56"/>
+        <item x="12"/>
+        <item m="1" x="48"/>
+        <item x="13"/>
+        <item m="1" x="71"/>
+        <item x="14"/>
+        <item m="1" x="62"/>
+        <item x="15"/>
+        <item m="1" x="54"/>
+        <item x="16"/>
+        <item m="1" x="46"/>
+        <item x="17"/>
+        <item m="1" x="69"/>
+        <item x="18"/>
+        <item m="1" x="60"/>
+        <item x="19"/>
         <item m="1" x="52"/>
-        <item x="5"/>
-        <item m="1" x="65"/>
-        <item x="6"/>
-        <item m="1" x="67"/>
-        <item x="7"/>
-        <item m="1" x="49"/>
-        <item x="8"/>
-        <item m="1" x="62"/>
-        <item x="9"/>
+        <item x="20"/>
         <item m="1" x="45"/>
-        <item x="10"/>
-        <item m="1" x="57"/>
-        <item x="11"/>
-        <item m="1" x="71"/>
-        <item x="12"/>
-        <item m="1" x="53"/>
-        <item x="13"/>
-        <item m="1" x="66"/>
-        <item x="14"/>
-        <item m="1" x="48"/>
-        <item x="15"/>
-        <item m="1" x="60"/>
-        <item x="16"/>
-        <item m="1" x="43"/>
-        <item x="17"/>
-        <item m="1" x="55"/>
-        <item x="18"/>
-        <item m="1" x="69"/>
-        <item x="19"/>
-        <item m="1" x="51"/>
-        <item x="20"/>
-        <item m="1" x="64"/>
         <item x="21"/>
-        <item m="1" x="47"/>
+        <item m="1" x="68"/>
         <item x="22"/>
         <item m="1" x="59"/>
         <item x="23"/>
-        <item m="1" x="42"/>
+        <item m="1" x="51"/>
         <item x="24"/>
-        <item m="1" x="54"/>
+        <item m="1" x="44"/>
         <item x="25"/>
-        <item m="1" x="68"/>
+        <item m="1" x="67"/>
         <item x="26"/>
+        <item m="1" x="58"/>
+        <item x="27"/>
         <item m="1" x="50"/>
-        <item x="27"/>
-        <item m="1" x="63"/>
         <item x="28"/>
-        <item m="1" x="46"/>
+        <item m="1" x="43"/>
         <item x="29"/>
-        <item m="1" x="58"/>
+        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -46677,7 +47582,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item h="1" x="41"/>
+        <item x="41"/>
+        <item h="1" x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46727,7 +47633,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -46851,6 +47757,9 @@
     <i>
       <x v="70"/>
     </i>
+    <i>
+      <x v="71"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46906,71 +47815,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="73">
+      <items count="74">
         <item x="0"/>
-        <item m="1" x="61"/>
+        <item m="1" x="63"/>
         <item x="1"/>
-        <item m="1" x="44"/>
+        <item m="1" x="55"/>
         <item x="2"/>
-        <item m="1" x="56"/>
+        <item m="1" x="47"/>
         <item x="3"/>
         <item m="1" x="70"/>
         <item x="4"/>
+        <item m="1" x="61"/>
+        <item x="5"/>
+        <item m="1" x="53"/>
+        <item x="6"/>
+        <item m="1" x="65"/>
+        <item x="7"/>
+        <item m="1" x="57"/>
+        <item x="8"/>
+        <item m="1" x="49"/>
+        <item x="9"/>
+        <item m="1" x="72"/>
+        <item x="10"/>
+        <item m="1" x="64"/>
+        <item x="11"/>
+        <item m="1" x="56"/>
+        <item x="12"/>
+        <item m="1" x="48"/>
+        <item x="13"/>
+        <item m="1" x="71"/>
+        <item x="14"/>
+        <item m="1" x="62"/>
+        <item x="15"/>
+        <item m="1" x="54"/>
+        <item x="16"/>
+        <item m="1" x="46"/>
+        <item x="17"/>
+        <item m="1" x="69"/>
+        <item x="18"/>
+        <item m="1" x="60"/>
+        <item x="19"/>
         <item m="1" x="52"/>
-        <item x="5"/>
-        <item m="1" x="65"/>
-        <item x="6"/>
-        <item m="1" x="67"/>
-        <item x="7"/>
-        <item m="1" x="49"/>
-        <item x="8"/>
-        <item m="1" x="62"/>
-        <item x="9"/>
+        <item x="20"/>
         <item m="1" x="45"/>
-        <item x="10"/>
-        <item m="1" x="57"/>
-        <item x="11"/>
-        <item m="1" x="71"/>
-        <item x="12"/>
-        <item m="1" x="53"/>
-        <item x="13"/>
-        <item m="1" x="66"/>
-        <item x="14"/>
-        <item m="1" x="48"/>
-        <item x="15"/>
-        <item m="1" x="60"/>
-        <item x="16"/>
-        <item m="1" x="43"/>
-        <item x="17"/>
-        <item m="1" x="55"/>
-        <item x="18"/>
-        <item m="1" x="69"/>
-        <item x="19"/>
-        <item m="1" x="51"/>
-        <item x="20"/>
-        <item m="1" x="64"/>
         <item x="21"/>
-        <item m="1" x="47"/>
+        <item m="1" x="68"/>
         <item x="22"/>
         <item m="1" x="59"/>
         <item x="23"/>
-        <item m="1" x="42"/>
+        <item m="1" x="51"/>
         <item x="24"/>
-        <item m="1" x="54"/>
+        <item m="1" x="44"/>
         <item x="25"/>
-        <item m="1" x="68"/>
+        <item m="1" x="67"/>
         <item x="26"/>
+        <item m="1" x="58"/>
+        <item x="27"/>
         <item m="1" x="50"/>
-        <item x="27"/>
-        <item m="1" x="63"/>
         <item x="28"/>
-        <item m="1" x="46"/>
+        <item m="1" x="43"/>
         <item x="29"/>
-        <item m="1" x="58"/>
+        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -46982,7 +47891,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item h="1" x="41"/>
+        <item x="41"/>
+        <item h="1" x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47032,7 +47942,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -47156,6 +48066,9 @@
     <i>
       <x v="70"/>
     </i>
+    <i>
+      <x v="71"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -47220,71 +48133,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="73">
+      <items count="74">
         <item x="0"/>
-        <item m="1" x="61"/>
+        <item m="1" x="63"/>
         <item x="1"/>
-        <item m="1" x="44"/>
+        <item m="1" x="55"/>
         <item x="2"/>
-        <item m="1" x="56"/>
+        <item m="1" x="47"/>
         <item x="3"/>
         <item m="1" x="70"/>
         <item x="4"/>
+        <item m="1" x="61"/>
+        <item x="5"/>
+        <item m="1" x="53"/>
+        <item x="6"/>
+        <item m="1" x="65"/>
+        <item x="7"/>
+        <item m="1" x="57"/>
+        <item x="8"/>
+        <item m="1" x="49"/>
+        <item x="9"/>
+        <item m="1" x="72"/>
+        <item x="10"/>
+        <item m="1" x="64"/>
+        <item x="11"/>
+        <item m="1" x="56"/>
+        <item x="12"/>
+        <item m="1" x="48"/>
+        <item x="13"/>
+        <item m="1" x="71"/>
+        <item x="14"/>
+        <item m="1" x="62"/>
+        <item x="15"/>
+        <item m="1" x="54"/>
+        <item x="16"/>
+        <item m="1" x="46"/>
+        <item x="17"/>
+        <item m="1" x="69"/>
+        <item x="18"/>
+        <item m="1" x="60"/>
+        <item x="19"/>
         <item m="1" x="52"/>
-        <item x="5"/>
-        <item m="1" x="65"/>
-        <item x="6"/>
-        <item m="1" x="67"/>
-        <item x="7"/>
-        <item m="1" x="49"/>
-        <item x="8"/>
-        <item m="1" x="62"/>
-        <item x="9"/>
+        <item x="20"/>
         <item m="1" x="45"/>
-        <item x="10"/>
-        <item m="1" x="57"/>
-        <item x="11"/>
-        <item m="1" x="71"/>
-        <item x="12"/>
-        <item m="1" x="53"/>
-        <item x="13"/>
-        <item m="1" x="66"/>
-        <item x="14"/>
-        <item m="1" x="48"/>
-        <item x="15"/>
-        <item m="1" x="60"/>
-        <item x="16"/>
-        <item m="1" x="43"/>
-        <item x="17"/>
-        <item m="1" x="55"/>
-        <item x="18"/>
-        <item m="1" x="69"/>
-        <item x="19"/>
-        <item m="1" x="51"/>
-        <item x="20"/>
-        <item m="1" x="64"/>
         <item x="21"/>
-        <item m="1" x="47"/>
+        <item m="1" x="68"/>
         <item x="22"/>
         <item m="1" x="59"/>
         <item x="23"/>
-        <item m="1" x="42"/>
+        <item m="1" x="51"/>
         <item x="24"/>
-        <item m="1" x="54"/>
+        <item m="1" x="44"/>
         <item x="25"/>
-        <item m="1" x="68"/>
+        <item m="1" x="67"/>
         <item x="26"/>
+        <item m="1" x="58"/>
+        <item x="27"/>
         <item m="1" x="50"/>
-        <item x="27"/>
-        <item m="1" x="63"/>
         <item x="28"/>
-        <item m="1" x="46"/>
+        <item m="1" x="43"/>
         <item x="29"/>
-        <item m="1" x="58"/>
+        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -47296,7 +48209,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item h="1" x="41"/>
+        <item x="41"/>
+        <item h="1" x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47346,7 +48260,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -47470,6 +48384,9 @@
     <i>
       <x v="70"/>
     </i>
+    <i>
+      <x v="71"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -47543,71 +48460,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B45" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="73">
+      <items count="74">
         <item x="0"/>
-        <item m="1" x="61"/>
+        <item m="1" x="63"/>
         <item x="1"/>
-        <item m="1" x="44"/>
+        <item m="1" x="55"/>
         <item x="2"/>
-        <item m="1" x="56"/>
+        <item m="1" x="47"/>
         <item x="3"/>
         <item m="1" x="70"/>
         <item x="4"/>
+        <item m="1" x="61"/>
+        <item x="5"/>
+        <item m="1" x="53"/>
+        <item x="6"/>
+        <item m="1" x="65"/>
+        <item x="7"/>
+        <item m="1" x="57"/>
+        <item x="8"/>
+        <item m="1" x="49"/>
+        <item x="9"/>
+        <item m="1" x="72"/>
+        <item x="10"/>
+        <item m="1" x="64"/>
+        <item x="11"/>
+        <item m="1" x="56"/>
+        <item x="12"/>
+        <item m="1" x="48"/>
+        <item x="13"/>
+        <item m="1" x="71"/>
+        <item x="14"/>
+        <item m="1" x="62"/>
+        <item x="15"/>
+        <item m="1" x="54"/>
+        <item x="16"/>
+        <item m="1" x="46"/>
+        <item x="17"/>
+        <item m="1" x="69"/>
+        <item x="18"/>
+        <item m="1" x="60"/>
+        <item x="19"/>
         <item m="1" x="52"/>
-        <item x="5"/>
-        <item m="1" x="65"/>
-        <item x="6"/>
-        <item m="1" x="67"/>
-        <item x="7"/>
-        <item m="1" x="49"/>
-        <item x="8"/>
-        <item m="1" x="62"/>
-        <item x="9"/>
+        <item x="20"/>
         <item m="1" x="45"/>
-        <item x="10"/>
-        <item m="1" x="57"/>
-        <item x="11"/>
-        <item m="1" x="71"/>
-        <item x="12"/>
-        <item m="1" x="53"/>
-        <item x="13"/>
-        <item m="1" x="66"/>
-        <item x="14"/>
-        <item m="1" x="48"/>
-        <item x="15"/>
-        <item m="1" x="60"/>
-        <item x="16"/>
-        <item m="1" x="43"/>
-        <item x="17"/>
-        <item m="1" x="55"/>
-        <item x="18"/>
-        <item m="1" x="69"/>
-        <item x="19"/>
-        <item m="1" x="51"/>
-        <item x="20"/>
-        <item m="1" x="64"/>
         <item x="21"/>
-        <item m="1" x="47"/>
+        <item m="1" x="68"/>
         <item x="22"/>
         <item m="1" x="59"/>
         <item x="23"/>
-        <item m="1" x="42"/>
+        <item m="1" x="51"/>
         <item x="24"/>
-        <item m="1" x="54"/>
+        <item m="1" x="44"/>
         <item x="25"/>
-        <item m="1" x="68"/>
+        <item m="1" x="67"/>
         <item x="26"/>
+        <item m="1" x="58"/>
+        <item x="27"/>
         <item m="1" x="50"/>
-        <item x="27"/>
-        <item m="1" x="63"/>
         <item x="28"/>
-        <item m="1" x="46"/>
+        <item m="1" x="43"/>
         <item x="29"/>
-        <item m="1" x="58"/>
+        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -47619,7 +48536,8 @@
         <item x="38"/>
         <item x="39"/>
         <item x="40"/>
-        <item h="1" x="41"/>
+        <item x="41"/>
+        <item h="1" x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47669,7 +48587,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="42">
+  <rowItems count="43">
     <i>
       <x/>
     </i>
@@ -47792,6 +48710,9 @@
     </i>
     <i>
       <x v="70"/>
+    </i>
+    <i>
+      <x v="71"/>
     </i>
     <i t="grand">
       <x/>
@@ -48171,10 +49092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S862"/>
+  <dimension ref="A1:S883"/>
   <sheetViews>
-    <sheetView topLeftCell="A819" workbookViewId="0">
-      <selection activeCell="A842" sqref="A842:Q862"/>
+    <sheetView topLeftCell="A849" workbookViewId="0">
+      <selection activeCell="A863" sqref="A863:Q883"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -93874,6 +94795,1119 @@
         <v>6799</v>
       </c>
     </row>
+    <row r="863" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A863" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B863" t="s">
+        <v>14</v>
+      </c>
+      <c r="C863">
+        <v>13</v>
+      </c>
+      <c r="D863" t="s">
+        <v>15</v>
+      </c>
+      <c r="E863" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F863" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G863">
+        <v>-7</v>
+      </c>
+      <c r="H863">
+        <v>-4</v>
+      </c>
+      <c r="I863">
+        <v>-11</v>
+      </c>
+      <c r="J863">
+        <v>75</v>
+      </c>
+      <c r="K863">
+        <v>64</v>
+      </c>
+      <c r="L863">
+        <v>64</v>
+      </c>
+      <c r="M863">
+        <v>64</v>
+      </c>
+      <c r="N863">
+        <v>6</v>
+      </c>
+      <c r="O863">
+        <v>5</v>
+      </c>
+      <c r="P863">
+        <v>75</v>
+      </c>
+      <c r="Q863">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="864" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A864" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B864" t="s">
+        <v>14</v>
+      </c>
+      <c r="C864">
+        <v>17</v>
+      </c>
+      <c r="D864" t="s">
+        <v>16</v>
+      </c>
+      <c r="E864" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F864" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G864">
+        <v>2</v>
+      </c>
+      <c r="H864">
+        <v>-1</v>
+      </c>
+      <c r="I864">
+        <v>1</v>
+      </c>
+      <c r="J864">
+        <v>9</v>
+      </c>
+      <c r="K864">
+        <v>10</v>
+      </c>
+      <c r="L864">
+        <v>10</v>
+      </c>
+      <c r="M864">
+        <v>10</v>
+      </c>
+      <c r="N864">
+        <v>2</v>
+      </c>
+      <c r="O864">
+        <v>2</v>
+      </c>
+      <c r="P864">
+        <v>14</v>
+      </c>
+      <c r="Q864">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="865" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A865" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B865" t="s">
+        <v>14</v>
+      </c>
+      <c r="C865">
+        <v>18</v>
+      </c>
+      <c r="D865" t="s">
+        <v>17</v>
+      </c>
+      <c r="E865" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F865" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G865">
+        <v>-4</v>
+      </c>
+      <c r="H865">
+        <v>-2</v>
+      </c>
+      <c r="I865">
+        <v>-6</v>
+      </c>
+      <c r="J865">
+        <v>50</v>
+      </c>
+      <c r="K865">
+        <v>44</v>
+      </c>
+      <c r="L865">
+        <v>44</v>
+      </c>
+      <c r="M865">
+        <v>44</v>
+      </c>
+      <c r="N865">
+        <v>3</v>
+      </c>
+      <c r="O865">
+        <v>7</v>
+      </c>
+      <c r="P865">
+        <v>54</v>
+      </c>
+      <c r="Q865">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="866" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A866" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B866" t="s">
+        <v>14</v>
+      </c>
+      <c r="C866">
+        <v>15</v>
+      </c>
+      <c r="D866" t="s">
+        <v>18</v>
+      </c>
+      <c r="E866" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F866" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G866">
+        <v>42</v>
+      </c>
+      <c r="H866">
+        <v>-6</v>
+      </c>
+      <c r="I866">
+        <v>36</v>
+      </c>
+      <c r="J866">
+        <v>89</v>
+      </c>
+      <c r="K866">
+        <v>125</v>
+      </c>
+      <c r="L866">
+        <v>125</v>
+      </c>
+      <c r="M866">
+        <v>125</v>
+      </c>
+      <c r="N866">
+        <v>4</v>
+      </c>
+      <c r="O866">
+        <v>3</v>
+      </c>
+      <c r="P866">
+        <v>132</v>
+      </c>
+      <c r="Q866">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="867" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A867" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B867" t="s">
+        <v>14</v>
+      </c>
+      <c r="C867">
+        <v>8</v>
+      </c>
+      <c r="D867" t="s">
+        <v>46</v>
+      </c>
+      <c r="E867" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F867" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G867">
+        <v>-20</v>
+      </c>
+      <c r="H867">
+        <v>17</v>
+      </c>
+      <c r="I867">
+        <v>-3</v>
+      </c>
+      <c r="J867">
+        <v>317</v>
+      </c>
+      <c r="K867">
+        <v>314</v>
+      </c>
+      <c r="L867">
+        <v>314</v>
+      </c>
+      <c r="M867">
+        <v>314</v>
+      </c>
+      <c r="N867">
+        <v>161</v>
+      </c>
+      <c r="O867">
+        <v>74</v>
+      </c>
+      <c r="P867">
+        <v>549</v>
+      </c>
+      <c r="Q867">
+        <v>2911</v>
+      </c>
+    </row>
+    <row r="868" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A868" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B868" t="s">
+        <v>14</v>
+      </c>
+      <c r="C868">
+        <v>6</v>
+      </c>
+      <c r="D868" t="s">
+        <v>19</v>
+      </c>
+      <c r="E868" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F868" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G868">
+        <v>2</v>
+      </c>
+      <c r="H868">
+        <v>0</v>
+      </c>
+      <c r="I868">
+        <v>2</v>
+      </c>
+      <c r="J868">
+        <v>25</v>
+      </c>
+      <c r="K868">
+        <v>27</v>
+      </c>
+      <c r="L868">
+        <v>27</v>
+      </c>
+      <c r="M868">
+        <v>27</v>
+      </c>
+      <c r="N868">
+        <v>26</v>
+      </c>
+      <c r="O868">
+        <v>9</v>
+      </c>
+      <c r="P868">
+        <v>62</v>
+      </c>
+      <c r="Q868">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="869" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A869" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B869" t="s">
+        <v>14</v>
+      </c>
+      <c r="C869">
+        <v>12</v>
+      </c>
+      <c r="D869" t="s">
+        <v>20</v>
+      </c>
+      <c r="E869" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F869" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G869">
+        <v>-1</v>
+      </c>
+      <c r="H869">
+        <v>4</v>
+      </c>
+      <c r="I869">
+        <v>3</v>
+      </c>
+      <c r="J869">
+        <v>77</v>
+      </c>
+      <c r="K869">
+        <v>80</v>
+      </c>
+      <c r="L869">
+        <v>80</v>
+      </c>
+      <c r="M869">
+        <v>80</v>
+      </c>
+      <c r="N869">
+        <v>36</v>
+      </c>
+      <c r="O869">
+        <v>7</v>
+      </c>
+      <c r="P869">
+        <v>123</v>
+      </c>
+      <c r="Q869">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="870" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A870" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B870" t="s">
+        <v>14</v>
+      </c>
+      <c r="C870">
+        <v>7</v>
+      </c>
+      <c r="D870" t="s">
+        <v>21</v>
+      </c>
+      <c r="E870" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F870" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G870">
+        <v>5</v>
+      </c>
+      <c r="H870">
+        <v>-4</v>
+      </c>
+      <c r="I870">
+        <v>1</v>
+      </c>
+      <c r="J870">
+        <v>198</v>
+      </c>
+      <c r="K870">
+        <v>199</v>
+      </c>
+      <c r="L870">
+        <v>199</v>
+      </c>
+      <c r="M870">
+        <v>199</v>
+      </c>
+      <c r="N870">
+        <v>33</v>
+      </c>
+      <c r="O870">
+        <v>14</v>
+      </c>
+      <c r="P870">
+        <v>246</v>
+      </c>
+      <c r="Q870">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="871" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A871" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B871" t="s">
+        <v>14</v>
+      </c>
+      <c r="C871">
+        <v>3</v>
+      </c>
+      <c r="D871" t="s">
+        <v>22</v>
+      </c>
+      <c r="E871" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F871" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G871">
+        <v>7</v>
+      </c>
+      <c r="H871">
+        <v>-9</v>
+      </c>
+      <c r="I871">
+        <v>-2</v>
+      </c>
+      <c r="J871">
+        <v>906</v>
+      </c>
+      <c r="K871">
+        <v>904</v>
+      </c>
+      <c r="L871">
+        <v>904</v>
+      </c>
+      <c r="M871">
+        <v>904</v>
+      </c>
+      <c r="N871">
+        <v>184</v>
+      </c>
+      <c r="O871">
+        <v>249</v>
+      </c>
+      <c r="P871">
+        <v>1337</v>
+      </c>
+      <c r="Q871">
+        <v>8107</v>
+      </c>
+    </row>
+    <row r="872" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A872" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B872" t="s">
+        <v>14</v>
+      </c>
+      <c r="C872">
+        <v>11</v>
+      </c>
+      <c r="D872" t="s">
+        <v>23</v>
+      </c>
+      <c r="E872" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F872" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G872">
+        <v>-10</v>
+      </c>
+      <c r="H872">
+        <v>-2</v>
+      </c>
+      <c r="I872">
+        <v>-12</v>
+      </c>
+      <c r="J872">
+        <v>93</v>
+      </c>
+      <c r="K872">
+        <v>81</v>
+      </c>
+      <c r="L872">
+        <v>81</v>
+      </c>
+      <c r="M872">
+        <v>81</v>
+      </c>
+      <c r="N872">
+        <v>17</v>
+      </c>
+      <c r="O872">
+        <v>25</v>
+      </c>
+      <c r="P872">
+        <v>123</v>
+      </c>
+      <c r="Q872">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="873" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A873" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B873" t="s">
+        <v>14</v>
+      </c>
+      <c r="C873">
+        <v>14</v>
+      </c>
+      <c r="D873" t="s">
+        <v>24</v>
+      </c>
+      <c r="E873" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F873" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G873">
+        <v>2</v>
+      </c>
+      <c r="H873">
+        <v>0</v>
+      </c>
+      <c r="I873">
+        <v>2</v>
+      </c>
+      <c r="J873">
+        <v>14</v>
+      </c>
+      <c r="K873">
+        <v>16</v>
+      </c>
+      <c r="L873">
+        <v>16</v>
+      </c>
+      <c r="M873">
+        <v>16</v>
+      </c>
+      <c r="N873">
+        <v>0</v>
+      </c>
+      <c r="O873">
+        <v>2</v>
+      </c>
+      <c r="P873">
+        <v>18</v>
+      </c>
+      <c r="Q873">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="874" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A874" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B874" t="s">
+        <v>14</v>
+      </c>
+      <c r="C874">
+        <v>4</v>
+      </c>
+      <c r="D874" t="s">
+        <v>25</v>
+      </c>
+      <c r="E874" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F874" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G874">
+        <v>-52</v>
+      </c>
+      <c r="H874">
+        <v>-8</v>
+      </c>
+      <c r="I874">
+        <v>-60</v>
+      </c>
+      <c r="J874">
+        <v>85</v>
+      </c>
+      <c r="K874">
+        <v>25</v>
+      </c>
+      <c r="L874">
+        <v>25</v>
+      </c>
+      <c r="M874">
+        <v>25</v>
+      </c>
+      <c r="N874">
+        <v>15</v>
+      </c>
+      <c r="O874">
+        <v>12</v>
+      </c>
+      <c r="P874">
+        <v>52</v>
+      </c>
+      <c r="Q874">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="875" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A875" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B875" t="s">
+        <v>14</v>
+      </c>
+      <c r="C875">
+        <v>4</v>
+      </c>
+      <c r="D875" t="s">
+        <v>26</v>
+      </c>
+      <c r="E875" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F875" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G875">
+        <v>-1</v>
+      </c>
+      <c r="H875">
+        <v>-1</v>
+      </c>
+      <c r="I875">
+        <v>-2</v>
+      </c>
+      <c r="J875">
+        <v>44</v>
+      </c>
+      <c r="K875">
+        <v>42</v>
+      </c>
+      <c r="L875">
+        <v>42</v>
+      </c>
+      <c r="M875">
+        <v>42</v>
+      </c>
+      <c r="N875">
+        <v>16</v>
+      </c>
+      <c r="O875">
+        <v>7</v>
+      </c>
+      <c r="P875">
+        <v>65</v>
+      </c>
+      <c r="Q875">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="876" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A876" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B876" t="s">
+        <v>14</v>
+      </c>
+      <c r="C876">
+        <v>1</v>
+      </c>
+      <c r="D876" t="s">
+        <v>27</v>
+      </c>
+      <c r="E876" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F876" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G876">
+        <v>31</v>
+      </c>
+      <c r="H876">
+        <v>-6</v>
+      </c>
+      <c r="I876">
+        <v>25</v>
+      </c>
+      <c r="J876">
+        <v>459</v>
+      </c>
+      <c r="K876">
+        <v>484</v>
+      </c>
+      <c r="L876">
+        <v>484</v>
+      </c>
+      <c r="M876">
+        <v>484</v>
+      </c>
+      <c r="N876">
+        <v>129</v>
+      </c>
+      <c r="O876">
+        <v>40</v>
+      </c>
+      <c r="P876">
+        <v>653</v>
+      </c>
+      <c r="Q876">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="877" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A877" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B877" t="s">
+        <v>14</v>
+      </c>
+      <c r="C877">
+        <v>16</v>
+      </c>
+      <c r="D877" t="s">
+        <v>28</v>
+      </c>
+      <c r="E877" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F877" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G877">
+        <v>-53</v>
+      </c>
+      <c r="H877">
+        <v>6</v>
+      </c>
+      <c r="I877">
+        <v>-47</v>
+      </c>
+      <c r="J877">
+        <v>96</v>
+      </c>
+      <c r="K877">
+        <v>49</v>
+      </c>
+      <c r="L877">
+        <v>49</v>
+      </c>
+      <c r="M877">
+        <v>49</v>
+      </c>
+      <c r="N877">
+        <v>19</v>
+      </c>
+      <c r="O877">
+        <v>9</v>
+      </c>
+      <c r="P877">
+        <v>77</v>
+      </c>
+      <c r="Q877">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="878" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A878" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B878" t="s">
+        <v>14</v>
+      </c>
+      <c r="C878">
+        <v>20</v>
+      </c>
+      <c r="D878" t="s">
+        <v>29</v>
+      </c>
+      <c r="E878" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F878" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G878">
+        <v>3</v>
+      </c>
+      <c r="H878">
+        <v>1</v>
+      </c>
+      <c r="I878">
+        <v>4</v>
+      </c>
+      <c r="J878">
+        <v>22</v>
+      </c>
+      <c r="K878">
+        <v>26</v>
+      </c>
+      <c r="L878">
+        <v>26</v>
+      </c>
+      <c r="M878">
+        <v>26</v>
+      </c>
+      <c r="N878">
+        <v>5</v>
+      </c>
+      <c r="O878">
+        <v>2</v>
+      </c>
+      <c r="P878">
+        <v>33</v>
+      </c>
+      <c r="Q878">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="879" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A879" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B879" t="s">
+        <v>14</v>
+      </c>
+      <c r="C879">
+        <v>19</v>
+      </c>
+      <c r="D879" t="s">
+        <v>30</v>
+      </c>
+      <c r="E879" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F879" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G879">
+        <v>3</v>
+      </c>
+      <c r="H879">
+        <v>2</v>
+      </c>
+      <c r="I879">
+        <v>5</v>
+      </c>
+      <c r="J879">
+        <v>43</v>
+      </c>
+      <c r="K879">
+        <v>48</v>
+      </c>
+      <c r="L879">
+        <v>48</v>
+      </c>
+      <c r="M879">
+        <v>48</v>
+      </c>
+      <c r="N879">
+        <v>9</v>
+      </c>
+      <c r="O879">
+        <v>5</v>
+      </c>
+      <c r="P879">
+        <v>62</v>
+      </c>
+      <c r="Q879">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="880" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A880" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B880" t="s">
+        <v>14</v>
+      </c>
+      <c r="C880">
+        <v>9</v>
+      </c>
+      <c r="D880" t="s">
+        <v>31</v>
+      </c>
+      <c r="E880" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F880" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G880">
+        <v>-18</v>
+      </c>
+      <c r="H880">
+        <v>-10</v>
+      </c>
+      <c r="I880">
+        <v>-28</v>
+      </c>
+      <c r="J880">
+        <v>159</v>
+      </c>
+      <c r="K880">
+        <v>131</v>
+      </c>
+      <c r="L880">
+        <v>131</v>
+      </c>
+      <c r="M880">
+        <v>131</v>
+      </c>
+      <c r="N880">
+        <v>27</v>
+      </c>
+      <c r="O880">
+        <v>18</v>
+      </c>
+      <c r="P880">
+        <v>176</v>
+      </c>
+      <c r="Q880">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="881" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A881" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B881" t="s">
+        <v>14</v>
+      </c>
+      <c r="C881">
+        <v>10</v>
+      </c>
+      <c r="D881" t="s">
+        <v>32</v>
+      </c>
+      <c r="E881" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F881" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G881">
+        <v>-8</v>
+      </c>
+      <c r="H881">
+        <v>1</v>
+      </c>
+      <c r="I881">
+        <v>-7</v>
+      </c>
+      <c r="J881">
+        <v>-22</v>
+      </c>
+      <c r="K881">
+        <v>-29</v>
+      </c>
+      <c r="L881">
+        <v>-29</v>
+      </c>
+      <c r="M881">
+        <v>-29</v>
+      </c>
+      <c r="N881">
+        <v>56</v>
+      </c>
+      <c r="O881">
+        <v>2</v>
+      </c>
+      <c r="P881">
+        <v>29</v>
+      </c>
+      <c r="Q881">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="882" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A882" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B882" t="s">
+        <v>14</v>
+      </c>
+      <c r="C882">
+        <v>2</v>
+      </c>
+      <c r="D882" t="s">
+        <v>33</v>
+      </c>
+      <c r="E882" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F882" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G882">
+        <v>33</v>
+      </c>
+      <c r="H882">
+        <v>0</v>
+      </c>
+      <c r="I882">
+        <v>33</v>
+      </c>
+      <c r="J882">
+        <v>-17</v>
+      </c>
+      <c r="K882">
+        <v>16</v>
+      </c>
+      <c r="L882">
+        <v>16</v>
+      </c>
+      <c r="M882">
+        <v>16</v>
+      </c>
+      <c r="N882">
+        <v>9</v>
+      </c>
+      <c r="O882">
+        <v>9</v>
+      </c>
+      <c r="P882">
+        <v>34</v>
+      </c>
+      <c r="Q882">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="883" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A883" s="6">
+        <v>43926</v>
+      </c>
+      <c r="B883" t="s">
+        <v>14</v>
+      </c>
+      <c r="C883">
+        <v>5</v>
+      </c>
+      <c r="D883" t="s">
+        <v>34</v>
+      </c>
+      <c r="E883" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F883" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G883">
+        <v>-17</v>
+      </c>
+      <c r="H883">
+        <v>5</v>
+      </c>
+      <c r="I883">
+        <v>-12</v>
+      </c>
+      <c r="J883">
+        <v>328</v>
+      </c>
+      <c r="K883">
+        <v>316</v>
+      </c>
+      <c r="L883">
+        <v>316</v>
+      </c>
+      <c r="M883">
+        <v>316</v>
+      </c>
+      <c r="N883">
+        <v>62</v>
+      </c>
+      <c r="O883">
+        <v>24</v>
+      </c>
+      <c r="P883">
+        <v>402</v>
+      </c>
+      <c r="Q883">
+        <v>7621</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{FBAB6D88-DCD4-E841-8499-D0DE040246DB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -93882,10 +95916,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G46"/>
+  <dimension ref="A3:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A45" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -94057,7 +96091,7 @@
         <v>94</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G45" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G46" si="0">SUM(B5:F5)</f>
         <v>229</v>
       </c>
     </row>
@@ -95021,28 +97055,52 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A46" s="3" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="7">
+        <v>43926</v>
+      </c>
+      <c r="B46" s="4">
+        <v>525</v>
+      </c>
+      <c r="C46" s="4">
+        <v>819</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-61</v>
+      </c>
+      <c r="E46" s="4">
+        <v>-17</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3050</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="4">
-        <v>15362</v>
-      </c>
-      <c r="C46" s="4">
-        <v>20996</v>
-      </c>
-      <c r="D46" s="4">
-        <v>29010</v>
-      </c>
-      <c r="E46" s="4">
-        <v>3994</v>
-      </c>
-      <c r="F46" s="4">
-        <v>55270</v>
-      </c>
-      <c r="G46" s="8">
-        <f>SUM(B46:F46)</f>
-        <v>124632</v>
+      <c r="B47" s="4">
+        <v>15887</v>
+      </c>
+      <c r="C47" s="4">
+        <v>21815</v>
+      </c>
+      <c r="D47" s="4">
+        <v>28949</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3977</v>
+      </c>
+      <c r="F47" s="4">
+        <v>58320</v>
+      </c>
+      <c r="G47" s="8">
+        <f>SUM(B47:F47)</f>
+        <v>128948</v>
       </c>
     </row>
   </sheetData>
@@ -95053,10 +97111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1084B9-5FA0-CB4F-AF55-AA19481B2D01}">
-  <dimension ref="B3:C45"/>
+  <dimension ref="B3:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -95402,11 +97460,19 @@
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="7">
+        <v>43926</v>
+      </c>
+      <c r="C45" s="4">
+        <v>34237</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C45" s="4">
-        <v>657224</v>
+      <c r="C46" s="4">
+        <v>691461</v>
       </c>
     </row>
   </sheetData>
@@ -95417,10 +97483,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+      <selection activeCell="Q41" sqref="Q41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -95856,6 +97922,16 @@
       <c r="B44">
         <f>All!G45</f>
         <v>4805</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="6">
+        <f>All!A46</f>
+        <v>43926</v>
+      </c>
+      <c r="B45">
+        <f>All!G46</f>
+        <v>4316</v>
       </c>
     </row>
   </sheetData>
@@ -95866,10 +97942,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AE35" sqref="AE35"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -96228,11 +98304,19 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="5">
+        <v>43926</v>
+      </c>
+      <c r="B45" s="4">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="4">
-        <v>29010</v>
+      <c r="B46" s="4">
+        <v>28949</v>
       </c>
     </row>
   </sheetData>
@@ -96243,10 +98327,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:A47"/>
+      <selection activeCell="A11" sqref="A7:A48"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -96624,11 +98708,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="5">
+        <v>43926</v>
+      </c>
+      <c r="B48" s="4">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
-        <v>20996</v>
+      <c r="B49" s="4">
+        <v>21815</v>
       </c>
     </row>
   </sheetData>
@@ -96639,10 +98731,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B46"/>
+  <dimension ref="A2:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A5:A45"/>
+      <selection activeCell="A10" sqref="A5:A46"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="9" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -97008,11 +99100,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="5">
+        <v>43926</v>
+      </c>
+      <c r="B46" s="4">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="4">
-        <v>3994</v>
+      <c r="B47" s="4">
+        <v>3977</v>
       </c>
     </row>
   </sheetData>
@@ -97023,7 +99123,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -97389,11 +99489,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="5">
+        <v>43926</v>
+      </c>
+      <c r="B46" s="4">
+        <v>3050</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="4">
-        <v>55270</v>
+      <c r="B47" s="4">
+        <v>58320</v>
       </c>
     </row>
   </sheetData>
@@ -97404,9 +99512,9 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -97766,11 +99874,19 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="5">
+        <v>43926</v>
+      </c>
+      <c r="B45" s="4">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="4">
-        <v>15362</v>
+      <c r="B46" s="4">
+        <v>15887</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923EDA0A-FF1C-7E4F-9FC2-12FA725604C7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9AF70-83E5-6C40-BA47-858BAC0CDA9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId10"/>
-    <pivotCache cacheId="11" r:id="rId11"/>
+    <pivotCache cacheId="9" r:id="rId10"/>
+    <pivotCache cacheId="21" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1822" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -346,7 +346,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="22"/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -897,9 +897,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$47</c:f>
+              <c:f>All!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1028,16 +1028,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$47</c:f>
+              <c:f>All!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1163,6 +1166,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,9 +1208,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$47</c:f>
+              <c:f>All!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1333,16 +1339,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$47</c:f>
+              <c:f>All!$C$4:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1468,6 +1477,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,9 +1519,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$47</c:f>
+              <c:f>All!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1638,16 +1650,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$47</c:f>
+              <c:f>All!$D$4:$D$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1773,6 +1788,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1812,9 +1830,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$47</c:f>
+              <c:f>All!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1943,16 +1961,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$47</c:f>
+              <c:f>All!$E$4:$E$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2078,6 +2099,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2117,9 +2141,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$47</c:f>
+              <c:f>All!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2248,16 +2272,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$47</c:f>
+              <c:f>All!$F$4:$F$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="1">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2383,6 +2410,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2771,9 +2801,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Tamponi!$B$4:$B$46</c:f>
+              <c:f>Tamponi!$B$4:$B$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2899,16 +2929,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tamponi!$C$4:$C$46</c:f>
+              <c:f>Tamponi!$C$4:$C$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -3034,6 +3067,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>34237</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>30271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3379,9 +3415,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$45</c:f>
+              <c:f>'Totale dei Casi'!$A$3:$A$46</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -3510,16 +3546,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>05/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>06/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$45</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3648,6 +3687,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>4316</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3599</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4054,9 +4096,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$46</c:f>
+              <c:f>Ricoverati!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4182,16 +4224,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>05/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>06/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$46</c:f>
+              <c:f>Ricoverati!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -4317,6 +4362,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4722,9 +4770,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$49</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4850,16 +4898,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>05/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>06/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$49</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4985,6 +5036,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>819</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1022</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5374,9 +5428,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$47</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -5502,16 +5556,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>05/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>06/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$47</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -5637,6 +5694,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-79</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6041,9 +6101,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$47</c:f>
+              <c:f>Isolamento!$A$5:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6169,16 +6229,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>05/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>06/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$47</c:f>
+              <c:f>Isolamento!$B$5:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -6304,6 +6367,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>3050</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6708,9 +6774,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$46</c:f>
+              <c:f>Deceduti!$A$4:$A$47</c:f>
               <c:strCache>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6836,16 +6902,19 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>05/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>06/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$46</c:f>
+              <c:f>Deceduti!$B$4:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="42"/>
+                <c:ptCount val="43"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -6971,6 +7040,9 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>525</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>636</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11621,14 +11693,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>149608</xdr:rowOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>79828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>516373</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>153516</xdr:rowOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>83736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11954,13 +12026,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43926.77293240741" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="883" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43927.756003009257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="904" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-06T00:00:00" count="43">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-07T00:00:00" count="44">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12003,6 +12075,7 @@
         <d v="2020-04-03T00:00:00"/>
         <d v="2020-04-04T00:00:00"/>
         <d v="2020-04-05T00:00:00"/>
+        <d v="2020-04-06T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -12025,7 +12098,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-738" maxValue="1181"/>
     </cacheField>
     <cacheField name="terapia_intensiva" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-58" maxValue="94"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-62" maxValue="94"/>
     </cacheField>
     <cacheField name="totale_ospedalizzati" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-715" maxValue="1230"/>
@@ -12070,13 +12143,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43926.773515972222" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="883" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43927.757030439818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="904" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-06T00:00:00" count="73">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-07T00:00:00" count="74">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12119,37 +12192,38 @@
         <d v="2020-04-03T00:00:00"/>
         <d v="2020-04-04T00:00:00"/>
         <d v="2020-04-05T00:00:00"/>
+        <d v="2020-04-06T00:00:00"/>
         <m/>
+        <d v="2020-03-18T17:00:00" u="1"/>
+        <d v="2020-03-11T17:00:00" u="1"/>
+        <d v="2020-02-25T18:00:00" u="1"/>
+        <d v="2020-03-04T17:00:00" u="1"/>
         <d v="2020-03-23T17:00:00" u="1"/>
+        <d v="2020-03-16T17:00:00" u="1"/>
+        <d v="2020-03-09T18:00:00" u="1"/>
+        <d v="2020-03-02T18:00:00" u="1"/>
+        <d v="2020-03-21T17:00:00" u="1"/>
+        <d v="2020-03-14T17:00:00" u="1"/>
+        <d v="2020-02-28T18:00:00" u="1"/>
+        <d v="2020-03-07T18:00:00" u="1"/>
         <d v="2020-03-19T17:00:00" u="1"/>
-        <d v="2020-03-15T17:00:00" u="1"/>
-        <d v="2020-03-11T17:00:00" u="1"/>
+        <d v="2020-03-12T17:00:00" u="1"/>
         <d v="2020-02-26T18:00:00" u="1"/>
-        <d v="2020-03-07T18:00:00" u="1"/>
+        <d v="2020-03-05T17:00:00" u="1"/>
+        <d v="2020-03-24T17:00:00" u="1"/>
+        <d v="2020-03-17T17:00:00" u="1"/>
+        <d v="2020-03-10T18:00:00" u="1"/>
+        <d v="2020-02-24T18:00:00" u="1"/>
         <d v="2020-03-03T18:00:00" u="1"/>
         <d v="2020-03-22T17:00:00" u="1"/>
-        <d v="2020-03-18T17:00:00" u="1"/>
-        <d v="2020-03-14T17:00:00" u="1"/>
+        <d v="2020-03-15T17:00:00" u="1"/>
         <d v="2020-02-29T17:00:00" u="1"/>
-        <d v="2020-03-10T18:00:00" u="1"/>
-        <d v="2020-02-25T18:00:00" u="1"/>
+        <d v="2020-03-08T18:00:00" u="1"/>
+        <d v="2020-03-01T17:00:00" u="1"/>
+        <d v="2020-03-20T17:00:00" u="1"/>
+        <d v="2020-03-13T17:00:00" u="1"/>
+        <d v="2020-02-27T18:00:00" u="1"/>
         <d v="2020-03-06T17:00:00" u="1"/>
-        <d v="2020-03-02T18:00:00" u="1"/>
-        <d v="2020-03-21T17:00:00" u="1"/>
-        <d v="2020-03-17T17:00:00" u="1"/>
-        <d v="2020-03-13T17:00:00" u="1"/>
-        <d v="2020-02-28T18:00:00" u="1"/>
-        <d v="2020-03-09T18:00:00" u="1"/>
-        <d v="2020-02-24T18:00:00" u="1"/>
-        <d v="2020-03-05T17:00:00" u="1"/>
-        <d v="2020-03-01T17:00:00" u="1"/>
-        <d v="2020-03-24T17:00:00" u="1"/>
-        <d v="2020-03-20T17:00:00" u="1"/>
-        <d v="2020-03-16T17:00:00" u="1"/>
-        <d v="2020-03-12T17:00:00" u="1"/>
-        <d v="2020-02-27T18:00:00" u="1"/>
-        <d v="2020-03-08T18:00:00" u="1"/>
-        <d v="2020-03-04T17:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="stato" numFmtId="0">
@@ -12195,7 +12269,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-738" maxValue="1181"/>
     </cacheField>
     <cacheField name="terapia_intensiva" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-58" maxValue="94"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-62" maxValue="94"/>
     </cacheField>
     <cacheField name="totale_ospedalizzati" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-715" maxValue="1230"/>
@@ -12231,7 +12305,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="883">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="904">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -30756,6 +30830,447 @@
   </r>
   <r>
     <x v="42"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="-1"/>
+    <n v="-8"/>
+    <n v="13"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="18"/>
+    <n v="600"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="9"/>
+    <n v="130"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-4"/>
+    <n v="1"/>
+    <n v="-3"/>
+    <n v="19"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="22"/>
+    <n v="556"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="1"/>
+    <n v="-7"/>
+    <n v="-6"/>
+    <n v="83"/>
+    <n v="77"/>
+    <n v="77"/>
+    <n v="77"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="98"/>
+    <n v="1387"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-35"/>
+    <n v="-3"/>
+    <n v="-38"/>
+    <n v="252"/>
+    <n v="214"/>
+    <n v="214"/>
+    <n v="214"/>
+    <n v="196"/>
+    <n v="57"/>
+    <n v="467"/>
+    <n v="2177"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="4"/>
+    <n v="-4"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="18"/>
+    <n v="4"/>
+    <n v="55"/>
+    <n v="620"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="27"/>
+    <n v="10"/>
+    <n v="151"/>
+    <n v="2812"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="15"/>
+    <n v="-3"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="37"/>
+    <n v="39"/>
+    <n v="100"/>
+    <n v="486"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="-95"/>
+    <n v="26"/>
+    <n v="-69"/>
+    <n v="414"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="437"/>
+    <n v="297"/>
+    <n v="1079"/>
+    <n v="5005"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="14"/>
+    <n v="-11"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="128"/>
+    <n v="128"/>
+    <n v="128"/>
+    <n v="9"/>
+    <n v="13"/>
+    <n v="150"/>
+    <n v="667"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="42"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="29"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="38"/>
+    <n v="6"/>
+    <n v="78"/>
+    <n v="1102"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="42"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="7"/>
+    <n v="13"/>
+    <n v="63"/>
+    <n v="654"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="12"/>
+    <n v="-6"/>
+    <n v="6"/>
+    <n v="362"/>
+    <n v="368"/>
+    <n v="368"/>
+    <n v="368"/>
+    <n v="111"/>
+    <n v="83"/>
+    <n v="562"/>
+    <n v="2584"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="51"/>
+    <n v="-62"/>
+    <n v="-11"/>
+    <n v="104"/>
+    <n v="93"/>
+    <n v="93"/>
+    <n v="93"/>
+    <n v="21"/>
+    <n v="13"/>
+    <n v="127"/>
+    <n v="1979"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="-3"/>
+    <n v="1"/>
+    <n v="-2"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="15"/>
+    <n v="364"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="7"/>
+    <n v="-2"/>
+    <n v="5"/>
+    <n v="36"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="52"/>
+    <n v="1560"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="108"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="13"/>
+    <n v="25"/>
+    <n v="154"/>
+    <n v="1843"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="-27"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="39"/>
+    <n v="1"/>
+    <n v="14"/>
+    <n v="125"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="13"/>
+    <n v="-2"/>
+    <n v="11"/>
+    <n v="-20"/>
+    <n v="-9"/>
+    <n v="-9"/>
+    <n v="-9"/>
+    <n v="27"/>
+    <n v="5"/>
+    <n v="23"/>
+    <n v="200"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="40"/>
+    <n v="-7"/>
+    <n v="33"/>
+    <n v="280"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="18"/>
+    <n v="31"/>
+    <n v="362"/>
+    <n v="5378"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
     <m/>
     <m/>
     <m/>
@@ -30779,7 +31294,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="883">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="904">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -46658,6 +47173,384 @@
   </r>
   <r>
     <x v="42"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-7"/>
+    <n v="-1"/>
+    <n v="-8"/>
+    <n v="13"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="11"/>
+    <n v="18"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-4"/>
+    <n v="1"/>
+    <n v="-3"/>
+    <n v="19"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="16"/>
+    <n v="4"/>
+    <n v="2"/>
+    <n v="22"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="1"/>
+    <n v="-7"/>
+    <n v="-6"/>
+    <n v="83"/>
+    <n v="77"/>
+    <n v="77"/>
+    <n v="77"/>
+    <n v="6"/>
+    <n v="15"/>
+    <n v="98"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-35"/>
+    <n v="-3"/>
+    <n v="-38"/>
+    <n v="252"/>
+    <n v="214"/>
+    <n v="214"/>
+    <n v="214"/>
+    <n v="196"/>
+    <n v="57"/>
+    <n v="467"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="4"/>
+    <n v="-4"/>
+    <n v="0"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="18"/>
+    <n v="4"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="114"/>
+    <n v="27"/>
+    <n v="10"/>
+    <n v="151"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="15"/>
+    <n v="-3"/>
+    <n v="12"/>
+    <n v="12"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="24"/>
+    <n v="37"/>
+    <n v="39"/>
+    <n v="100"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="-95"/>
+    <n v="26"/>
+    <n v="-69"/>
+    <n v="414"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="345"/>
+    <n v="437"/>
+    <n v="297"/>
+    <n v="1079"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="14"/>
+    <n v="-11"/>
+    <n v="3"/>
+    <n v="125"/>
+    <n v="128"/>
+    <n v="128"/>
+    <n v="128"/>
+    <n v="9"/>
+    <n v="13"/>
+    <n v="150"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="29"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="38"/>
+    <n v="6"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="2"/>
+    <n v="-1"/>
+    <n v="1"/>
+    <n v="42"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="7"/>
+    <n v="13"/>
+    <n v="63"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="12"/>
+    <n v="-6"/>
+    <n v="6"/>
+    <n v="362"/>
+    <n v="368"/>
+    <n v="368"/>
+    <n v="368"/>
+    <n v="111"/>
+    <n v="83"/>
+    <n v="562"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="51"/>
+    <n v="-62"/>
+    <n v="-11"/>
+    <n v="104"/>
+    <n v="93"/>
+    <n v="93"/>
+    <n v="93"/>
+    <n v="21"/>
+    <n v="13"/>
+    <n v="127"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="-3"/>
+    <n v="1"/>
+    <n v="-2"/>
+    <n v="6"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="4"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="7"/>
+    <n v="-2"/>
+    <n v="5"/>
+    <n v="36"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="4"/>
+    <n v="7"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="5"/>
+    <n v="3"/>
+    <n v="8"/>
+    <n v="108"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="116"/>
+    <n v="13"/>
+    <n v="25"/>
+    <n v="154"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="-27"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="39"/>
+    <n v="1"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="13"/>
+    <n v="-2"/>
+    <n v="11"/>
+    <n v="-20"/>
+    <n v="-9"/>
+    <n v="-9"/>
+    <n v="-9"/>
+    <n v="27"/>
+    <n v="5"/>
+    <n v="23"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="40"/>
+    <n v="-7"/>
+    <n v="33"/>
+    <n v="280"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="313"/>
+    <n v="18"/>
+    <n v="31"/>
+    <n v="362"/>
+  </r>
+  <r>
+    <x v="43"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -46678,12 +47571,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F47" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="44">
-        <item x="42"/>
+      <items count="45">
+        <item x="43"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -46726,6 +47619,7 @@
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
+        <item x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -46751,7 +47645,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -46881,6 +47775,9 @@
     <i>
       <x v="42"/>
     </i>
+    <i>
+      <x v="43"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -46972,11 +47869,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:C46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="44">
+      <items count="45">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -47016,10 +47913,11 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="42"/>
+        <item h="1" x="43"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
+        <item x="42"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47045,7 +47943,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -47172,6 +48070,9 @@
     <i>
       <x v="42"/>
     </i>
+    <i>
+      <x v="43"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -47206,71 +48107,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="74">
+      <items count="75">
         <item x="0"/>
         <item m="1" x="63"/>
         <item x="1"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item m="1" x="58"/>
+        <item x="3"/>
+        <item m="1" x="72"/>
+        <item x="4"/>
+        <item m="1" x="54"/>
+        <item x="5"/>
+        <item m="1" x="67"/>
+        <item x="6"/>
+        <item m="1" x="69"/>
+        <item x="7"/>
+        <item m="1" x="51"/>
+        <item x="8"/>
+        <item m="1" x="64"/>
+        <item x="9"/>
+        <item m="1" x="47"/>
+        <item x="10"/>
+        <item m="1" x="59"/>
+        <item x="11"/>
+        <item m="1" x="73"/>
+        <item x="12"/>
         <item m="1" x="55"/>
-        <item x="2"/>
-        <item m="1" x="47"/>
-        <item x="3"/>
+        <item x="13"/>
+        <item m="1" x="68"/>
+        <item x="14"/>
+        <item m="1" x="50"/>
+        <item x="15"/>
+        <item m="1" x="62"/>
+        <item x="16"/>
+        <item m="1" x="45"/>
+        <item x="17"/>
+        <item m="1" x="57"/>
+        <item x="18"/>
+        <item m="1" x="71"/>
+        <item x="19"/>
+        <item m="1" x="53"/>
+        <item x="20"/>
+        <item m="1" x="66"/>
+        <item x="21"/>
+        <item m="1" x="49"/>
+        <item x="22"/>
+        <item m="1" x="61"/>
+        <item x="23"/>
+        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="56"/>
+        <item x="25"/>
         <item m="1" x="70"/>
-        <item x="4"/>
-        <item m="1" x="61"/>
-        <item x="5"/>
-        <item m="1" x="53"/>
-        <item x="6"/>
+        <item x="26"/>
+        <item m="1" x="52"/>
+        <item x="27"/>
         <item m="1" x="65"/>
-        <item x="7"/>
-        <item m="1" x="57"/>
-        <item x="8"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item m="1" x="72"/>
-        <item x="10"/>
-        <item m="1" x="64"/>
-        <item x="11"/>
-        <item m="1" x="56"/>
-        <item x="12"/>
+        <item x="28"/>
         <item m="1" x="48"/>
-        <item x="13"/>
-        <item m="1" x="71"/>
-        <item x="14"/>
-        <item m="1" x="62"/>
-        <item x="15"/>
-        <item m="1" x="54"/>
-        <item x="16"/>
-        <item m="1" x="46"/>
-        <item x="17"/>
-        <item m="1" x="69"/>
-        <item x="18"/>
+        <item x="29"/>
         <item m="1" x="60"/>
-        <item x="19"/>
-        <item m="1" x="52"/>
-        <item x="20"/>
-        <item m="1" x="45"/>
-        <item x="21"/>
-        <item m="1" x="68"/>
-        <item x="22"/>
-        <item m="1" x="59"/>
-        <item x="23"/>
-        <item m="1" x="51"/>
-        <item x="24"/>
-        <item m="1" x="44"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="58"/>
-        <item x="27"/>
-        <item m="1" x="50"/>
-        <item x="28"/>
-        <item m="1" x="43"/>
-        <item x="29"/>
-        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -47283,7 +48184,8 @@
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
-        <item h="1" x="42"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47333,7 +48235,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -47460,6 +48362,9 @@
     <i>
       <x v="71"/>
     </i>
+    <i>
+      <x v="72"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -47506,71 +48411,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="74">
+      <items count="75">
         <item x="0"/>
         <item m="1" x="63"/>
         <item x="1"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item m="1" x="58"/>
+        <item x="3"/>
+        <item m="1" x="72"/>
+        <item x="4"/>
+        <item m="1" x="54"/>
+        <item x="5"/>
+        <item m="1" x="67"/>
+        <item x="6"/>
+        <item m="1" x="69"/>
+        <item x="7"/>
+        <item m="1" x="51"/>
+        <item x="8"/>
+        <item m="1" x="64"/>
+        <item x="9"/>
+        <item m="1" x="47"/>
+        <item x="10"/>
+        <item m="1" x="59"/>
+        <item x="11"/>
+        <item m="1" x="73"/>
+        <item x="12"/>
         <item m="1" x="55"/>
-        <item x="2"/>
-        <item m="1" x="47"/>
-        <item x="3"/>
+        <item x="13"/>
+        <item m="1" x="68"/>
+        <item x="14"/>
+        <item m="1" x="50"/>
+        <item x="15"/>
+        <item m="1" x="62"/>
+        <item x="16"/>
+        <item m="1" x="45"/>
+        <item x="17"/>
+        <item m="1" x="57"/>
+        <item x="18"/>
+        <item m="1" x="71"/>
+        <item x="19"/>
+        <item m="1" x="53"/>
+        <item x="20"/>
+        <item m="1" x="66"/>
+        <item x="21"/>
+        <item m="1" x="49"/>
+        <item x="22"/>
+        <item m="1" x="61"/>
+        <item x="23"/>
+        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="56"/>
+        <item x="25"/>
         <item m="1" x="70"/>
-        <item x="4"/>
-        <item m="1" x="61"/>
-        <item x="5"/>
-        <item m="1" x="53"/>
-        <item x="6"/>
+        <item x="26"/>
+        <item m="1" x="52"/>
+        <item x="27"/>
         <item m="1" x="65"/>
-        <item x="7"/>
-        <item m="1" x="57"/>
-        <item x="8"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item m="1" x="72"/>
-        <item x="10"/>
-        <item m="1" x="64"/>
-        <item x="11"/>
-        <item m="1" x="56"/>
-        <item x="12"/>
+        <item x="28"/>
         <item m="1" x="48"/>
-        <item x="13"/>
-        <item m="1" x="71"/>
-        <item x="14"/>
-        <item m="1" x="62"/>
-        <item x="15"/>
-        <item m="1" x="54"/>
-        <item x="16"/>
-        <item m="1" x="46"/>
-        <item x="17"/>
-        <item m="1" x="69"/>
-        <item x="18"/>
+        <item x="29"/>
         <item m="1" x="60"/>
-        <item x="19"/>
-        <item m="1" x="52"/>
-        <item x="20"/>
-        <item m="1" x="45"/>
-        <item x="21"/>
-        <item m="1" x="68"/>
-        <item x="22"/>
-        <item m="1" x="59"/>
-        <item x="23"/>
-        <item m="1" x="51"/>
-        <item x="24"/>
-        <item m="1" x="44"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="58"/>
-        <item x="27"/>
-        <item m="1" x="50"/>
-        <item x="28"/>
-        <item m="1" x="43"/>
-        <item x="29"/>
-        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -47583,7 +48488,8 @@
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
-        <item h="1" x="42"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47633,7 +48539,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -47760,6 +48666,9 @@
     <i>
       <x v="71"/>
     </i>
+    <i>
+      <x v="72"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -47815,71 +48724,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="74">
+      <items count="75">
         <item x="0"/>
         <item m="1" x="63"/>
         <item x="1"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item m="1" x="58"/>
+        <item x="3"/>
+        <item m="1" x="72"/>
+        <item x="4"/>
+        <item m="1" x="54"/>
+        <item x="5"/>
+        <item m="1" x="67"/>
+        <item x="6"/>
+        <item m="1" x="69"/>
+        <item x="7"/>
+        <item m="1" x="51"/>
+        <item x="8"/>
+        <item m="1" x="64"/>
+        <item x="9"/>
+        <item m="1" x="47"/>
+        <item x="10"/>
+        <item m="1" x="59"/>
+        <item x="11"/>
+        <item m="1" x="73"/>
+        <item x="12"/>
         <item m="1" x="55"/>
-        <item x="2"/>
-        <item m="1" x="47"/>
-        <item x="3"/>
+        <item x="13"/>
+        <item m="1" x="68"/>
+        <item x="14"/>
+        <item m="1" x="50"/>
+        <item x="15"/>
+        <item m="1" x="62"/>
+        <item x="16"/>
+        <item m="1" x="45"/>
+        <item x="17"/>
+        <item m="1" x="57"/>
+        <item x="18"/>
+        <item m="1" x="71"/>
+        <item x="19"/>
+        <item m="1" x="53"/>
+        <item x="20"/>
+        <item m="1" x="66"/>
+        <item x="21"/>
+        <item m="1" x="49"/>
+        <item x="22"/>
+        <item m="1" x="61"/>
+        <item x="23"/>
+        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="56"/>
+        <item x="25"/>
         <item m="1" x="70"/>
-        <item x="4"/>
-        <item m="1" x="61"/>
-        <item x="5"/>
-        <item m="1" x="53"/>
-        <item x="6"/>
+        <item x="26"/>
+        <item m="1" x="52"/>
+        <item x="27"/>
         <item m="1" x="65"/>
-        <item x="7"/>
-        <item m="1" x="57"/>
-        <item x="8"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item m="1" x="72"/>
-        <item x="10"/>
-        <item m="1" x="64"/>
-        <item x="11"/>
-        <item m="1" x="56"/>
-        <item x="12"/>
+        <item x="28"/>
         <item m="1" x="48"/>
-        <item x="13"/>
-        <item m="1" x="71"/>
-        <item x="14"/>
-        <item m="1" x="62"/>
-        <item x="15"/>
-        <item m="1" x="54"/>
-        <item x="16"/>
-        <item m="1" x="46"/>
-        <item x="17"/>
-        <item m="1" x="69"/>
-        <item x="18"/>
+        <item x="29"/>
         <item m="1" x="60"/>
-        <item x="19"/>
-        <item m="1" x="52"/>
-        <item x="20"/>
-        <item m="1" x="45"/>
-        <item x="21"/>
-        <item m="1" x="68"/>
-        <item x="22"/>
-        <item m="1" x="59"/>
-        <item x="23"/>
-        <item m="1" x="51"/>
-        <item x="24"/>
-        <item m="1" x="44"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="58"/>
-        <item x="27"/>
-        <item m="1" x="50"/>
-        <item x="28"/>
-        <item m="1" x="43"/>
-        <item x="29"/>
-        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -47892,7 +48801,8 @@
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
-        <item h="1" x="42"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47942,7 +48852,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -48069,6 +48979,9 @@
     <i>
       <x v="71"/>
     </i>
+    <i>
+      <x v="72"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48133,71 +49046,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="74">
+      <items count="75">
         <item x="0"/>
         <item m="1" x="63"/>
         <item x="1"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item m="1" x="58"/>
+        <item x="3"/>
+        <item m="1" x="72"/>
+        <item x="4"/>
+        <item m="1" x="54"/>
+        <item x="5"/>
+        <item m="1" x="67"/>
+        <item x="6"/>
+        <item m="1" x="69"/>
+        <item x="7"/>
+        <item m="1" x="51"/>
+        <item x="8"/>
+        <item m="1" x="64"/>
+        <item x="9"/>
+        <item m="1" x="47"/>
+        <item x="10"/>
+        <item m="1" x="59"/>
+        <item x="11"/>
+        <item m="1" x="73"/>
+        <item x="12"/>
         <item m="1" x="55"/>
-        <item x="2"/>
-        <item m="1" x="47"/>
-        <item x="3"/>
+        <item x="13"/>
+        <item m="1" x="68"/>
+        <item x="14"/>
+        <item m="1" x="50"/>
+        <item x="15"/>
+        <item m="1" x="62"/>
+        <item x="16"/>
+        <item m="1" x="45"/>
+        <item x="17"/>
+        <item m="1" x="57"/>
+        <item x="18"/>
+        <item m="1" x="71"/>
+        <item x="19"/>
+        <item m="1" x="53"/>
+        <item x="20"/>
+        <item m="1" x="66"/>
+        <item x="21"/>
+        <item m="1" x="49"/>
+        <item x="22"/>
+        <item m="1" x="61"/>
+        <item x="23"/>
+        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="56"/>
+        <item x="25"/>
         <item m="1" x="70"/>
-        <item x="4"/>
-        <item m="1" x="61"/>
-        <item x="5"/>
-        <item m="1" x="53"/>
-        <item x="6"/>
+        <item x="26"/>
+        <item m="1" x="52"/>
+        <item x="27"/>
         <item m="1" x="65"/>
-        <item x="7"/>
-        <item m="1" x="57"/>
-        <item x="8"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item m="1" x="72"/>
-        <item x="10"/>
-        <item m="1" x="64"/>
-        <item x="11"/>
-        <item m="1" x="56"/>
-        <item x="12"/>
+        <item x="28"/>
         <item m="1" x="48"/>
-        <item x="13"/>
-        <item m="1" x="71"/>
-        <item x="14"/>
-        <item m="1" x="62"/>
-        <item x="15"/>
-        <item m="1" x="54"/>
-        <item x="16"/>
-        <item m="1" x="46"/>
-        <item x="17"/>
-        <item m="1" x="69"/>
-        <item x="18"/>
+        <item x="29"/>
         <item m="1" x="60"/>
-        <item x="19"/>
-        <item m="1" x="52"/>
-        <item x="20"/>
-        <item m="1" x="45"/>
-        <item x="21"/>
-        <item m="1" x="68"/>
-        <item x="22"/>
-        <item m="1" x="59"/>
-        <item x="23"/>
-        <item m="1" x="51"/>
-        <item x="24"/>
-        <item m="1" x="44"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="58"/>
-        <item x="27"/>
-        <item m="1" x="50"/>
-        <item x="28"/>
-        <item m="1" x="43"/>
-        <item x="29"/>
-        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -48210,7 +49123,8 @@
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
-        <item h="1" x="42"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48260,7 +49174,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -48387,6 +49301,9 @@
     <i>
       <x v="71"/>
     </i>
+    <i>
+      <x v="72"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48460,71 +49377,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="11" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B46" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="74">
+      <items count="75">
         <item x="0"/>
         <item m="1" x="63"/>
         <item x="1"/>
+        <item m="1" x="46"/>
+        <item x="2"/>
+        <item m="1" x="58"/>
+        <item x="3"/>
+        <item m="1" x="72"/>
+        <item x="4"/>
+        <item m="1" x="54"/>
+        <item x="5"/>
+        <item m="1" x="67"/>
+        <item x="6"/>
+        <item m="1" x="69"/>
+        <item x="7"/>
+        <item m="1" x="51"/>
+        <item x="8"/>
+        <item m="1" x="64"/>
+        <item x="9"/>
+        <item m="1" x="47"/>
+        <item x="10"/>
+        <item m="1" x="59"/>
+        <item x="11"/>
+        <item m="1" x="73"/>
+        <item x="12"/>
         <item m="1" x="55"/>
-        <item x="2"/>
-        <item m="1" x="47"/>
-        <item x="3"/>
+        <item x="13"/>
+        <item m="1" x="68"/>
+        <item x="14"/>
+        <item m="1" x="50"/>
+        <item x="15"/>
+        <item m="1" x="62"/>
+        <item x="16"/>
+        <item m="1" x="45"/>
+        <item x="17"/>
+        <item m="1" x="57"/>
+        <item x="18"/>
+        <item m="1" x="71"/>
+        <item x="19"/>
+        <item m="1" x="53"/>
+        <item x="20"/>
+        <item m="1" x="66"/>
+        <item x="21"/>
+        <item m="1" x="49"/>
+        <item x="22"/>
+        <item m="1" x="61"/>
+        <item x="23"/>
+        <item m="1" x="44"/>
+        <item x="24"/>
+        <item m="1" x="56"/>
+        <item x="25"/>
         <item m="1" x="70"/>
-        <item x="4"/>
-        <item m="1" x="61"/>
-        <item x="5"/>
-        <item m="1" x="53"/>
-        <item x="6"/>
+        <item x="26"/>
+        <item m="1" x="52"/>
+        <item x="27"/>
         <item m="1" x="65"/>
-        <item x="7"/>
-        <item m="1" x="57"/>
-        <item x="8"/>
-        <item m="1" x="49"/>
-        <item x="9"/>
-        <item m="1" x="72"/>
-        <item x="10"/>
-        <item m="1" x="64"/>
-        <item x="11"/>
-        <item m="1" x="56"/>
-        <item x="12"/>
+        <item x="28"/>
         <item m="1" x="48"/>
-        <item x="13"/>
-        <item m="1" x="71"/>
-        <item x="14"/>
-        <item m="1" x="62"/>
-        <item x="15"/>
-        <item m="1" x="54"/>
-        <item x="16"/>
-        <item m="1" x="46"/>
-        <item x="17"/>
-        <item m="1" x="69"/>
-        <item x="18"/>
+        <item x="29"/>
         <item m="1" x="60"/>
-        <item x="19"/>
-        <item m="1" x="52"/>
-        <item x="20"/>
-        <item m="1" x="45"/>
-        <item x="21"/>
-        <item m="1" x="68"/>
-        <item x="22"/>
-        <item m="1" x="59"/>
-        <item x="23"/>
-        <item m="1" x="51"/>
-        <item x="24"/>
-        <item m="1" x="44"/>
-        <item x="25"/>
-        <item m="1" x="67"/>
-        <item x="26"/>
-        <item m="1" x="58"/>
-        <item x="27"/>
-        <item m="1" x="50"/>
-        <item x="28"/>
-        <item m="1" x="43"/>
-        <item x="29"/>
-        <item m="1" x="66"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -48537,7 +49454,8 @@
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
-        <item h="1" x="42"/>
+        <item x="42"/>
+        <item h="1" x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48587,7 +49505,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="43">
+  <rowItems count="44">
     <i>
       <x/>
     </i>
@@ -48713,6 +49631,9 @@
     </i>
     <i>
       <x v="71"/>
+    </i>
+    <i>
+      <x v="72"/>
     </i>
     <i t="grand">
       <x/>
@@ -49092,10 +50013,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S883"/>
+  <dimension ref="A1:S904"/>
   <sheetViews>
-    <sheetView topLeftCell="A849" workbookViewId="0">
-      <selection activeCell="A863" sqref="A863:Q883"/>
+    <sheetView topLeftCell="A860" workbookViewId="0">
+      <selection activeCell="A884" sqref="A884:Q904"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -95908,6 +96829,1119 @@
         <v>7621</v>
       </c>
     </row>
+    <row r="884" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A884" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B884" t="s">
+        <v>14</v>
+      </c>
+      <c r="C884">
+        <v>13</v>
+      </c>
+      <c r="D884" t="s">
+        <v>15</v>
+      </c>
+      <c r="E884" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F884" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G884">
+        <v>-7</v>
+      </c>
+      <c r="H884">
+        <v>-1</v>
+      </c>
+      <c r="I884">
+        <v>-8</v>
+      </c>
+      <c r="J884">
+        <v>13</v>
+      </c>
+      <c r="K884">
+        <v>5</v>
+      </c>
+      <c r="L884">
+        <v>5</v>
+      </c>
+      <c r="M884">
+        <v>5</v>
+      </c>
+      <c r="N884">
+        <v>2</v>
+      </c>
+      <c r="O884">
+        <v>11</v>
+      </c>
+      <c r="P884">
+        <v>18</v>
+      </c>
+      <c r="Q884">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="885" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A885" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B885" t="s">
+        <v>14</v>
+      </c>
+      <c r="C885">
+        <v>17</v>
+      </c>
+      <c r="D885" t="s">
+        <v>16</v>
+      </c>
+      <c r="E885" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F885" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G885">
+        <v>0</v>
+      </c>
+      <c r="H885">
+        <v>0</v>
+      </c>
+      <c r="I885">
+        <v>0</v>
+      </c>
+      <c r="J885">
+        <v>8</v>
+      </c>
+      <c r="K885">
+        <v>8</v>
+      </c>
+      <c r="L885">
+        <v>8</v>
+      </c>
+      <c r="M885">
+        <v>8</v>
+      </c>
+      <c r="N885">
+        <v>1</v>
+      </c>
+      <c r="O885">
+        <v>0</v>
+      </c>
+      <c r="P885">
+        <v>9</v>
+      </c>
+      <c r="Q885">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="886" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A886" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B886" t="s">
+        <v>14</v>
+      </c>
+      <c r="C886">
+        <v>18</v>
+      </c>
+      <c r="D886" t="s">
+        <v>17</v>
+      </c>
+      <c r="E886" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F886" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G886">
+        <v>-4</v>
+      </c>
+      <c r="H886">
+        <v>1</v>
+      </c>
+      <c r="I886">
+        <v>-3</v>
+      </c>
+      <c r="J886">
+        <v>19</v>
+      </c>
+      <c r="K886">
+        <v>16</v>
+      </c>
+      <c r="L886">
+        <v>16</v>
+      </c>
+      <c r="M886">
+        <v>16</v>
+      </c>
+      <c r="N886">
+        <v>4</v>
+      </c>
+      <c r="O886">
+        <v>2</v>
+      </c>
+      <c r="P886">
+        <v>22</v>
+      </c>
+      <c r="Q886">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="887" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A887" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B887" t="s">
+        <v>14</v>
+      </c>
+      <c r="C887">
+        <v>15</v>
+      </c>
+      <c r="D887" t="s">
+        <v>18</v>
+      </c>
+      <c r="E887" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F887" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G887">
+        <v>1</v>
+      </c>
+      <c r="H887">
+        <v>-7</v>
+      </c>
+      <c r="I887">
+        <v>-6</v>
+      </c>
+      <c r="J887">
+        <v>83</v>
+      </c>
+      <c r="K887">
+        <v>77</v>
+      </c>
+      <c r="L887">
+        <v>77</v>
+      </c>
+      <c r="M887">
+        <v>77</v>
+      </c>
+      <c r="N887">
+        <v>6</v>
+      </c>
+      <c r="O887">
+        <v>15</v>
+      </c>
+      <c r="P887">
+        <v>98</v>
+      </c>
+      <c r="Q887">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="888" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A888" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B888" t="s">
+        <v>14</v>
+      </c>
+      <c r="C888">
+        <v>8</v>
+      </c>
+      <c r="D888" t="s">
+        <v>46</v>
+      </c>
+      <c r="E888" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F888" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G888">
+        <v>-35</v>
+      </c>
+      <c r="H888">
+        <v>-3</v>
+      </c>
+      <c r="I888">
+        <v>-38</v>
+      </c>
+      <c r="J888">
+        <v>252</v>
+      </c>
+      <c r="K888">
+        <v>214</v>
+      </c>
+      <c r="L888">
+        <v>214</v>
+      </c>
+      <c r="M888">
+        <v>214</v>
+      </c>
+      <c r="N888">
+        <v>196</v>
+      </c>
+      <c r="O888">
+        <v>57</v>
+      </c>
+      <c r="P888">
+        <v>467</v>
+      </c>
+      <c r="Q888">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="889" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A889" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B889" t="s">
+        <v>14</v>
+      </c>
+      <c r="C889">
+        <v>6</v>
+      </c>
+      <c r="D889" t="s">
+        <v>19</v>
+      </c>
+      <c r="E889" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F889" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G889">
+        <v>4</v>
+      </c>
+      <c r="H889">
+        <v>-4</v>
+      </c>
+      <c r="I889">
+        <v>0</v>
+      </c>
+      <c r="J889">
+        <v>33</v>
+      </c>
+      <c r="K889">
+        <v>33</v>
+      </c>
+      <c r="L889">
+        <v>33</v>
+      </c>
+      <c r="M889">
+        <v>33</v>
+      </c>
+      <c r="N889">
+        <v>18</v>
+      </c>
+      <c r="O889">
+        <v>4</v>
+      </c>
+      <c r="P889">
+        <v>55</v>
+      </c>
+      <c r="Q889">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="890" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A890" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B890" t="s">
+        <v>14</v>
+      </c>
+      <c r="C890">
+        <v>12</v>
+      </c>
+      <c r="D890" t="s">
+        <v>20</v>
+      </c>
+      <c r="E890" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F890" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G890">
+        <v>0</v>
+      </c>
+      <c r="H890">
+        <v>0</v>
+      </c>
+      <c r="I890">
+        <v>0</v>
+      </c>
+      <c r="J890">
+        <v>114</v>
+      </c>
+      <c r="K890">
+        <v>114</v>
+      </c>
+      <c r="L890">
+        <v>114</v>
+      </c>
+      <c r="M890">
+        <v>114</v>
+      </c>
+      <c r="N890">
+        <v>27</v>
+      </c>
+      <c r="O890">
+        <v>10</v>
+      </c>
+      <c r="P890">
+        <v>151</v>
+      </c>
+      <c r="Q890">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="891" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A891" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B891" t="s">
+        <v>14</v>
+      </c>
+      <c r="C891">
+        <v>7</v>
+      </c>
+      <c r="D891" t="s">
+        <v>21</v>
+      </c>
+      <c r="E891" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F891" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G891">
+        <v>15</v>
+      </c>
+      <c r="H891">
+        <v>-3</v>
+      </c>
+      <c r="I891">
+        <v>12</v>
+      </c>
+      <c r="J891">
+        <v>12</v>
+      </c>
+      <c r="K891">
+        <v>24</v>
+      </c>
+      <c r="L891">
+        <v>24</v>
+      </c>
+      <c r="M891">
+        <v>24</v>
+      </c>
+      <c r="N891">
+        <v>37</v>
+      </c>
+      <c r="O891">
+        <v>39</v>
+      </c>
+      <c r="P891">
+        <v>100</v>
+      </c>
+      <c r="Q891">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="892" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A892" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B892" t="s">
+        <v>14</v>
+      </c>
+      <c r="C892">
+        <v>3</v>
+      </c>
+      <c r="D892" t="s">
+        <v>22</v>
+      </c>
+      <c r="E892" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F892" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G892">
+        <v>-95</v>
+      </c>
+      <c r="H892">
+        <v>26</v>
+      </c>
+      <c r="I892">
+        <v>-69</v>
+      </c>
+      <c r="J892">
+        <v>414</v>
+      </c>
+      <c r="K892">
+        <v>345</v>
+      </c>
+      <c r="L892">
+        <v>345</v>
+      </c>
+      <c r="M892">
+        <v>345</v>
+      </c>
+      <c r="N892">
+        <v>437</v>
+      </c>
+      <c r="O892">
+        <v>297</v>
+      </c>
+      <c r="P892">
+        <v>1079</v>
+      </c>
+      <c r="Q892">
+        <v>5005</v>
+      </c>
+    </row>
+    <row r="893" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A893" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B893" t="s">
+        <v>14</v>
+      </c>
+      <c r="C893">
+        <v>11</v>
+      </c>
+      <c r="D893" t="s">
+        <v>23</v>
+      </c>
+      <c r="E893" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F893" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G893">
+        <v>14</v>
+      </c>
+      <c r="H893">
+        <v>-11</v>
+      </c>
+      <c r="I893">
+        <v>3</v>
+      </c>
+      <c r="J893">
+        <v>125</v>
+      </c>
+      <c r="K893">
+        <v>128</v>
+      </c>
+      <c r="L893">
+        <v>128</v>
+      </c>
+      <c r="M893">
+        <v>128</v>
+      </c>
+      <c r="N893">
+        <v>9</v>
+      </c>
+      <c r="O893">
+        <v>13</v>
+      </c>
+      <c r="P893">
+        <v>150</v>
+      </c>
+      <c r="Q893">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="894" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A894" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B894" t="s">
+        <v>14</v>
+      </c>
+      <c r="C894">
+        <v>14</v>
+      </c>
+      <c r="D894" t="s">
+        <v>24</v>
+      </c>
+      <c r="E894" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F894" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G894">
+        <v>1</v>
+      </c>
+      <c r="H894">
+        <v>-1</v>
+      </c>
+      <c r="I894">
+        <v>0</v>
+      </c>
+      <c r="J894">
+        <v>0</v>
+      </c>
+      <c r="K894">
+        <v>0</v>
+      </c>
+      <c r="L894">
+        <v>0</v>
+      </c>
+      <c r="M894">
+        <v>0</v>
+      </c>
+      <c r="N894">
+        <v>0</v>
+      </c>
+      <c r="O894">
+        <v>0</v>
+      </c>
+      <c r="P894">
+        <v>0</v>
+      </c>
+      <c r="Q894">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="895" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A895" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B895" t="s">
+        <v>14</v>
+      </c>
+      <c r="C895">
+        <v>4</v>
+      </c>
+      <c r="D895" t="s">
+        <v>25</v>
+      </c>
+      <c r="E895" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F895" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G895">
+        <v>6</v>
+      </c>
+      <c r="H895">
+        <v>-1</v>
+      </c>
+      <c r="I895">
+        <v>5</v>
+      </c>
+      <c r="J895">
+        <v>29</v>
+      </c>
+      <c r="K895">
+        <v>34</v>
+      </c>
+      <c r="L895">
+        <v>34</v>
+      </c>
+      <c r="M895">
+        <v>34</v>
+      </c>
+      <c r="N895">
+        <v>38</v>
+      </c>
+      <c r="O895">
+        <v>6</v>
+      </c>
+      <c r="P895">
+        <v>78</v>
+      </c>
+      <c r="Q895">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="896" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A896" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B896" t="s">
+        <v>14</v>
+      </c>
+      <c r="C896">
+        <v>4</v>
+      </c>
+      <c r="D896" t="s">
+        <v>26</v>
+      </c>
+      <c r="E896" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F896" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G896">
+        <v>2</v>
+      </c>
+      <c r="H896">
+        <v>-1</v>
+      </c>
+      <c r="I896">
+        <v>1</v>
+      </c>
+      <c r="J896">
+        <v>42</v>
+      </c>
+      <c r="K896">
+        <v>43</v>
+      </c>
+      <c r="L896">
+        <v>43</v>
+      </c>
+      <c r="M896">
+        <v>43</v>
+      </c>
+      <c r="N896">
+        <v>7</v>
+      </c>
+      <c r="O896">
+        <v>13</v>
+      </c>
+      <c r="P896">
+        <v>63</v>
+      </c>
+      <c r="Q896">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="897" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A897" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B897" t="s">
+        <v>14</v>
+      </c>
+      <c r="C897">
+        <v>1</v>
+      </c>
+      <c r="D897" t="s">
+        <v>27</v>
+      </c>
+      <c r="E897" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F897" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G897">
+        <v>12</v>
+      </c>
+      <c r="H897">
+        <v>-6</v>
+      </c>
+      <c r="I897">
+        <v>6</v>
+      </c>
+      <c r="J897">
+        <v>362</v>
+      </c>
+      <c r="K897">
+        <v>368</v>
+      </c>
+      <c r="L897">
+        <v>368</v>
+      </c>
+      <c r="M897">
+        <v>368</v>
+      </c>
+      <c r="N897">
+        <v>111</v>
+      </c>
+      <c r="O897">
+        <v>83</v>
+      </c>
+      <c r="P897">
+        <v>562</v>
+      </c>
+      <c r="Q897">
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="898" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A898" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B898" t="s">
+        <v>14</v>
+      </c>
+      <c r="C898">
+        <v>16</v>
+      </c>
+      <c r="D898" t="s">
+        <v>28</v>
+      </c>
+      <c r="E898" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F898" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G898">
+        <v>51</v>
+      </c>
+      <c r="H898">
+        <v>-62</v>
+      </c>
+      <c r="I898">
+        <v>-11</v>
+      </c>
+      <c r="J898">
+        <v>104</v>
+      </c>
+      <c r="K898">
+        <v>93</v>
+      </c>
+      <c r="L898">
+        <v>93</v>
+      </c>
+      <c r="M898">
+        <v>93</v>
+      </c>
+      <c r="N898">
+        <v>21</v>
+      </c>
+      <c r="O898">
+        <v>13</v>
+      </c>
+      <c r="P898">
+        <v>127</v>
+      </c>
+      <c r="Q898">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="899" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A899" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B899" t="s">
+        <v>14</v>
+      </c>
+      <c r="C899">
+        <v>20</v>
+      </c>
+      <c r="D899" t="s">
+        <v>29</v>
+      </c>
+      <c r="E899" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F899" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G899">
+        <v>-3</v>
+      </c>
+      <c r="H899">
+        <v>1</v>
+      </c>
+      <c r="I899">
+        <v>-2</v>
+      </c>
+      <c r="J899">
+        <v>6</v>
+      </c>
+      <c r="K899">
+        <v>4</v>
+      </c>
+      <c r="L899">
+        <v>4</v>
+      </c>
+      <c r="M899">
+        <v>4</v>
+      </c>
+      <c r="N899">
+        <v>7</v>
+      </c>
+      <c r="O899">
+        <v>4</v>
+      </c>
+      <c r="P899">
+        <v>15</v>
+      </c>
+      <c r="Q899">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="900" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A900" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B900" t="s">
+        <v>14</v>
+      </c>
+      <c r="C900">
+        <v>19</v>
+      </c>
+      <c r="D900" t="s">
+        <v>30</v>
+      </c>
+      <c r="E900" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F900" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G900">
+        <v>7</v>
+      </c>
+      <c r="H900">
+        <v>-2</v>
+      </c>
+      <c r="I900">
+        <v>5</v>
+      </c>
+      <c r="J900">
+        <v>36</v>
+      </c>
+      <c r="K900">
+        <v>41</v>
+      </c>
+      <c r="L900">
+        <v>41</v>
+      </c>
+      <c r="M900">
+        <v>41</v>
+      </c>
+      <c r="N900">
+        <v>4</v>
+      </c>
+      <c r="O900">
+        <v>7</v>
+      </c>
+      <c r="P900">
+        <v>52</v>
+      </c>
+      <c r="Q900">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="901" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A901" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B901" t="s">
+        <v>14</v>
+      </c>
+      <c r="C901">
+        <v>9</v>
+      </c>
+      <c r="D901" t="s">
+        <v>31</v>
+      </c>
+      <c r="E901" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F901" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G901">
+        <v>5</v>
+      </c>
+      <c r="H901">
+        <v>3</v>
+      </c>
+      <c r="I901">
+        <v>8</v>
+      </c>
+      <c r="J901">
+        <v>108</v>
+      </c>
+      <c r="K901">
+        <v>116</v>
+      </c>
+      <c r="L901">
+        <v>116</v>
+      </c>
+      <c r="M901">
+        <v>116</v>
+      </c>
+      <c r="N901">
+        <v>13</v>
+      </c>
+      <c r="O901">
+        <v>25</v>
+      </c>
+      <c r="P901">
+        <v>154</v>
+      </c>
+      <c r="Q901">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="902" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A902" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B902" t="s">
+        <v>14</v>
+      </c>
+      <c r="C902">
+        <v>10</v>
+      </c>
+      <c r="D902" t="s">
+        <v>32</v>
+      </c>
+      <c r="E902" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F902" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G902">
+        <v>0</v>
+      </c>
+      <c r="H902">
+        <v>1</v>
+      </c>
+      <c r="I902">
+        <v>1</v>
+      </c>
+      <c r="J902">
+        <v>-27</v>
+      </c>
+      <c r="K902">
+        <v>-26</v>
+      </c>
+      <c r="L902">
+        <v>-26</v>
+      </c>
+      <c r="M902">
+        <v>-26</v>
+      </c>
+      <c r="N902">
+        <v>39</v>
+      </c>
+      <c r="O902">
+        <v>1</v>
+      </c>
+      <c r="P902">
+        <v>14</v>
+      </c>
+      <c r="Q902">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="903" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A903" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B903" t="s">
+        <v>14</v>
+      </c>
+      <c r="C903">
+        <v>2</v>
+      </c>
+      <c r="D903" t="s">
+        <v>33</v>
+      </c>
+      <c r="E903" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F903" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G903">
+        <v>13</v>
+      </c>
+      <c r="H903">
+        <v>-2</v>
+      </c>
+      <c r="I903">
+        <v>11</v>
+      </c>
+      <c r="J903">
+        <v>-20</v>
+      </c>
+      <c r="K903">
+        <v>-9</v>
+      </c>
+      <c r="L903">
+        <v>-9</v>
+      </c>
+      <c r="M903">
+        <v>-9</v>
+      </c>
+      <c r="N903">
+        <v>27</v>
+      </c>
+      <c r="O903">
+        <v>5</v>
+      </c>
+      <c r="P903">
+        <v>23</v>
+      </c>
+      <c r="Q903">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="904" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A904" s="6">
+        <v>43927</v>
+      </c>
+      <c r="B904" t="s">
+        <v>14</v>
+      </c>
+      <c r="C904">
+        <v>5</v>
+      </c>
+      <c r="D904" t="s">
+        <v>34</v>
+      </c>
+      <c r="E904" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F904" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G904">
+        <v>40</v>
+      </c>
+      <c r="H904">
+        <v>-7</v>
+      </c>
+      <c r="I904">
+        <v>33</v>
+      </c>
+      <c r="J904">
+        <v>280</v>
+      </c>
+      <c r="K904">
+        <v>313</v>
+      </c>
+      <c r="L904">
+        <v>313</v>
+      </c>
+      <c r="M904">
+        <v>313</v>
+      </c>
+      <c r="N904">
+        <v>18</v>
+      </c>
+      <c r="O904">
+        <v>31</v>
+      </c>
+      <c r="P904">
+        <v>362</v>
+      </c>
+      <c r="Q904">
+        <v>5378</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{FBAB6D88-DCD4-E841-8499-D0DE040246DB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -95916,10 +97950,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G47"/>
+  <dimension ref="A3:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView topLeftCell="A51" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G87" sqref="G87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -96091,7 +98125,7 @@
         <v>94</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G46" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G47" si="0">SUM(B5:F5)</f>
         <v>229</v>
       </c>
     </row>
@@ -97079,28 +99113,52 @@
         <v>4316</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A47" s="3" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="7">
+        <v>43927</v>
+      </c>
+      <c r="B47" s="4">
+        <v>636</v>
+      </c>
+      <c r="C47" s="4">
+        <v>1022</v>
+      </c>
+      <c r="D47" s="4">
+        <v>27</v>
+      </c>
+      <c r="E47" s="4">
+        <v>-79</v>
+      </c>
+      <c r="F47" s="4">
+        <v>1993</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="26" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4">
-        <v>15887</v>
-      </c>
-      <c r="C47" s="4">
-        <v>21815</v>
-      </c>
-      <c r="D47" s="4">
-        <v>28949</v>
-      </c>
-      <c r="E47" s="4">
-        <v>3977</v>
-      </c>
-      <c r="F47" s="4">
-        <v>58320</v>
-      </c>
-      <c r="G47" s="8">
-        <f>SUM(B47:F47)</f>
-        <v>128948</v>
+      <c r="B48" s="4">
+        <v>16523</v>
+      </c>
+      <c r="C48" s="4">
+        <v>22837</v>
+      </c>
+      <c r="D48" s="4">
+        <v>28976</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3898</v>
+      </c>
+      <c r="F48" s="4">
+        <v>60313</v>
+      </c>
+      <c r="G48" s="8">
+        <f>SUM(B48:F48)</f>
+        <v>132547</v>
       </c>
     </row>
   </sheetData>
@@ -97111,10 +99169,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1084B9-5FA0-CB4F-AF55-AA19481B2D01}">
-  <dimension ref="B3:C46"/>
+  <dimension ref="B3:C47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -97468,11 +99526,19 @@
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="7">
+        <v>43927</v>
+      </c>
+      <c r="C46" s="4">
+        <v>30271</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="4">
-        <v>691461</v>
+      <c r="C47" s="4">
+        <v>721732</v>
       </c>
     </row>
   </sheetData>
@@ -97483,10 +99549,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q41" sqref="Q41"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -97932,6 +99998,16 @@
       <c r="B45">
         <f>All!G46</f>
         <v>4316</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="6">
+        <f>All!A47</f>
+        <v>43927</v>
+      </c>
+      <c r="B46">
+        <f>All!G47</f>
+        <v>3599</v>
       </c>
     </row>
   </sheetData>
@@ -97942,10 +100018,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -98312,11 +100388,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B46" s="4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="4">
-        <v>28949</v>
+      <c r="B47" s="4">
+        <v>28976</v>
       </c>
     </row>
   </sheetData>
@@ -98327,10 +100411,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:A48"/>
+      <selection activeCell="A11" sqref="A7:A49"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -98716,11 +100800,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="4">
-        <v>21815</v>
+      <c r="B50" s="4">
+        <v>22837</v>
       </c>
     </row>
   </sheetData>
@@ -98731,10 +100823,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B47"/>
+  <dimension ref="A2:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A5:A46"/>
+      <selection activeCell="A10" sqref="A5:A47"/>
       <pivotSelection pane="bottomRight" showHeader="1" activeRow="9" click="1" r:id="rId1">
         <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
           <references count="1">
@@ -99108,11 +101200,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4">
-        <v>3977</v>
+      <c r="B48" s="4">
+        <v>3898</v>
       </c>
     </row>
   </sheetData>
@@ -99123,7 +101223,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -99497,11 +101597,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B47" s="4">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4">
-        <v>58320</v>
+      <c r="B48" s="4">
+        <v>60313</v>
       </c>
     </row>
   </sheetData>
@@ -99512,10 +101620,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -99882,11 +101990,19 @@
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B46" s="4">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="4">
-        <v>15887</v>
+      <c r="B47" s="4">
+        <v>16523</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D9AF70-83E5-6C40-BA47-858BAC0CDA9B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E3F2B-7E9F-6944-8AB2-AC2B423DC757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,8 +28,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="9" r:id="rId10"/>
-    <pivotCache cacheId="21" r:id="rId11"/>
+    <pivotCache cacheId="7" r:id="rId10"/>
+    <pivotCache cacheId="27" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1864" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -210,7 +210,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -341,13 +341,6 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -694,7 +687,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -709,7 +702,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -897,9 +889,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$48</c:f>
+              <c:f>All!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1031,16 +1023,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$48</c:f>
+              <c:f>All!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1169,6 +1164,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1208,9 +1206,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$48</c:f>
+              <c:f>All!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1342,16 +1340,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$48</c:f>
+              <c:f>All!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1480,6 +1481,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,9 +1523,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$48</c:f>
+              <c:f>All!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1653,16 +1657,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$48</c:f>
+              <c:f>All!$D$4:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1791,6 +1798,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1830,9 +1840,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$48</c:f>
+              <c:f>All!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1964,16 +1974,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$48</c:f>
+              <c:f>All!$E$4:$E$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2102,6 +2115,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2141,9 +2157,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$48</c:f>
+              <c:f>All!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2275,16 +2291,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$48</c:f>
+              <c:f>All!$F$4:$F$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="1">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2413,6 +2432,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2801,9 +2823,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Tamponi!$B$4:$B$47</c:f>
+              <c:f>Tamponi!$B$4:$B$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2932,16 +2954,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>06/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>07/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tamponi!$C$4:$C$47</c:f>
+              <c:f>Tamponi!$C$4:$C$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -3070,6 +3095,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>30271</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33713</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3414,151 +3442,152 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:f>'Totale dei Casi'!$A$3:$A$46</c:f>
-              <c:strCache>
+            <c:numRef>
+              <c:f>'Totale dei Casi'!$A$4:$A$47</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="44"/>
                 <c:pt idx="0">
-                  <c:v>(blank)</c:v>
+                  <c:v>43885</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24/02/2020</c:v>
+                  <c:v>43886</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25/02/2020</c:v>
+                  <c:v>43887</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26/02/2020</c:v>
+                  <c:v>43888</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27/02/2020</c:v>
+                  <c:v>43889</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28/02/2020</c:v>
+                  <c:v>43890</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29/02/2020</c:v>
+                  <c:v>43891</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>01/03/2020</c:v>
+                  <c:v>43892</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>02/03/2020</c:v>
+                  <c:v>43893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>03/03/2020</c:v>
+                  <c:v>43894</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>04/03/2020</c:v>
+                  <c:v>43895</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>05/03/2020</c:v>
+                  <c:v>43896</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>06/03/2020</c:v>
+                  <c:v>43897</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>07/03/2020</c:v>
+                  <c:v>43898</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>08/03/2020</c:v>
+                  <c:v>43899</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>09/03/2020</c:v>
+                  <c:v>43900</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10/03/2020</c:v>
+                  <c:v>43901</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>11/03/2020</c:v>
+                  <c:v>43902</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12/03/2020</c:v>
+                  <c:v>43903</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13/03/2020</c:v>
+                  <c:v>43904</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>14/03/2020</c:v>
+                  <c:v>43905</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>15/03/2020</c:v>
+                  <c:v>43906</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>16/03/2020</c:v>
+                  <c:v>43907</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>17/03/2020</c:v>
+                  <c:v>43908</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>18/03/2020</c:v>
+                  <c:v>43909</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>19/03/2020</c:v>
+                  <c:v>43910</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20/03/2020</c:v>
+                  <c:v>43911</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21/03/2020</c:v>
+                  <c:v>43912</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>22/03/2020</c:v>
+                  <c:v>43913</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>23/03/2020</c:v>
+                  <c:v>43914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>24/03/2020</c:v>
+                  <c:v>43915</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>25/03/2020</c:v>
+                  <c:v>43916</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>26/03/2020</c:v>
+                  <c:v>43917</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>27/03/2020</c:v>
+                  <c:v>43918</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>28/03/2020</c:v>
+                  <c:v>43919</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29/03/2020</c:v>
+                  <c:v>43920</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>30/03/2020</c:v>
+                  <c:v>43921</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31/03/2020</c:v>
+                  <c:v>43922</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>01/04/2020</c:v>
+                  <c:v>43923</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>02/04/2020</c:v>
+                  <c:v>43924</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>03/04/2020</c:v>
+                  <c:v>43925</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>04/04/2020</c:v>
+                  <c:v>43926</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>05/04/2020</c:v>
+                  <c:v>43927</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>06/04/2020</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                  <c:v>43928</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$46</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$47</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3690,6 +3719,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>3599</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3714,14 +3746,14 @@
         <c:axId val="2094401167"/>
         <c:axId val="0"/>
       </c:bar3DChart>
-      <c:catAx>
+      <c:dateAx>
         <c:axId val="2095032991"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3761,10 +3793,9 @@
         <c:crossAx val="2094401167"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
         <c:axId val="2094401167"/>
         <c:scaling>
@@ -4096,9 +4127,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$47</c:f>
+              <c:f>Ricoverati!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4227,16 +4258,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>06/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>07/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$47</c:f>
+              <c:f>Ricoverati!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -4365,6 +4399,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-258</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4770,9 +4807,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$50</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$51</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4901,16 +4938,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>06/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>07/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$50</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5039,6 +5079,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1022</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5428,9 +5471,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$48</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -5559,16 +5602,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>06/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>07/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$48</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -5697,6 +5743,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>-79</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-106</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6101,9 +6150,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$48</c:f>
+              <c:f>Isolamento!$A$5:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6232,16 +6281,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>06/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>07/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$48</c:f>
+              <c:f>Isolamento!$B$5:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -6370,6 +6422,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1244</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6774,9 +6829,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$47</c:f>
+              <c:f>Deceduti!$A$4:$A$48</c:f>
               <c:strCache>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6905,16 +6960,19 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>06/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>07/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$47</c:f>
+              <c:f>Deceduti!$B$4:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="44"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -7043,6 +7101,9 @@
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>636</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>604</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12026,13 +12087,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43927.756003009257" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="904" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43928.762596990739" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="925" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-07T00:00:00" count="44">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-08T00:00:00" count="45">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12076,6 +12137,7 @@
         <d v="2020-04-04T00:00:00"/>
         <d v="2020-04-05T00:00:00"/>
         <d v="2020-04-06T00:00:00"/>
+        <d v="2020-04-07T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -12143,13 +12205,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43927.757030439818" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="904" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43928.76411851852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="925" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-07T00:00:00" count="74">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-08T00:00:00" count="75">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12193,6 +12255,7 @@
         <d v="2020-04-04T00:00:00"/>
         <d v="2020-04-05T00:00:00"/>
         <d v="2020-04-06T00:00:00"/>
+        <d v="2020-04-07T00:00:00"/>
         <m/>
         <d v="2020-03-18T17:00:00" u="1"/>
         <d v="2020-03-11T17:00:00" u="1"/>
@@ -12305,7 +12368,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="904">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="925">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -31271,6 +31334,447 @@
   </r>
   <r>
     <x v="43"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-3"/>
+    <n v="1"/>
+    <n v="-2"/>
+    <n v="68"/>
+    <n v="66"/>
+    <n v="66"/>
+    <n v="66"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="78"/>
+    <n v="706"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="1"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="99"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="12"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="16"/>
+    <n v="439"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="-7"/>
+    <n v="2"/>
+    <n v="-5"/>
+    <n v="72"/>
+    <n v="67"/>
+    <n v="67"/>
+    <n v="67"/>
+    <n v="11"/>
+    <n v="12"/>
+    <n v="90"/>
+    <n v="1253"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-54"/>
+    <n v="-6"/>
+    <n v="-60"/>
+    <n v="57"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="200"/>
+    <n v="72"/>
+    <n v="269"/>
+    <n v="3028"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="-6"/>
+    <n v="-11"/>
+    <n v="-17"/>
+    <n v="-17"/>
+    <n v="-17"/>
+    <n v="61"/>
+    <n v="6"/>
+    <n v="50"/>
+    <n v="1264"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="-6"/>
+    <n v="-5"/>
+    <n v="-11"/>
+    <n v="76"/>
+    <n v="65"/>
+    <n v="65"/>
+    <n v="65"/>
+    <n v="44"/>
+    <n v="9"/>
+    <n v="118"/>
+    <n v="1404"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="-51"/>
+    <n v="-6"/>
+    <n v="-57"/>
+    <n v="152"/>
+    <n v="95"/>
+    <n v="95"/>
+    <n v="95"/>
+    <n v="88"/>
+    <n v="25"/>
+    <n v="208"/>
+    <n v="1046"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="-81"/>
+    <n v="-38"/>
+    <n v="-119"/>
+    <n v="-7"/>
+    <n v="-126"/>
+    <n v="-126"/>
+    <n v="-126"/>
+    <n v="635"/>
+    <n v="282"/>
+    <n v="791"/>
+    <n v="4342"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-39"/>
+    <n v="-1"/>
+    <n v="-40"/>
+    <n v="72"/>
+    <n v="32"/>
+    <n v="32"/>
+    <n v="32"/>
+    <n v="46"/>
+    <n v="18"/>
+    <n v="96"/>
+    <n v="700"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="-3"/>
+    <n v="-2"/>
+    <n v="-2"/>
+    <n v="-2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="35"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="80"/>
+    <n v="12"/>
+    <n v="92"/>
+    <n v="-51"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="38"/>
+    <n v="10"/>
+    <n v="89"/>
+    <n v="936"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="47"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="62"/>
+    <n v="14"/>
+    <n v="128"/>
+    <n v="900"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="69"/>
+    <n v="-6"/>
+    <n v="63"/>
+    <n v="96"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="192"/>
+    <n v="68"/>
+    <n v="419"/>
+    <n v="2998"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-10"/>
+    <n v="-4"/>
+    <n v="-14"/>
+    <n v="36"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="34"/>
+    <n v="14"/>
+    <n v="70"/>
+    <n v="1090"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="13"/>
+    <n v="159"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="-2"/>
+    <n v="46"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="51"/>
+    <n v="1393"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-29"/>
+    <n v="-16"/>
+    <n v="-45"/>
+    <n v="171"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="27"/>
+    <n v="19"/>
+    <n v="172"/>
+    <n v="3802"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-2"/>
+    <n v="-5"/>
+    <n v="-7"/>
+    <n v="-19"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="10"/>
+    <n v="701"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="9"/>
+    <n v="-4"/>
+    <n v="5"/>
+    <n v="21"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="30"/>
+    <n v="164"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-135"/>
+    <n v="-25"/>
+    <n v="-160"/>
+    <n v="403"/>
+    <n v="243"/>
+    <n v="243"/>
+    <n v="243"/>
+    <n v="61"/>
+    <n v="33"/>
+    <n v="337"/>
+    <n v="7254"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
     <m/>
     <m/>
     <m/>
@@ -31294,7 +31798,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="904">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="925">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -47551,6 +48055,384 @@
   </r>
   <r>
     <x v="43"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-3"/>
+    <n v="1"/>
+    <n v="-2"/>
+    <n v="68"/>
+    <n v="66"/>
+    <n v="66"/>
+    <n v="66"/>
+    <n v="9"/>
+    <n v="3"/>
+    <n v="78"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="1"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="3"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="12"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="11"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="16"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="-7"/>
+    <n v="2"/>
+    <n v="-5"/>
+    <n v="72"/>
+    <n v="67"/>
+    <n v="67"/>
+    <n v="67"/>
+    <n v="11"/>
+    <n v="12"/>
+    <n v="90"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="-54"/>
+    <n v="-6"/>
+    <n v="-60"/>
+    <n v="57"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="-3"/>
+    <n v="200"/>
+    <n v="72"/>
+    <n v="269"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-4"/>
+    <n v="-2"/>
+    <n v="-6"/>
+    <n v="-11"/>
+    <n v="-17"/>
+    <n v="-17"/>
+    <n v="-17"/>
+    <n v="61"/>
+    <n v="6"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="-6"/>
+    <n v="-5"/>
+    <n v="-11"/>
+    <n v="76"/>
+    <n v="65"/>
+    <n v="65"/>
+    <n v="65"/>
+    <n v="44"/>
+    <n v="9"/>
+    <n v="118"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="-51"/>
+    <n v="-6"/>
+    <n v="-57"/>
+    <n v="152"/>
+    <n v="95"/>
+    <n v="95"/>
+    <n v="95"/>
+    <n v="88"/>
+    <n v="25"/>
+    <n v="208"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="-81"/>
+    <n v="-38"/>
+    <n v="-119"/>
+    <n v="-7"/>
+    <n v="-126"/>
+    <n v="-126"/>
+    <n v="-126"/>
+    <n v="635"/>
+    <n v="282"/>
+    <n v="791"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="-39"/>
+    <n v="-1"/>
+    <n v="-40"/>
+    <n v="72"/>
+    <n v="32"/>
+    <n v="32"/>
+    <n v="32"/>
+    <n v="46"/>
+    <n v="18"/>
+    <n v="96"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="-3"/>
+    <n v="-2"/>
+    <n v="-2"/>
+    <n v="-2"/>
+    <n v="2"/>
+    <n v="0"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="80"/>
+    <n v="12"/>
+    <n v="92"/>
+    <n v="-51"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="41"/>
+    <n v="38"/>
+    <n v="10"/>
+    <n v="89"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="6"/>
+    <n v="-1"/>
+    <n v="5"/>
+    <n v="47"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="52"/>
+    <n v="62"/>
+    <n v="14"/>
+    <n v="128"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="69"/>
+    <n v="-6"/>
+    <n v="63"/>
+    <n v="96"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="159"/>
+    <n v="192"/>
+    <n v="68"/>
+    <n v="419"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="-10"/>
+    <n v="-4"/>
+    <n v="-14"/>
+    <n v="36"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="34"/>
+    <n v="14"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="-1"/>
+    <n v="0"/>
+    <n v="-1"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="2"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="-1"/>
+    <n v="-1"/>
+    <n v="-2"/>
+    <n v="46"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="44"/>
+    <n v="5"/>
+    <n v="2"/>
+    <n v="51"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-29"/>
+    <n v="-16"/>
+    <n v="-45"/>
+    <n v="171"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="126"/>
+    <n v="27"/>
+    <n v="19"/>
+    <n v="172"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-2"/>
+    <n v="-5"/>
+    <n v="-7"/>
+    <n v="-19"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="-26"/>
+    <n v="31"/>
+    <n v="5"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="9"/>
+    <n v="-4"/>
+    <n v="5"/>
+    <n v="21"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="26"/>
+    <n v="0"/>
+    <n v="4"/>
+    <n v="30"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-135"/>
+    <n v="-25"/>
+    <n v="-160"/>
+    <n v="403"/>
+    <n v="243"/>
+    <n v="243"/>
+    <n v="243"/>
+    <n v="61"/>
+    <n v="33"/>
+    <n v="337"/>
+  </r>
+  <r>
+    <x v="44"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -47571,12 +48453,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F48" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="A3:F49" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="45">
-        <item x="43"/>
+      <items count="46">
+        <item x="44"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -47620,6 +48502,7 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47645,7 +48528,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -47778,6 +48661,9 @@
     <i>
       <x v="43"/>
     </i>
+    <i>
+      <x v="44"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -47869,11 +48755,11 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:C47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="45">
+      <items count="46">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -47913,11 +48799,12 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="43"/>
+        <item h="1" x="44"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
+        <item x="43"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -47943,7 +48830,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -48073,6 +48960,9 @@
     <i>
       <x v="43"/>
     </i>
+    <i>
+      <x v="44"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48107,71 +48997,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="75">
+      <items count="76">
         <item x="0"/>
+        <item m="1" x="64"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item x="2"/>
+        <item m="1" x="59"/>
+        <item x="3"/>
+        <item m="1" x="73"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item x="5"/>
+        <item m="1" x="68"/>
+        <item x="6"/>
+        <item m="1" x="70"/>
+        <item x="7"/>
+        <item m="1" x="52"/>
+        <item x="8"/>
+        <item m="1" x="65"/>
+        <item x="9"/>
+        <item m="1" x="48"/>
+        <item x="10"/>
+        <item m="1" x="60"/>
+        <item x="11"/>
+        <item m="1" x="74"/>
+        <item x="12"/>
+        <item m="1" x="56"/>
+        <item x="13"/>
+        <item m="1" x="69"/>
+        <item x="14"/>
+        <item m="1" x="51"/>
+        <item x="15"/>
         <item m="1" x="63"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="46"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="58"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="72"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="54"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="67"/>
-        <item x="6"/>
-        <item m="1" x="69"/>
-        <item x="7"/>
-        <item m="1" x="51"/>
-        <item x="8"/>
-        <item m="1" x="64"/>
-        <item x="9"/>
-        <item m="1" x="47"/>
-        <item x="10"/>
-        <item m="1" x="59"/>
-        <item x="11"/>
-        <item m="1" x="73"/>
-        <item x="12"/>
-        <item m="1" x="55"/>
-        <item x="13"/>
-        <item m="1" x="68"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="50"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="62"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="45"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="57"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="71"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="53"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="66"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="49"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="61"/>
-        <item x="23"/>
-        <item m="1" x="44"/>
-        <item x="24"/>
-        <item m="1" x="56"/>
-        <item x="25"/>
-        <item m="1" x="70"/>
-        <item x="26"/>
-        <item m="1" x="52"/>
-        <item x="27"/>
-        <item m="1" x="65"/>
-        <item x="28"/>
-        <item m="1" x="48"/>
-        <item x="29"/>
-        <item m="1" x="60"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -48185,7 +49075,8 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item h="1" x="43"/>
+        <item x="43"/>
+        <item h="1" x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48235,7 +49126,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -48365,6 +49256,9 @@
     <i>
       <x v="72"/>
     </i>
+    <i>
+      <x v="73"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48411,71 +49305,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="75">
+      <items count="76">
         <item x="0"/>
+        <item m="1" x="64"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item x="2"/>
+        <item m="1" x="59"/>
+        <item x="3"/>
+        <item m="1" x="73"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item x="5"/>
+        <item m="1" x="68"/>
+        <item x="6"/>
+        <item m="1" x="70"/>
+        <item x="7"/>
+        <item m="1" x="52"/>
+        <item x="8"/>
+        <item m="1" x="65"/>
+        <item x="9"/>
+        <item m="1" x="48"/>
+        <item x="10"/>
+        <item m="1" x="60"/>
+        <item x="11"/>
+        <item m="1" x="74"/>
+        <item x="12"/>
+        <item m="1" x="56"/>
+        <item x="13"/>
+        <item m="1" x="69"/>
+        <item x="14"/>
+        <item m="1" x="51"/>
+        <item x="15"/>
         <item m="1" x="63"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="46"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="58"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="72"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="54"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="67"/>
-        <item x="6"/>
-        <item m="1" x="69"/>
-        <item x="7"/>
-        <item m="1" x="51"/>
-        <item x="8"/>
-        <item m="1" x="64"/>
-        <item x="9"/>
-        <item m="1" x="47"/>
-        <item x="10"/>
-        <item m="1" x="59"/>
-        <item x="11"/>
-        <item m="1" x="73"/>
-        <item x="12"/>
-        <item m="1" x="55"/>
-        <item x="13"/>
-        <item m="1" x="68"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="50"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="62"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="45"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="57"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="71"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="53"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="66"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="49"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="61"/>
-        <item x="23"/>
-        <item m="1" x="44"/>
-        <item x="24"/>
-        <item m="1" x="56"/>
-        <item x="25"/>
-        <item m="1" x="70"/>
-        <item x="26"/>
-        <item m="1" x="52"/>
-        <item x="27"/>
-        <item m="1" x="65"/>
-        <item x="28"/>
-        <item m="1" x="48"/>
-        <item x="29"/>
-        <item m="1" x="60"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -48489,7 +49383,8 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item h="1" x="43"/>
+        <item x="43"/>
+        <item h="1" x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48539,7 +49434,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -48669,6 +49564,9 @@
     <i>
       <x v="72"/>
     </i>
+    <i>
+      <x v="73"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48724,71 +49622,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="75">
+      <items count="76">
         <item x="0"/>
+        <item m="1" x="64"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item x="2"/>
+        <item m="1" x="59"/>
+        <item x="3"/>
+        <item m="1" x="73"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item x="5"/>
+        <item m="1" x="68"/>
+        <item x="6"/>
+        <item m="1" x="70"/>
+        <item x="7"/>
+        <item m="1" x="52"/>
+        <item x="8"/>
+        <item m="1" x="65"/>
+        <item x="9"/>
+        <item m="1" x="48"/>
+        <item x="10"/>
+        <item m="1" x="60"/>
+        <item x="11"/>
+        <item m="1" x="74"/>
+        <item x="12"/>
+        <item m="1" x="56"/>
+        <item x="13"/>
+        <item m="1" x="69"/>
+        <item x="14"/>
+        <item m="1" x="51"/>
+        <item x="15"/>
         <item m="1" x="63"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="46"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="58"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="72"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="54"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="67"/>
-        <item x="6"/>
-        <item m="1" x="69"/>
-        <item x="7"/>
-        <item m="1" x="51"/>
-        <item x="8"/>
-        <item m="1" x="64"/>
-        <item x="9"/>
-        <item m="1" x="47"/>
-        <item x="10"/>
-        <item m="1" x="59"/>
-        <item x="11"/>
-        <item m="1" x="73"/>
-        <item x="12"/>
-        <item m="1" x="55"/>
-        <item x="13"/>
-        <item m="1" x="68"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="50"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="62"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="45"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="57"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="71"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="53"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="66"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="49"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="61"/>
-        <item x="23"/>
-        <item m="1" x="44"/>
-        <item x="24"/>
-        <item m="1" x="56"/>
-        <item x="25"/>
-        <item m="1" x="70"/>
-        <item x="26"/>
-        <item m="1" x="52"/>
-        <item x="27"/>
-        <item m="1" x="65"/>
-        <item x="28"/>
-        <item m="1" x="48"/>
-        <item x="29"/>
-        <item m="1" x="60"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -48802,7 +49700,8 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item h="1" x="43"/>
+        <item x="43"/>
+        <item h="1" x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48852,7 +49751,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -48982,6 +49881,9 @@
     <i>
       <x v="72"/>
     </i>
+    <i>
+      <x v="73"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -49046,71 +49948,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="75">
+      <items count="76">
         <item x="0"/>
+        <item m="1" x="64"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item x="2"/>
+        <item m="1" x="59"/>
+        <item x="3"/>
+        <item m="1" x="73"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item x="5"/>
+        <item m="1" x="68"/>
+        <item x="6"/>
+        <item m="1" x="70"/>
+        <item x="7"/>
+        <item m="1" x="52"/>
+        <item x="8"/>
+        <item m="1" x="65"/>
+        <item x="9"/>
+        <item m="1" x="48"/>
+        <item x="10"/>
+        <item m="1" x="60"/>
+        <item x="11"/>
+        <item m="1" x="74"/>
+        <item x="12"/>
+        <item m="1" x="56"/>
+        <item x="13"/>
+        <item m="1" x="69"/>
+        <item x="14"/>
+        <item m="1" x="51"/>
+        <item x="15"/>
         <item m="1" x="63"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="46"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="58"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="72"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="54"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="67"/>
-        <item x="6"/>
-        <item m="1" x="69"/>
-        <item x="7"/>
-        <item m="1" x="51"/>
-        <item x="8"/>
-        <item m="1" x="64"/>
-        <item x="9"/>
-        <item m="1" x="47"/>
-        <item x="10"/>
-        <item m="1" x="59"/>
-        <item x="11"/>
-        <item m="1" x="73"/>
-        <item x="12"/>
-        <item m="1" x="55"/>
-        <item x="13"/>
-        <item m="1" x="68"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="50"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="62"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="45"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="57"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="71"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="53"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="66"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="49"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="61"/>
-        <item x="23"/>
-        <item m="1" x="44"/>
-        <item x="24"/>
-        <item m="1" x="56"/>
-        <item x="25"/>
-        <item m="1" x="70"/>
-        <item x="26"/>
-        <item m="1" x="52"/>
-        <item x="27"/>
-        <item m="1" x="65"/>
-        <item x="28"/>
-        <item m="1" x="48"/>
-        <item x="29"/>
-        <item m="1" x="60"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -49124,7 +50026,8 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item h="1" x="43"/>
+        <item x="43"/>
+        <item h="1" x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49174,7 +50077,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -49304,6 +50207,9 @@
     <i>
       <x v="72"/>
     </i>
+    <i>
+      <x v="73"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -49377,71 +50283,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="75">
+      <items count="76">
         <item x="0"/>
+        <item m="1" x="64"/>
+        <item x="1"/>
+        <item m="1" x="47"/>
+        <item x="2"/>
+        <item m="1" x="59"/>
+        <item x="3"/>
+        <item m="1" x="73"/>
+        <item x="4"/>
+        <item m="1" x="55"/>
+        <item x="5"/>
+        <item m="1" x="68"/>
+        <item x="6"/>
+        <item m="1" x="70"/>
+        <item x="7"/>
+        <item m="1" x="52"/>
+        <item x="8"/>
+        <item m="1" x="65"/>
+        <item x="9"/>
+        <item m="1" x="48"/>
+        <item x="10"/>
+        <item m="1" x="60"/>
+        <item x="11"/>
+        <item m="1" x="74"/>
+        <item x="12"/>
+        <item m="1" x="56"/>
+        <item x="13"/>
+        <item m="1" x="69"/>
+        <item x="14"/>
+        <item m="1" x="51"/>
+        <item x="15"/>
         <item m="1" x="63"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="46"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="58"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="72"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="54"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="67"/>
-        <item x="6"/>
-        <item m="1" x="69"/>
-        <item x="7"/>
-        <item m="1" x="51"/>
-        <item x="8"/>
-        <item m="1" x="64"/>
-        <item x="9"/>
-        <item m="1" x="47"/>
-        <item x="10"/>
-        <item m="1" x="59"/>
-        <item x="11"/>
-        <item m="1" x="73"/>
-        <item x="12"/>
-        <item m="1" x="55"/>
-        <item x="13"/>
-        <item m="1" x="68"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="50"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="62"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="45"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="57"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="71"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="53"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="66"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="49"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="61"/>
-        <item x="23"/>
-        <item m="1" x="44"/>
-        <item x="24"/>
-        <item m="1" x="56"/>
-        <item x="25"/>
-        <item m="1" x="70"/>
-        <item x="26"/>
-        <item m="1" x="52"/>
-        <item x="27"/>
-        <item m="1" x="65"/>
-        <item x="28"/>
-        <item m="1" x="48"/>
-        <item x="29"/>
-        <item m="1" x="60"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -49455,7 +50361,8 @@
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
-        <item h="1" x="43"/>
+        <item x="43"/>
+        <item h="1" x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49505,7 +50412,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="44">
+  <rowItems count="45">
     <i>
       <x/>
     </i>
@@ -49634,6 +50541,9 @@
     </i>
     <i>
       <x v="72"/>
+    </i>
+    <i>
+      <x v="73"/>
     </i>
     <i t="grand">
       <x/>
@@ -50013,10 +50923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S904"/>
+  <dimension ref="A1:S925"/>
   <sheetViews>
-    <sheetView topLeftCell="A860" workbookViewId="0">
-      <selection activeCell="A884" sqref="A884:Q904"/>
+    <sheetView topLeftCell="A881" workbookViewId="0">
+      <selection activeCell="A905" sqref="A905:Q925"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -97942,6 +98852,1119 @@
         <v>5378</v>
       </c>
     </row>
+    <row r="905" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A905" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B905" t="s">
+        <v>14</v>
+      </c>
+      <c r="C905">
+        <v>13</v>
+      </c>
+      <c r="D905" t="s">
+        <v>15</v>
+      </c>
+      <c r="E905" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F905" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G905">
+        <v>-3</v>
+      </c>
+      <c r="H905">
+        <v>1</v>
+      </c>
+      <c r="I905">
+        <v>-2</v>
+      </c>
+      <c r="J905">
+        <v>68</v>
+      </c>
+      <c r="K905">
+        <v>66</v>
+      </c>
+      <c r="L905">
+        <v>66</v>
+      </c>
+      <c r="M905">
+        <v>66</v>
+      </c>
+      <c r="N905">
+        <v>9</v>
+      </c>
+      <c r="O905">
+        <v>3</v>
+      </c>
+      <c r="P905">
+        <v>78</v>
+      </c>
+      <c r="Q905">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="906" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A906" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B906" t="s">
+        <v>14</v>
+      </c>
+      <c r="C906">
+        <v>17</v>
+      </c>
+      <c r="D906" t="s">
+        <v>16</v>
+      </c>
+      <c r="E906" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F906" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G906">
+        <v>1</v>
+      </c>
+      <c r="H906">
+        <v>-1</v>
+      </c>
+      <c r="I906">
+        <v>0</v>
+      </c>
+      <c r="J906">
+        <v>3</v>
+      </c>
+      <c r="K906">
+        <v>3</v>
+      </c>
+      <c r="L906">
+        <v>3</v>
+      </c>
+      <c r="M906">
+        <v>3</v>
+      </c>
+      <c r="N906">
+        <v>0</v>
+      </c>
+      <c r="O906">
+        <v>1</v>
+      </c>
+      <c r="P906">
+        <v>4</v>
+      </c>
+      <c r="Q906">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="907" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A907" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B907" t="s">
+        <v>14</v>
+      </c>
+      <c r="C907">
+        <v>18</v>
+      </c>
+      <c r="D907" t="s">
+        <v>17</v>
+      </c>
+      <c r="E907" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F907" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G907">
+        <v>-1</v>
+      </c>
+      <c r="H907">
+        <v>0</v>
+      </c>
+      <c r="I907">
+        <v>-1</v>
+      </c>
+      <c r="J907">
+        <v>12</v>
+      </c>
+      <c r="K907">
+        <v>11</v>
+      </c>
+      <c r="L907">
+        <v>11</v>
+      </c>
+      <c r="M907">
+        <v>11</v>
+      </c>
+      <c r="N907">
+        <v>3</v>
+      </c>
+      <c r="O907">
+        <v>2</v>
+      </c>
+      <c r="P907">
+        <v>16</v>
+      </c>
+      <c r="Q907">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="908" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A908" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B908" t="s">
+        <v>14</v>
+      </c>
+      <c r="C908">
+        <v>15</v>
+      </c>
+      <c r="D908" t="s">
+        <v>18</v>
+      </c>
+      <c r="E908" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F908" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G908">
+        <v>-7</v>
+      </c>
+      <c r="H908">
+        <v>2</v>
+      </c>
+      <c r="I908">
+        <v>-5</v>
+      </c>
+      <c r="J908">
+        <v>72</v>
+      </c>
+      <c r="K908">
+        <v>67</v>
+      </c>
+      <c r="L908">
+        <v>67</v>
+      </c>
+      <c r="M908">
+        <v>67</v>
+      </c>
+      <c r="N908">
+        <v>11</v>
+      </c>
+      <c r="O908">
+        <v>12</v>
+      </c>
+      <c r="P908">
+        <v>90</v>
+      </c>
+      <c r="Q908">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="909" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A909" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B909" t="s">
+        <v>14</v>
+      </c>
+      <c r="C909">
+        <v>8</v>
+      </c>
+      <c r="D909" t="s">
+        <v>46</v>
+      </c>
+      <c r="E909" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F909" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G909">
+        <v>-54</v>
+      </c>
+      <c r="H909">
+        <v>-6</v>
+      </c>
+      <c r="I909">
+        <v>-60</v>
+      </c>
+      <c r="J909">
+        <v>57</v>
+      </c>
+      <c r="K909">
+        <v>-3</v>
+      </c>
+      <c r="L909">
+        <v>-3</v>
+      </c>
+      <c r="M909">
+        <v>-3</v>
+      </c>
+      <c r="N909">
+        <v>200</v>
+      </c>
+      <c r="O909">
+        <v>72</v>
+      </c>
+      <c r="P909">
+        <v>269</v>
+      </c>
+      <c r="Q909">
+        <v>3028</v>
+      </c>
+    </row>
+    <row r="910" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A910" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B910" t="s">
+        <v>14</v>
+      </c>
+      <c r="C910">
+        <v>6</v>
+      </c>
+      <c r="D910" t="s">
+        <v>19</v>
+      </c>
+      <c r="E910" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F910" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G910">
+        <v>-4</v>
+      </c>
+      <c r="H910">
+        <v>-2</v>
+      </c>
+      <c r="I910">
+        <v>-6</v>
+      </c>
+      <c r="J910">
+        <v>-11</v>
+      </c>
+      <c r="K910">
+        <v>-17</v>
+      </c>
+      <c r="L910">
+        <v>-17</v>
+      </c>
+      <c r="M910">
+        <v>-17</v>
+      </c>
+      <c r="N910">
+        <v>61</v>
+      </c>
+      <c r="O910">
+        <v>6</v>
+      </c>
+      <c r="P910">
+        <v>50</v>
+      </c>
+      <c r="Q910">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="911" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A911" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B911" t="s">
+        <v>14</v>
+      </c>
+      <c r="C911">
+        <v>12</v>
+      </c>
+      <c r="D911" t="s">
+        <v>20</v>
+      </c>
+      <c r="E911" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F911" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G911">
+        <v>-6</v>
+      </c>
+      <c r="H911">
+        <v>-5</v>
+      </c>
+      <c r="I911">
+        <v>-11</v>
+      </c>
+      <c r="J911">
+        <v>76</v>
+      </c>
+      <c r="K911">
+        <v>65</v>
+      </c>
+      <c r="L911">
+        <v>65</v>
+      </c>
+      <c r="M911">
+        <v>65</v>
+      </c>
+      <c r="N911">
+        <v>44</v>
+      </c>
+      <c r="O911">
+        <v>9</v>
+      </c>
+      <c r="P911">
+        <v>118</v>
+      </c>
+      <c r="Q911">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="912" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A912" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B912" t="s">
+        <v>14</v>
+      </c>
+      <c r="C912">
+        <v>7</v>
+      </c>
+      <c r="D912" t="s">
+        <v>21</v>
+      </c>
+      <c r="E912" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F912" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G912">
+        <v>-51</v>
+      </c>
+      <c r="H912">
+        <v>-6</v>
+      </c>
+      <c r="I912">
+        <v>-57</v>
+      </c>
+      <c r="J912">
+        <v>152</v>
+      </c>
+      <c r="K912">
+        <v>95</v>
+      </c>
+      <c r="L912">
+        <v>95</v>
+      </c>
+      <c r="M912">
+        <v>95</v>
+      </c>
+      <c r="N912">
+        <v>88</v>
+      </c>
+      <c r="O912">
+        <v>25</v>
+      </c>
+      <c r="P912">
+        <v>208</v>
+      </c>
+      <c r="Q912">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="913" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A913" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B913" t="s">
+        <v>14</v>
+      </c>
+      <c r="C913">
+        <v>3</v>
+      </c>
+      <c r="D913" t="s">
+        <v>22</v>
+      </c>
+      <c r="E913" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F913" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G913">
+        <v>-81</v>
+      </c>
+      <c r="H913">
+        <v>-38</v>
+      </c>
+      <c r="I913">
+        <v>-119</v>
+      </c>
+      <c r="J913">
+        <v>-7</v>
+      </c>
+      <c r="K913">
+        <v>-126</v>
+      </c>
+      <c r="L913">
+        <v>-126</v>
+      </c>
+      <c r="M913">
+        <v>-126</v>
+      </c>
+      <c r="N913">
+        <v>635</v>
+      </c>
+      <c r="O913">
+        <v>282</v>
+      </c>
+      <c r="P913">
+        <v>791</v>
+      </c>
+      <c r="Q913">
+        <v>4342</v>
+      </c>
+    </row>
+    <row r="914" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A914" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B914" t="s">
+        <v>14</v>
+      </c>
+      <c r="C914">
+        <v>11</v>
+      </c>
+      <c r="D914" t="s">
+        <v>23</v>
+      </c>
+      <c r="E914" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F914" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G914">
+        <v>-39</v>
+      </c>
+      <c r="H914">
+        <v>-1</v>
+      </c>
+      <c r="I914">
+        <v>-40</v>
+      </c>
+      <c r="J914">
+        <v>72</v>
+      </c>
+      <c r="K914">
+        <v>32</v>
+      </c>
+      <c r="L914">
+        <v>32</v>
+      </c>
+      <c r="M914">
+        <v>32</v>
+      </c>
+      <c r="N914">
+        <v>46</v>
+      </c>
+      <c r="O914">
+        <v>18</v>
+      </c>
+      <c r="P914">
+        <v>96</v>
+      </c>
+      <c r="Q914">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="915" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A915" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B915" t="s">
+        <v>14</v>
+      </c>
+      <c r="C915">
+        <v>14</v>
+      </c>
+      <c r="D915" t="s">
+        <v>24</v>
+      </c>
+      <c r="E915" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F915" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G915">
+        <v>1</v>
+      </c>
+      <c r="H915">
+        <v>0</v>
+      </c>
+      <c r="I915">
+        <v>1</v>
+      </c>
+      <c r="J915">
+        <v>-3</v>
+      </c>
+      <c r="K915">
+        <v>-2</v>
+      </c>
+      <c r="L915">
+        <v>-2</v>
+      </c>
+      <c r="M915">
+        <v>-2</v>
+      </c>
+      <c r="N915">
+        <v>2</v>
+      </c>
+      <c r="O915">
+        <v>0</v>
+      </c>
+      <c r="P915">
+        <v>0</v>
+      </c>
+      <c r="Q915">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="916" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A916" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B916" t="s">
+        <v>14</v>
+      </c>
+      <c r="C916">
+        <v>4</v>
+      </c>
+      <c r="D916" t="s">
+        <v>25</v>
+      </c>
+      <c r="E916" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F916" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G916">
+        <v>80</v>
+      </c>
+      <c r="H916">
+        <v>12</v>
+      </c>
+      <c r="I916">
+        <v>92</v>
+      </c>
+      <c r="J916">
+        <v>-51</v>
+      </c>
+      <c r="K916">
+        <v>41</v>
+      </c>
+      <c r="L916">
+        <v>41</v>
+      </c>
+      <c r="M916">
+        <v>41</v>
+      </c>
+      <c r="N916">
+        <v>38</v>
+      </c>
+      <c r="O916">
+        <v>10</v>
+      </c>
+      <c r="P916">
+        <v>89</v>
+      </c>
+      <c r="Q916">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="917" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A917" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B917" t="s">
+        <v>14</v>
+      </c>
+      <c r="C917">
+        <v>4</v>
+      </c>
+      <c r="D917" t="s">
+        <v>26</v>
+      </c>
+      <c r="E917" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F917" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G917">
+        <v>6</v>
+      </c>
+      <c r="H917">
+        <v>-1</v>
+      </c>
+      <c r="I917">
+        <v>5</v>
+      </c>
+      <c r="J917">
+        <v>47</v>
+      </c>
+      <c r="K917">
+        <v>52</v>
+      </c>
+      <c r="L917">
+        <v>52</v>
+      </c>
+      <c r="M917">
+        <v>52</v>
+      </c>
+      <c r="N917">
+        <v>62</v>
+      </c>
+      <c r="O917">
+        <v>14</v>
+      </c>
+      <c r="P917">
+        <v>128</v>
+      </c>
+      <c r="Q917">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="918" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A918" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B918" t="s">
+        <v>14</v>
+      </c>
+      <c r="C918">
+        <v>1</v>
+      </c>
+      <c r="D918" t="s">
+        <v>27</v>
+      </c>
+      <c r="E918" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F918" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G918">
+        <v>69</v>
+      </c>
+      <c r="H918">
+        <v>-6</v>
+      </c>
+      <c r="I918">
+        <v>63</v>
+      </c>
+      <c r="J918">
+        <v>96</v>
+      </c>
+      <c r="K918">
+        <v>159</v>
+      </c>
+      <c r="L918">
+        <v>159</v>
+      </c>
+      <c r="M918">
+        <v>159</v>
+      </c>
+      <c r="N918">
+        <v>192</v>
+      </c>
+      <c r="O918">
+        <v>68</v>
+      </c>
+      <c r="P918">
+        <v>419</v>
+      </c>
+      <c r="Q918">
+        <v>2998</v>
+      </c>
+    </row>
+    <row r="919" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A919" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B919" t="s">
+        <v>14</v>
+      </c>
+      <c r="C919">
+        <v>16</v>
+      </c>
+      <c r="D919" t="s">
+        <v>28</v>
+      </c>
+      <c r="E919" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F919" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G919">
+        <v>-10</v>
+      </c>
+      <c r="H919">
+        <v>-4</v>
+      </c>
+      <c r="I919">
+        <v>-14</v>
+      </c>
+      <c r="J919">
+        <v>36</v>
+      </c>
+      <c r="K919">
+        <v>22</v>
+      </c>
+      <c r="L919">
+        <v>22</v>
+      </c>
+      <c r="M919">
+        <v>22</v>
+      </c>
+      <c r="N919">
+        <v>34</v>
+      </c>
+      <c r="O919">
+        <v>14</v>
+      </c>
+      <c r="P919">
+        <v>70</v>
+      </c>
+      <c r="Q919">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="920" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A920" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B920" t="s">
+        <v>14</v>
+      </c>
+      <c r="C920">
+        <v>20</v>
+      </c>
+      <c r="D920" t="s">
+        <v>29</v>
+      </c>
+      <c r="E920" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F920" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G920">
+        <v>-1</v>
+      </c>
+      <c r="H920">
+        <v>0</v>
+      </c>
+      <c r="I920">
+        <v>-1</v>
+      </c>
+      <c r="J920">
+        <v>3</v>
+      </c>
+      <c r="K920">
+        <v>2</v>
+      </c>
+      <c r="L920">
+        <v>2</v>
+      </c>
+      <c r="M920">
+        <v>2</v>
+      </c>
+      <c r="N920">
+        <v>6</v>
+      </c>
+      <c r="O920">
+        <v>5</v>
+      </c>
+      <c r="P920">
+        <v>13</v>
+      </c>
+      <c r="Q920">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="921" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A921" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B921" t="s">
+        <v>14</v>
+      </c>
+      <c r="C921">
+        <v>19</v>
+      </c>
+      <c r="D921" t="s">
+        <v>30</v>
+      </c>
+      <c r="E921" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F921" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G921">
+        <v>-1</v>
+      </c>
+      <c r="H921">
+        <v>-1</v>
+      </c>
+      <c r="I921">
+        <v>-2</v>
+      </c>
+      <c r="J921">
+        <v>46</v>
+      </c>
+      <c r="K921">
+        <v>44</v>
+      </c>
+      <c r="L921">
+        <v>44</v>
+      </c>
+      <c r="M921">
+        <v>44</v>
+      </c>
+      <c r="N921">
+        <v>5</v>
+      </c>
+      <c r="O921">
+        <v>2</v>
+      </c>
+      <c r="P921">
+        <v>51</v>
+      </c>
+      <c r="Q921">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="922" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A922" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B922" t="s">
+        <v>14</v>
+      </c>
+      <c r="C922">
+        <v>9</v>
+      </c>
+      <c r="D922" t="s">
+        <v>31</v>
+      </c>
+      <c r="E922" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F922" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G922">
+        <v>-29</v>
+      </c>
+      <c r="H922">
+        <v>-16</v>
+      </c>
+      <c r="I922">
+        <v>-45</v>
+      </c>
+      <c r="J922">
+        <v>171</v>
+      </c>
+      <c r="K922">
+        <v>126</v>
+      </c>
+      <c r="L922">
+        <v>126</v>
+      </c>
+      <c r="M922">
+        <v>126</v>
+      </c>
+      <c r="N922">
+        <v>27</v>
+      </c>
+      <c r="O922">
+        <v>19</v>
+      </c>
+      <c r="P922">
+        <v>172</v>
+      </c>
+      <c r="Q922">
+        <v>3802</v>
+      </c>
+    </row>
+    <row r="923" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A923" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B923" t="s">
+        <v>14</v>
+      </c>
+      <c r="C923">
+        <v>10</v>
+      </c>
+      <c r="D923" t="s">
+        <v>32</v>
+      </c>
+      <c r="E923" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F923" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G923">
+        <v>-2</v>
+      </c>
+      <c r="H923">
+        <v>-5</v>
+      </c>
+      <c r="I923">
+        <v>-7</v>
+      </c>
+      <c r="J923">
+        <v>-19</v>
+      </c>
+      <c r="K923">
+        <v>-26</v>
+      </c>
+      <c r="L923">
+        <v>-26</v>
+      </c>
+      <c r="M923">
+        <v>-26</v>
+      </c>
+      <c r="N923">
+        <v>31</v>
+      </c>
+      <c r="O923">
+        <v>5</v>
+      </c>
+      <c r="P923">
+        <v>10</v>
+      </c>
+      <c r="Q923">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="924" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A924" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B924" t="s">
+        <v>14</v>
+      </c>
+      <c r="C924">
+        <v>2</v>
+      </c>
+      <c r="D924" t="s">
+        <v>33</v>
+      </c>
+      <c r="E924" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F924" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G924">
+        <v>9</v>
+      </c>
+      <c r="H924">
+        <v>-4</v>
+      </c>
+      <c r="I924">
+        <v>5</v>
+      </c>
+      <c r="J924">
+        <v>21</v>
+      </c>
+      <c r="K924">
+        <v>26</v>
+      </c>
+      <c r="L924">
+        <v>26</v>
+      </c>
+      <c r="M924">
+        <v>26</v>
+      </c>
+      <c r="N924">
+        <v>0</v>
+      </c>
+      <c r="O924">
+        <v>4</v>
+      </c>
+      <c r="P924">
+        <v>30</v>
+      </c>
+      <c r="Q924">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="925" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A925" s="6">
+        <v>43928</v>
+      </c>
+      <c r="B925" t="s">
+        <v>14</v>
+      </c>
+      <c r="C925">
+        <v>5</v>
+      </c>
+      <c r="D925" t="s">
+        <v>34</v>
+      </c>
+      <c r="E925" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F925" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G925">
+        <v>-135</v>
+      </c>
+      <c r="H925">
+        <v>-25</v>
+      </c>
+      <c r="I925">
+        <v>-160</v>
+      </c>
+      <c r="J925">
+        <v>403</v>
+      </c>
+      <c r="K925">
+        <v>243</v>
+      </c>
+      <c r="L925">
+        <v>243</v>
+      </c>
+      <c r="M925">
+        <v>243</v>
+      </c>
+      <c r="N925">
+        <v>61</v>
+      </c>
+      <c r="O925">
+        <v>33</v>
+      </c>
+      <c r="P925">
+        <v>337</v>
+      </c>
+      <c r="Q925">
+        <v>7254</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{FBAB6D88-DCD4-E841-8499-D0DE040246DB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -97950,10 +99973,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G48"/>
+  <dimension ref="A3:G49"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G87" sqref="G87"/>
+    <sheetView topLeftCell="A49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -98125,7 +100148,7 @@
         <v>94</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G47" si="0">SUM(B5:F5)</f>
+        <f t="shared" ref="G5:G48" si="0">SUM(B5:F5)</f>
         <v>229</v>
       </c>
     </row>
@@ -99137,28 +101160,52 @@
         <v>3599</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="26" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="7">
+        <v>43928</v>
+      </c>
+      <c r="B48" s="4">
+        <v>604</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1555</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-258</v>
+      </c>
+      <c r="E48" s="4">
+        <v>-106</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1244</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>3039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
-        <v>16523</v>
-      </c>
-      <c r="C48" s="4">
-        <v>22837</v>
-      </c>
-      <c r="D48" s="4">
-        <v>28976</v>
-      </c>
-      <c r="E48" s="4">
-        <v>3898</v>
-      </c>
-      <c r="F48" s="4">
-        <v>60313</v>
-      </c>
-      <c r="G48" s="8">
-        <f>SUM(B48:F48)</f>
-        <v>132547</v>
+      <c r="B49" s="4">
+        <v>17127</v>
+      </c>
+      <c r="C49" s="4">
+        <v>24392</v>
+      </c>
+      <c r="D49" s="4">
+        <v>28718</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3792</v>
+      </c>
+      <c r="F49" s="4">
+        <v>61557</v>
+      </c>
+      <c r="G49">
+        <f>SUM(B49:F49)</f>
+        <v>135586</v>
       </c>
     </row>
   </sheetData>
@@ -99169,10 +101216,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1084B9-5FA0-CB4F-AF55-AA19481B2D01}">
-  <dimension ref="B3:C47"/>
+  <dimension ref="B3:C48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -99534,11 +101581,19 @@
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="7">
+        <v>43928</v>
+      </c>
+      <c r="C47" s="4">
+        <v>33713</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C47" s="4">
-        <v>721732</v>
+      <c r="C48" s="4">
+        <v>755445</v>
       </c>
     </row>
   </sheetData>
@@ -99549,10 +101604,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -100008,6 +102063,16 @@
       <c r="B46">
         <f>All!G47</f>
         <v>3599</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="6">
+        <f>All!A48</f>
+        <v>43928</v>
+      </c>
+      <c r="B47">
+        <f>All!G48</f>
+        <v>3039</v>
       </c>
     </row>
   </sheetData>
@@ -100018,10 +102083,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -100396,11 +102461,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-258</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4">
-        <v>28976</v>
+      <c r="B48" s="4">
+        <v>28718</v>
       </c>
     </row>
   </sheetData>
@@ -100411,17 +102484,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A7:A49"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="10" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -100808,11 +102874,19 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B50" s="4">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B50" s="4">
-        <v>22837</v>
+      <c r="B51" s="4">
+        <v>24392</v>
       </c>
     </row>
   </sheetData>
@@ -100823,17 +102897,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B48"/>
+  <dimension ref="A2:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A5:A47"/>
-      <pivotSelection pane="bottomRight" showHeader="1" activeRow="9" click="1" r:id="rId1">
-        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-          <references count="1">
-            <reference field="0" count="0"/>
-          </references>
-        </pivotArea>
-      </pivotSelection>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -101208,11 +103275,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
-        <v>3898</v>
+      <c r="B49" s="4">
+        <v>3792</v>
       </c>
     </row>
   </sheetData>
@@ -101223,7 +103298,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -101605,11 +103680,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B48" s="4">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
-        <v>60313</v>
+      <c r="B49" s="4">
+        <v>61557</v>
       </c>
     </row>
   </sheetData>
@@ -101620,7 +103703,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -101998,11 +104081,19 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="5">
+        <v>43928</v>
+      </c>
+      <c r="B47" s="4">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B47" s="4">
-        <v>16523</v>
+      <c r="B48" s="4">
+        <v>17127</v>
       </c>
     </row>
   </sheetData>

--- a/alldatanormalised-total.xlsx
+++ b/alldatanormalised-total.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giovannigadaleta/Downloads/covid-19/regioni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6E3F2B-7E9F-6944-8AB2-AC2B423DC757}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC18774-72E2-314D-A5D1-A22986F8F0E3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="460" windowWidth="28100" windowHeight="16960" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="7" r:id="rId10"/>
-    <pivotCache cacheId="27" r:id="rId11"/>
+    <pivotCache cacheId="23" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1906" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1948" uniqueCount="54">
   <si>
     <t>data</t>
   </si>
@@ -889,9 +889,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$49</c:f>
+              <c:f>All!$A$4:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1026,16 +1026,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$B$4:$B$49</c:f>
+              <c:f>All!$B$4:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
@@ -1167,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,9 +1212,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$49</c:f>
+              <c:f>All!$A$4:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1343,16 +1349,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$C$4:$C$49</c:f>
+              <c:f>All!$C$4:$C$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1484,6 +1493,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1523,9 +1535,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$49</c:f>
+              <c:f>All!$A$4:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1660,16 +1672,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$D$4:$D$49</c:f>
+              <c:f>All!$D$4:$D$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>101</c:v>
                 </c:pt>
@@ -1801,6 +1816,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-258</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1840,9 +1858,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$49</c:f>
+              <c:f>All!$A$4:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -1977,16 +1995,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$E$4:$E$49</c:f>
+              <c:f>All!$E$4:$E$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>26</c:v>
                 </c:pt>
@@ -2118,6 +2139,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2157,9 +2181,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>All!$A$4:$A$49</c:f>
+              <c:f>All!$A$4:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>(blank)</c:v>
                 </c:pt>
@@ -2294,16 +2318,19 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>All!$F$4:$F$49</c:f>
+              <c:f>All!$F$4:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="1">
                   <c:v>94</c:v>
                 </c:pt>
@@ -2435,6 +2462,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2823,9 +2853,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Tamponi!$B$4:$B$48</c:f>
+              <c:f>Tamponi!$B$4:$B$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020</c:v>
                 </c:pt>
@@ -2957,16 +2987,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>07/04/2020</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>08/04/2020</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Tamponi!$C$4:$C$48</c:f>
+              <c:f>Tamponi!$C$4:$C$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>4324</c:v>
                 </c:pt>
@@ -3098,6 +3131,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>33713</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51680</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3443,10 +3479,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$A$4:$A$47</c:f>
+              <c:f>'Totale dei Casi'!$A$4:$A$48</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>43885</c:v>
                 </c:pt>
@@ -3578,16 +3614,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>43929</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Totale dei Casi'!$B$3:$B$47</c:f>
+              <c:f>'Totale dei Casi'!$B$3:$B$48</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="45"/>
+                <c:ptCount val="46"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3722,6 +3761,9 @@
                 </c:pt>
                 <c:pt idx="44">
                   <c:v>3039</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3836</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4127,9 +4169,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Ricoverati!$A$4:$A$48</c:f>
+              <c:f>Ricoverati!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4261,16 +4303,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>07/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>08/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Ricoverati!$B$4:$B$48</c:f>
+              <c:f>Ricoverati!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>101</c:v>
                 </c:pt>
@@ -4402,6 +4447,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-258</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,9 +4855,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>'Dimessi Guariti'!$A$7:$A$51</c:f>
+              <c:f>'Dimessi Guariti'!$A$7:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -4941,16 +4989,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>07/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>08/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dimessi Guariti'!$B$7:$B$51</c:f>
+              <c:f>'Dimessi Guariti'!$B$7:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -5082,6 +5133,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5471,9 +5525,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Terapia Intensiva'!$A$5:$A$49</c:f>
+              <c:f>'Terapia Intensiva'!$A$5:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -5605,16 +5659,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>07/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>08/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Terapia Intensiva'!$B$5:$B$49</c:f>
+              <c:f>'Terapia Intensiva'!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>26</c:v>
                 </c:pt>
@@ -5746,6 +5803,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>-106</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-99</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6150,9 +6210,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Isolamento!$A$5:$A$49</c:f>
+              <c:f>Isolamento!$A$5:$A$50</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6284,16 +6344,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>07/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>08/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Isolamento!$B$5:$B$49</c:f>
+              <c:f>Isolamento!$B$5:$B$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>94</c:v>
                 </c:pt>
@@ -6425,6 +6488,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>1244</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6829,9 +6895,9 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Deceduti!$A$4:$A$48</c:f>
+              <c:f>Deceduti!$A$4:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>24/02/2020 00:00</c:v>
                 </c:pt>
@@ -6963,16 +7029,19 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>07/04/2020 00:00</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>08/04/2020 00:00</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Deceduti!$B$4:$B$48</c:f>
+              <c:f>Deceduti!$B$4:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="44"/>
+                <c:ptCount val="45"/>
                 <c:pt idx="0">
                   <c:v>7</c:v>
                 </c:pt>
@@ -7104,6 +7173,9 @@
                 </c:pt>
                 <c:pt idx="43">
                   <c:v>604</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>542</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -11799,8 +11871,8 @@
       <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>35</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
@@ -12087,13 +12159,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43928.762596990739" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="925" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43929.762788888889" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="946" xr:uid="{832C5DB4-25D0-E540-8A2C-0528C357000B}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-08T00:00:00" count="45">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-09T00:00:00" count="46">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12138,6 +12210,7 @@
         <d v="2020-04-05T00:00:00"/>
         <d v="2020-04-06T00:00:00"/>
         <d v="2020-04-07T00:00:00"/>
+        <d v="2020-04-08T00:00:00"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -12187,7 +12260,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-17" maxValue="3251"/>
     </cacheField>
     <cacheField name="tamponi" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-2001" maxValue="9556"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="-2001" maxValue="9705"/>
     </cacheField>
     <cacheField name="note_it" numFmtId="0">
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
@@ -12205,13 +12278,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43928.76411851852" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="925" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="43929.763698958333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="946" xr:uid="{ADB2ED3E-6ECD-1340-8F0D-E6C8AC855321}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:P3915" sheet="alldatanormalised"/>
   </cacheSource>
   <cacheFields count="16">
     <cacheField name="data" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-08T00:00:00" count="75">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2020-02-24T00:00:00" maxDate="2020-04-09T00:00:00" count="76">
         <d v="2020-02-24T00:00:00"/>
         <d v="2020-02-25T00:00:00"/>
         <d v="2020-02-26T00:00:00"/>
@@ -12256,6 +12329,7 @@
         <d v="2020-04-05T00:00:00"/>
         <d v="2020-04-06T00:00:00"/>
         <d v="2020-04-07T00:00:00"/>
+        <d v="2020-04-08T00:00:00"/>
         <m/>
         <d v="2020-03-18T17:00:00" u="1"/>
         <d v="2020-03-11T17:00:00" u="1"/>
@@ -12368,7 +12442,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="925">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="946">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -31775,6 +31849,447 @@
   </r>
   <r>
     <x v="44"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <s v="Abruzzo"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-6"/>
+    <n v="-5"/>
+    <n v="-11"/>
+    <n v="54"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="10"/>
+    <n v="7"/>
+    <n v="60"/>
+    <n v="942"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <s v="Basilicata"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+    <n v="136"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <s v="Calabria"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="26"/>
+    <n v="905"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <s v="Campania"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="5"/>
+    <n v="-6"/>
+    <n v="-1"/>
+    <n v="95"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="120"/>
+    <n v="2005"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <s v="Emilia-Romagna"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="19"/>
+    <n v="-5"/>
+    <n v="14"/>
+    <n v="48"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="293"/>
+    <n v="54"/>
+    <n v="409"/>
+    <n v="3176"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <s v="Friuli Venezia Giulia"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-23"/>
+    <n v="-3"/>
+    <n v="-26"/>
+    <n v="62"/>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="24"/>
+    <n v="5"/>
+    <n v="65"/>
+    <n v="1262"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <s v="Lazio"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="67"/>
+    <n v="83"/>
+    <n v="83"/>
+    <n v="83"/>
+    <n v="28"/>
+    <n v="6"/>
+    <n v="117"/>
+    <n v="6239"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <s v="Liguria"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="19"/>
+    <n v="-3"/>
+    <n v="16"/>
+    <n v="17"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="82"/>
+    <n v="34"/>
+    <n v="149"/>
+    <n v="942"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <s v="Lombardia"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="-114"/>
+    <n v="-48"/>
+    <n v="-162"/>
+    <n v="364"/>
+    <n v="202"/>
+    <n v="202"/>
+    <n v="202"/>
+    <n v="649"/>
+    <n v="238"/>
+    <n v="1089"/>
+    <n v="8226"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <s v="Marche"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="12"/>
+    <n v="-6"/>
+    <n v="6"/>
+    <n v="-182"/>
+    <n v="-176"/>
+    <n v="-176"/>
+    <n v="-176"/>
+    <n v="303"/>
+    <n v="22"/>
+    <n v="149"/>
+    <n v="913"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <s v="Molise"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="-5"/>
+    <n v="-1"/>
+    <n v="-6"/>
+    <n v="2"/>
+    <n v="-4"/>
+    <n v="-4"/>
+    <n v="-4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="421"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Bolzano"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="-57"/>
+    <n v="1"/>
+    <n v="-56"/>
+    <n v="36"/>
+    <n v="-20"/>
+    <n v="-20"/>
+    <n v="-20"/>
+    <n v="35"/>
+    <n v="9"/>
+    <n v="24"/>
+    <n v="1104"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <s v="P.A. Trento"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-6"/>
+    <n v="-1"/>
+    <n v="-7"/>
+    <n v="57"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="65"/>
+    <n v="11"/>
+    <n v="126"/>
+    <n v="1228"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <s v="Piemonte"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-60"/>
+    <n v="-9"/>
+    <n v="-69"/>
+    <n v="354"/>
+    <n v="285"/>
+    <n v="285"/>
+    <n v="285"/>
+    <n v="196"/>
+    <n v="59"/>
+    <n v="540"/>
+    <n v="4374"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <s v="Puglia"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="24"/>
+    <n v="-3"/>
+    <n v="21"/>
+    <n v="80"/>
+    <n v="101"/>
+    <n v="101"/>
+    <n v="101"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="120"/>
+    <n v="1344"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <s v="Sardegna"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="-10"/>
+    <n v="5"/>
+    <n v="-5"/>
+    <n v="24"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="40"/>
+    <n v="813"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <s v="Sicilia"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="1"/>
+    <n v="-8"/>
+    <n v="-7"/>
+    <n v="41"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="62"/>
+    <n v="2581"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <s v="Toscana"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-21"/>
+    <n v="-3"/>
+    <n v="-24"/>
+    <n v="154"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="53"/>
+    <n v="23"/>
+    <n v="206"/>
+    <n v="4334"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <s v="Umbria"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-2"/>
+    <n v="0"/>
+    <n v="-2"/>
+    <n v="-21"/>
+    <n v="-23"/>
+    <n v="-23"/>
+    <n v="-23"/>
+    <n v="48"/>
+    <n v="1"/>
+    <n v="26"/>
+    <n v="831"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <s v="Valle d'Aosta"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="15"/>
+    <n v="199"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <s v="Veneto"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-25"/>
+    <n v="-12"/>
+    <n v="-37"/>
+    <n v="243"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="238"/>
+    <n v="41"/>
+    <n v="485"/>
+    <n v="9705"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <x v="45"/>
     <m/>
     <m/>
     <m/>
@@ -31798,7 +32313,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="925">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="946">
   <r>
     <x v="0"/>
     <s v="ITA"/>
@@ -48433,6 +48948,384 @@
   </r>
   <r>
     <x v="44"/>
+    <s v="ITA"/>
+    <n v="13"/>
+    <x v="0"/>
+    <n v="4235122196"/>
+    <n v="1339843823"/>
+    <n v="-6"/>
+    <n v="-5"/>
+    <n v="-11"/>
+    <n v="54"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="43"/>
+    <n v="10"/>
+    <n v="7"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="17"/>
+    <x v="1"/>
+    <n v="4063947052"/>
+    <n v="1580514834"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="4"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="6"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="18"/>
+    <x v="2"/>
+    <n v="3890597598"/>
+    <n v="1659440194"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="2"/>
+    <n v="20"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="22"/>
+    <n v="4"/>
+    <n v="0"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="15"/>
+    <x v="3"/>
+    <n v="4083956555"/>
+    <n v="1425084984"/>
+    <n v="5"/>
+    <n v="-6"/>
+    <n v="-1"/>
+    <n v="95"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="94"/>
+    <n v="21"/>
+    <n v="5"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="8"/>
+    <x v="4"/>
+    <n v="4449436681"/>
+    <n v="113417208"/>
+    <n v="19"/>
+    <n v="-5"/>
+    <n v="14"/>
+    <n v="48"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="62"/>
+    <n v="293"/>
+    <n v="54"/>
+    <n v="409"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="6"/>
+    <x v="5"/>
+    <n v="456494354"/>
+    <n v="1376813649"/>
+    <n v="-23"/>
+    <n v="-3"/>
+    <n v="-26"/>
+    <n v="62"/>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="36"/>
+    <n v="24"/>
+    <n v="5"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="12"/>
+    <x v="6"/>
+    <n v="4189277044"/>
+    <n v="1248366722"/>
+    <n v="12"/>
+    <n v="4"/>
+    <n v="16"/>
+    <n v="67"/>
+    <n v="83"/>
+    <n v="83"/>
+    <n v="83"/>
+    <n v="28"/>
+    <n v="6"/>
+    <n v="117"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="7"/>
+    <x v="7"/>
+    <n v="4441149315"/>
+    <n v="89326992"/>
+    <n v="19"/>
+    <n v="-3"/>
+    <n v="16"/>
+    <n v="17"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="33"/>
+    <n v="82"/>
+    <n v="34"/>
+    <n v="149"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="3"/>
+    <x v="8"/>
+    <n v="4546679409"/>
+    <n v="9190347404"/>
+    <n v="-114"/>
+    <n v="-48"/>
+    <n v="-162"/>
+    <n v="364"/>
+    <n v="202"/>
+    <n v="202"/>
+    <n v="202"/>
+    <n v="649"/>
+    <n v="238"/>
+    <n v="1089"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="11"/>
+    <x v="9"/>
+    <n v="4361675973"/>
+    <n v="135188753"/>
+    <n v="12"/>
+    <n v="-6"/>
+    <n v="6"/>
+    <n v="-182"/>
+    <n v="-176"/>
+    <n v="-176"/>
+    <n v="-176"/>
+    <n v="303"/>
+    <n v="22"/>
+    <n v="149"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="14"/>
+    <x v="10"/>
+    <n v="4155774754"/>
+    <n v="1465916051"/>
+    <n v="-5"/>
+    <n v="-1"/>
+    <n v="-6"/>
+    <n v="2"/>
+    <n v="-4"/>
+    <n v="-4"/>
+    <n v="-4"/>
+    <n v="6"/>
+    <n v="0"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="11"/>
+    <n v="4649933453"/>
+    <n v="1135662422"/>
+    <n v="-57"/>
+    <n v="1"/>
+    <n v="-56"/>
+    <n v="36"/>
+    <n v="-20"/>
+    <n v="-20"/>
+    <n v="-20"/>
+    <n v="35"/>
+    <n v="9"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="4"/>
+    <x v="12"/>
+    <n v="4606893511"/>
+    <n v="1112123097"/>
+    <n v="-6"/>
+    <n v="-1"/>
+    <n v="-7"/>
+    <n v="57"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="50"/>
+    <n v="65"/>
+    <n v="11"/>
+    <n v="126"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="1"/>
+    <x v="13"/>
+    <n v="450732745"/>
+    <n v="7680687483"/>
+    <n v="-60"/>
+    <n v="-9"/>
+    <n v="-69"/>
+    <n v="354"/>
+    <n v="285"/>
+    <n v="285"/>
+    <n v="285"/>
+    <n v="196"/>
+    <n v="59"/>
+    <n v="540"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="16"/>
+    <x v="14"/>
+    <n v="4112559576"/>
+    <n v="1686736689"/>
+    <n v="24"/>
+    <n v="-3"/>
+    <n v="21"/>
+    <n v="80"/>
+    <n v="101"/>
+    <n v="101"/>
+    <n v="101"/>
+    <n v="9"/>
+    <n v="10"/>
+    <n v="120"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="20"/>
+    <x v="15"/>
+    <n v="3921531192"/>
+    <n v="9110616306"/>
+    <n v="-10"/>
+    <n v="5"/>
+    <n v="-5"/>
+    <n v="24"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="19"/>
+    <n v="14"/>
+    <n v="7"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="19"/>
+    <x v="16"/>
+    <n v="3811569725"/>
+    <n v="133623567"/>
+    <n v="1"/>
+    <n v="-8"/>
+    <n v="-7"/>
+    <n v="41"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="34"/>
+    <n v="20"/>
+    <n v="8"/>
+    <n v="62"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="9"/>
+    <x v="17"/>
+    <n v="4376923077"/>
+    <n v="1125588885"/>
+    <n v="-21"/>
+    <n v="-3"/>
+    <n v="-24"/>
+    <n v="154"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="130"/>
+    <n v="53"/>
+    <n v="23"/>
+    <n v="206"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="10"/>
+    <x v="18"/>
+    <n v="4310675841"/>
+    <n v="1238824698"/>
+    <n v="-2"/>
+    <n v="0"/>
+    <n v="-2"/>
+    <n v="-21"/>
+    <n v="-23"/>
+    <n v="-23"/>
+    <n v="-23"/>
+    <n v="48"/>
+    <n v="1"/>
+    <n v="26"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="2"/>
+    <x v="19"/>
+    <n v="4573750286"/>
+    <n v="7320149366"/>
+    <n v="2"/>
+    <n v="3"/>
+    <n v="5"/>
+    <n v="8"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="13"/>
+    <n v="0"/>
+    <n v="2"/>
+    <n v="15"/>
+  </r>
+  <r>
+    <x v="44"/>
+    <s v="ITA"/>
+    <n v="5"/>
+    <x v="20"/>
+    <n v="4543490485"/>
+    <n v="1233845213"/>
+    <n v="-25"/>
+    <n v="-12"/>
+    <n v="-37"/>
+    <n v="243"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="206"/>
+    <n v="238"/>
+    <n v="41"/>
+    <n v="485"/>
+  </r>
+  <r>
+    <x v="45"/>
     <m/>
     <m/>
     <x v="21"/>
@@ -48454,11 +49347,11 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{53F37C25-1FA2-9C40-AA90-093082DB01E0}" name="PivotTable2" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:F49" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:F50" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="46">
-        <item x="44"/>
+      <items count="47">
+        <item x="45"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -48503,6 +49396,7 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48528,7 +49422,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="46">
+  <rowItems count="47">
     <i>
       <x/>
     </i>
@@ -48664,6 +49558,9 @@
     <i>
       <x v="44"/>
     </i>
+    <i>
+      <x v="45"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48756,10 +49653,10 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{24725105-5899-1244-AC32-4D54795B5BB9}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:C48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="B3:C49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0">
-      <items count="46">
+      <items count="47">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -48799,12 +49696,13 @@
         <item x="36"/>
         <item x="37"/>
         <item x="38"/>
-        <item h="1" x="44"/>
+        <item h="1" x="45"/>
         <item x="39"/>
         <item x="40"/>
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
+        <item x="44"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -48830,7 +49728,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -48963,6 +49861,9 @@
     <i>
       <x v="44"/>
     </i>
+    <i>
+      <x v="45"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -48997,71 +49898,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{BE873FDE-9656-5D4E-9C8B-6B6A6278D466}" name="PivotTable1" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A3:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="76">
+      <items count="77">
         <item x="0"/>
+        <item m="1" x="65"/>
+        <item x="1"/>
+        <item m="1" x="48"/>
+        <item x="2"/>
+        <item m="1" x="60"/>
+        <item x="3"/>
+        <item m="1" x="74"/>
+        <item x="4"/>
+        <item m="1" x="56"/>
+        <item x="5"/>
+        <item m="1" x="69"/>
+        <item x="6"/>
+        <item m="1" x="71"/>
+        <item x="7"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="66"/>
+        <item x="9"/>
+        <item m="1" x="49"/>
+        <item x="10"/>
+        <item m="1" x="61"/>
+        <item x="11"/>
+        <item m="1" x="75"/>
+        <item x="12"/>
+        <item m="1" x="57"/>
+        <item x="13"/>
+        <item m="1" x="70"/>
+        <item x="14"/>
+        <item m="1" x="52"/>
+        <item x="15"/>
         <item m="1" x="64"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="47"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="59"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="73"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="55"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="68"/>
-        <item x="6"/>
-        <item m="1" x="70"/>
-        <item x="7"/>
-        <item m="1" x="52"/>
-        <item x="8"/>
-        <item m="1" x="65"/>
-        <item x="9"/>
-        <item m="1" x="48"/>
-        <item x="10"/>
-        <item m="1" x="60"/>
-        <item x="11"/>
-        <item m="1" x="74"/>
-        <item x="12"/>
-        <item m="1" x="56"/>
-        <item x="13"/>
-        <item m="1" x="69"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="51"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="63"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="46"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="58"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="72"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="54"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="67"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="50"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="62"/>
-        <item x="23"/>
-        <item m="1" x="45"/>
-        <item x="24"/>
-        <item m="1" x="57"/>
-        <item x="25"/>
-        <item m="1" x="71"/>
-        <item x="26"/>
-        <item m="1" x="53"/>
-        <item x="27"/>
-        <item m="1" x="66"/>
-        <item x="28"/>
-        <item m="1" x="49"/>
-        <item x="29"/>
-        <item m="1" x="61"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -49076,7 +49977,8 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item h="1" x="44"/>
+        <item x="44"/>
+        <item h="1" x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49126,7 +50028,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -49259,6 +50161,9 @@
     <i>
       <x v="73"/>
     </i>
+    <i>
+      <x v="74"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -49305,71 +50210,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
-  <location ref="A6:B51" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FAF421D0-21E7-A542-97BC-5EDA23549AB9}" name="PivotTable4" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+  <location ref="A6:B52" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="76">
+      <items count="77">
         <item x="0"/>
+        <item m="1" x="65"/>
+        <item x="1"/>
+        <item m="1" x="48"/>
+        <item x="2"/>
+        <item m="1" x="60"/>
+        <item x="3"/>
+        <item m="1" x="74"/>
+        <item x="4"/>
+        <item m="1" x="56"/>
+        <item x="5"/>
+        <item m="1" x="69"/>
+        <item x="6"/>
+        <item m="1" x="71"/>
+        <item x="7"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="66"/>
+        <item x="9"/>
+        <item m="1" x="49"/>
+        <item x="10"/>
+        <item m="1" x="61"/>
+        <item x="11"/>
+        <item m="1" x="75"/>
+        <item x="12"/>
+        <item m="1" x="57"/>
+        <item x="13"/>
+        <item m="1" x="70"/>
+        <item x="14"/>
+        <item m="1" x="52"/>
+        <item x="15"/>
         <item m="1" x="64"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="47"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="59"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="73"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="55"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="68"/>
-        <item x="6"/>
-        <item m="1" x="70"/>
-        <item x="7"/>
-        <item m="1" x="52"/>
-        <item x="8"/>
-        <item m="1" x="65"/>
-        <item x="9"/>
-        <item m="1" x="48"/>
-        <item x="10"/>
-        <item m="1" x="60"/>
-        <item x="11"/>
-        <item m="1" x="74"/>
-        <item x="12"/>
-        <item m="1" x="56"/>
-        <item x="13"/>
-        <item m="1" x="69"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="51"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="63"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="46"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="58"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="72"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="54"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="67"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="50"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="62"/>
-        <item x="23"/>
-        <item m="1" x="45"/>
-        <item x="24"/>
-        <item m="1" x="57"/>
-        <item x="25"/>
-        <item m="1" x="71"/>
-        <item x="26"/>
-        <item m="1" x="53"/>
-        <item x="27"/>
-        <item m="1" x="66"/>
-        <item x="28"/>
-        <item m="1" x="49"/>
-        <item x="29"/>
-        <item m="1" x="61"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -49384,7 +50289,8 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item h="1" x="44"/>
+        <item x="44"/>
+        <item h="1" x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49434,7 +50340,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -49567,6 +50473,9 @@
     <i>
       <x v="73"/>
     </i>
+    <i>
+      <x v="74"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -49622,71 +50531,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
-  <location ref="A4:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{242DEDD0-9F27-544E-A41E-6B7E22C61005}" name="PivotTable2" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="A4:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="76">
+      <items count="77">
         <item x="0"/>
+        <item m="1" x="65"/>
+        <item x="1"/>
+        <item m="1" x="48"/>
+        <item x="2"/>
+        <item m="1" x="60"/>
+        <item x="3"/>
+        <item m="1" x="74"/>
+        <item x="4"/>
+        <item m="1" x="56"/>
+        <item x="5"/>
+        <item m="1" x="69"/>
+        <item x="6"/>
+        <item m="1" x="71"/>
+        <item x="7"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="66"/>
+        <item x="9"/>
+        <item m="1" x="49"/>
+        <item x="10"/>
+        <item m="1" x="61"/>
+        <item x="11"/>
+        <item m="1" x="75"/>
+        <item x="12"/>
+        <item m="1" x="57"/>
+        <item x="13"/>
+        <item m="1" x="70"/>
+        <item x="14"/>
+        <item m="1" x="52"/>
+        <item x="15"/>
         <item m="1" x="64"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="47"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="59"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="73"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="55"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="68"/>
-        <item x="6"/>
-        <item m="1" x="70"/>
-        <item x="7"/>
-        <item m="1" x="52"/>
-        <item x="8"/>
-        <item m="1" x="65"/>
-        <item x="9"/>
-        <item m="1" x="48"/>
-        <item x="10"/>
-        <item m="1" x="60"/>
-        <item x="11"/>
-        <item m="1" x="74"/>
-        <item x="12"/>
-        <item m="1" x="56"/>
-        <item x="13"/>
-        <item m="1" x="69"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="51"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="63"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="46"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="58"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="72"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="54"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="67"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="50"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="62"/>
-        <item x="23"/>
-        <item m="1" x="45"/>
-        <item x="24"/>
-        <item m="1" x="57"/>
-        <item x="25"/>
-        <item m="1" x="71"/>
-        <item x="26"/>
-        <item m="1" x="53"/>
-        <item x="27"/>
-        <item m="1" x="66"/>
-        <item x="28"/>
-        <item m="1" x="49"/>
-        <item x="29"/>
-        <item m="1" x="61"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -49701,7 +50610,8 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item h="1" x="44"/>
+        <item x="44"/>
+        <item h="1" x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -49751,7 +50661,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -49884,6 +50794,9 @@
     <i>
       <x v="73"/>
     </i>
+    <i>
+      <x v="74"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -49948,71 +50861,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
-  <location ref="A4:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6A21609B-6C74-A643-A27D-BFE60C711D17}" name="PivotTable3" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9">
+  <location ref="A4:B50" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="76">
+      <items count="77">
         <item x="0"/>
+        <item m="1" x="65"/>
+        <item x="1"/>
+        <item m="1" x="48"/>
+        <item x="2"/>
+        <item m="1" x="60"/>
+        <item x="3"/>
+        <item m="1" x="74"/>
+        <item x="4"/>
+        <item m="1" x="56"/>
+        <item x="5"/>
+        <item m="1" x="69"/>
+        <item x="6"/>
+        <item m="1" x="71"/>
+        <item x="7"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="66"/>
+        <item x="9"/>
+        <item m="1" x="49"/>
+        <item x="10"/>
+        <item m="1" x="61"/>
+        <item x="11"/>
+        <item m="1" x="75"/>
+        <item x="12"/>
+        <item m="1" x="57"/>
+        <item x="13"/>
+        <item m="1" x="70"/>
+        <item x="14"/>
+        <item m="1" x="52"/>
+        <item x="15"/>
         <item m="1" x="64"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="47"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="59"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="73"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="55"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="68"/>
-        <item x="6"/>
-        <item m="1" x="70"/>
-        <item x="7"/>
-        <item m="1" x="52"/>
-        <item x="8"/>
-        <item m="1" x="65"/>
-        <item x="9"/>
-        <item m="1" x="48"/>
-        <item x="10"/>
-        <item m="1" x="60"/>
-        <item x="11"/>
-        <item m="1" x="74"/>
-        <item x="12"/>
-        <item m="1" x="56"/>
-        <item x="13"/>
-        <item m="1" x="69"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="51"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="63"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="46"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="58"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="72"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="54"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="67"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="50"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="62"/>
-        <item x="23"/>
-        <item m="1" x="45"/>
-        <item x="24"/>
-        <item m="1" x="57"/>
-        <item x="25"/>
-        <item m="1" x="71"/>
-        <item x="26"/>
-        <item m="1" x="53"/>
-        <item x="27"/>
-        <item m="1" x="66"/>
-        <item x="28"/>
-        <item m="1" x="49"/>
-        <item x="29"/>
-        <item m="1" x="61"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -50027,7 +50940,8 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item h="1" x="44"/>
+        <item x="44"/>
+        <item h="1" x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -50077,7 +50991,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -50210,6 +51124,9 @@
     <i>
       <x v="73"/>
     </i>
+    <i>
+      <x v="74"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -50283,71 +51200,71 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
-  <location ref="A3:B48" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{134C4A74-E7B0-7948-8DC5-EB9D68C5E041}" name="PivotTable5" cacheId="23" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+  <location ref="A3:B49" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" numFmtId="22" showAll="0" sortType="ascending">
-      <items count="76">
+      <items count="77">
         <item x="0"/>
+        <item m="1" x="65"/>
+        <item x="1"/>
+        <item m="1" x="48"/>
+        <item x="2"/>
+        <item m="1" x="60"/>
+        <item x="3"/>
+        <item m="1" x="74"/>
+        <item x="4"/>
+        <item m="1" x="56"/>
+        <item x="5"/>
+        <item m="1" x="69"/>
+        <item x="6"/>
+        <item m="1" x="71"/>
+        <item x="7"/>
+        <item m="1" x="53"/>
+        <item x="8"/>
+        <item m="1" x="66"/>
+        <item x="9"/>
+        <item m="1" x="49"/>
+        <item x="10"/>
+        <item m="1" x="61"/>
+        <item x="11"/>
+        <item m="1" x="75"/>
+        <item x="12"/>
+        <item m="1" x="57"/>
+        <item x="13"/>
+        <item m="1" x="70"/>
+        <item x="14"/>
+        <item m="1" x="52"/>
+        <item x="15"/>
         <item m="1" x="64"/>
-        <item x="1"/>
+        <item x="16"/>
         <item m="1" x="47"/>
-        <item x="2"/>
+        <item x="17"/>
         <item m="1" x="59"/>
-        <item x="3"/>
+        <item x="18"/>
         <item m="1" x="73"/>
-        <item x="4"/>
+        <item x="19"/>
         <item m="1" x="55"/>
-        <item x="5"/>
+        <item x="20"/>
         <item m="1" x="68"/>
-        <item x="6"/>
-        <item m="1" x="70"/>
-        <item x="7"/>
-        <item m="1" x="52"/>
-        <item x="8"/>
-        <item m="1" x="65"/>
-        <item x="9"/>
-        <item m="1" x="48"/>
-        <item x="10"/>
-        <item m="1" x="60"/>
-        <item x="11"/>
-        <item m="1" x="74"/>
-        <item x="12"/>
-        <item m="1" x="56"/>
-        <item x="13"/>
-        <item m="1" x="69"/>
-        <item x="14"/>
+        <item x="21"/>
         <item m="1" x="51"/>
-        <item x="15"/>
+        <item x="22"/>
         <item m="1" x="63"/>
-        <item x="16"/>
+        <item x="23"/>
         <item m="1" x="46"/>
-        <item x="17"/>
+        <item x="24"/>
         <item m="1" x="58"/>
-        <item x="18"/>
+        <item x="25"/>
         <item m="1" x="72"/>
-        <item x="19"/>
+        <item x="26"/>
         <item m="1" x="54"/>
-        <item x="20"/>
+        <item x="27"/>
         <item m="1" x="67"/>
-        <item x="21"/>
+        <item x="28"/>
         <item m="1" x="50"/>
-        <item x="22"/>
+        <item x="29"/>
         <item m="1" x="62"/>
-        <item x="23"/>
-        <item m="1" x="45"/>
-        <item x="24"/>
-        <item m="1" x="57"/>
-        <item x="25"/>
-        <item m="1" x="71"/>
-        <item x="26"/>
-        <item m="1" x="53"/>
-        <item x="27"/>
-        <item m="1" x="66"/>
-        <item x="28"/>
-        <item m="1" x="49"/>
-        <item x="29"/>
-        <item m="1" x="61"/>
         <item x="30"/>
         <item x="31"/>
         <item x="32"/>
@@ -50362,7 +51279,8 @@
         <item x="41"/>
         <item x="42"/>
         <item x="43"/>
-        <item h="1" x="44"/>
+        <item x="44"/>
+        <item h="1" x="45"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -50412,7 +51330,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="45">
+  <rowItems count="46">
     <i>
       <x/>
     </i>
@@ -50544,6 +51462,9 @@
     </i>
     <i>
       <x v="73"/>
+    </i>
+    <i>
+      <x v="74"/>
     </i>
     <i t="grand">
       <x/>
@@ -50923,10 +51844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:S925"/>
+  <dimension ref="A1:S946"/>
   <sheetViews>
-    <sheetView topLeftCell="A881" workbookViewId="0">
-      <selection activeCell="A905" sqref="A905:Q925"/>
+    <sheetView topLeftCell="A899" workbookViewId="0">
+      <selection activeCell="A926" sqref="A926:Q946"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -99965,6 +100886,1119 @@
         <v>7254</v>
       </c>
     </row>
+    <row r="926" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A926" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B926" t="s">
+        <v>14</v>
+      </c>
+      <c r="C926">
+        <v>13</v>
+      </c>
+      <c r="D926" t="s">
+        <v>15</v>
+      </c>
+      <c r="E926" s="1">
+        <v>4235122196</v>
+      </c>
+      <c r="F926" s="1">
+        <v>1339843823</v>
+      </c>
+      <c r="G926">
+        <v>-6</v>
+      </c>
+      <c r="H926">
+        <v>-5</v>
+      </c>
+      <c r="I926">
+        <v>-11</v>
+      </c>
+      <c r="J926">
+        <v>54</v>
+      </c>
+      <c r="K926">
+        <v>43</v>
+      </c>
+      <c r="L926">
+        <v>43</v>
+      </c>
+      <c r="M926">
+        <v>43</v>
+      </c>
+      <c r="N926">
+        <v>10</v>
+      </c>
+      <c r="O926">
+        <v>7</v>
+      </c>
+      <c r="P926">
+        <v>60</v>
+      </c>
+      <c r="Q926">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="927" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A927" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B927" t="s">
+        <v>14</v>
+      </c>
+      <c r="C927">
+        <v>17</v>
+      </c>
+      <c r="D927" t="s">
+        <v>16</v>
+      </c>
+      <c r="E927" s="1">
+        <v>4063947052</v>
+      </c>
+      <c r="F927" s="1">
+        <v>1580514834</v>
+      </c>
+      <c r="G927">
+        <v>1</v>
+      </c>
+      <c r="H927">
+        <v>0</v>
+      </c>
+      <c r="I927">
+        <v>1</v>
+      </c>
+      <c r="J927">
+        <v>4</v>
+      </c>
+      <c r="K927">
+        <v>5</v>
+      </c>
+      <c r="L927">
+        <v>5</v>
+      </c>
+      <c r="M927">
+        <v>5</v>
+      </c>
+      <c r="N927">
+        <v>1</v>
+      </c>
+      <c r="O927">
+        <v>0</v>
+      </c>
+      <c r="P927">
+        <v>6</v>
+      </c>
+      <c r="Q927">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="928" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A928" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B928" t="s">
+        <v>14</v>
+      </c>
+      <c r="C928">
+        <v>18</v>
+      </c>
+      <c r="D928" t="s">
+        <v>17</v>
+      </c>
+      <c r="E928" s="1">
+        <v>3890597598</v>
+      </c>
+      <c r="F928" s="1">
+        <v>1659440194</v>
+      </c>
+      <c r="G928">
+        <v>1</v>
+      </c>
+      <c r="H928">
+        <v>1</v>
+      </c>
+      <c r="I928">
+        <v>2</v>
+      </c>
+      <c r="J928">
+        <v>20</v>
+      </c>
+      <c r="K928">
+        <v>22</v>
+      </c>
+      <c r="L928">
+        <v>22</v>
+      </c>
+      <c r="M928">
+        <v>22</v>
+      </c>
+      <c r="N928">
+        <v>4</v>
+      </c>
+      <c r="O928">
+        <v>0</v>
+      </c>
+      <c r="P928">
+        <v>26</v>
+      </c>
+      <c r="Q928">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="929" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A929" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B929" t="s">
+        <v>14</v>
+      </c>
+      <c r="C929">
+        <v>15</v>
+      </c>
+      <c r="D929" t="s">
+        <v>18</v>
+      </c>
+      <c r="E929" s="1">
+        <v>4083956555</v>
+      </c>
+      <c r="F929" s="1">
+        <v>1425084984</v>
+      </c>
+      <c r="G929">
+        <v>5</v>
+      </c>
+      <c r="H929">
+        <v>-6</v>
+      </c>
+      <c r="I929">
+        <v>-1</v>
+      </c>
+      <c r="J929">
+        <v>95</v>
+      </c>
+      <c r="K929">
+        <v>94</v>
+      </c>
+      <c r="L929">
+        <v>94</v>
+      </c>
+      <c r="M929">
+        <v>94</v>
+      </c>
+      <c r="N929">
+        <v>21</v>
+      </c>
+      <c r="O929">
+        <v>5</v>
+      </c>
+      <c r="P929">
+        <v>120</v>
+      </c>
+      <c r="Q929">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="930" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A930" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B930" t="s">
+        <v>14</v>
+      </c>
+      <c r="C930">
+        <v>8</v>
+      </c>
+      <c r="D930" t="s">
+        <v>46</v>
+      </c>
+      <c r="E930" s="1">
+        <v>4449436681</v>
+      </c>
+      <c r="F930" s="1">
+        <v>113417208</v>
+      </c>
+      <c r="G930">
+        <v>19</v>
+      </c>
+      <c r="H930">
+        <v>-5</v>
+      </c>
+      <c r="I930">
+        <v>14</v>
+      </c>
+      <c r="J930">
+        <v>48</v>
+      </c>
+      <c r="K930">
+        <v>62</v>
+      </c>
+      <c r="L930">
+        <v>62</v>
+      </c>
+      <c r="M930">
+        <v>62</v>
+      </c>
+      <c r="N930">
+        <v>293</v>
+      </c>
+      <c r="O930">
+        <v>54</v>
+      </c>
+      <c r="P930">
+        <v>409</v>
+      </c>
+      <c r="Q930">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="931" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A931" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B931" t="s">
+        <v>14</v>
+      </c>
+      <c r="C931">
+        <v>6</v>
+      </c>
+      <c r="D931" t="s">
+        <v>19</v>
+      </c>
+      <c r="E931" s="1">
+        <v>456494354</v>
+      </c>
+      <c r="F931" s="1">
+        <v>1376813649</v>
+      </c>
+      <c r="G931">
+        <v>-23</v>
+      </c>
+      <c r="H931">
+        <v>-3</v>
+      </c>
+      <c r="I931">
+        <v>-26</v>
+      </c>
+      <c r="J931">
+        <v>62</v>
+      </c>
+      <c r="K931">
+        <v>36</v>
+      </c>
+      <c r="L931">
+        <v>36</v>
+      </c>
+      <c r="M931">
+        <v>36</v>
+      </c>
+      <c r="N931">
+        <v>24</v>
+      </c>
+      <c r="O931">
+        <v>5</v>
+      </c>
+      <c r="P931">
+        <v>65</v>
+      </c>
+      <c r="Q931">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="932" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A932" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B932" t="s">
+        <v>14</v>
+      </c>
+      <c r="C932">
+        <v>12</v>
+      </c>
+      <c r="D932" t="s">
+        <v>20</v>
+      </c>
+      <c r="E932" s="1">
+        <v>4189277044</v>
+      </c>
+      <c r="F932" s="1">
+        <v>1248366722</v>
+      </c>
+      <c r="G932">
+        <v>12</v>
+      </c>
+      <c r="H932">
+        <v>4</v>
+      </c>
+      <c r="I932">
+        <v>16</v>
+      </c>
+      <c r="J932">
+        <v>67</v>
+      </c>
+      <c r="K932">
+        <v>83</v>
+      </c>
+      <c r="L932">
+        <v>83</v>
+      </c>
+      <c r="M932">
+        <v>83</v>
+      </c>
+      <c r="N932">
+        <v>28</v>
+      </c>
+      <c r="O932">
+        <v>6</v>
+      </c>
+      <c r="P932">
+        <v>117</v>
+      </c>
+      <c r="Q932">
+        <v>6239</v>
+      </c>
+    </row>
+    <row r="933" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A933" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B933" t="s">
+        <v>14</v>
+      </c>
+      <c r="C933">
+        <v>7</v>
+      </c>
+      <c r="D933" t="s">
+        <v>21</v>
+      </c>
+      <c r="E933" s="1">
+        <v>4441149315</v>
+      </c>
+      <c r="F933" s="1">
+        <v>89326992</v>
+      </c>
+      <c r="G933">
+        <v>19</v>
+      </c>
+      <c r="H933">
+        <v>-3</v>
+      </c>
+      <c r="I933">
+        <v>16</v>
+      </c>
+      <c r="J933">
+        <v>17</v>
+      </c>
+      <c r="K933">
+        <v>33</v>
+      </c>
+      <c r="L933">
+        <v>33</v>
+      </c>
+      <c r="M933">
+        <v>33</v>
+      </c>
+      <c r="N933">
+        <v>82</v>
+      </c>
+      <c r="O933">
+        <v>34</v>
+      </c>
+      <c r="P933">
+        <v>149</v>
+      </c>
+      <c r="Q933">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="934" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A934" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B934" t="s">
+        <v>14</v>
+      </c>
+      <c r="C934">
+        <v>3</v>
+      </c>
+      <c r="D934" t="s">
+        <v>22</v>
+      </c>
+      <c r="E934" s="1">
+        <v>4546679409</v>
+      </c>
+      <c r="F934" s="1">
+        <v>9190347404</v>
+      </c>
+      <c r="G934">
+        <v>-114</v>
+      </c>
+      <c r="H934">
+        <v>-48</v>
+      </c>
+      <c r="I934">
+        <v>-162</v>
+      </c>
+      <c r="J934">
+        <v>364</v>
+      </c>
+      <c r="K934">
+        <v>202</v>
+      </c>
+      <c r="L934">
+        <v>202</v>
+      </c>
+      <c r="M934">
+        <v>202</v>
+      </c>
+      <c r="N934">
+        <v>649</v>
+      </c>
+      <c r="O934">
+        <v>238</v>
+      </c>
+      <c r="P934">
+        <v>1089</v>
+      </c>
+      <c r="Q934">
+        <v>8226</v>
+      </c>
+    </row>
+    <row r="935" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A935" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B935" t="s">
+        <v>14</v>
+      </c>
+      <c r="C935">
+        <v>11</v>
+      </c>
+      <c r="D935" t="s">
+        <v>23</v>
+      </c>
+      <c r="E935" s="1">
+        <v>4361675973</v>
+      </c>
+      <c r="F935" s="1">
+        <v>135188753</v>
+      </c>
+      <c r="G935">
+        <v>12</v>
+      </c>
+      <c r="H935">
+        <v>-6</v>
+      </c>
+      <c r="I935">
+        <v>6</v>
+      </c>
+      <c r="J935">
+        <v>-182</v>
+      </c>
+      <c r="K935">
+        <v>-176</v>
+      </c>
+      <c r="L935">
+        <v>-176</v>
+      </c>
+      <c r="M935">
+        <v>-176</v>
+      </c>
+      <c r="N935">
+        <v>303</v>
+      </c>
+      <c r="O935">
+        <v>22</v>
+      </c>
+      <c r="P935">
+        <v>149</v>
+      </c>
+      <c r="Q935">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="936" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A936" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B936" t="s">
+        <v>14</v>
+      </c>
+      <c r="C936">
+        <v>14</v>
+      </c>
+      <c r="D936" t="s">
+        <v>24</v>
+      </c>
+      <c r="E936" s="1">
+        <v>4155774754</v>
+      </c>
+      <c r="F936" s="1">
+        <v>1465916051</v>
+      </c>
+      <c r="G936">
+        <v>-5</v>
+      </c>
+      <c r="H936">
+        <v>-1</v>
+      </c>
+      <c r="I936">
+        <v>-6</v>
+      </c>
+      <c r="J936">
+        <v>2</v>
+      </c>
+      <c r="K936">
+        <v>-4</v>
+      </c>
+      <c r="L936">
+        <v>-4</v>
+      </c>
+      <c r="M936">
+        <v>-4</v>
+      </c>
+      <c r="N936">
+        <v>6</v>
+      </c>
+      <c r="O936">
+        <v>0</v>
+      </c>
+      <c r="P936">
+        <v>2</v>
+      </c>
+      <c r="Q936">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="937" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A937" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B937" t="s">
+        <v>14</v>
+      </c>
+      <c r="C937">
+        <v>4</v>
+      </c>
+      <c r="D937" t="s">
+        <v>25</v>
+      </c>
+      <c r="E937" s="1">
+        <v>4649933453</v>
+      </c>
+      <c r="F937" s="1">
+        <v>1135662422</v>
+      </c>
+      <c r="G937">
+        <v>-57</v>
+      </c>
+      <c r="H937">
+        <v>1</v>
+      </c>
+      <c r="I937">
+        <v>-56</v>
+      </c>
+      <c r="J937">
+        <v>36</v>
+      </c>
+      <c r="K937">
+        <v>-20</v>
+      </c>
+      <c r="L937">
+        <v>-20</v>
+      </c>
+      <c r="M937">
+        <v>-20</v>
+      </c>
+      <c r="N937">
+        <v>35</v>
+      </c>
+      <c r="O937">
+        <v>9</v>
+      </c>
+      <c r="P937">
+        <v>24</v>
+      </c>
+      <c r="Q937">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="938" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A938" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B938" t="s">
+        <v>14</v>
+      </c>
+      <c r="C938">
+        <v>4</v>
+      </c>
+      <c r="D938" t="s">
+        <v>26</v>
+      </c>
+      <c r="E938" s="1">
+        <v>4606893511</v>
+      </c>
+      <c r="F938" s="1">
+        <v>1112123097</v>
+      </c>
+      <c r="G938">
+        <v>-6</v>
+      </c>
+      <c r="H938">
+        <v>-1</v>
+      </c>
+      <c r="I938">
+        <v>-7</v>
+      </c>
+      <c r="J938">
+        <v>57</v>
+      </c>
+      <c r="K938">
+        <v>50</v>
+      </c>
+      <c r="L938">
+        <v>50</v>
+      </c>
+      <c r="M938">
+        <v>50</v>
+      </c>
+      <c r="N938">
+        <v>65</v>
+      </c>
+      <c r="O938">
+        <v>11</v>
+      </c>
+      <c r="P938">
+        <v>126</v>
+      </c>
+      <c r="Q938">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="939" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A939" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B939" t="s">
+        <v>14</v>
+      </c>
+      <c r="C939">
+        <v>1</v>
+      </c>
+      <c r="D939" t="s">
+        <v>27</v>
+      </c>
+      <c r="E939" s="1">
+        <v>450732745</v>
+      </c>
+      <c r="F939" s="1">
+        <v>7680687483</v>
+      </c>
+      <c r="G939">
+        <v>-60</v>
+      </c>
+      <c r="H939">
+        <v>-9</v>
+      </c>
+      <c r="I939">
+        <v>-69</v>
+      </c>
+      <c r="J939">
+        <v>354</v>
+      </c>
+      <c r="K939">
+        <v>285</v>
+      </c>
+      <c r="L939">
+        <v>285</v>
+      </c>
+      <c r="M939">
+        <v>285</v>
+      </c>
+      <c r="N939">
+        <v>196</v>
+      </c>
+      <c r="O939">
+        <v>59</v>
+      </c>
+      <c r="P939">
+        <v>540</v>
+      </c>
+      <c r="Q939">
+        <v>4374</v>
+      </c>
+    </row>
+    <row r="940" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A940" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B940" t="s">
+        <v>14</v>
+      </c>
+      <c r="C940">
+        <v>16</v>
+      </c>
+      <c r="D940" t="s">
+        <v>28</v>
+      </c>
+      <c r="E940" s="1">
+        <v>4112559576</v>
+      </c>
+      <c r="F940" s="1">
+        <v>1686736689</v>
+      </c>
+      <c r="G940">
+        <v>24</v>
+      </c>
+      <c r="H940">
+        <v>-3</v>
+      </c>
+      <c r="I940">
+        <v>21</v>
+      </c>
+      <c r="J940">
+        <v>80</v>
+      </c>
+      <c r="K940">
+        <v>101</v>
+      </c>
+      <c r="L940">
+        <v>101</v>
+      </c>
+      <c r="M940">
+        <v>101</v>
+      </c>
+      <c r="N940">
+        <v>9</v>
+      </c>
+      <c r="O940">
+        <v>10</v>
+      </c>
+      <c r="P940">
+        <v>120</v>
+      </c>
+      <c r="Q940">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="941" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A941" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B941" t="s">
+        <v>14</v>
+      </c>
+      <c r="C941">
+        <v>20</v>
+      </c>
+      <c r="D941" t="s">
+        <v>29</v>
+      </c>
+      <c r="E941" s="1">
+        <v>3921531192</v>
+      </c>
+      <c r="F941" s="1">
+        <v>9110616306</v>
+      </c>
+      <c r="G941">
+        <v>-10</v>
+      </c>
+      <c r="H941">
+        <v>5</v>
+      </c>
+      <c r="I941">
+        <v>-5</v>
+      </c>
+      <c r="J941">
+        <v>24</v>
+      </c>
+      <c r="K941">
+        <v>19</v>
+      </c>
+      <c r="L941">
+        <v>19</v>
+      </c>
+      <c r="M941">
+        <v>19</v>
+      </c>
+      <c r="N941">
+        <v>14</v>
+      </c>
+      <c r="O941">
+        <v>7</v>
+      </c>
+      <c r="P941">
+        <v>40</v>
+      </c>
+      <c r="Q941">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="942" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A942" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B942" t="s">
+        <v>14</v>
+      </c>
+      <c r="C942">
+        <v>19</v>
+      </c>
+      <c r="D942" t="s">
+        <v>30</v>
+      </c>
+      <c r="E942" s="1">
+        <v>3811569725</v>
+      </c>
+      <c r="F942" s="1">
+        <v>133623567</v>
+      </c>
+      <c r="G942">
+        <v>1</v>
+      </c>
+      <c r="H942">
+        <v>-8</v>
+      </c>
+      <c r="I942">
+        <v>-7</v>
+      </c>
+      <c r="J942">
+        <v>41</v>
+      </c>
+      <c r="K942">
+        <v>34</v>
+      </c>
+      <c r="L942">
+        <v>34</v>
+      </c>
+      <c r="M942">
+        <v>34</v>
+      </c>
+      <c r="N942">
+        <v>20</v>
+      </c>
+      <c r="O942">
+        <v>8</v>
+      </c>
+      <c r="P942">
+        <v>62</v>
+      </c>
+      <c r="Q942">
+        <v>2581</v>
+      </c>
+    </row>
+    <row r="943" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A943" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B943" t="s">
+        <v>14</v>
+      </c>
+      <c r="C943">
+        <v>9</v>
+      </c>
+      <c r="D943" t="s">
+        <v>31</v>
+      </c>
+      <c r="E943" s="1">
+        <v>4376923077</v>
+      </c>
+      <c r="F943" s="1">
+        <v>1125588885</v>
+      </c>
+      <c r="G943">
+        <v>-21</v>
+      </c>
+      <c r="H943">
+        <v>-3</v>
+      </c>
+      <c r="I943">
+        <v>-24</v>
+      </c>
+      <c r="J943">
+        <v>154</v>
+      </c>
+      <c r="K943">
+        <v>130</v>
+      </c>
+      <c r="L943">
+        <v>130</v>
+      </c>
+      <c r="M943">
+        <v>130</v>
+      </c>
+      <c r="N943">
+        <v>53</v>
+      </c>
+      <c r="O943">
+        <v>23</v>
+      </c>
+      <c r="P943">
+        <v>206</v>
+      </c>
+      <c r="Q943">
+        <v>4334</v>
+      </c>
+    </row>
+    <row r="944" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A944" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B944" t="s">
+        <v>14</v>
+      </c>
+      <c r="C944">
+        <v>10</v>
+      </c>
+      <c r="D944" t="s">
+        <v>32</v>
+      </c>
+      <c r="E944" s="1">
+        <v>4310675841</v>
+      </c>
+      <c r="F944" s="1">
+        <v>1238824698</v>
+      </c>
+      <c r="G944">
+        <v>-2</v>
+      </c>
+      <c r="H944">
+        <v>0</v>
+      </c>
+      <c r="I944">
+        <v>-2</v>
+      </c>
+      <c r="J944">
+        <v>-21</v>
+      </c>
+      <c r="K944">
+        <v>-23</v>
+      </c>
+      <c r="L944">
+        <v>-23</v>
+      </c>
+      <c r="M944">
+        <v>-23</v>
+      </c>
+      <c r="N944">
+        <v>48</v>
+      </c>
+      <c r="O944">
+        <v>1</v>
+      </c>
+      <c r="P944">
+        <v>26</v>
+      </c>
+      <c r="Q944">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="945" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A945" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B945" t="s">
+        <v>14</v>
+      </c>
+      <c r="C945">
+        <v>2</v>
+      </c>
+      <c r="D945" t="s">
+        <v>33</v>
+      </c>
+      <c r="E945" s="1">
+        <v>4573750286</v>
+      </c>
+      <c r="F945" s="1">
+        <v>7320149366</v>
+      </c>
+      <c r="G945">
+        <v>2</v>
+      </c>
+      <c r="H945">
+        <v>3</v>
+      </c>
+      <c r="I945">
+        <v>5</v>
+      </c>
+      <c r="J945">
+        <v>8</v>
+      </c>
+      <c r="K945">
+        <v>13</v>
+      </c>
+      <c r="L945">
+        <v>13</v>
+      </c>
+      <c r="M945">
+        <v>13</v>
+      </c>
+      <c r="N945">
+        <v>0</v>
+      </c>
+      <c r="O945">
+        <v>2</v>
+      </c>
+      <c r="P945">
+        <v>15</v>
+      </c>
+      <c r="Q945">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="946" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A946" s="6">
+        <v>43929</v>
+      </c>
+      <c r="B946" t="s">
+        <v>14</v>
+      </c>
+      <c r="C946">
+        <v>5</v>
+      </c>
+      <c r="D946" t="s">
+        <v>34</v>
+      </c>
+      <c r="E946" s="1">
+        <v>4543490485</v>
+      </c>
+      <c r="F946" s="1">
+        <v>1233845213</v>
+      </c>
+      <c r="G946">
+        <v>-25</v>
+      </c>
+      <c r="H946">
+        <v>-12</v>
+      </c>
+      <c r="I946">
+        <v>-37</v>
+      </c>
+      <c r="J946">
+        <v>243</v>
+      </c>
+      <c r="K946">
+        <v>206</v>
+      </c>
+      <c r="L946">
+        <v>206</v>
+      </c>
+      <c r="M946">
+        <v>206</v>
+      </c>
+      <c r="N946">
+        <v>238</v>
+      </c>
+      <c r="O946">
+        <v>41</v>
+      </c>
+      <c r="P946">
+        <v>485</v>
+      </c>
+      <c r="Q946">
+        <v>9705</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{FBAB6D88-DCD4-E841-8499-D0DE040246DB}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -99973,10 +102007,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:G49"/>
+  <dimension ref="A3:G50"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46:G48"/>
+    <sheetView topLeftCell="A50" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -101185,27 +103219,51 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>36</v>
+      <c r="A49" s="7">
+        <v>43929</v>
       </c>
       <c r="B49" s="4">
-        <v>17127</v>
+        <v>542</v>
       </c>
       <c r="C49" s="4">
-        <v>24392</v>
+        <v>2099</v>
       </c>
       <c r="D49" s="4">
-        <v>28718</v>
+        <v>-233</v>
       </c>
       <c r="E49" s="4">
-        <v>3792</v>
+        <v>-99</v>
       </c>
       <c r="F49" s="4">
-        <v>61557</v>
+        <v>1527</v>
       </c>
       <c r="G49">
         <f>SUM(B49:F49)</f>
-        <v>135586</v>
+        <v>3836</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="4">
+        <v>17669</v>
+      </c>
+      <c r="C50" s="4">
+        <v>26491</v>
+      </c>
+      <c r="D50" s="4">
+        <v>28485</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3693</v>
+      </c>
+      <c r="F50" s="4">
+        <v>63084</v>
+      </c>
+      <c r="G50">
+        <f>SUM(B50:F50)</f>
+        <v>139422</v>
       </c>
     </row>
   </sheetData>
@@ -101216,7 +103274,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1084B9-5FA0-CB4F-AF55-AA19481B2D01}">
-  <dimension ref="B3:C48"/>
+  <dimension ref="B3:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -101589,11 +103647,19 @@
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="7">
+        <v>43929</v>
+      </c>
+      <c r="C48" s="4">
+        <v>51680</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="4">
-        <v>755445</v>
+      <c r="C49" s="4">
+        <v>807125</v>
       </c>
     </row>
   </sheetData>
@@ -101604,10 +103670,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174DF35B-82F8-4040-86B7-4E06DF9709D1}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -102073,6 +104139,16 @@
       <c r="B47">
         <f>All!G48</f>
         <v>3039</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="6">
+        <f>All!A49</f>
+        <v>43929</v>
+      </c>
+      <c r="B48">
+        <f>All!G49</f>
+        <v>3836</v>
       </c>
     </row>
   </sheetData>
@@ -102083,7 +104159,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{466EA4BC-1A02-2C48-9C1A-B4E42B55C308}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -102469,11 +104545,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-233</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
-        <v>28718</v>
+      <c r="B49" s="4">
+        <v>28485</v>
       </c>
     </row>
   </sheetData>
@@ -102484,10 +104568,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B170A97C-2940-8443-8A43-E8680033D7D0}">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="S39" sqref="S39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -102882,11 +104966,19 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B51" s="4">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B51" s="4">
-        <v>24392</v>
+      <c r="B52" s="4">
+        <v>26491</v>
       </c>
     </row>
   </sheetData>
@@ -102897,9 +104989,9 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C63B9CE2-CE5E-7A44-8DA1-0BC3AA6EAFD2}">
-  <dimension ref="A2:B49"/>
+  <dimension ref="A2:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
@@ -103283,11 +105375,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B49" s="4">
+        <v>-99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="4">
-        <v>3792</v>
+      <c r="B50" s="4">
+        <v>3693</v>
       </c>
     </row>
   </sheetData>
@@ -103298,7 +105398,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526ED840-31C8-C944-ACBE-3042AB3F7F0D}">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
@@ -103688,11 +105788,19 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B49" s="4">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B49" s="4">
-        <v>61557</v>
+      <c r="B50" s="4">
+        <v>63084</v>
       </c>
     </row>
   </sheetData>
@@ -103703,7 +105811,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AB97951-60AB-7D40-8074-CCC2C979F0B4}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -104089,11 +106197,19 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="5">
+        <v>43929</v>
+      </c>
+      <c r="B48" s="4">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B48" s="4">
-        <v>17127</v>
+      <c r="B49" s="4">
+        <v>17669</v>
       </c>
     </row>
   </sheetData>
